--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC592"/>
+  <dimension ref="A1:AC591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3164050</v>
+        <v>3163456</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,22 +2313,22 @@
         <v>44234.5</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="L21">
         <v>4.75</v>
@@ -2337,49 +2337,49 @@
         <v>6</v>
       </c>
       <c r="N21">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P21">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
         <v>1.975</v>
       </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X21">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3163456</v>
+        <v>3164051</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,10 +2402,10 @@
         <v>44234.5</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -2417,43 +2417,43 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>8</v>
+        <v>2.35</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V22">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>0.363</v>
+        <v>1.8</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2462,13 +2462,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2479,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3164051</v>
+        <v>3164050</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2491,73 +2491,73 @@
         <v>44234.5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M23">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N23">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P23">
-        <v>2.35</v>
+        <v>5.25</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3204577</v>
+        <v>3204578</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3292,76 +3292,76 @@
         <v>44244.59375</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N32">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3204578</v>
+        <v>3204577</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,76 +3381,76 @@
         <v>44244.59375</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N33">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O33">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X33">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>1.025</v>
+      </c>
+      <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
         <v>0</v>
       </c>
-      <c r="AA33">
+      <c r="AC33">
         <v>-0</v>
-      </c>
-      <c r="AB33">
-        <v>-0.5</v>
-      </c>
-      <c r="AC33">
-        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3324635</v>
+        <v>3324637</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,76 +7653,76 @@
         <v>44307.64583333334</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L81">
+        <v>3.3</v>
+      </c>
+      <c r="M81">
+        <v>2.8</v>
+      </c>
+      <c r="N81">
+        <v>2.45</v>
+      </c>
+      <c r="O81">
         <v>3.4</v>
       </c>
-      <c r="M81">
-        <v>2.25</v>
-      </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>3.8</v>
-      </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R81">
+        <v>1.825</v>
+      </c>
+      <c r="S81">
+        <v>2.025</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
         <v>1.925</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.925</v>
       </c>
-      <c r="T81">
-        <v>2.75</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X81">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
+        <v>0.825</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.925</v>
-      </c>
-      <c r="AA81">
-        <v>-1</v>
-      </c>
-      <c r="AB81">
-        <v>-1</v>
-      </c>
-      <c r="AC81">
-        <v>0.95</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3324637</v>
+        <v>3324635</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,67 +7742,67 @@
         <v>44307.64583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
+        <v>2.25</v>
+      </c>
+      <c r="N82">
+        <v>3.6</v>
+      </c>
+      <c r="O82">
+        <v>3.8</v>
+      </c>
+      <c r="P82">
+        <v>1.85</v>
+      </c>
+      <c r="Q82">
+        <v>0.5</v>
+      </c>
+      <c r="R82">
+        <v>1.925</v>
+      </c>
+      <c r="S82">
+        <v>1.925</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
+        <v>1.9</v>
+      </c>
+      <c r="V82">
+        <v>1.95</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>2.8</v>
       </c>
-      <c r="N82">
-        <v>2.45</v>
-      </c>
-      <c r="O82">
-        <v>3.4</v>
-      </c>
-      <c r="P82">
-        <v>2.75</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>1.825</v>
-      </c>
-      <c r="S82">
-        <v>2.025</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.925</v>
-      </c>
-      <c r="V82">
-        <v>1.925</v>
-      </c>
-      <c r="W82">
-        <v>1.45</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA82">
         <v>-1</v>
@@ -7811,7 +7811,7 @@
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -9777,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>3324651</v>
+        <v>3324652</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9789,55 +9789,55 @@
         <v>44331.64583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L105">
         <v>3.4</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N105">
         <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
         <v>1.15</v>
@@ -9849,13 +9849,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>3324650</v>
+        <v>3324651</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,58 +9878,58 @@
         <v>44331.64583333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>45</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N106">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9938,13 +9938,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9955,7 +9955,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>3324653</v>
+        <v>3324650</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9967,73 +9967,73 @@
         <v>44331.64583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N107">
+        <v>1.666</v>
+      </c>
+      <c r="O107">
+        <v>3.75</v>
+      </c>
+      <c r="P107">
+        <v>4.75</v>
+      </c>
+      <c r="Q107">
+        <v>-0.75</v>
+      </c>
+      <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
         <v>3.25</v>
       </c>
-      <c r="O107">
-        <v>3.5</v>
-      </c>
-      <c r="P107">
-        <v>2</v>
-      </c>
-      <c r="Q107">
-        <v>0.25</v>
-      </c>
-      <c r="R107">
+      <c r="U107">
         <v>2.025</v>
       </c>
-      <c r="S107">
+      <c r="V107">
         <v>1.825</v>
       </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>1.875</v>
-      </c>
-      <c r="V107">
-        <v>1.975</v>
-      </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10044,7 +10044,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3324652</v>
+        <v>3324653</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10056,73 +10056,73 @@
         <v>44331.64583333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L108">
         <v>3.4</v>
       </c>
       <c r="M108">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N108">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="O108">
         <v>3.5</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>3324669</v>
+        <v>3324654</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,56 +10234,56 @@
         <v>44337.64583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
         <v>44</v>
       </c>
       <c r="K110">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L110">
         <v>3.6</v>
       </c>
       <c r="M110">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="N110">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="O110">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="P110">
-        <v>1.7</v>
+        <v>7</v>
       </c>
       <c r="Q110">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R110">
+        <v>1.925</v>
+      </c>
+      <c r="S110">
+        <v>1.925</v>
+      </c>
+      <c r="T110">
+        <v>4</v>
+      </c>
+      <c r="U110">
+        <v>1.975</v>
+      </c>
+      <c r="V110">
         <v>1.875</v>
       </c>
-      <c r="S110">
-        <v>1.975</v>
-      </c>
-      <c r="T110">
-        <v>3.5</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
-      <c r="V110">
-        <v>1.975</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
@@ -10291,19 +10291,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.875</v>
-      </c>
-      <c r="AC110">
-        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>3324656</v>
+        <v>3324669</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,73 +10323,73 @@
         <v>44337.64583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
         <v>4</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="L111">
         <v>3.6</v>
       </c>
       <c r="M111">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="O111">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P111">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R111">
+        <v>1.875</v>
+      </c>
+      <c r="S111">
         <v>1.975</v>
       </c>
-      <c r="S111">
+      <c r="T111">
+        <v>3.5</v>
+      </c>
+      <c r="U111">
         <v>1.875</v>
       </c>
-      <c r="T111">
-        <v>3</v>
-      </c>
-      <c r="U111">
-        <v>2.025</v>
-      </c>
       <c r="V111">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3324655</v>
+        <v>3324656</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>44337.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N112">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O112">
         <v>3.8</v>
       </c>
       <c r="P112">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3324654</v>
+        <v>3324655</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,10 +10501,10 @@
         <v>44337.64583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10516,40 +10516,40 @@
         <v>44</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
+        <v>2.5</v>
+      </c>
+      <c r="N113">
+        <v>1.909</v>
+      </c>
+      <c r="O113">
         <v>3.8</v>
       </c>
-      <c r="N113">
-        <v>1.333</v>
-      </c>
-      <c r="O113">
-        <v>5.75</v>
-      </c>
       <c r="P113">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q113">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10558,19 +10558,19 @@
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Z113">
         <v>-1</v>
       </c>
       <c r="AA113">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>3689407</v>
+        <v>3690093</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,10 +13082,10 @@
         <v>44451.47916666666</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13097,25 +13097,25 @@
         <v>43</v>
       </c>
       <c r="K142">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O142">
         <v>3.6</v>
       </c>
       <c r="P142">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
         <v>1.825</v>
@@ -13124,13 +13124,13 @@
         <v>2.025</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>2.025</v>
-      </c>
-      <c r="V142">
-        <v>1.825</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13142,16 +13142,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
+        <v>0.4125</v>
+      </c>
+      <c r="AA142">
         <v>-0.5</v>
       </c>
-      <c r="AA142">
-        <v>0.5125</v>
-      </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>3690093</v>
+        <v>3689407</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,10 +13171,10 @@
         <v>44451.47916666666</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13186,25 +13186,25 @@
         <v>43</v>
       </c>
       <c r="K143">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N143">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O143">
         <v>3.6</v>
       </c>
       <c r="P143">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
         <v>1.825</v>
@@ -13213,13 +13213,13 @@
         <v>2.025</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U143">
+        <v>2.025</v>
+      </c>
+      <c r="V143">
         <v>1.825</v>
-      </c>
-      <c r="V143">
-        <v>2.025</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13231,16 +13231,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -17520,7 +17520,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>3690122</v>
+        <v>3690121</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17532,76 +17532,76 @@
         <v>44535.52083333334</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
         <v>0</v>
       </c>
-      <c r="I192">
-        <v>4</v>
-      </c>
       <c r="J192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K192">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L192">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N192">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P192">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T192">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V192">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17609,7 +17609,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>3690121</v>
+        <v>3690122</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17621,76 +17621,76 @@
         <v>44535.52083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K193">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N193">
+        <v>2.375</v>
+      </c>
+      <c r="O193">
+        <v>3.5</v>
+      </c>
+      <c r="P193">
+        <v>2.9</v>
+      </c>
+      <c r="Q193">
+        <v>-0.25</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>1.85</v>
+      </c>
+      <c r="T193">
+        <v>3</v>
+      </c>
+      <c r="U193">
+        <v>2.05</v>
+      </c>
+      <c r="V193">
         <v>1.8</v>
       </c>
-      <c r="O193">
-        <v>3.75</v>
-      </c>
-      <c r="P193">
-        <v>4.333</v>
-      </c>
-      <c r="Q193">
-        <v>-0.75</v>
-      </c>
-      <c r="R193">
-        <v>2.025</v>
-      </c>
-      <c r="S193">
-        <v>1.825</v>
-      </c>
-      <c r="T193">
-        <v>2.5</v>
-      </c>
-      <c r="U193">
-        <v>2.025</v>
-      </c>
-      <c r="V193">
-        <v>1.825</v>
-      </c>
       <c r="W193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z193">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17965,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3690124</v>
+        <v>3690125</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17977,61 +17977,61 @@
         <v>44542.52083333334</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>43</v>
       </c>
       <c r="K197">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L197">
         <v>3.5</v>
       </c>
       <c r="M197">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N197">
         <v>2.1</v>
       </c>
       <c r="O197">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y197">
         <v>-1</v>
@@ -18040,13 +18040,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18054,7 +18054,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3690125</v>
+        <v>3690124</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18066,61 +18066,61 @@
         <v>44542.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>43</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N198">
         <v>2.1</v>
       </c>
       <c r="O198">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P198">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q198">
         <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18129,13 +18129,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -21169,7 +21169,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3690146</v>
+        <v>3690147</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21181,49 +21181,49 @@
         <v>44623.6875</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233">
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K233">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M233">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N233">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O233">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P233">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q233">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T233">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
         <v>2</v>
@@ -21235,16 +21235,16 @@
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB233">
         <v>1</v>
@@ -21258,7 +21258,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>3690147</v>
+        <v>3690146</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21270,49 +21270,49 @@
         <v>44623.6875</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234">
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K234">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L234">
+        <v>4</v>
+      </c>
+      <c r="M234">
+        <v>4.333</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234">
+        <v>3.8</v>
+      </c>
+      <c r="P234">
+        <v>3.4</v>
+      </c>
+      <c r="Q234">
+        <v>-0.5</v>
+      </c>
+      <c r="R234">
+        <v>2.025</v>
+      </c>
+      <c r="S234">
+        <v>1.825</v>
+      </c>
+      <c r="T234">
         <v>3.25</v>
-      </c>
-      <c r="M234">
-        <v>2.8</v>
-      </c>
-      <c r="N234">
-        <v>2.45</v>
-      </c>
-      <c r="O234">
-        <v>3.25</v>
-      </c>
-      <c r="P234">
-        <v>3</v>
-      </c>
-      <c r="Q234">
-        <v>0</v>
-      </c>
-      <c r="R234">
-        <v>1.775</v>
-      </c>
-      <c r="S234">
-        <v>2.1</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
       </c>
       <c r="U234">
         <v>2</v>
@@ -21324,16 +21324,16 @@
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y234">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AB234">
         <v>1</v>
@@ -22059,7 +22059,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>3690153</v>
+        <v>3690154</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22071,13 +22071,13 @@
         <v>44633.52083333334</v>
       </c>
       <c r="F243" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G243" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>0</v>
@@ -22086,43 +22086,43 @@
         <v>45</v>
       </c>
       <c r="K243">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L243">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M243">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N243">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O243">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P243">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q243">
         <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S243">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V243">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W243">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="X243">
         <v>-1</v>
@@ -22131,7 +22131,7 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AA243">
         <v>-1</v>
@@ -22140,7 +22140,7 @@
         <v>-1</v>
       </c>
       <c r="AC243">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22148,7 +22148,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>3690154</v>
+        <v>3690153</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22160,13 +22160,13 @@
         <v>44633.52083333334</v>
       </c>
       <c r="F244" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G244" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244">
         <v>0</v>
@@ -22175,43 +22175,43 @@
         <v>45</v>
       </c>
       <c r="K244">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M244">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N244">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O244">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P244">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q244">
         <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S244">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V244">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="X244">
         <v>-1</v>
@@ -22220,7 +22220,7 @@
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AA244">
         <v>-1</v>
@@ -22229,7 +22229,7 @@
         <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -23394,7 +23394,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>3690163</v>
+        <v>3690164</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23406,73 +23406,73 @@
         <v>44661.47916666666</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258" t="s">
+        <v>43</v>
+      </c>
+      <c r="K258">
+        <v>2.25</v>
+      </c>
+      <c r="L258">
+        <v>3.4</v>
+      </c>
+      <c r="M258">
+        <v>2.8</v>
+      </c>
+      <c r="N258">
+        <v>1.95</v>
+      </c>
+      <c r="O258">
+        <v>4</v>
+      </c>
+      <c r="P258">
+        <v>3.4</v>
+      </c>
+      <c r="Q258">
+        <v>-0.5</v>
+      </c>
+      <c r="R258">
+        <v>1.925</v>
+      </c>
+      <c r="S258">
+        <v>1.925</v>
+      </c>
+      <c r="T258">
+        <v>3.25</v>
+      </c>
+      <c r="U258">
+        <v>1.875</v>
+      </c>
+      <c r="V258">
+        <v>1.975</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
         <v>3</v>
       </c>
-      <c r="J258" t="s">
-        <v>44</v>
-      </c>
-      <c r="K258">
-        <v>1.8</v>
-      </c>
-      <c r="L258">
-        <v>3.75</v>
-      </c>
-      <c r="M258">
-        <v>4.2</v>
-      </c>
-      <c r="N258">
-        <v>1.727</v>
-      </c>
-      <c r="O258">
-        <v>3.75</v>
-      </c>
-      <c r="P258">
-        <v>5</v>
-      </c>
-      <c r="Q258">
-        <v>-0.75</v>
-      </c>
-      <c r="R258">
-        <v>1.9</v>
-      </c>
-      <c r="S258">
-        <v>1.95</v>
-      </c>
-      <c r="T258">
-        <v>2.25</v>
-      </c>
-      <c r="U258">
-        <v>1.85</v>
-      </c>
-      <c r="V258">
-        <v>2</v>
-      </c>
-      <c r="W258">
-        <v>-1</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
       <c r="Y258">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB258">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC258">
         <v>-1</v>
@@ -23483,7 +23483,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>3690164</v>
+        <v>3690163</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23495,73 +23495,73 @@
         <v>44661.47916666666</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G259" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J259" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K259">
+        <v>1.8</v>
+      </c>
+      <c r="L259">
+        <v>3.75</v>
+      </c>
+      <c r="M259">
+        <v>4.2</v>
+      </c>
+      <c r="N259">
+        <v>1.727</v>
+      </c>
+      <c r="O259">
+        <v>3.75</v>
+      </c>
+      <c r="P259">
+        <v>5</v>
+      </c>
+      <c r="Q259">
+        <v>-0.75</v>
+      </c>
+      <c r="R259">
+        <v>1.9</v>
+      </c>
+      <c r="S259">
+        <v>1.95</v>
+      </c>
+      <c r="T259">
         <v>2.25</v>
       </c>
-      <c r="L259">
-        <v>3.4</v>
-      </c>
-      <c r="M259">
-        <v>2.8</v>
-      </c>
-      <c r="N259">
-        <v>1.95</v>
-      </c>
-      <c r="O259">
+      <c r="U259">
+        <v>1.85</v>
+      </c>
+      <c r="V259">
+        <v>2</v>
+      </c>
+      <c r="W259">
+        <v>-1</v>
+      </c>
+      <c r="X259">
+        <v>-1</v>
+      </c>
+      <c r="Y259">
         <v>4</v>
       </c>
-      <c r="P259">
-        <v>3.4</v>
-      </c>
-      <c r="Q259">
-        <v>-0.5</v>
-      </c>
-      <c r="R259">
-        <v>1.925</v>
-      </c>
-      <c r="S259">
-        <v>1.925</v>
-      </c>
-      <c r="T259">
-        <v>3.25</v>
-      </c>
-      <c r="U259">
-        <v>1.875</v>
-      </c>
-      <c r="V259">
-        <v>1.975</v>
-      </c>
-      <c r="W259">
-        <v>-1</v>
-      </c>
-      <c r="X259">
-        <v>3</v>
-      </c>
-      <c r="Y259">
-        <v>-1</v>
-      </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB259">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC259">
         <v>-1</v>
@@ -24284,7 +24284,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>3887930</v>
+        <v>3854807</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24296,76 +24296,76 @@
         <v>44675.47916666666</v>
       </c>
       <c r="F268" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G268" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H268">
         <v>3</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
         <v>45</v>
       </c>
       <c r="K268">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L268">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M268">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N268">
+        <v>2.15</v>
+      </c>
+      <c r="O268">
+        <v>3.4</v>
+      </c>
+      <c r="P268">
+        <v>3.4</v>
+      </c>
+      <c r="Q268">
+        <v>-0.25</v>
+      </c>
+      <c r="R268">
         <v>1.85</v>
       </c>
-      <c r="O268">
-        <v>4</v>
-      </c>
-      <c r="P268">
-        <v>3.8</v>
-      </c>
-      <c r="Q268">
-        <v>-0.5</v>
-      </c>
-      <c r="R268">
-        <v>1.825</v>
-      </c>
       <c r="S268">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T268">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U268">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W268">
+        <v>1.15</v>
+      </c>
+      <c r="X268">
+        <v>-1</v>
+      </c>
+      <c r="Y268">
+        <v>-1</v>
+      </c>
+      <c r="Z268">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X268">
-        <v>-1</v>
-      </c>
-      <c r="Y268">
-        <v>-1</v>
-      </c>
-      <c r="Z268">
-        <v>0.825</v>
-      </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC268">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24373,7 +24373,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>3854807</v>
+        <v>3887930</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24385,58 +24385,58 @@
         <v>44675.47916666666</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H269">
         <v>3</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
         <v>45</v>
       </c>
       <c r="K269">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L269">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M269">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N269">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O269">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P269">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R269">
+        <v>1.825</v>
+      </c>
+      <c r="S269">
+        <v>2.025</v>
+      </c>
+      <c r="T269">
+        <v>3</v>
+      </c>
+      <c r="U269">
         <v>1.85</v>
       </c>
-      <c r="S269">
-        <v>2</v>
-      </c>
-      <c r="T269">
-        <v>2.75</v>
-      </c>
-      <c r="U269">
-        <v>1.95</v>
-      </c>
       <c r="V269">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W269">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X269">
         <v>-1</v>
@@ -24445,16 +24445,16 @@
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25619,7 +25619,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>3988949</v>
+        <v>3985296</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25631,61 +25631,61 @@
         <v>44693.64583333334</v>
       </c>
       <c r="F283" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
         <v>43</v>
       </c>
       <c r="K283">
+        <v>1.3</v>
+      </c>
+      <c r="L283">
+        <v>5</v>
+      </c>
+      <c r="M283">
+        <v>7</v>
+      </c>
+      <c r="N283">
+        <v>1.65</v>
+      </c>
+      <c r="O283">
+        <v>4.333</v>
+      </c>
+      <c r="P283">
+        <v>4.5</v>
+      </c>
+      <c r="Q283">
+        <v>-1</v>
+      </c>
+      <c r="R283">
+        <v>2.125</v>
+      </c>
+      <c r="S283">
         <v>1.75</v>
       </c>
-      <c r="L283">
-        <v>3.5</v>
-      </c>
-      <c r="M283">
-        <v>3.75</v>
-      </c>
-      <c r="N283">
-        <v>1.833</v>
-      </c>
-      <c r="O283">
-        <v>4</v>
-      </c>
-      <c r="P283">
-        <v>4</v>
-      </c>
-      <c r="Q283">
-        <v>-0.5</v>
-      </c>
-      <c r="R283">
-        <v>1.85</v>
-      </c>
-      <c r="S283">
-        <v>2</v>
-      </c>
       <c r="T283">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V283">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y283">
         <v>-1</v>
@@ -25694,13 +25694,13 @@
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC283">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25708,7 +25708,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>3985296</v>
+        <v>3988949</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25720,61 +25720,61 @@
         <v>44693.64583333334</v>
       </c>
       <c r="F284" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
         <v>43</v>
       </c>
       <c r="K284">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="L284">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M284">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N284">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O284">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P284">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q284">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R284">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S284">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T284">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U284">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V284">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y284">
         <v>-1</v>
@@ -25783,13 +25783,13 @@
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB284">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25797,7 +25797,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>4052007</v>
+        <v>4048896</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25809,76 +25809,76 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F285" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G285" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K285">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L285">
         <v>3.6</v>
       </c>
       <c r="M285">
+        <v>2.9</v>
+      </c>
+      <c r="N285">
         <v>2.05</v>
       </c>
-      <c r="N285">
-        <v>1.909</v>
-      </c>
       <c r="O285">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P285">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q285">
         <v>-0.5</v>
       </c>
       <c r="R285">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S285">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T285">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U285">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V285">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X285">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA285">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC285">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25886,7 +25886,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>4048745</v>
+        <v>3988950</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25898,73 +25898,73 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F286" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G286" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286">
         <v>2</v>
       </c>
       <c r="J286" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K286">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L286">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N286">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O286">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P286">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q286">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R286">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S286">
+        <v>1.925</v>
+      </c>
+      <c r="T286">
+        <v>2.75</v>
+      </c>
+      <c r="U286">
         <v>1.85</v>
       </c>
-      <c r="T286">
-        <v>3.5</v>
-      </c>
-      <c r="U286">
-        <v>1.95</v>
-      </c>
       <c r="V286">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W286">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA286">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB286">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC286">
         <v>-1</v>
@@ -26064,7 +26064,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>3988950</v>
+        <v>4048745</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26076,73 +26076,73 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F288" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G288" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I288">
         <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K288">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L288">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N288">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O288">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P288">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q288">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R288">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S288">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T288">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U288">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V288">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X288">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA288">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB288">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC288">
         <v>-1</v>
@@ -26153,7 +26153,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>4048896</v>
+        <v>4052007</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26165,76 +26165,76 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G289" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K289">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L289">
         <v>3.6</v>
       </c>
       <c r="M289">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N289">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O289">
+        <v>3.8</v>
+      </c>
+      <c r="P289">
         <v>3.6</v>
-      </c>
-      <c r="P289">
-        <v>3.5</v>
       </c>
       <c r="Q289">
         <v>-0.5</v>
       </c>
       <c r="R289">
+        <v>1.925</v>
+      </c>
+      <c r="S289">
+        <v>1.925</v>
+      </c>
+      <c r="T289">
+        <v>3.25</v>
+      </c>
+      <c r="U289">
         <v>2.05</v>
       </c>
-      <c r="S289">
+      <c r="V289">
         <v>1.8</v>
       </c>
-      <c r="T289">
-        <v>3</v>
-      </c>
-      <c r="U289">
-        <v>1.9</v>
-      </c>
-      <c r="V289">
-        <v>1.95</v>
-      </c>
       <c r="W289">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB289">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC289">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26242,7 +26242,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>4077044</v>
+        <v>4048738</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26254,49 +26254,49 @@
         <v>44703.47916666666</v>
       </c>
       <c r="F290" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G290" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290">
         <v>3</v>
       </c>
       <c r="J290" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K290">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L290">
+        <v>3.8</v>
+      </c>
+      <c r="M290">
+        <v>4.2</v>
+      </c>
+      <c r="N290">
+        <v>2.25</v>
+      </c>
+      <c r="O290">
+        <v>4.1</v>
+      </c>
+      <c r="P290">
+        <v>2.7</v>
+      </c>
+      <c r="Q290">
+        <v>-0.25</v>
+      </c>
+      <c r="R290">
+        <v>2</v>
+      </c>
+      <c r="S290">
+        <v>1.85</v>
+      </c>
+      <c r="T290">
         <v>3.5</v>
-      </c>
-      <c r="M290">
-        <v>3.2</v>
-      </c>
-      <c r="N290">
-        <v>1.75</v>
-      </c>
-      <c r="O290">
-        <v>3.75</v>
-      </c>
-      <c r="P290">
-        <v>4.75</v>
-      </c>
-      <c r="Q290">
-        <v>-0.75</v>
-      </c>
-      <c r="R290">
-        <v>1.95</v>
-      </c>
-      <c r="S290">
-        <v>1.9</v>
-      </c>
-      <c r="T290">
-        <v>2.75</v>
       </c>
       <c r="U290">
         <v>1.875</v>
@@ -26308,16 +26308,16 @@
         <v>-1</v>
       </c>
       <c r="X290">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB290">
         <v>0.875</v>
@@ -26420,7 +26420,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>4048738</v>
+        <v>4077044</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26432,49 +26432,49 @@
         <v>44703.47916666666</v>
       </c>
       <c r="F292" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G292" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I292">
         <v>3</v>
       </c>
       <c r="J292" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K292">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L292">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M292">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N292">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="O292">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="P292">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q292">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R292">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S292">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T292">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U292">
         <v>1.875</v>
@@ -26486,16 +26486,16 @@
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y292">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB292">
         <v>0.875</v>
@@ -27666,7 +27666,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>5172742</v>
+        <v>5173760</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27678,76 +27678,76 @@
         <v>44773.47916666666</v>
       </c>
       <c r="F306" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G306" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H306">
         <v>1</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J306" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K306">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="L306">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M306">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N306">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="O306">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P306">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q306">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R306">
+        <v>1.9</v>
+      </c>
+      <c r="S306">
+        <v>1.95</v>
+      </c>
+      <c r="T306">
+        <v>2.5</v>
+      </c>
+      <c r="U306">
         <v>1.85</v>
       </c>
-      <c r="S306">
-        <v>2</v>
-      </c>
-      <c r="T306">
-        <v>3.5</v>
-      </c>
-      <c r="U306">
-        <v>2.025</v>
-      </c>
       <c r="V306">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z306">
         <v>-1</v>
       </c>
       <c r="AA306">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC306">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27755,7 +27755,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>5173760</v>
+        <v>5172742</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27767,76 +27767,76 @@
         <v>44773.47916666666</v>
       </c>
       <c r="F307" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G307" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H307">
         <v>1</v>
       </c>
       <c r="I307">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K307">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="L307">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M307">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N307">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="O307">
+        <v>5.75</v>
+      </c>
+      <c r="P307">
+        <v>9</v>
+      </c>
+      <c r="Q307">
+        <v>-1.5</v>
+      </c>
+      <c r="R307">
+        <v>1.85</v>
+      </c>
+      <c r="S307">
+        <v>2</v>
+      </c>
+      <c r="T307">
         <v>3.5</v>
       </c>
-      <c r="P307">
-        <v>2.7</v>
-      </c>
-      <c r="Q307">
-        <v>0</v>
-      </c>
-      <c r="R307">
-        <v>1.9</v>
-      </c>
-      <c r="S307">
-        <v>1.95</v>
-      </c>
-      <c r="T307">
-        <v>2.5</v>
-      </c>
       <c r="U307">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V307">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y307">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
         <v>-1</v>
       </c>
       <c r="AA307">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB307">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -29090,7 +29090,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>5173757</v>
+        <v>5172751</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29102,40 +29102,40 @@
         <v>44801.47916666666</v>
       </c>
       <c r="F322" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G322" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J322" t="s">
         <v>44</v>
       </c>
       <c r="K322">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M322">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N322">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O322">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P322">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R322">
         <v>1.825</v>
@@ -29147,10 +29147,10 @@
         <v>2.75</v>
       </c>
       <c r="U322">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V322">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W322">
         <v>-1</v>
@@ -29159,7 +29159,7 @@
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0.6000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="Z322">
         <v>-1</v>
@@ -29168,7 +29168,7 @@
         <v>1.025</v>
       </c>
       <c r="AB322">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29179,7 +29179,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>5172751</v>
+        <v>5173757</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29191,40 +29191,40 @@
         <v>44801.47916666666</v>
       </c>
       <c r="F323" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G323" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J323" t="s">
         <v>44</v>
       </c>
       <c r="K323">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L323">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M323">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N323">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O323">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P323">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R323">
         <v>1.825</v>
@@ -29236,10 +29236,10 @@
         <v>2.75</v>
       </c>
       <c r="U323">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V323">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -29248,7 +29248,7 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>1.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z323">
         <v>-1</v>
@@ -29257,7 +29257,7 @@
         <v>1.025</v>
       </c>
       <c r="AB323">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29535,7 +29535,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>5173756</v>
+        <v>5172754</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29547,58 +29547,58 @@
         <v>44808.47916666666</v>
       </c>
       <c r="F327" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G327" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="s">
         <v>45</v>
       </c>
       <c r="K327">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="L327">
         <v>3.75</v>
       </c>
       <c r="M327">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N327">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="O327">
         <v>3.6</v>
       </c>
       <c r="P327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q327">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R327">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S327">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T327">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U327">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V327">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W327">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="X327">
         <v>-1</v>
@@ -29607,16 +29607,16 @@
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC327">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29624,7 +29624,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>5172754</v>
+        <v>5173756</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29636,58 +29636,58 @@
         <v>44808.47916666666</v>
       </c>
       <c r="F328" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G328" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>45</v>
       </c>
       <c r="K328">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="L328">
         <v>3.75</v>
       </c>
       <c r="M328">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N328">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O328">
         <v>3.6</v>
       </c>
       <c r="P328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q328">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R328">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S328">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T328">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U328">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V328">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W328">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29696,16 +29696,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
+        <v>0.4375</v>
+      </c>
+      <c r="AC328">
         <v>-0.5</v>
-      </c>
-      <c r="AC328">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29980,7 +29980,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>5172757</v>
+        <v>5172758</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29992,49 +29992,49 @@
         <v>44815.47916666666</v>
       </c>
       <c r="F332" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G332" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H332">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" t="s">
         <v>45</v>
       </c>
       <c r="K332">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L332">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M332">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N332">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="O332">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P332">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q332">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R332">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S332">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T332">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U332">
         <v>1.825</v>
@@ -30043,7 +30043,7 @@
         <v>2.025</v>
       </c>
       <c r="W332">
-        <v>0.7270000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X332">
         <v>-1</v>
@@ -30052,16 +30052,16 @@
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA332">
         <v>-1</v>
       </c>
       <c r="AB332">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC332">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30069,7 +30069,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>5172758</v>
+        <v>5172757</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30081,49 +30081,49 @@
         <v>44815.47916666666</v>
       </c>
       <c r="F333" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G333" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H333">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="s">
         <v>45</v>
       </c>
       <c r="K333">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L333">
+        <v>3.75</v>
+      </c>
+      <c r="M333">
         <v>5</v>
       </c>
-      <c r="M333">
-        <v>6.5</v>
-      </c>
       <c r="N333">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="O333">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P333">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q333">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R333">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S333">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T333">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U333">
         <v>1.825</v>
@@ -30132,7 +30132,7 @@
         <v>2.025</v>
       </c>
       <c r="W333">
-        <v>0.6000000000000001</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30141,16 +30141,16 @@
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA333">
         <v>-1</v>
       </c>
       <c r="AB333">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC333">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30870,7 +30870,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>5172763</v>
+        <v>5173753</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30882,49 +30882,49 @@
         <v>44843.47916666666</v>
       </c>
       <c r="F342" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G342" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342">
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K342">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L342">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M342">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N342">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O342">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P342">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q342">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R342">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S342">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T342">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U342">
         <v>2</v>
@@ -30933,19 +30933,19 @@
         <v>1.85</v>
       </c>
       <c r="W342">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X342">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y342">
         <v>-1</v>
       </c>
       <c r="Z342">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA342">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB342">
         <v>-1</v>
@@ -30959,7 +30959,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>5173753</v>
+        <v>5172763</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30971,49 +30971,49 @@
         <v>44843.47916666666</v>
       </c>
       <c r="F343" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G343" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I343">
         <v>0</v>
       </c>
       <c r="J343" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K343">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L343">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M343">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N343">
+        <v>2.5</v>
+      </c>
+      <c r="O343">
+        <v>3.3</v>
+      </c>
+      <c r="P343">
+        <v>2.875</v>
+      </c>
+      <c r="Q343">
+        <v>0</v>
+      </c>
+      <c r="R343">
         <v>1.8</v>
       </c>
-      <c r="O343">
-        <v>4</v>
-      </c>
-      <c r="P343">
-        <v>4.2</v>
-      </c>
-      <c r="Q343">
-        <v>-0.5</v>
-      </c>
-      <c r="R343">
-        <v>1.825</v>
-      </c>
       <c r="S343">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T343">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U343">
         <v>2</v>
@@ -31022,19 +31022,19 @@
         <v>1.85</v>
       </c>
       <c r="W343">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X343">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
         <v>-1</v>
       </c>
       <c r="Z343">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA343">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB343">
         <v>-1</v>
@@ -31582,7 +31582,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>5171742</v>
+        <v>5172770</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31594,49 +31594,49 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F350" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G350" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I350">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J350" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K350">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="L350">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M350">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N350">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O350">
         <v>3.75</v>
       </c>
       <c r="P350">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q350">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R350">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S350">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T350">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U350">
         <v>2</v>
@@ -31648,16 +31648,16 @@
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z350">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB350">
         <v>1</v>
@@ -31671,7 +31671,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>5172770</v>
+        <v>5171742</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31683,49 +31683,49 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F351" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G351" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I351">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J351" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K351">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="L351">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M351">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N351">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="O351">
         <v>3.75</v>
       </c>
       <c r="P351">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="Q351">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R351">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S351">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T351">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U351">
         <v>2</v>
@@ -31737,16 +31737,16 @@
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y351">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA351">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB351">
         <v>1</v>
@@ -37189,7 +37189,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>5173739</v>
+        <v>5172805</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37201,76 +37201,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F413" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G413" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413">
         <v>1</v>
       </c>
       <c r="J413" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K413">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L413">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M413">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N413">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O413">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P413">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q413">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R413">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S413">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T413">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U413">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V413">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W413">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X413">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y413">
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA413">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB413">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC413">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37278,7 +37278,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>5172805</v>
+        <v>5173739</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37290,76 +37290,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F414" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G414" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414">
         <v>1</v>
       </c>
       <c r="J414" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K414">
+        <v>2.05</v>
+      </c>
+      <c r="L414">
+        <v>3.4</v>
+      </c>
+      <c r="M414">
+        <v>3.2</v>
+      </c>
+      <c r="N414">
+        <v>2.1</v>
+      </c>
+      <c r="O414">
+        <v>3.4</v>
+      </c>
+      <c r="P414">
+        <v>3.5</v>
+      </c>
+      <c r="Q414">
+        <v>-0.25</v>
+      </c>
+      <c r="R414">
+        <v>1.8</v>
+      </c>
+      <c r="S414">
+        <v>2.05</v>
+      </c>
+      <c r="T414">
+        <v>2.5</v>
+      </c>
+      <c r="U414">
+        <v>1.9</v>
+      </c>
+      <c r="V414">
         <v>1.95</v>
       </c>
-      <c r="L414">
-        <v>3.5</v>
-      </c>
-      <c r="M414">
-        <v>3.3</v>
-      </c>
-      <c r="N414">
-        <v>1.85</v>
-      </c>
-      <c r="O414">
-        <v>4</v>
-      </c>
-      <c r="P414">
-        <v>4</v>
-      </c>
-      <c r="Q414">
-        <v>-0.5</v>
-      </c>
-      <c r="R414">
-        <v>1.825</v>
-      </c>
-      <c r="S414">
-        <v>2.025</v>
-      </c>
-      <c r="T414">
-        <v>3.25</v>
-      </c>
-      <c r="U414">
-        <v>2.025</v>
-      </c>
-      <c r="V414">
-        <v>1.825</v>
-      </c>
       <c r="W414">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X414">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y414">
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA414">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB414">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC414">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -37634,7 +37634,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>5172808</v>
+        <v>5172810</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37646,49 +37646,49 @@
         <v>45004.52083333334</v>
       </c>
       <c r="F418" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G418" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J418" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K418">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L418">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M418">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N418">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O418">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P418">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q418">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R418">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S418">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T418">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U418">
         <v>1.85</v>
@@ -37697,25 +37697,25 @@
         <v>2</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X418">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y418">
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA418">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC418">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37723,7 +37723,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>5172810</v>
+        <v>5172808</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37735,49 +37735,49 @@
         <v>45004.52083333334</v>
       </c>
       <c r="F419" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G419" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H419">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J419" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K419">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L419">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M419">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N419">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O419">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P419">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q419">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R419">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S419">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T419">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U419">
         <v>1.85</v>
@@ -37786,25 +37786,25 @@
         <v>2</v>
       </c>
       <c r="W419">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X419">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA419">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB419">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC419">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -38079,7 +38079,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>5172813</v>
+        <v>5171755</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38091,76 +38091,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F423" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G423" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423">
         <v>2</v>
       </c>
       <c r="J423" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K423">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L423">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M423">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N423">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O423">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P423">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q423">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R423">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S423">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T423">
         <v>3</v>
       </c>
       <c r="U423">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V423">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W423">
         <v>-1</v>
       </c>
       <c r="X423">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y423">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z423">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA423">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC423">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38168,7 +38168,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>5171755</v>
+        <v>5172813</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38180,76 +38180,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F424" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G424" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I424">
         <v>2</v>
       </c>
       <c r="J424" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K424">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L424">
+        <v>3.5</v>
+      </c>
+      <c r="M424">
+        <v>2.9</v>
+      </c>
+      <c r="N424">
+        <v>2.2</v>
+      </c>
+      <c r="O424">
         <v>3.6</v>
       </c>
-      <c r="M424">
-        <v>3.75</v>
-      </c>
-      <c r="N424">
-        <v>1.5</v>
-      </c>
-      <c r="O424">
-        <v>4.75</v>
-      </c>
       <c r="P424">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q424">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R424">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S424">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T424">
         <v>3</v>
       </c>
       <c r="U424">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V424">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W424">
         <v>-1</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y424">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA424">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC424">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -39681,7 +39681,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>5172824</v>
+        <v>5172826</v>
       </c>
       <c r="C441" t="s">
         <v>28</v>
@@ -39693,76 +39693,76 @@
         <v>45042.64583333334</v>
       </c>
       <c r="F441" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G441" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H441">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I441">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J441" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K441">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L441">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M441">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N441">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O441">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P441">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q441">
         <v>-0.5</v>
       </c>
       <c r="R441">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S441">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T441">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U441">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V441">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W441">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X441">
         <v>-1</v>
       </c>
       <c r="Y441">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z441">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA441">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB441">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC441">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="442" spans="1:29">
@@ -39770,7 +39770,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>5172826</v>
+        <v>5172824</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39782,76 +39782,76 @@
         <v>45042.64583333334</v>
       </c>
       <c r="F442" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G442" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I442">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J442" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K442">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L442">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M442">
+        <v>2.875</v>
+      </c>
+      <c r="N442">
+        <v>2.05</v>
+      </c>
+      <c r="O442">
         <v>3.6</v>
       </c>
-      <c r="N442">
-        <v>1.909</v>
-      </c>
-      <c r="O442">
-        <v>3.8</v>
-      </c>
       <c r="P442">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q442">
         <v>-0.5</v>
       </c>
       <c r="R442">
+        <v>2.05</v>
+      </c>
+      <c r="S442">
+        <v>1.8</v>
+      </c>
+      <c r="T442">
+        <v>2.5</v>
+      </c>
+      <c r="U442">
         <v>1.9</v>
       </c>
-      <c r="S442">
+      <c r="V442">
         <v>1.95</v>
       </c>
-      <c r="T442">
-        <v>3</v>
-      </c>
-      <c r="U442">
-        <v>1.975</v>
-      </c>
-      <c r="V442">
-        <v>1.875</v>
-      </c>
       <c r="W442">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X442">
         <v>-1</v>
       </c>
       <c r="Y442">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z442">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA442">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB442">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC442">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="443" spans="1:29">
@@ -39859,7 +39859,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>6401769</v>
+        <v>6401770</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39871,40 +39871,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F443" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G443" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H443">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J443" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K443">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L443">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M443">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N443">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O443">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P443">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q443">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R443">
         <v>1.975</v>
@@ -39913,34 +39913,34 @@
         <v>1.875</v>
       </c>
       <c r="T443">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U443">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V443">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W443">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X443">
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z443">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA443">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB443">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -39948,7 +39948,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6401770</v>
+        <v>6401769</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39960,40 +39960,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F444" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G444" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J444" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K444">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L444">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M444">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N444">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O444">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P444">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q444">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R444">
         <v>1.975</v>
@@ -40002,34 +40002,34 @@
         <v>1.875</v>
       </c>
       <c r="T444">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U444">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V444">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W444">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA444">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB444">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC444">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40304,7 +40304,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>5310236</v>
+        <v>5356263</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40316,73 +40316,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F448" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G448" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I448">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J448" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K448">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L448">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M448">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N448">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O448">
+        <v>4.5</v>
+      </c>
+      <c r="P448">
+        <v>4.333</v>
+      </c>
+      <c r="Q448">
+        <v>-0.75</v>
+      </c>
+      <c r="R448">
+        <v>1.8</v>
+      </c>
+      <c r="S448">
+        <v>2.05</v>
+      </c>
+      <c r="T448">
         <v>3.5</v>
       </c>
-      <c r="P448">
-        <v>2.2</v>
-      </c>
-      <c r="Q448">
-        <v>0.25</v>
-      </c>
-      <c r="R448">
-        <v>1.875</v>
-      </c>
-      <c r="S448">
-        <v>1.975</v>
-      </c>
-      <c r="T448">
-        <v>2.75</v>
-      </c>
       <c r="U448">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V448">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W448">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA448">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB448">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC448">
         <v>-1</v>
@@ -40393,7 +40393,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>5356263</v>
+        <v>5310236</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40405,73 +40405,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F449" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G449" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H449">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I449">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J449" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K449">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L449">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M449">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N449">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O449">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P449">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q449">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R449">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S449">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T449">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U449">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V449">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W449">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z449">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA449">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB449">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC449">
         <v>-1</v>
@@ -40749,7 +40749,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>5390731</v>
+        <v>5380959</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40761,55 +40761,55 @@
         <v>45053.47916666666</v>
       </c>
       <c r="F453" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G453" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J453" t="s">
         <v>44</v>
       </c>
       <c r="K453">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L453">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M453">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="N453">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O453">
         <v>3.75</v>
       </c>
       <c r="P453">
+        <v>3.75</v>
+      </c>
+      <c r="Q453">
+        <v>-0.5</v>
+      </c>
+      <c r="R453">
         <v>1.95</v>
       </c>
-      <c r="Q453">
-        <v>0.5</v>
-      </c>
-      <c r="R453">
+      <c r="S453">
         <v>1.9</v>
       </c>
-      <c r="S453">
-        <v>1.95</v>
-      </c>
       <c r="T453">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U453">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V453">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W453">
         <v>-1</v>
@@ -40818,19 +40818,19 @@
         <v>-1</v>
       </c>
       <c r="Y453">
-        <v>0.95</v>
+        <v>2.75</v>
       </c>
       <c r="Z453">
         <v>-1</v>
       </c>
       <c r="AA453">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB453">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC453">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40838,7 +40838,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5380959</v>
+        <v>5390731</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40850,55 +40850,55 @@
         <v>45053.47916666666</v>
       </c>
       <c r="F454" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G454" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J454" t="s">
         <v>44</v>
       </c>
       <c r="K454">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L454">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M454">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N454">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="O454">
         <v>3.75</v>
       </c>
       <c r="P454">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q454">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R454">
+        <v>1.9</v>
+      </c>
+      <c r="S454">
         <v>1.95</v>
       </c>
-      <c r="S454">
-        <v>1.9</v>
-      </c>
       <c r="T454">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U454">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V454">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W454">
         <v>-1</v>
@@ -40907,19 +40907,19 @@
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>2.75</v>
+        <v>0.95</v>
       </c>
       <c r="Z454">
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB454">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC454">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -42707,7 +42707,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6811200</v>
+        <v>6810293</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42719,76 +42719,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F475" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G475" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J475" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K475">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L475">
+        <v>3.4</v>
+      </c>
+      <c r="M475">
+        <v>1.95</v>
+      </c>
+      <c r="N475">
         <v>3.5</v>
       </c>
-      <c r="M475">
-        <v>3</v>
-      </c>
-      <c r="N475">
-        <v>1.8</v>
-      </c>
       <c r="O475">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P475">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q475">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R475">
+        <v>1.825</v>
+      </c>
+      <c r="S475">
         <v>2.025</v>
       </c>
-      <c r="S475">
-        <v>1.825</v>
-      </c>
       <c r="T475">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U475">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V475">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W475">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X475">
         <v>-1</v>
       </c>
       <c r="Y475">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z475">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA475">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB475">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC475">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -42796,7 +42796,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>6810293</v>
+        <v>6811200</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42808,76 +42808,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F476" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G476" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476">
+        <v>1</v>
+      </c>
+      <c r="J476" t="s">
+        <v>45</v>
+      </c>
+      <c r="K476">
+        <v>2.1</v>
+      </c>
+      <c r="L476">
+        <v>3.5</v>
+      </c>
+      <c r="M476">
         <v>3</v>
       </c>
-      <c r="J476" t="s">
-        <v>44</v>
-      </c>
-      <c r="K476">
-        <v>3.4</v>
-      </c>
-      <c r="L476">
-        <v>3.4</v>
-      </c>
-      <c r="M476">
-        <v>1.95</v>
-      </c>
       <c r="N476">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O476">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P476">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q476">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R476">
+        <v>2.025</v>
+      </c>
+      <c r="S476">
         <v>1.825</v>
       </c>
-      <c r="S476">
-        <v>2.025</v>
-      </c>
       <c r="T476">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U476">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V476">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W476">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X476">
         <v>-1</v>
       </c>
       <c r="Y476">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z476">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA476">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB476">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC476">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -46623,7 +46623,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6811229</v>
+        <v>6810768</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46635,10 +46635,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F519" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G519" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H519">
         <v>1</v>
@@ -46650,61 +46650,61 @@
         <v>43</v>
       </c>
       <c r="K519">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L519">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M519">
+        <v>4</v>
+      </c>
+      <c r="N519">
+        <v>2.15</v>
+      </c>
+      <c r="O519">
+        <v>3.75</v>
+      </c>
+      <c r="P519">
+        <v>3.1</v>
+      </c>
+      <c r="Q519">
+        <v>-0.25</v>
+      </c>
+      <c r="R519">
+        <v>1.9</v>
+      </c>
+      <c r="S519">
+        <v>1.95</v>
+      </c>
+      <c r="T519">
         <v>2.75</v>
       </c>
-      <c r="N519">
-        <v>2.55</v>
-      </c>
-      <c r="O519">
-        <v>3.6</v>
-      </c>
-      <c r="P519">
-        <v>2.55</v>
-      </c>
-      <c r="Q519">
-        <v>0</v>
-      </c>
-      <c r="R519">
-        <v>1.925</v>
-      </c>
-      <c r="S519">
-        <v>1.925</v>
-      </c>
-      <c r="T519">
-        <v>3</v>
-      </c>
       <c r="U519">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V519">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y519">
         <v>-1</v>
       </c>
       <c r="Z519">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA519">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB519">
         <v>-1</v>
       </c>
       <c r="AC519">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46712,7 +46712,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>6810768</v>
+        <v>6811229</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46724,10 +46724,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F520" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G520" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H520">
         <v>1</v>
@@ -46739,61 +46739,61 @@
         <v>43</v>
       </c>
       <c r="K520">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L520">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M520">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N520">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O520">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P520">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q520">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R520">
+        <v>1.925</v>
+      </c>
+      <c r="S520">
+        <v>1.925</v>
+      </c>
+      <c r="T520">
+        <v>3</v>
+      </c>
+      <c r="U520">
+        <v>1.95</v>
+      </c>
+      <c r="V520">
         <v>1.9</v>
       </c>
-      <c r="S520">
-        <v>1.95</v>
-      </c>
-      <c r="T520">
-        <v>2.75</v>
-      </c>
-      <c r="U520">
-        <v>1.85</v>
-      </c>
-      <c r="V520">
-        <v>2</v>
-      </c>
       <c r="W520">
         <v>-1</v>
       </c>
       <c r="X520">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y520">
         <v>-1</v>
       </c>
       <c r="Z520">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA520">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -46801,7 +46801,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>6810300</v>
+        <v>6811230</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46813,40 +46813,40 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F521" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G521" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H521">
         <v>2</v>
       </c>
       <c r="I521">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J521" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K521">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L521">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M521">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="N521">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O521">
         <v>3.6</v>
       </c>
       <c r="P521">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q521">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R521">
         <v>1.925</v>
@@ -46855,34 +46855,34 @@
         <v>1.925</v>
       </c>
       <c r="T521">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U521">
+        <v>2.025</v>
+      </c>
+      <c r="V521">
         <v>1.825</v>
       </c>
-      <c r="V521">
-        <v>2.025</v>
-      </c>
       <c r="W521">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X521">
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z521">
+        <v>-1</v>
+      </c>
+      <c r="AA521">
         <v>0.925</v>
       </c>
-      <c r="AA521">
-        <v>-1</v>
-      </c>
       <c r="AB521">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC521">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -46890,7 +46890,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>6811230</v>
+        <v>6810300</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46902,40 +46902,40 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F522" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G522" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H522">
         <v>2</v>
       </c>
       <c r="I522">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J522" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K522">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L522">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M522">
-        <v>2.25</v>
+        <v>4.1</v>
       </c>
       <c r="N522">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O522">
         <v>3.6</v>
       </c>
       <c r="P522">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q522">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R522">
         <v>1.925</v>
@@ -46944,34 +46944,34 @@
         <v>1.925</v>
       </c>
       <c r="T522">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U522">
+        <v>1.825</v>
+      </c>
+      <c r="V522">
         <v>2.025</v>
       </c>
-      <c r="V522">
-        <v>1.825</v>
-      </c>
       <c r="W522">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X522">
         <v>-1</v>
       </c>
       <c r="Y522">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z522">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA522">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB522">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC522">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="523" spans="1:29">
@@ -47157,7 +47157,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>6811232</v>
+        <v>6811233</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47169,76 +47169,76 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F525" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G525" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I525">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J525" t="s">
         <v>44</v>
       </c>
       <c r="K525">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L525">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M525">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="N525">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O525">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P525">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q525">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R525">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S525">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T525">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U525">
+        <v>1.9</v>
+      </c>
+      <c r="V525">
+        <v>1.95</v>
+      </c>
+      <c r="W525">
+        <v>-1</v>
+      </c>
+      <c r="X525">
+        <v>-1</v>
+      </c>
+      <c r="Y525">
         <v>1.875</v>
       </c>
-      <c r="V525">
-        <v>1.975</v>
-      </c>
-      <c r="W525">
-        <v>-1</v>
-      </c>
-      <c r="X525">
-        <v>-1</v>
-      </c>
-      <c r="Y525">
-        <v>3.333</v>
-      </c>
       <c r="Z525">
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB525">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC525">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47246,7 +47246,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>6811233</v>
+        <v>6811232</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47258,55 +47258,55 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F526" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G526" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J526" t="s">
         <v>44</v>
       </c>
       <c r="K526">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L526">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M526">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="N526">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O526">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P526">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q526">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R526">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S526">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T526">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U526">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V526">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W526">
         <v>-1</v>
@@ -47315,19 +47315,19 @@
         <v>-1</v>
       </c>
       <c r="Y526">
-        <v>1.875</v>
+        <v>3.333</v>
       </c>
       <c r="Z526">
         <v>-1</v>
       </c>
       <c r="AA526">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB526">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC526">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47869,7 +47869,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>6811238</v>
+        <v>6811239</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47881,55 +47881,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F533" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G533" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J533" t="s">
         <v>43</v>
       </c>
       <c r="K533">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L533">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M533">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N533">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O533">
         <v>3.75</v>
       </c>
       <c r="P533">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q533">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R533">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S533">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T533">
         <v>2.75</v>
       </c>
       <c r="U533">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V533">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W533">
         <v>-1</v>
@@ -47941,16 +47941,16 @@
         <v>-1</v>
       </c>
       <c r="Z533">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA533">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB533">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC533">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="534" spans="1:29">
@@ -47958,7 +47958,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>6811239</v>
+        <v>6811238</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47970,55 +47970,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F534" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G534" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J534" t="s">
         <v>43</v>
       </c>
       <c r="K534">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L534">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M534">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N534">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O534">
         <v>3.75</v>
       </c>
       <c r="P534">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q534">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R534">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S534">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T534">
         <v>2.75</v>
       </c>
       <c r="U534">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V534">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W534">
         <v>-1</v>
@@ -48030,16 +48030,16 @@
         <v>-1</v>
       </c>
       <c r="Z534">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA534">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB534">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC534">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -50005,7 +50005,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6811255</v>
+        <v>6811256</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50017,10 +50017,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F557" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G557" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H557">
         <v>3</v>
@@ -50032,43 +50032,43 @@
         <v>45</v>
       </c>
       <c r="K557">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L557">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M557">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N557">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O557">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P557">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q557">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R557">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S557">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T557">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U557">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V557">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W557">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="X557">
         <v>-1</v>
@@ -50077,13 +50077,13 @@
         <v>-1</v>
       </c>
       <c r="Z557">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA557">
         <v>-1</v>
       </c>
       <c r="AB557">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC557">
         <v>-1</v>
@@ -50094,7 +50094,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>6811256</v>
+        <v>6811255</v>
       </c>
       <c r="C558" t="s">
         <v>28</v>
@@ -50106,10 +50106,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F558" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G558" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H558">
         <v>3</v>
@@ -50121,43 +50121,43 @@
         <v>45</v>
       </c>
       <c r="K558">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L558">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M558">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N558">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O558">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P558">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q558">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R558">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S558">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T558">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U558">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V558">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W558">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="X558">
         <v>-1</v>
@@ -50166,13 +50166,13 @@
         <v>-1</v>
       </c>
       <c r="Z558">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA558">
         <v>-1</v>
       </c>
       <c r="AB558">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC558">
         <v>-1</v>
@@ -51785,7 +51785,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>6811264</v>
+        <v>6811265</v>
       </c>
       <c r="C577" t="s">
         <v>28</v>
@@ -51797,76 +51797,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F577" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G577" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H577">
         <v>1</v>
       </c>
       <c r="I577">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J577" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K577">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="L577">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M577">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="N577">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O577">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P577">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q577">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R577">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S577">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T577">
         <v>2.75</v>
       </c>
       <c r="U577">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V577">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W577">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X577">
         <v>-1</v>
       </c>
       <c r="Y577">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z577">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA577">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB577">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC577">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="578" spans="1:29">
@@ -51874,7 +51874,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>6811265</v>
+        <v>6811264</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51886,76 +51886,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F578" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G578" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H578">
         <v>1</v>
       </c>
       <c r="I578">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J578" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K578">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="L578">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M578">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="N578">
+        <v>2.05</v>
+      </c>
+      <c r="O578">
         <v>3.6</v>
       </c>
-      <c r="O578">
-        <v>3.8</v>
-      </c>
       <c r="P578">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q578">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R578">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S578">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T578">
         <v>2.75</v>
       </c>
       <c r="U578">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V578">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W578">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X578">
         <v>-1</v>
       </c>
       <c r="Y578">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z578">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA578">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB578">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC578">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -52675,7 +52675,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>6810779</v>
+        <v>6810310</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52687,76 +52687,76 @@
         <v>45314.625</v>
       </c>
       <c r="F587" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G587" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I587">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J587" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K587">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L587">
         <v>3.6</v>
       </c>
       <c r="M587">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N587">
         <v>3.2</v>
       </c>
       <c r="O587">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P587">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q587">
         <v>0.25</v>
       </c>
       <c r="R587">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S587">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T587">
         <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V587">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W587">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X587">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y587">
         <v>-1</v>
       </c>
       <c r="Z587">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA587">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB587">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC587">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52764,7 +52764,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6810310</v>
+        <v>6810779</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52776,76 +52776,76 @@
         <v>45314.625</v>
       </c>
       <c r="F588" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G588" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H588">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I588">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J588" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K588">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="L588">
         <v>3.6</v>
       </c>
       <c r="M588">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N588">
         <v>3.2</v>
       </c>
       <c r="O588">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P588">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q588">
         <v>0.25</v>
       </c>
       <c r="R588">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S588">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T588">
         <v>2.75</v>
       </c>
       <c r="U588">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V588">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W588">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X588">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y588">
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA588">
+        <v>-1</v>
+      </c>
+      <c r="AB588">
+        <v>0.4</v>
+      </c>
+      <c r="AC588">
         <v>-0.5</v>
-      </c>
-      <c r="AB588">
-        <v>0.875</v>
-      </c>
-      <c r="AC588">
-        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52853,7 +52853,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>6811271</v>
+        <v>6811274</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52862,49 +52862,49 @@
         <v>28</v>
       </c>
       <c r="E589" s="2">
-        <v>45318.6875</v>
+        <v>45319.42708333334</v>
       </c>
       <c r="F589" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G589" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K589">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L589">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M589">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N589">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="O589">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P589">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q589">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R589">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S589">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T589">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U589">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V589">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W589">
         <v>0</v>
@@ -52927,7 +52927,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>6811274</v>
+        <v>6811272</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -52936,49 +52936,49 @@
         <v>28</v>
       </c>
       <c r="E590" s="2">
-        <v>45319.42708333334</v>
+        <v>45319.52083333334</v>
       </c>
       <c r="F590" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G590" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K590">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L590">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M590">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="N590">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="O590">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P590">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q590">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R590">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S590">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T590">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U590">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V590">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W590">
         <v>0</v>
@@ -53001,7 +53001,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>6811272</v>
+        <v>6811273</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53013,46 +53013,46 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F591" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G591" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K591">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L591">
+        <v>3.5</v>
+      </c>
+      <c r="M591">
+        <v>5</v>
+      </c>
+      <c r="N591">
+        <v>2.05</v>
+      </c>
+      <c r="O591">
         <v>3.6</v>
       </c>
-      <c r="M591">
-        <v>1.909</v>
-      </c>
-      <c r="N591">
-        <v>3.4</v>
-      </c>
-      <c r="O591">
-        <v>3.8</v>
-      </c>
       <c r="P591">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q591">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R591">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S591">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T591">
         <v>2.75</v>
       </c>
       <c r="U591">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V591">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W591">
         <v>0</v>
@@ -53067,80 +53067,6 @@
         <v>0</v>
       </c>
       <c r="AA591">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592" spans="1:29">
-      <c r="A592" s="1">
-        <v>590</v>
-      </c>
-      <c r="B592">
-        <v>6811273</v>
-      </c>
-      <c r="C592" t="s">
-        <v>28</v>
-      </c>
-      <c r="D592" t="s">
-        <v>28</v>
-      </c>
-      <c r="E592" s="2">
-        <v>45319.52083333334</v>
-      </c>
-      <c r="F592" t="s">
-        <v>38</v>
-      </c>
-      <c r="G592" t="s">
-        <v>32</v>
-      </c>
-      <c r="K592">
-        <v>1.727</v>
-      </c>
-      <c r="L592">
-        <v>3.5</v>
-      </c>
-      <c r="M592">
-        <v>5</v>
-      </c>
-      <c r="N592">
-        <v>1.95</v>
-      </c>
-      <c r="O592">
-        <v>3.6</v>
-      </c>
-      <c r="P592">
-        <v>3.75</v>
-      </c>
-      <c r="Q592">
-        <v>-0.5</v>
-      </c>
-      <c r="R592">
-        <v>1.975</v>
-      </c>
-      <c r="S592">
-        <v>1.875</v>
-      </c>
-      <c r="T592">
-        <v>2.75</v>
-      </c>
-      <c r="U592">
-        <v>1.825</v>
-      </c>
-      <c r="V592">
-        <v>2.025</v>
-      </c>
-      <c r="W592">
-        <v>0</v>
-      </c>
-      <c r="X592">
-        <v>0</v>
-      </c>
-      <c r="Y592">
-        <v>0</v>
-      </c>
-      <c r="Z592">
-        <v>0</v>
-      </c>
-      <c r="AA592">
         <v>0</v>
       </c>
     </row>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3163456</v>
+        <v>3164050</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,22 +2313,22 @@
         <v>44234.5</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="L21">
         <v>4.75</v>
@@ -2337,49 +2337,49 @@
         <v>6</v>
       </c>
       <c r="N21">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="O21">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>8</v>
+        <v>5.25</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R21">
+        <v>1.975</v>
+      </c>
+      <c r="S21">
         <v>1.875</v>
       </c>
-      <c r="S21">
-        <v>1.975</v>
-      </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>0.875</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3164051</v>
+        <v>3163456</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,10 +2402,10 @@
         <v>44234.5</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -2417,43 +2417,43 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L22">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M22">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N22">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P22">
-        <v>2.35</v>
+        <v>8</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S22">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W22">
-        <v>1.8</v>
+        <v>0.363</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2462,13 +2462,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2479,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3164050</v>
+        <v>3164051</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2491,73 +2491,73 @@
         <v>44234.5</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N23">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>5.25</v>
+        <v>2.35</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X23">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3164082</v>
+        <v>3164063</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,73 +5072,73 @@
         <v>44262.5</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N52">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
+        <v>1.825</v>
+      </c>
+      <c r="S52">
+        <v>2.025</v>
+      </c>
+      <c r="T52">
+        <v>3</v>
+      </c>
+      <c r="U52">
+        <v>1.975</v>
+      </c>
+      <c r="V52">
         <v>1.875</v>
       </c>
-      <c r="S52">
-        <v>1.975</v>
-      </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
-      <c r="U52">
-        <v>1.9</v>
-      </c>
-      <c r="V52">
-        <v>1.95</v>
-      </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA52">
+        <v>-1</v>
+      </c>
+      <c r="AB52">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB52">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5149,7 +5149,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3164063</v>
+        <v>3164082</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5161,73 +5161,73 @@
         <v>44262.5</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K53">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N53">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W53">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3163641</v>
+        <v>3164073</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,76 +6407,76 @@
         <v>44290.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="L67">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="N67">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="O67">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P67">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q67">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y67">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3164073</v>
+        <v>3163641</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,76 +6496,76 @@
         <v>44290.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M68">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="N68">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="O68">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P68">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3324637</v>
+        <v>3324635</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,67 +7653,67 @@
         <v>44307.64583333334</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
+        <v>2.25</v>
+      </c>
+      <c r="N81">
+        <v>3.6</v>
+      </c>
+      <c r="O81">
+        <v>3.8</v>
+      </c>
+      <c r="P81">
+        <v>1.85</v>
+      </c>
+      <c r="Q81">
+        <v>0.5</v>
+      </c>
+      <c r="R81">
+        <v>1.925</v>
+      </c>
+      <c r="S81">
+        <v>1.925</v>
+      </c>
+      <c r="T81">
+        <v>2.75</v>
+      </c>
+      <c r="U81">
+        <v>1.9</v>
+      </c>
+      <c r="V81">
+        <v>1.95</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
         <v>2.8</v>
       </c>
-      <c r="N81">
-        <v>2.45</v>
-      </c>
-      <c r="O81">
-        <v>3.4</v>
-      </c>
-      <c r="P81">
-        <v>2.75</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>1.825</v>
-      </c>
-      <c r="S81">
-        <v>2.025</v>
-      </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
-      <c r="U81">
-        <v>1.925</v>
-      </c>
-      <c r="V81">
-        <v>1.925</v>
-      </c>
-      <c r="W81">
-        <v>1.45</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7722,7 +7722,7 @@
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3324635</v>
+        <v>3324637</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,76 +7742,76 @@
         <v>44307.64583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L82">
+        <v>3.3</v>
+      </c>
+      <c r="M82">
+        <v>2.8</v>
+      </c>
+      <c r="N82">
+        <v>2.45</v>
+      </c>
+      <c r="O82">
         <v>3.4</v>
       </c>
-      <c r="M82">
-        <v>2.25</v>
-      </c>
-      <c r="N82">
-        <v>3.6</v>
-      </c>
-      <c r="O82">
-        <v>3.8</v>
-      </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R82">
+        <v>1.825</v>
+      </c>
+      <c r="S82">
+        <v>2.025</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
         <v>1.925</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>1.925</v>
       </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
-      <c r="U82">
-        <v>1.9</v>
-      </c>
-      <c r="V82">
-        <v>1.95</v>
-      </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X82">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
+        <v>0.825</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>0.925</v>
-      </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
-      <c r="AC82">
-        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>3324831</v>
+        <v>3324640</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>44311.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L88">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="N88">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O88">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P88">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q88">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3324640</v>
+        <v>3324831</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>44311.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L89">
+        <v>6</v>
+      </c>
+      <c r="M89">
+        <v>12</v>
+      </c>
+      <c r="N89">
+        <v>1.333</v>
+      </c>
+      <c r="O89">
+        <v>5.25</v>
+      </c>
+      <c r="P89">
+        <v>8</v>
+      </c>
+      <c r="Q89">
+        <v>-1.5</v>
+      </c>
+      <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
+        <v>1.875</v>
+      </c>
+      <c r="T89">
         <v>3.25</v>
       </c>
-      <c r="M89">
-        <v>2.6</v>
-      </c>
-      <c r="N89">
-        <v>2.4</v>
-      </c>
-      <c r="O89">
-        <v>3.25</v>
-      </c>
-      <c r="P89">
-        <v>2.8</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
-      <c r="S89">
-        <v>2.05</v>
-      </c>
-      <c r="T89">
-        <v>2.5</v>
-      </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC89">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>3324651</v>
+        <v>3324650</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,58 +9878,58 @@
         <v>44331.64583333334</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>45</v>
       </c>
       <c r="K106">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9938,13 +9938,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9955,7 +9955,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>3324650</v>
+        <v>3324651</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9967,58 +9967,58 @@
         <v>44331.64583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>45</v>
       </c>
       <c r="K107">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N107">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T107">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10027,13 +10027,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -17965,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3690125</v>
+        <v>3690124</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17977,61 +17977,61 @@
         <v>44542.52083333334</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
         <v>43</v>
       </c>
       <c r="K197">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L197">
         <v>3.5</v>
       </c>
       <c r="M197">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N197">
         <v>2.1</v>
       </c>
       <c r="O197">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P197">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y197">
         <v>-1</v>
@@ -18040,13 +18040,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18054,7 +18054,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3690124</v>
+        <v>3690125</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18066,61 +18066,61 @@
         <v>44542.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
         <v>43</v>
       </c>
       <c r="K198">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N198">
         <v>2.1</v>
       </c>
       <c r="O198">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P198">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q198">
         <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18129,13 +18129,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC198">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -21169,7 +21169,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3690147</v>
+        <v>3690146</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21181,49 +21181,49 @@
         <v>44623.6875</v>
       </c>
       <c r="F233" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233">
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K233">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L233">
+        <v>4</v>
+      </c>
+      <c r="M233">
+        <v>4.333</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233">
+        <v>3.8</v>
+      </c>
+      <c r="P233">
+        <v>3.4</v>
+      </c>
+      <c r="Q233">
+        <v>-0.5</v>
+      </c>
+      <c r="R233">
+        <v>2.025</v>
+      </c>
+      <c r="S233">
+        <v>1.825</v>
+      </c>
+      <c r="T233">
         <v>3.25</v>
-      </c>
-      <c r="M233">
-        <v>2.8</v>
-      </c>
-      <c r="N233">
-        <v>2.45</v>
-      </c>
-      <c r="O233">
-        <v>3.25</v>
-      </c>
-      <c r="P233">
-        <v>3</v>
-      </c>
-      <c r="Q233">
-        <v>0</v>
-      </c>
-      <c r="R233">
-        <v>1.775</v>
-      </c>
-      <c r="S233">
-        <v>2.1</v>
-      </c>
-      <c r="T233">
-        <v>2.25</v>
       </c>
       <c r="U233">
         <v>2</v>
@@ -21235,16 +21235,16 @@
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y233">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AB233">
         <v>1</v>
@@ -21258,7 +21258,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>3690146</v>
+        <v>3690147</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21270,49 +21270,49 @@
         <v>44623.6875</v>
       </c>
       <c r="F234" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234">
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K234">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M234">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N234">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O234">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P234">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R234">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S234">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T234">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
         <v>2</v>
@@ -21324,16 +21324,16 @@
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB234">
         <v>1</v>
@@ -22504,7 +22504,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>3690156</v>
+        <v>3689428</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22516,49 +22516,49 @@
         <v>44640.52083333334</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G248" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I248">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K248">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L248">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M248">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N248">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O248">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P248">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q248">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S248">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T248">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U248">
         <v>1.825</v>
@@ -22567,19 +22567,19 @@
         <v>2.025</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA248">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
         <v>0.825</v>
@@ -22593,7 +22593,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>3689428</v>
+        <v>3690156</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22605,49 +22605,49 @@
         <v>44640.52083333334</v>
       </c>
       <c r="F249" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G249" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H249">
+        <v>2</v>
+      </c>
+      <c r="I249">
+        <v>4</v>
+      </c>
+      <c r="J249" t="s">
+        <v>44</v>
+      </c>
+      <c r="K249">
         <v>3</v>
       </c>
-      <c r="I249">
-        <v>1</v>
-      </c>
-      <c r="J249" t="s">
-        <v>45</v>
-      </c>
-      <c r="K249">
-        <v>1.666</v>
-      </c>
       <c r="L249">
+        <v>3.4</v>
+      </c>
+      <c r="M249">
+        <v>2.15</v>
+      </c>
+      <c r="N249">
+        <v>3.1</v>
+      </c>
+      <c r="O249">
         <v>3.6</v>
       </c>
-      <c r="M249">
-        <v>4.5</v>
-      </c>
-      <c r="N249">
-        <v>1.833</v>
-      </c>
-      <c r="O249">
-        <v>3.3</v>
-      </c>
       <c r="P249">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q249">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R249">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S249">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T249">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U249">
         <v>1.825</v>
@@ -22656,19 +22656,19 @@
         <v>2.025</v>
       </c>
       <c r="W249">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z249">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA249">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB249">
         <v>0.825</v>
@@ -23394,7 +23394,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>3690164</v>
+        <v>3690163</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23406,73 +23406,73 @@
         <v>44661.47916666666</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J258" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K258">
+        <v>1.8</v>
+      </c>
+      <c r="L258">
+        <v>3.75</v>
+      </c>
+      <c r="M258">
+        <v>4.2</v>
+      </c>
+      <c r="N258">
+        <v>1.727</v>
+      </c>
+      <c r="O258">
+        <v>3.75</v>
+      </c>
+      <c r="P258">
+        <v>5</v>
+      </c>
+      <c r="Q258">
+        <v>-0.75</v>
+      </c>
+      <c r="R258">
+        <v>1.9</v>
+      </c>
+      <c r="S258">
+        <v>1.95</v>
+      </c>
+      <c r="T258">
         <v>2.25</v>
       </c>
-      <c r="L258">
-        <v>3.4</v>
-      </c>
-      <c r="M258">
-        <v>2.8</v>
-      </c>
-      <c r="N258">
-        <v>1.95</v>
-      </c>
-      <c r="O258">
+      <c r="U258">
+        <v>1.85</v>
+      </c>
+      <c r="V258">
+        <v>2</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
         <v>4</v>
       </c>
-      <c r="P258">
-        <v>3.4</v>
-      </c>
-      <c r="Q258">
-        <v>-0.5</v>
-      </c>
-      <c r="R258">
-        <v>1.925</v>
-      </c>
-      <c r="S258">
-        <v>1.925</v>
-      </c>
-      <c r="T258">
-        <v>3.25</v>
-      </c>
-      <c r="U258">
-        <v>1.875</v>
-      </c>
-      <c r="V258">
-        <v>1.975</v>
-      </c>
-      <c r="W258">
-        <v>-1</v>
-      </c>
-      <c r="X258">
-        <v>3</v>
-      </c>
-      <c r="Y258">
-        <v>-1</v>
-      </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB258">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC258">
         <v>-1</v>
@@ -23483,7 +23483,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>3690163</v>
+        <v>3690164</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23495,73 +23495,73 @@
         <v>44661.47916666666</v>
       </c>
       <c r="F259" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G259" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259">
+        <v>2</v>
+      </c>
+      <c r="J259" t="s">
+        <v>43</v>
+      </c>
+      <c r="K259">
+        <v>2.25</v>
+      </c>
+      <c r="L259">
+        <v>3.4</v>
+      </c>
+      <c r="M259">
+        <v>2.8</v>
+      </c>
+      <c r="N259">
+        <v>1.95</v>
+      </c>
+      <c r="O259">
+        <v>4</v>
+      </c>
+      <c r="P259">
+        <v>3.4</v>
+      </c>
+      <c r="Q259">
+        <v>-0.5</v>
+      </c>
+      <c r="R259">
+        <v>1.925</v>
+      </c>
+      <c r="S259">
+        <v>1.925</v>
+      </c>
+      <c r="T259">
+        <v>3.25</v>
+      </c>
+      <c r="U259">
+        <v>1.875</v>
+      </c>
+      <c r="V259">
+        <v>1.975</v>
+      </c>
+      <c r="W259">
+        <v>-1</v>
+      </c>
+      <c r="X259">
         <v>3</v>
       </c>
-      <c r="J259" t="s">
-        <v>44</v>
-      </c>
-      <c r="K259">
-        <v>1.8</v>
-      </c>
-      <c r="L259">
-        <v>3.75</v>
-      </c>
-      <c r="M259">
-        <v>4.2</v>
-      </c>
-      <c r="N259">
-        <v>1.727</v>
-      </c>
-      <c r="O259">
-        <v>3.75</v>
-      </c>
-      <c r="P259">
-        <v>5</v>
-      </c>
-      <c r="Q259">
-        <v>-0.75</v>
-      </c>
-      <c r="R259">
-        <v>1.9</v>
-      </c>
-      <c r="S259">
-        <v>1.95</v>
-      </c>
-      <c r="T259">
-        <v>2.25</v>
-      </c>
-      <c r="U259">
-        <v>1.85</v>
-      </c>
-      <c r="V259">
-        <v>2</v>
-      </c>
-      <c r="W259">
-        <v>-1</v>
-      </c>
-      <c r="X259">
-        <v>-1</v>
-      </c>
       <c r="Y259">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB259">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC259">
         <v>-1</v>
@@ -24284,7 +24284,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>3854807</v>
+        <v>3887930</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24296,58 +24296,58 @@
         <v>44675.47916666666</v>
       </c>
       <c r="F268" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G268" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H268">
         <v>3</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
         <v>45</v>
       </c>
       <c r="K268">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L268">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M268">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N268">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O268">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P268">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q268">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R268">
+        <v>1.825</v>
+      </c>
+      <c r="S268">
+        <v>2.025</v>
+      </c>
+      <c r="T268">
+        <v>3</v>
+      </c>
+      <c r="U268">
         <v>1.85</v>
       </c>
-      <c r="S268">
-        <v>2</v>
-      </c>
-      <c r="T268">
-        <v>2.75</v>
-      </c>
-      <c r="U268">
-        <v>1.95</v>
-      </c>
       <c r="V268">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W268">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X268">
         <v>-1</v>
@@ -24356,16 +24356,16 @@
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC268">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24373,7 +24373,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>3887930</v>
+        <v>3854807</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24385,76 +24385,76 @@
         <v>44675.47916666666</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G269" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H269">
         <v>3</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
         <v>45</v>
       </c>
       <c r="K269">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L269">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M269">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N269">
+        <v>2.15</v>
+      </c>
+      <c r="O269">
+        <v>3.4</v>
+      </c>
+      <c r="P269">
+        <v>3.4</v>
+      </c>
+      <c r="Q269">
+        <v>-0.25</v>
+      </c>
+      <c r="R269">
         <v>1.85</v>
       </c>
-      <c r="O269">
-        <v>4</v>
-      </c>
-      <c r="P269">
-        <v>3.8</v>
-      </c>
-      <c r="Q269">
-        <v>-0.5</v>
-      </c>
-      <c r="R269">
-        <v>1.825</v>
-      </c>
       <c r="S269">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T269">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U269">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V269">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W269">
+        <v>1.15</v>
+      </c>
+      <c r="X269">
+        <v>-1</v>
+      </c>
+      <c r="Y269">
+        <v>-1</v>
+      </c>
+      <c r="Z269">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X269">
-        <v>-1</v>
-      </c>
-      <c r="Y269">
-        <v>-1</v>
-      </c>
-      <c r="Z269">
-        <v>0.825</v>
-      </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC269">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25619,7 +25619,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>3985296</v>
+        <v>3988949</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25631,61 +25631,61 @@
         <v>44693.64583333334</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G283" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
         <v>43</v>
       </c>
       <c r="K283">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="L283">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M283">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N283">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O283">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P283">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q283">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R283">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S283">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T283">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U283">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V283">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y283">
         <v>-1</v>
@@ -25694,13 +25694,13 @@
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB283">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25708,7 +25708,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>3988949</v>
+        <v>3985296</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25720,61 +25720,61 @@
         <v>44693.64583333334</v>
       </c>
       <c r="F284" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G284" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
         <v>43</v>
       </c>
       <c r="K284">
+        <v>1.3</v>
+      </c>
+      <c r="L284">
+        <v>5</v>
+      </c>
+      <c r="M284">
+        <v>7</v>
+      </c>
+      <c r="N284">
+        <v>1.65</v>
+      </c>
+      <c r="O284">
+        <v>4.333</v>
+      </c>
+      <c r="P284">
+        <v>4.5</v>
+      </c>
+      <c r="Q284">
+        <v>-1</v>
+      </c>
+      <c r="R284">
+        <v>2.125</v>
+      </c>
+      <c r="S284">
         <v>1.75</v>
       </c>
-      <c r="L284">
-        <v>3.5</v>
-      </c>
-      <c r="M284">
-        <v>3.75</v>
-      </c>
-      <c r="N284">
-        <v>1.833</v>
-      </c>
-      <c r="O284">
-        <v>4</v>
-      </c>
-      <c r="P284">
-        <v>4</v>
-      </c>
-      <c r="Q284">
-        <v>-0.5</v>
-      </c>
-      <c r="R284">
-        <v>1.85</v>
-      </c>
-      <c r="S284">
-        <v>2</v>
-      </c>
       <c r="T284">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U284">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V284">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y284">
         <v>-1</v>
@@ -25783,13 +25783,13 @@
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC284">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25797,7 +25797,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>4048896</v>
+        <v>4052007</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25809,76 +25809,76 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F285" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G285" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K285">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L285">
         <v>3.6</v>
       </c>
       <c r="M285">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N285">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O285">
+        <v>3.8</v>
+      </c>
+      <c r="P285">
         <v>3.6</v>
-      </c>
-      <c r="P285">
-        <v>3.5</v>
       </c>
       <c r="Q285">
         <v>-0.5</v>
       </c>
       <c r="R285">
+        <v>1.925</v>
+      </c>
+      <c r="S285">
+        <v>1.925</v>
+      </c>
+      <c r="T285">
+        <v>3.25</v>
+      </c>
+      <c r="U285">
         <v>2.05</v>
       </c>
-      <c r="S285">
+      <c r="V285">
         <v>1.8</v>
       </c>
-      <c r="T285">
-        <v>3</v>
-      </c>
-      <c r="U285">
-        <v>1.9</v>
-      </c>
-      <c r="V285">
-        <v>1.95</v>
-      </c>
       <c r="W285">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25886,7 +25886,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>3988950</v>
+        <v>4052006</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25898,73 +25898,73 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F286" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G286" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286">
         <v>2</v>
       </c>
       <c r="J286" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K286">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L286">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M286">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N286">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O286">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P286">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R286">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S286">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T286">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U286">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V286">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W286">
         <v>-1</v>
       </c>
       <c r="X286">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB286">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC286">
         <v>-1</v>
@@ -25975,7 +25975,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>4052006</v>
+        <v>3988950</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -25987,73 +25987,73 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F287" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G287" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287">
         <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K287">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L287">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M287">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N287">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O287">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P287">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q287">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R287">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S287">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T287">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U287">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V287">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y287">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA287">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB287">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC287">
         <v>-1</v>
@@ -26153,7 +26153,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>4052007</v>
+        <v>4048896</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26165,76 +26165,76 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F289" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G289" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K289">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L289">
         <v>3.6</v>
       </c>
       <c r="M289">
+        <v>2.9</v>
+      </c>
+      <c r="N289">
         <v>2.05</v>
       </c>
-      <c r="N289">
-        <v>1.909</v>
-      </c>
       <c r="O289">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P289">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q289">
         <v>-0.5</v>
       </c>
       <c r="R289">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S289">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T289">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U289">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V289">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X289">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA289">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC289">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -31315,7 +31315,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>5172765</v>
+        <v>5172767</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31327,10 +31327,10 @@
         <v>44850.47916666666</v>
       </c>
       <c r="F347" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G347" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -31342,61 +31342,61 @@
         <v>43</v>
       </c>
       <c r="K347">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L347">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M347">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N347">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O347">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P347">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q347">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R347">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S347">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA347">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31404,7 +31404,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>5172767</v>
+        <v>5172765</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31416,10 +31416,10 @@
         <v>44850.47916666666</v>
       </c>
       <c r="F348" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G348" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -31431,61 +31431,61 @@
         <v>43</v>
       </c>
       <c r="K348">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M348">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N348">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O348">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P348">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q348">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R348">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S348">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T348">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V348">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W348">
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31760,7 +31760,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>5172768</v>
+        <v>5172769</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31772,76 +31772,76 @@
         <v>44854.64583333334</v>
       </c>
       <c r="F352" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G352" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J352" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K352">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L352">
         <v>3.75</v>
       </c>
       <c r="M352">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N352">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="O352">
         <v>3.8</v>
       </c>
       <c r="P352">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q352">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R352">
+        <v>1.95</v>
+      </c>
+      <c r="S352">
         <v>1.9</v>
-      </c>
-      <c r="S352">
-        <v>1.95</v>
       </c>
       <c r="T352">
         <v>2.75</v>
       </c>
       <c r="U352">
+        <v>1.9</v>
+      </c>
+      <c r="V352">
         <v>1.95</v>
       </c>
-      <c r="V352">
-        <v>1.9</v>
-      </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC352">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31849,7 +31849,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>5172769</v>
+        <v>5172768</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31861,76 +31861,76 @@
         <v>44854.64583333334</v>
       </c>
       <c r="F353" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G353" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K353">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L353">
         <v>3.75</v>
       </c>
       <c r="M353">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N353">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O353">
         <v>3.8</v>
       </c>
       <c r="P353">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q353">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R353">
+        <v>1.9</v>
+      </c>
+      <c r="S353">
         <v>1.95</v>
-      </c>
-      <c r="S353">
-        <v>1.9</v>
       </c>
       <c r="T353">
         <v>2.75</v>
       </c>
       <c r="U353">
+        <v>1.95</v>
+      </c>
+      <c r="V353">
         <v>1.9</v>
       </c>
-      <c r="V353">
-        <v>1.95</v>
-      </c>
       <c r="W353">
         <v>-1</v>
       </c>
       <c r="X353">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y353">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
+        <v>0.95</v>
+      </c>
+      <c r="AB353">
+        <v>-1</v>
+      </c>
+      <c r="AC353">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB353">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC353">
-        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -35854,7 +35854,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>5172796</v>
+        <v>5172797</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35866,73 +35866,73 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F398" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G398" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398">
         <v>2</v>
       </c>
       <c r="J398" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K398">
+        <v>3.6</v>
+      </c>
+      <c r="L398">
+        <v>3.5</v>
+      </c>
+      <c r="M398">
+        <v>2</v>
+      </c>
+      <c r="N398">
+        <v>4.2</v>
+      </c>
+      <c r="O398">
+        <v>3.5</v>
+      </c>
+      <c r="P398">
         <v>1.85</v>
       </c>
-      <c r="L398">
-        <v>3.6</v>
-      </c>
-      <c r="M398">
-        <v>4.2</v>
-      </c>
-      <c r="N398">
-        <v>1.833</v>
-      </c>
-      <c r="O398">
-        <v>3.6</v>
-      </c>
-      <c r="P398">
-        <v>4.333</v>
-      </c>
       <c r="Q398">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R398">
+        <v>1.975</v>
+      </c>
+      <c r="S398">
+        <v>1.875</v>
+      </c>
+      <c r="T398">
+        <v>2.5</v>
+      </c>
+      <c r="U398">
         <v>1.85</v>
       </c>
-      <c r="S398">
-        <v>2</v>
-      </c>
-      <c r="T398">
-        <v>2.75</v>
-      </c>
-      <c r="U398">
-        <v>1.975</v>
-      </c>
       <c r="V398">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W398">
         <v>-1</v>
       </c>
       <c r="X398">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z398">
         <v>-1</v>
       </c>
       <c r="AA398">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB398">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC398">
         <v>-1</v>
@@ -35943,7 +35943,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>5172797</v>
+        <v>5172796</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35955,73 +35955,73 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F399" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G399" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I399">
         <v>2</v>
       </c>
       <c r="J399" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K399">
+        <v>1.85</v>
+      </c>
+      <c r="L399">
         <v>3.6</v>
       </c>
-      <c r="L399">
-        <v>3.5</v>
-      </c>
       <c r="M399">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N399">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="O399">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P399">
+        <v>4.333</v>
+      </c>
+      <c r="Q399">
+        <v>-0.5</v>
+      </c>
+      <c r="R399">
         <v>1.85</v>
       </c>
-      <c r="Q399">
-        <v>0.5</v>
-      </c>
-      <c r="R399">
+      <c r="S399">
+        <v>2</v>
+      </c>
+      <c r="T399">
+        <v>2.75</v>
+      </c>
+      <c r="U399">
         <v>1.975</v>
       </c>
-      <c r="S399">
+      <c r="V399">
         <v>1.875</v>
       </c>
-      <c r="T399">
-        <v>2.5</v>
-      </c>
-      <c r="U399">
-        <v>1.85</v>
-      </c>
-      <c r="V399">
-        <v>2</v>
-      </c>
       <c r="W399">
         <v>-1</v>
       </c>
       <c r="X399">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y399">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB399">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC399">
         <v>-1</v>
@@ -37634,7 +37634,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>5172810</v>
+        <v>5172808</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37646,49 +37646,49 @@
         <v>45004.52083333334</v>
       </c>
       <c r="F418" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G418" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J418" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K418">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L418">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M418">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N418">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O418">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P418">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q418">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R418">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S418">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T418">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U418">
         <v>1.85</v>
@@ -37697,25 +37697,25 @@
         <v>2</v>
       </c>
       <c r="W418">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X418">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y418">
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA418">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB418">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC418">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37723,7 +37723,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>5172808</v>
+        <v>5172810</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37735,49 +37735,49 @@
         <v>45004.52083333334</v>
       </c>
       <c r="F419" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G419" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I419">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J419" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K419">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L419">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M419">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N419">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O419">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P419">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q419">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R419">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S419">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T419">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U419">
         <v>1.85</v>
@@ -37786,25 +37786,25 @@
         <v>2</v>
       </c>
       <c r="W419">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X419">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA419">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB419">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC419">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -38079,7 +38079,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>5171755</v>
+        <v>5172813</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38091,76 +38091,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F423" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G423" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I423">
         <v>2</v>
       </c>
       <c r="J423" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K423">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L423">
+        <v>3.5</v>
+      </c>
+      <c r="M423">
+        <v>2.9</v>
+      </c>
+      <c r="N423">
+        <v>2.2</v>
+      </c>
+      <c r="O423">
         <v>3.6</v>
       </c>
-      <c r="M423">
-        <v>3.75</v>
-      </c>
-      <c r="N423">
-        <v>1.5</v>
-      </c>
-      <c r="O423">
-        <v>4.75</v>
-      </c>
       <c r="P423">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q423">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R423">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S423">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T423">
         <v>3</v>
       </c>
       <c r="U423">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V423">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W423">
         <v>-1</v>
       </c>
       <c r="X423">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y423">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA423">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB423">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC423">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38168,7 +38168,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>5172813</v>
+        <v>5171755</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38180,76 +38180,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F424" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G424" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424">
         <v>2</v>
       </c>
       <c r="J424" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K424">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L424">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M424">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N424">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O424">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P424">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q424">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R424">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S424">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T424">
         <v>3</v>
       </c>
       <c r="U424">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V424">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W424">
         <v>-1</v>
       </c>
       <c r="X424">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y424">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z424">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA424">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC424">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -41817,7 +41817,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>5505757</v>
+        <v>5498511</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41829,13 +41829,13 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F465" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G465" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -41853,16 +41853,16 @@
         <v>2.15</v>
       </c>
       <c r="N465">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O465">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P465">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q465">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R465">
         <v>1.85</v>
@@ -41871,13 +41871,13 @@
         <v>2</v>
       </c>
       <c r="T465">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U465">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V465">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W465">
         <v>-1</v>
@@ -41886,7 +41886,7 @@
         <v>-1</v>
       </c>
       <c r="Y465">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z465">
         <v>-1</v>
@@ -41895,10 +41895,10 @@
         <v>1</v>
       </c>
       <c r="AB465">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC465">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -41906,7 +41906,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>5505837</v>
+        <v>5498510</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41918,76 +41918,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F466" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G466" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H466">
         <v>2</v>
       </c>
       <c r="I466">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J466" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K466">
+        <v>2.6</v>
+      </c>
+      <c r="L466">
         <v>3.5</v>
       </c>
-      <c r="L466">
-        <v>3.75</v>
-      </c>
       <c r="M466">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="N466">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="O466">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P466">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q466">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R466">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S466">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T466">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U466">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V466">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W466">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X466">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y466">
         <v>-1</v>
       </c>
       <c r="Z466">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA466">
         <v>-1</v>
       </c>
       <c r="AB466">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC466">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -41995,7 +41995,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>5498510</v>
+        <v>5495233</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42007,73 +42007,73 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F467" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G467" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I467">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J467" t="s">
         <v>43</v>
       </c>
       <c r="K467">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="L467">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M467">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N467">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="O467">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P467">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="Q467">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R467">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S467">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T467">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U467">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V467">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W467">
         <v>-1</v>
       </c>
       <c r="X467">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y467">
         <v>-1</v>
       </c>
       <c r="Z467">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA467">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB467">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC467">
         <v>-1</v>
@@ -42084,7 +42084,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>5498511</v>
+        <v>5505837</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42096,76 +42096,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F468" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G468" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I468">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J468" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K468">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L468">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M468">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N468">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O468">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P468">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="Q468">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R468">
+        <v>2</v>
+      </c>
+      <c r="S468">
         <v>1.85</v>
-      </c>
-      <c r="S468">
-        <v>2</v>
       </c>
       <c r="T468">
         <v>3.25</v>
       </c>
       <c r="U468">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V468">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W468">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X468">
         <v>-1</v>
       </c>
       <c r="Y468">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z468">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA468">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB468">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC468">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="469" spans="1:29">
@@ -42173,7 +42173,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>5495233</v>
+        <v>5505757</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42185,76 +42185,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F469" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G469" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H469">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J469" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K469">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L469">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M469">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N469">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O469">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P469">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q469">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R469">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S469">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T469">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U469">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V469">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W469">
         <v>-1</v>
       </c>
       <c r="X469">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y469">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z469">
         <v>-1</v>
       </c>
       <c r="AA469">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB469">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC469">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42707,7 +42707,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6810293</v>
+        <v>6811200</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42719,76 +42719,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F475" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G475" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I475">
+        <v>1</v>
+      </c>
+      <c r="J475" t="s">
+        <v>45</v>
+      </c>
+      <c r="K475">
+        <v>2.1</v>
+      </c>
+      <c r="L475">
+        <v>3.5</v>
+      </c>
+      <c r="M475">
         <v>3</v>
       </c>
-      <c r="J475" t="s">
-        <v>44</v>
-      </c>
-      <c r="K475">
-        <v>3.4</v>
-      </c>
-      <c r="L475">
-        <v>3.4</v>
-      </c>
-      <c r="M475">
-        <v>1.95</v>
-      </c>
       <c r="N475">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O475">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P475">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q475">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R475">
+        <v>2.025</v>
+      </c>
+      <c r="S475">
         <v>1.825</v>
       </c>
-      <c r="S475">
-        <v>2.025</v>
-      </c>
       <c r="T475">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U475">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V475">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W475">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X475">
         <v>-1</v>
       </c>
       <c r="Y475">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z475">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA475">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB475">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC475">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -42796,7 +42796,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>6811200</v>
+        <v>6810293</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42808,76 +42808,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F476" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G476" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J476" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K476">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L476">
+        <v>3.4</v>
+      </c>
+      <c r="M476">
+        <v>1.95</v>
+      </c>
+      <c r="N476">
         <v>3.5</v>
       </c>
-      <c r="M476">
-        <v>3</v>
-      </c>
-      <c r="N476">
-        <v>1.8</v>
-      </c>
       <c r="O476">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P476">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q476">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R476">
+        <v>1.825</v>
+      </c>
+      <c r="S476">
         <v>2.025</v>
       </c>
-      <c r="S476">
-        <v>1.825</v>
-      </c>
       <c r="T476">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U476">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V476">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W476">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X476">
         <v>-1</v>
       </c>
       <c r="Y476">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z476">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA476">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB476">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC476">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42974,7 +42974,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>6811202</v>
+        <v>6810762</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42986,34 +42986,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F478" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G478" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H478">
         <v>2</v>
       </c>
       <c r="I478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J478" t="s">
         <v>45</v>
       </c>
       <c r="K478">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="L478">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M478">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N478">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O478">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P478">
         <v>7</v>
@@ -43022,22 +43022,22 @@
         <v>-1.25</v>
       </c>
       <c r="R478">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S478">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T478">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U478">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V478">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W478">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X478">
         <v>-1</v>
@@ -43046,16 +43046,16 @@
         <v>-1</v>
       </c>
       <c r="Z478">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA478">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB478">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC478">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43063,7 +43063,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>6810762</v>
+        <v>6811202</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43075,34 +43075,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F479" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G479" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H479">
         <v>2</v>
       </c>
       <c r="I479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J479" t="s">
         <v>45</v>
       </c>
       <c r="K479">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="L479">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M479">
+        <v>7.5</v>
+      </c>
+      <c r="N479">
+        <v>1.4</v>
+      </c>
+      <c r="O479">
         <v>5.25</v>
-      </c>
-      <c r="N479">
-        <v>1.45</v>
-      </c>
-      <c r="O479">
-        <v>4.5</v>
       </c>
       <c r="P479">
         <v>7</v>
@@ -43111,22 +43111,22 @@
         <v>-1.25</v>
       </c>
       <c r="R479">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S479">
+        <v>2.025</v>
+      </c>
+      <c r="T479">
+        <v>3.25</v>
+      </c>
+      <c r="U479">
+        <v>2</v>
+      </c>
+      <c r="V479">
         <v>1.85</v>
       </c>
-      <c r="T479">
-        <v>2.75</v>
-      </c>
-      <c r="U479">
-        <v>1.8</v>
-      </c>
-      <c r="V479">
-        <v>2.05</v>
-      </c>
       <c r="W479">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X479">
         <v>-1</v>
@@ -43135,16 +43135,16 @@
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA479">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB479">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC479">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -44131,7 +44131,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>6811288</v>
+        <v>6811209</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44143,13 +44143,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F491" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G491" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H491">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491">
         <v>1</v>
@@ -44158,43 +44158,43 @@
         <v>45</v>
       </c>
       <c r="K491">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L491">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M491">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N491">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O491">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P491">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q491">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R491">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S491">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T491">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U491">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V491">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W491">
-        <v>1.875</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X491">
         <v>-1</v>
@@ -44203,16 +44203,16 @@
         <v>-1</v>
       </c>
       <c r="Z491">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA491">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB491">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC491">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44220,7 +44220,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>6811209</v>
+        <v>6811288</v>
       </c>
       <c r="C492" t="s">
         <v>28</v>
@@ -44232,13 +44232,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F492" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G492" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I492">
         <v>1</v>
@@ -44247,43 +44247,43 @@
         <v>45</v>
       </c>
       <c r="K492">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L492">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M492">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N492">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O492">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P492">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q492">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R492">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S492">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T492">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U492">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V492">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W492">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X492">
         <v>-1</v>
@@ -44292,16 +44292,16 @@
         <v>-1</v>
       </c>
       <c r="Z492">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA492">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB492">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC492">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493" spans="1:29">
@@ -46089,7 +46089,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>6811225</v>
+        <v>6810298</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46101,58 +46101,58 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F513" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G513" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H513">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J513" t="s">
         <v>45</v>
       </c>
       <c r="K513">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L513">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M513">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N513">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O513">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P513">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q513">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R513">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S513">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T513">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U513">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V513">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W513">
-        <v>0.6499999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X513">
         <v>-1</v>
@@ -46161,16 +46161,16 @@
         <v>-1</v>
       </c>
       <c r="Z513">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA513">
         <v>-1</v>
       </c>
       <c r="AB513">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC513">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="514" spans="1:29">
@@ -46178,7 +46178,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>6810298</v>
+        <v>6811225</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46190,58 +46190,58 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F514" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G514" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J514" t="s">
         <v>45</v>
       </c>
       <c r="K514">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L514">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M514">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N514">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O514">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P514">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q514">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R514">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S514">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T514">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U514">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V514">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W514">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X514">
         <v>-1</v>
@@ -46250,16 +46250,16 @@
         <v>-1</v>
       </c>
       <c r="Z514">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA514">
         <v>-1</v>
       </c>
       <c r="AB514">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC514">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="515" spans="1:29">
@@ -46623,7 +46623,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6810768</v>
+        <v>6811229</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46635,10 +46635,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F519" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G519" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H519">
         <v>1</v>
@@ -46650,61 +46650,61 @@
         <v>43</v>
       </c>
       <c r="K519">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L519">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M519">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N519">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O519">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P519">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q519">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R519">
+        <v>1.925</v>
+      </c>
+      <c r="S519">
+        <v>1.925</v>
+      </c>
+      <c r="T519">
+        <v>3</v>
+      </c>
+      <c r="U519">
+        <v>1.95</v>
+      </c>
+      <c r="V519">
         <v>1.9</v>
       </c>
-      <c r="S519">
-        <v>1.95</v>
-      </c>
-      <c r="T519">
-        <v>2.75</v>
-      </c>
-      <c r="U519">
-        <v>1.85</v>
-      </c>
-      <c r="V519">
-        <v>2</v>
-      </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y519">
         <v>-1</v>
       </c>
       <c r="Z519">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA519">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB519">
         <v>-1</v>
       </c>
       <c r="AC519">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46712,7 +46712,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>6811229</v>
+        <v>6810768</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46724,10 +46724,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F520" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G520" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H520">
         <v>1</v>
@@ -46739,61 +46739,61 @@
         <v>43</v>
       </c>
       <c r="K520">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L520">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M520">
+        <v>4</v>
+      </c>
+      <c r="N520">
+        <v>2.15</v>
+      </c>
+      <c r="O520">
+        <v>3.75</v>
+      </c>
+      <c r="P520">
+        <v>3.1</v>
+      </c>
+      <c r="Q520">
+        <v>-0.25</v>
+      </c>
+      <c r="R520">
+        <v>1.9</v>
+      </c>
+      <c r="S520">
+        <v>1.95</v>
+      </c>
+      <c r="T520">
         <v>2.75</v>
       </c>
-      <c r="N520">
-        <v>2.55</v>
-      </c>
-      <c r="O520">
-        <v>3.6</v>
-      </c>
-      <c r="P520">
-        <v>2.55</v>
-      </c>
-      <c r="Q520">
-        <v>0</v>
-      </c>
-      <c r="R520">
-        <v>1.925</v>
-      </c>
-      <c r="S520">
-        <v>1.925</v>
-      </c>
-      <c r="T520">
-        <v>3</v>
-      </c>
       <c r="U520">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V520">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W520">
         <v>-1</v>
       </c>
       <c r="X520">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y520">
         <v>-1</v>
       </c>
       <c r="Z520">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA520">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -46801,7 +46801,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>6811230</v>
+        <v>6810300</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46813,40 +46813,40 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F521" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G521" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H521">
         <v>2</v>
       </c>
       <c r="I521">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J521" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K521">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L521">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M521">
-        <v>2.25</v>
+        <v>4.1</v>
       </c>
       <c r="N521">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O521">
         <v>3.6</v>
       </c>
       <c r="P521">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q521">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R521">
         <v>1.925</v>
@@ -46855,34 +46855,34 @@
         <v>1.925</v>
       </c>
       <c r="T521">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U521">
+        <v>1.825</v>
+      </c>
+      <c r="V521">
         <v>2.025</v>
       </c>
-      <c r="V521">
-        <v>1.825</v>
-      </c>
       <c r="W521">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X521">
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z521">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA521">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB521">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC521">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -46890,7 +46890,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>6810300</v>
+        <v>6811230</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46902,40 +46902,40 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F522" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G522" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H522">
         <v>2</v>
       </c>
       <c r="I522">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J522" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K522">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L522">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M522">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="N522">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O522">
         <v>3.6</v>
       </c>
       <c r="P522">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q522">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R522">
         <v>1.925</v>
@@ -46944,34 +46944,34 @@
         <v>1.925</v>
       </c>
       <c r="T522">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U522">
+        <v>2.025</v>
+      </c>
+      <c r="V522">
         <v>1.825</v>
       </c>
-      <c r="V522">
-        <v>2.025</v>
-      </c>
       <c r="W522">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X522">
         <v>-1</v>
       </c>
       <c r="Y522">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z522">
+        <v>-1</v>
+      </c>
+      <c r="AA522">
         <v>0.925</v>
       </c>
-      <c r="AA522">
-        <v>-1</v>
-      </c>
       <c r="AB522">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC522">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="523" spans="1:29">
@@ -47157,7 +47157,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>6811233</v>
+        <v>6811232</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47169,55 +47169,55 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F525" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G525" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J525" t="s">
         <v>44</v>
       </c>
       <c r="K525">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L525">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M525">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="N525">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O525">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P525">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q525">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R525">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S525">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T525">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U525">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V525">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W525">
         <v>-1</v>
@@ -47226,19 +47226,19 @@
         <v>-1</v>
       </c>
       <c r="Y525">
-        <v>1.875</v>
+        <v>3.333</v>
       </c>
       <c r="Z525">
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB525">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC525">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47246,7 +47246,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>6811232</v>
+        <v>6811233</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47258,76 +47258,76 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F526" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G526" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I526">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J526" t="s">
         <v>44</v>
       </c>
       <c r="K526">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L526">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M526">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="N526">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O526">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P526">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q526">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R526">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S526">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T526">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U526">
+        <v>1.9</v>
+      </c>
+      <c r="V526">
+        <v>1.95</v>
+      </c>
+      <c r="W526">
+        <v>-1</v>
+      </c>
+      <c r="X526">
+        <v>-1</v>
+      </c>
+      <c r="Y526">
         <v>1.875</v>
       </c>
-      <c r="V526">
-        <v>1.975</v>
-      </c>
-      <c r="W526">
-        <v>-1</v>
-      </c>
-      <c r="X526">
-        <v>-1</v>
-      </c>
-      <c r="Y526">
-        <v>3.333</v>
-      </c>
       <c r="Z526">
         <v>-1</v>
       </c>
       <c r="AA526">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB526">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC526">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47869,7 +47869,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>6811239</v>
+        <v>6811238</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47881,55 +47881,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F533" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G533" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J533" t="s">
         <v>43</v>
       </c>
       <c r="K533">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L533">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M533">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N533">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O533">
         <v>3.75</v>
       </c>
       <c r="P533">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q533">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R533">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S533">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T533">
         <v>2.75</v>
       </c>
       <c r="U533">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V533">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W533">
         <v>-1</v>
@@ -47941,16 +47941,16 @@
         <v>-1</v>
       </c>
       <c r="Z533">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA533">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB533">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC533">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534" spans="1:29">
@@ -47958,7 +47958,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>6811238</v>
+        <v>6811239</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47970,55 +47970,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F534" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G534" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J534" t="s">
         <v>43</v>
       </c>
       <c r="K534">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L534">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M534">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N534">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O534">
         <v>3.75</v>
       </c>
       <c r="P534">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q534">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R534">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S534">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T534">
         <v>2.75</v>
       </c>
       <c r="U534">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V534">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W534">
         <v>-1</v>
@@ -48030,16 +48030,16 @@
         <v>-1</v>
       </c>
       <c r="Z534">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA534">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB534">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC534">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -48225,7 +48225,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>6810771</v>
+        <v>6811241</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48237,10 +48237,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F537" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G537" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H537">
         <v>2</v>
@@ -48252,43 +48252,43 @@
         <v>45</v>
       </c>
       <c r="K537">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L537">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M537">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N537">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O537">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P537">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q537">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R537">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S537">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T537">
         <v>3</v>
       </c>
       <c r="U537">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V537">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W537">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X537">
         <v>-1</v>
@@ -48297,10 +48297,10 @@
         <v>-1</v>
       </c>
       <c r="Z537">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA537">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB537">
         <v>0</v>
@@ -48314,7 +48314,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>6811241</v>
+        <v>6810771</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -48326,10 +48326,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F538" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G538" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H538">
         <v>2</v>
@@ -48341,43 +48341,43 @@
         <v>45</v>
       </c>
       <c r="K538">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L538">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M538">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N538">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O538">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P538">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q538">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R538">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S538">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T538">
         <v>3</v>
       </c>
       <c r="U538">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V538">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W538">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X538">
         <v>-1</v>
@@ -48386,10 +48386,10 @@
         <v>-1</v>
       </c>
       <c r="Z538">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA538">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB538">
         <v>0</v>
@@ -49471,7 +49471,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>6811251</v>
+        <v>6810774</v>
       </c>
       <c r="C551" t="s">
         <v>28</v>
@@ -49483,73 +49483,73 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F551" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G551" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H551">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I551">
         <v>2</v>
       </c>
       <c r="J551" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K551">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L551">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M551">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N551">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O551">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P551">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q551">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R551">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S551">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T551">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U551">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V551">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W551">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X551">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y551">
         <v>-1</v>
       </c>
       <c r="Z551">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA551">
         <v>-1</v>
       </c>
       <c r="AB551">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC551">
         <v>-1</v>
@@ -49560,7 +49560,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>6810774</v>
+        <v>6811251</v>
       </c>
       <c r="C552" t="s">
         <v>28</v>
@@ -49572,73 +49572,73 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F552" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G552" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I552">
         <v>2</v>
       </c>
       <c r="J552" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K552">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L552">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M552">
+        <v>5.5</v>
+      </c>
+      <c r="N552">
+        <v>1.5</v>
+      </c>
+      <c r="O552">
+        <v>4.75</v>
+      </c>
+      <c r="P552">
+        <v>5.25</v>
+      </c>
+      <c r="Q552">
+        <v>-1</v>
+      </c>
+      <c r="R552">
+        <v>1.8</v>
+      </c>
+      <c r="S552">
         <v>2.05</v>
       </c>
-      <c r="N552">
-        <v>3.6</v>
-      </c>
-      <c r="O552">
-        <v>3.8</v>
-      </c>
-      <c r="P552">
-        <v>1.95</v>
-      </c>
-      <c r="Q552">
+      <c r="T552">
+        <v>3.5</v>
+      </c>
+      <c r="U552">
+        <v>2</v>
+      </c>
+      <c r="V552">
+        <v>1.85</v>
+      </c>
+      <c r="W552">
         <v>0.5</v>
       </c>
-      <c r="R552">
-        <v>1.9</v>
-      </c>
-      <c r="S552">
-        <v>1.95</v>
-      </c>
-      <c r="T552">
-        <v>2.75</v>
-      </c>
-      <c r="U552">
-        <v>1.975</v>
-      </c>
-      <c r="V552">
-        <v>1.875</v>
-      </c>
-      <c r="W552">
-        <v>-1</v>
-      </c>
       <c r="X552">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y552">
         <v>-1</v>
       </c>
       <c r="Z552">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA552">
         <v>-1</v>
       </c>
       <c r="AB552">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC552">
         <v>-1</v>
@@ -50005,7 +50005,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6811256</v>
+        <v>6811255</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50017,10 +50017,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F557" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G557" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H557">
         <v>3</v>
@@ -50032,43 +50032,43 @@
         <v>45</v>
       </c>
       <c r="K557">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L557">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M557">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N557">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O557">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P557">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q557">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R557">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S557">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T557">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U557">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V557">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W557">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="X557">
         <v>-1</v>
@@ -50077,13 +50077,13 @@
         <v>-1</v>
       </c>
       <c r="Z557">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA557">
         <v>-1</v>
       </c>
       <c r="AB557">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC557">
         <v>-1</v>
@@ -50094,7 +50094,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>6811255</v>
+        <v>6811256</v>
       </c>
       <c r="C558" t="s">
         <v>28</v>
@@ -50106,10 +50106,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F558" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G558" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H558">
         <v>3</v>
@@ -50121,43 +50121,43 @@
         <v>45</v>
       </c>
       <c r="K558">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L558">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M558">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N558">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O558">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P558">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q558">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R558">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S558">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T558">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U558">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V558">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W558">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="X558">
         <v>-1</v>
@@ -50166,13 +50166,13 @@
         <v>-1</v>
       </c>
       <c r="Z558">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA558">
         <v>-1</v>
       </c>
       <c r="AB558">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC558">
         <v>-1</v>
@@ -52141,7 +52141,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>6810309</v>
+        <v>6811263</v>
       </c>
       <c r="C581" t="s">
         <v>28</v>
@@ -52153,76 +52153,76 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F581" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G581" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J581" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K581">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L581">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M581">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N581">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O581">
         <v>3.8</v>
       </c>
       <c r="P581">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q581">
         <v>-0.75</v>
       </c>
       <c r="R581">
+        <v>1.825</v>
+      </c>
+      <c r="S581">
         <v>2.025</v>
       </c>
-      <c r="S581">
-        <v>1.825</v>
-      </c>
       <c r="T581">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U581">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V581">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W581">
         <v>-1</v>
       </c>
       <c r="X581">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y581">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z581">
         <v>-1</v>
       </c>
       <c r="AA581">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB581">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC581">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="582" spans="1:29">
@@ -52230,7 +52230,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>6811263</v>
+        <v>6810309</v>
       </c>
       <c r="C582" t="s">
         <v>28</v>
@@ -52242,76 +52242,76 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F582" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G582" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J582" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K582">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L582">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M582">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N582">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O582">
         <v>3.8</v>
       </c>
       <c r="P582">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q582">
         <v>-0.75</v>
       </c>
       <c r="R582">
+        <v>2.025</v>
+      </c>
+      <c r="S582">
         <v>1.825</v>
       </c>
-      <c r="S582">
-        <v>2.025</v>
-      </c>
       <c r="T582">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U582">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V582">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W582">
         <v>-1</v>
       </c>
       <c r="X582">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y582">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z582">
         <v>-1</v>
       </c>
       <c r="AA582">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB582">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC582">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583" spans="1:29">
@@ -52880,7 +52880,7 @@
         <v>5</v>
       </c>
       <c r="N589">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O589">
         <v>4</v>
@@ -52892,19 +52892,19 @@
         <v>-0.75</v>
       </c>
       <c r="R589">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S589">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T589">
         <v>3.25</v>
       </c>
       <c r="U589">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V589">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W589">
         <v>0</v>
@@ -52966,19 +52966,19 @@
         <v>0.5</v>
       </c>
       <c r="R590">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S590">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T590">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U590">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V590">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W590">
         <v>0</v>
@@ -53034,25 +53034,25 @@
         <v>3.6</v>
       </c>
       <c r="P591">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q591">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R591">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S591">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T591">
         <v>2.75</v>
       </c>
       <c r="U591">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V591">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W591">
         <v>0</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3164050</v>
+        <v>3163456</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,22 +2313,22 @@
         <v>44234.5</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="L21">
         <v>4.75</v>
@@ -2337,49 +2337,49 @@
         <v>6</v>
       </c>
       <c r="N21">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P21">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
         <v>1.975</v>
       </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X21">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3163456</v>
+        <v>3164051</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,10 +2402,10 @@
         <v>44234.5</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -2417,43 +2417,43 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O22">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>8</v>
+        <v>2.35</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U22">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V22">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>0.363</v>
+        <v>1.8</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2462,13 +2462,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2479,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3164051</v>
+        <v>3164050</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2491,73 +2491,73 @@
         <v>44234.5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M23">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N23">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P23">
-        <v>2.35</v>
+        <v>5.25</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB23">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -5060,7 +5060,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3164063</v>
+        <v>3164082</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5072,73 +5072,73 @@
         <v>44262.5</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K52">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L52">
         <v>3.5</v>
       </c>
       <c r="M52">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N52">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W52">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5149,7 +5149,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3164082</v>
+        <v>3164063</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5161,73 +5161,73 @@
         <v>44262.5</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L53">
         <v>3.5</v>
       </c>
       <c r="M53">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="N53">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
+        <v>1.825</v>
+      </c>
+      <c r="S53">
+        <v>2.025</v>
+      </c>
+      <c r="T53">
+        <v>3</v>
+      </c>
+      <c r="U53">
+        <v>1.975</v>
+      </c>
+      <c r="V53">
         <v>1.875</v>
       </c>
-      <c r="S53">
-        <v>1.975</v>
-      </c>
-      <c r="T53">
-        <v>2.5</v>
-      </c>
-      <c r="U53">
-        <v>1.9</v>
-      </c>
-      <c r="V53">
-        <v>1.95</v>
-      </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA53">
+        <v>-1</v>
+      </c>
+      <c r="AB53">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB53">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3164073</v>
+        <v>3163641</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,76 +6407,76 @@
         <v>44290.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M67">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="N67">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P67">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6484,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3163641</v>
+        <v>3164073</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,76 +6496,76 @@
         <v>44290.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="L68">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="N68">
-        <v>9</v>
+        <v>1.909</v>
       </c>
       <c r="O68">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y68">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>3324635</v>
+        <v>3324637</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,76 +7653,76 @@
         <v>44307.64583333334</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L81">
+        <v>3.3</v>
+      </c>
+      <c r="M81">
+        <v>2.8</v>
+      </c>
+      <c r="N81">
+        <v>2.45</v>
+      </c>
+      <c r="O81">
         <v>3.4</v>
       </c>
-      <c r="M81">
-        <v>2.25</v>
-      </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>3.8</v>
-      </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R81">
+        <v>1.825</v>
+      </c>
+      <c r="S81">
+        <v>2.025</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
         <v>1.925</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.925</v>
       </c>
-      <c r="T81">
-        <v>2.75</v>
-      </c>
-      <c r="U81">
-        <v>1.9</v>
-      </c>
-      <c r="V81">
-        <v>1.95</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X81">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
+        <v>0.825</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.925</v>
-      </c>
-      <c r="AA81">
-        <v>-1</v>
-      </c>
-      <c r="AB81">
-        <v>-1</v>
-      </c>
-      <c r="AC81">
-        <v>0.95</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7730,7 +7730,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3324637</v>
+        <v>3324635</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,67 +7742,67 @@
         <v>44307.64583333334</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
+        <v>2.25</v>
+      </c>
+      <c r="N82">
+        <v>3.6</v>
+      </c>
+      <c r="O82">
+        <v>3.8</v>
+      </c>
+      <c r="P82">
+        <v>1.85</v>
+      </c>
+      <c r="Q82">
+        <v>0.5</v>
+      </c>
+      <c r="R82">
+        <v>1.925</v>
+      </c>
+      <c r="S82">
+        <v>1.925</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
+        <v>1.9</v>
+      </c>
+      <c r="V82">
+        <v>1.95</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>2.8</v>
       </c>
-      <c r="N82">
-        <v>2.45</v>
-      </c>
-      <c r="O82">
-        <v>3.4</v>
-      </c>
-      <c r="P82">
-        <v>2.75</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>1.825</v>
-      </c>
-      <c r="S82">
-        <v>2.025</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.925</v>
-      </c>
-      <c r="V82">
-        <v>1.925</v>
-      </c>
-      <c r="W82">
-        <v>1.45</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA82">
         <v>-1</v>
@@ -7811,7 +7811,7 @@
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8264,7 +8264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>3324640</v>
+        <v>3324831</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8276,76 +8276,76 @@
         <v>44311.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>2.6</v>
+        <v>1.222</v>
       </c>
       <c r="L88">
+        <v>6</v>
+      </c>
+      <c r="M88">
+        <v>12</v>
+      </c>
+      <c r="N88">
+        <v>1.333</v>
+      </c>
+      <c r="O88">
+        <v>5.25</v>
+      </c>
+      <c r="P88">
+        <v>8</v>
+      </c>
+      <c r="Q88">
+        <v>-1.5</v>
+      </c>
+      <c r="R88">
+        <v>1.975</v>
+      </c>
+      <c r="S88">
+        <v>1.875</v>
+      </c>
+      <c r="T88">
         <v>3.25</v>
       </c>
-      <c r="M88">
-        <v>2.6</v>
-      </c>
-      <c r="N88">
-        <v>2.4</v>
-      </c>
-      <c r="O88">
-        <v>3.25</v>
-      </c>
-      <c r="P88">
-        <v>2.8</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>1.8</v>
-      </c>
-      <c r="S88">
-        <v>2.05</v>
-      </c>
-      <c r="T88">
-        <v>2.5</v>
-      </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC88">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8353,7 +8353,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3324831</v>
+        <v>3324640</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8365,76 +8365,76 @@
         <v>44311.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89">
-        <v>1.222</v>
+        <v>2.6</v>
       </c>
       <c r="L89">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M89">
-        <v>12</v>
+        <v>2.6</v>
       </c>
       <c r="N89">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O89">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P89">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q89">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W89">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>3324650</v>
+        <v>3324651</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,58 +9878,58 @@
         <v>44331.64583333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>45</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N106">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9938,13 +9938,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9955,7 +9955,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>3324651</v>
+        <v>3324650</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9967,58 +9967,58 @@
         <v>44331.64583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>45</v>
       </c>
       <c r="K107">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N107">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P107">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10027,13 +10027,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -17965,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3690124</v>
+        <v>3690125</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17977,61 +17977,61 @@
         <v>44542.52083333334</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>43</v>
       </c>
       <c r="K197">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L197">
         <v>3.5</v>
       </c>
       <c r="M197">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N197">
         <v>2.1</v>
       </c>
       <c r="O197">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y197">
         <v>-1</v>
@@ -18040,13 +18040,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18054,7 +18054,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3690125</v>
+        <v>3690124</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18066,61 +18066,61 @@
         <v>44542.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>43</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N198">
         <v>2.1</v>
       </c>
       <c r="O198">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P198">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q198">
         <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18129,13 +18129,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -21169,7 +21169,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3690146</v>
+        <v>3690147</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21181,49 +21181,49 @@
         <v>44623.6875</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233">
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K233">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M233">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N233">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O233">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P233">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q233">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T233">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
         <v>2</v>
@@ -21235,16 +21235,16 @@
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB233">
         <v>1</v>
@@ -21258,7 +21258,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>3690147</v>
+        <v>3690146</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21270,49 +21270,49 @@
         <v>44623.6875</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234">
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K234">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L234">
+        <v>4</v>
+      </c>
+      <c r="M234">
+        <v>4.333</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234">
+        <v>3.8</v>
+      </c>
+      <c r="P234">
+        <v>3.4</v>
+      </c>
+      <c r="Q234">
+        <v>-0.5</v>
+      </c>
+      <c r="R234">
+        <v>2.025</v>
+      </c>
+      <c r="S234">
+        <v>1.825</v>
+      </c>
+      <c r="T234">
         <v>3.25</v>
-      </c>
-      <c r="M234">
-        <v>2.8</v>
-      </c>
-      <c r="N234">
-        <v>2.45</v>
-      </c>
-      <c r="O234">
-        <v>3.25</v>
-      </c>
-      <c r="P234">
-        <v>3</v>
-      </c>
-      <c r="Q234">
-        <v>0</v>
-      </c>
-      <c r="R234">
-        <v>1.775</v>
-      </c>
-      <c r="S234">
-        <v>2.1</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
       </c>
       <c r="U234">
         <v>2</v>
@@ -21324,16 +21324,16 @@
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y234">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AB234">
         <v>1</v>
@@ -22504,7 +22504,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>3689428</v>
+        <v>3690156</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22516,49 +22516,49 @@
         <v>44640.52083333334</v>
       </c>
       <c r="F248" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G248" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248">
+        <v>4</v>
+      </c>
+      <c r="J248" t="s">
+        <v>44</v>
+      </c>
+      <c r="K248">
         <v>3</v>
       </c>
-      <c r="I248">
-        <v>1</v>
-      </c>
-      <c r="J248" t="s">
-        <v>45</v>
-      </c>
-      <c r="K248">
-        <v>1.666</v>
-      </c>
       <c r="L248">
+        <v>3.4</v>
+      </c>
+      <c r="M248">
+        <v>2.15</v>
+      </c>
+      <c r="N248">
+        <v>3.1</v>
+      </c>
+      <c r="O248">
         <v>3.6</v>
       </c>
-      <c r="M248">
-        <v>4.5</v>
-      </c>
-      <c r="N248">
-        <v>1.833</v>
-      </c>
-      <c r="O248">
-        <v>3.3</v>
-      </c>
       <c r="P248">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q248">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R248">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S248">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T248">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U248">
         <v>1.825</v>
@@ -22567,19 +22567,19 @@
         <v>2.025</v>
       </c>
       <c r="W248">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X248">
         <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z248">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB248">
         <v>0.825</v>
@@ -22593,7 +22593,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>3690156</v>
+        <v>3689428</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22605,49 +22605,49 @@
         <v>44640.52083333334</v>
       </c>
       <c r="F249" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G249" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I249">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K249">
-        <v>3</v>
+        <v>1.666</v>
       </c>
       <c r="L249">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M249">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N249">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O249">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P249">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q249">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R249">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S249">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T249">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U249">
         <v>1.825</v>
@@ -22656,19 +22656,19 @@
         <v>2.025</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA249">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB249">
         <v>0.825</v>
@@ -23394,7 +23394,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>3690163</v>
+        <v>3690164</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23406,73 +23406,73 @@
         <v>44661.47916666666</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258" t="s">
+        <v>43</v>
+      </c>
+      <c r="K258">
+        <v>2.25</v>
+      </c>
+      <c r="L258">
+        <v>3.4</v>
+      </c>
+      <c r="M258">
+        <v>2.8</v>
+      </c>
+      <c r="N258">
+        <v>1.95</v>
+      </c>
+      <c r="O258">
+        <v>4</v>
+      </c>
+      <c r="P258">
+        <v>3.4</v>
+      </c>
+      <c r="Q258">
+        <v>-0.5</v>
+      </c>
+      <c r="R258">
+        <v>1.925</v>
+      </c>
+      <c r="S258">
+        <v>1.925</v>
+      </c>
+      <c r="T258">
+        <v>3.25</v>
+      </c>
+      <c r="U258">
+        <v>1.875</v>
+      </c>
+      <c r="V258">
+        <v>1.975</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
         <v>3</v>
       </c>
-      <c r="J258" t="s">
-        <v>44</v>
-      </c>
-      <c r="K258">
-        <v>1.8</v>
-      </c>
-      <c r="L258">
-        <v>3.75</v>
-      </c>
-      <c r="M258">
-        <v>4.2</v>
-      </c>
-      <c r="N258">
-        <v>1.727</v>
-      </c>
-      <c r="O258">
-        <v>3.75</v>
-      </c>
-      <c r="P258">
-        <v>5</v>
-      </c>
-      <c r="Q258">
-        <v>-0.75</v>
-      </c>
-      <c r="R258">
-        <v>1.9</v>
-      </c>
-      <c r="S258">
-        <v>1.95</v>
-      </c>
-      <c r="T258">
-        <v>2.25</v>
-      </c>
-      <c r="U258">
-        <v>1.85</v>
-      </c>
-      <c r="V258">
-        <v>2</v>
-      </c>
-      <c r="W258">
-        <v>-1</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
       <c r="Y258">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB258">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC258">
         <v>-1</v>
@@ -23483,7 +23483,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>3690164</v>
+        <v>3690163</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23495,73 +23495,73 @@
         <v>44661.47916666666</v>
       </c>
       <c r="F259" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G259" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J259" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K259">
+        <v>1.8</v>
+      </c>
+      <c r="L259">
+        <v>3.75</v>
+      </c>
+      <c r="M259">
+        <v>4.2</v>
+      </c>
+      <c r="N259">
+        <v>1.727</v>
+      </c>
+      <c r="O259">
+        <v>3.75</v>
+      </c>
+      <c r="P259">
+        <v>5</v>
+      </c>
+      <c r="Q259">
+        <v>-0.75</v>
+      </c>
+      <c r="R259">
+        <v>1.9</v>
+      </c>
+      <c r="S259">
+        <v>1.95</v>
+      </c>
+      <c r="T259">
         <v>2.25</v>
       </c>
-      <c r="L259">
-        <v>3.4</v>
-      </c>
-      <c r="M259">
-        <v>2.8</v>
-      </c>
-      <c r="N259">
-        <v>1.95</v>
-      </c>
-      <c r="O259">
+      <c r="U259">
+        <v>1.85</v>
+      </c>
+      <c r="V259">
+        <v>2</v>
+      </c>
+      <c r="W259">
+        <v>-1</v>
+      </c>
+      <c r="X259">
+        <v>-1</v>
+      </c>
+      <c r="Y259">
         <v>4</v>
       </c>
-      <c r="P259">
-        <v>3.4</v>
-      </c>
-      <c r="Q259">
-        <v>-0.5</v>
-      </c>
-      <c r="R259">
-        <v>1.925</v>
-      </c>
-      <c r="S259">
-        <v>1.925</v>
-      </c>
-      <c r="T259">
-        <v>3.25</v>
-      </c>
-      <c r="U259">
-        <v>1.875</v>
-      </c>
-      <c r="V259">
-        <v>1.975</v>
-      </c>
-      <c r="W259">
-        <v>-1</v>
-      </c>
-      <c r="X259">
-        <v>3</v>
-      </c>
-      <c r="Y259">
-        <v>-1</v>
-      </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB259">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC259">
         <v>-1</v>
@@ -24284,7 +24284,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>3887930</v>
+        <v>3854807</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24296,76 +24296,76 @@
         <v>44675.47916666666</v>
       </c>
       <c r="F268" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G268" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H268">
         <v>3</v>
       </c>
       <c r="I268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J268" t="s">
         <v>45</v>
       </c>
       <c r="K268">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L268">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M268">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N268">
+        <v>2.15</v>
+      </c>
+      <c r="O268">
+        <v>3.4</v>
+      </c>
+      <c r="P268">
+        <v>3.4</v>
+      </c>
+      <c r="Q268">
+        <v>-0.25</v>
+      </c>
+      <c r="R268">
         <v>1.85</v>
       </c>
-      <c r="O268">
-        <v>4</v>
-      </c>
-      <c r="P268">
-        <v>3.8</v>
-      </c>
-      <c r="Q268">
-        <v>-0.5</v>
-      </c>
-      <c r="R268">
-        <v>1.825</v>
-      </c>
       <c r="S268">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T268">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U268">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W268">
+        <v>1.15</v>
+      </c>
+      <c r="X268">
+        <v>-1</v>
+      </c>
+      <c r="Y268">
+        <v>-1</v>
+      </c>
+      <c r="Z268">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X268">
-        <v>-1</v>
-      </c>
-      <c r="Y268">
-        <v>-1</v>
-      </c>
-      <c r="Z268">
-        <v>0.825</v>
-      </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC268">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24373,7 +24373,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>3854807</v>
+        <v>3887930</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24385,58 +24385,58 @@
         <v>44675.47916666666</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H269">
         <v>3</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
         <v>45</v>
       </c>
       <c r="K269">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L269">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M269">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N269">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O269">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P269">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R269">
+        <v>1.825</v>
+      </c>
+      <c r="S269">
+        <v>2.025</v>
+      </c>
+      <c r="T269">
+        <v>3</v>
+      </c>
+      <c r="U269">
         <v>1.85</v>
       </c>
-      <c r="S269">
-        <v>2</v>
-      </c>
-      <c r="T269">
-        <v>2.75</v>
-      </c>
-      <c r="U269">
-        <v>1.95</v>
-      </c>
       <c r="V269">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W269">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X269">
         <v>-1</v>
@@ -24445,16 +24445,16 @@
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -25619,7 +25619,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>3988949</v>
+        <v>3985296</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25631,61 +25631,61 @@
         <v>44693.64583333334</v>
       </c>
       <c r="F283" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G283" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
         <v>43</v>
       </c>
       <c r="K283">
+        <v>1.3</v>
+      </c>
+      <c r="L283">
+        <v>5</v>
+      </c>
+      <c r="M283">
+        <v>7</v>
+      </c>
+      <c r="N283">
+        <v>1.65</v>
+      </c>
+      <c r="O283">
+        <v>4.333</v>
+      </c>
+      <c r="P283">
+        <v>4.5</v>
+      </c>
+      <c r="Q283">
+        <v>-1</v>
+      </c>
+      <c r="R283">
+        <v>2.125</v>
+      </c>
+      <c r="S283">
         <v>1.75</v>
       </c>
-      <c r="L283">
-        <v>3.5</v>
-      </c>
-      <c r="M283">
-        <v>3.75</v>
-      </c>
-      <c r="N283">
-        <v>1.833</v>
-      </c>
-      <c r="O283">
-        <v>4</v>
-      </c>
-      <c r="P283">
-        <v>4</v>
-      </c>
-      <c r="Q283">
-        <v>-0.5</v>
-      </c>
-      <c r="R283">
-        <v>1.85</v>
-      </c>
-      <c r="S283">
-        <v>2</v>
-      </c>
       <c r="T283">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V283">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W283">
         <v>-1</v>
       </c>
       <c r="X283">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y283">
         <v>-1</v>
@@ -25694,13 +25694,13 @@
         <v>-1</v>
       </c>
       <c r="AA283">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC283">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25708,7 +25708,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>3985296</v>
+        <v>3988949</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25720,61 +25720,61 @@
         <v>44693.64583333334</v>
       </c>
       <c r="F284" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
         <v>43</v>
       </c>
       <c r="K284">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="L284">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M284">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N284">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O284">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P284">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q284">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R284">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S284">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T284">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U284">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V284">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y284">
         <v>-1</v>
@@ -25783,13 +25783,13 @@
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB284">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25797,7 +25797,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>4052007</v>
+        <v>4048896</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25809,76 +25809,76 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F285" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G285" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K285">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L285">
         <v>3.6</v>
       </c>
       <c r="M285">
+        <v>2.9</v>
+      </c>
+      <c r="N285">
         <v>2.05</v>
       </c>
-      <c r="N285">
-        <v>1.909</v>
-      </c>
       <c r="O285">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P285">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q285">
         <v>-0.5</v>
       </c>
       <c r="R285">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S285">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T285">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U285">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V285">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X285">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA285">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC285">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25886,7 +25886,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>4052006</v>
+        <v>3988950</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25898,73 +25898,73 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F286" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G286" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286">
         <v>2</v>
       </c>
       <c r="J286" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K286">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L286">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M286">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N286">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O286">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P286">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q286">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R286">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S286">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T286">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U286">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V286">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W286">
         <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y286">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA286">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB286">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC286">
         <v>-1</v>
@@ -25975,7 +25975,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>3988950</v>
+        <v>4052006</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -25987,73 +25987,73 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F287" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G287" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287">
         <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K287">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L287">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M287">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N287">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O287">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P287">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q287">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R287">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S287">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T287">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U287">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V287">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W287">
         <v>-1</v>
       </c>
       <c r="X287">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB287">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC287">
         <v>-1</v>
@@ -26153,7 +26153,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>4048896</v>
+        <v>4052007</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26165,76 +26165,76 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G289" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K289">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L289">
         <v>3.6</v>
       </c>
       <c r="M289">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N289">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O289">
+        <v>3.8</v>
+      </c>
+      <c r="P289">
         <v>3.6</v>
-      </c>
-      <c r="P289">
-        <v>3.5</v>
       </c>
       <c r="Q289">
         <v>-0.5</v>
       </c>
       <c r="R289">
+        <v>1.925</v>
+      </c>
+      <c r="S289">
+        <v>1.925</v>
+      </c>
+      <c r="T289">
+        <v>3.25</v>
+      </c>
+      <c r="U289">
         <v>2.05</v>
       </c>
-      <c r="S289">
+      <c r="V289">
         <v>1.8</v>
       </c>
-      <c r="T289">
-        <v>3</v>
-      </c>
-      <c r="U289">
-        <v>1.9</v>
-      </c>
-      <c r="V289">
-        <v>1.95</v>
-      </c>
       <c r="W289">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X289">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB289">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC289">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -31315,7 +31315,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>5172767</v>
+        <v>5172765</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31327,10 +31327,10 @@
         <v>44850.47916666666</v>
       </c>
       <c r="F347" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G347" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -31342,61 +31342,61 @@
         <v>43</v>
       </c>
       <c r="K347">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M347">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N347">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O347">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P347">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q347">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R347">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S347">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T347">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U347">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V347">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31404,7 +31404,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>5172765</v>
+        <v>5172767</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31416,10 +31416,10 @@
         <v>44850.47916666666</v>
       </c>
       <c r="F348" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G348" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -31431,61 +31431,61 @@
         <v>43</v>
       </c>
       <c r="K348">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L348">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M348">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N348">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O348">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P348">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q348">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R348">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S348">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U348">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V348">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W348">
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA348">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31760,7 +31760,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>5172769</v>
+        <v>5172768</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31772,76 +31772,76 @@
         <v>44854.64583333334</v>
       </c>
       <c r="F352" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G352" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K352">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L352">
         <v>3.75</v>
       </c>
       <c r="M352">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N352">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O352">
         <v>3.8</v>
       </c>
       <c r="P352">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q352">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R352">
+        <v>1.9</v>
+      </c>
+      <c r="S352">
         <v>1.95</v>
-      </c>
-      <c r="S352">
-        <v>1.9</v>
       </c>
       <c r="T352">
         <v>2.75</v>
       </c>
       <c r="U352">
+        <v>1.95</v>
+      </c>
+      <c r="V352">
         <v>1.9</v>
       </c>
-      <c r="V352">
-        <v>1.95</v>
-      </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y352">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
+        <v>0.95</v>
+      </c>
+      <c r="AB352">
+        <v>-1</v>
+      </c>
+      <c r="AC352">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB352">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC352">
-        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31849,7 +31849,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>5172768</v>
+        <v>5172769</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31861,76 +31861,76 @@
         <v>44854.64583333334</v>
       </c>
       <c r="F353" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G353" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J353" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K353">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L353">
         <v>3.75</v>
       </c>
       <c r="M353">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N353">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="O353">
         <v>3.8</v>
       </c>
       <c r="P353">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q353">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R353">
+        <v>1.95</v>
+      </c>
+      <c r="S353">
         <v>1.9</v>
-      </c>
-      <c r="S353">
-        <v>1.95</v>
       </c>
       <c r="T353">
         <v>2.75</v>
       </c>
       <c r="U353">
+        <v>1.9</v>
+      </c>
+      <c r="V353">
         <v>1.95</v>
       </c>
-      <c r="V353">
-        <v>1.9</v>
-      </c>
       <c r="W353">
         <v>-1</v>
       </c>
       <c r="X353">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z353">
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB353">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC353">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -35854,7 +35854,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>5172797</v>
+        <v>5172796</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35866,73 +35866,73 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F398" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G398" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I398">
         <v>2</v>
       </c>
       <c r="J398" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K398">
+        <v>1.85</v>
+      </c>
+      <c r="L398">
         <v>3.6</v>
       </c>
-      <c r="L398">
-        <v>3.5</v>
-      </c>
       <c r="M398">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N398">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="O398">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P398">
+        <v>4.333</v>
+      </c>
+      <c r="Q398">
+        <v>-0.5</v>
+      </c>
+      <c r="R398">
         <v>1.85</v>
       </c>
-      <c r="Q398">
-        <v>0.5</v>
-      </c>
-      <c r="R398">
+      <c r="S398">
+        <v>2</v>
+      </c>
+      <c r="T398">
+        <v>2.75</v>
+      </c>
+      <c r="U398">
         <v>1.975</v>
       </c>
-      <c r="S398">
+      <c r="V398">
         <v>1.875</v>
       </c>
-      <c r="T398">
-        <v>2.5</v>
-      </c>
-      <c r="U398">
-        <v>1.85</v>
-      </c>
-      <c r="V398">
-        <v>2</v>
-      </c>
       <c r="W398">
         <v>-1</v>
       </c>
       <c r="X398">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y398">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z398">
         <v>-1</v>
       </c>
       <c r="AA398">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB398">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC398">
         <v>-1</v>
@@ -35943,7 +35943,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>5172796</v>
+        <v>5172797</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35955,73 +35955,73 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F399" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G399" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399">
         <v>2</v>
       </c>
       <c r="J399" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K399">
+        <v>3.6</v>
+      </c>
+      <c r="L399">
+        <v>3.5</v>
+      </c>
+      <c r="M399">
+        <v>2</v>
+      </c>
+      <c r="N399">
+        <v>4.2</v>
+      </c>
+      <c r="O399">
+        <v>3.5</v>
+      </c>
+      <c r="P399">
         <v>1.85</v>
       </c>
-      <c r="L399">
-        <v>3.6</v>
-      </c>
-      <c r="M399">
-        <v>4.2</v>
-      </c>
-      <c r="N399">
-        <v>1.833</v>
-      </c>
-      <c r="O399">
-        <v>3.6</v>
-      </c>
-      <c r="P399">
-        <v>4.333</v>
-      </c>
       <c r="Q399">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R399">
+        <v>1.975</v>
+      </c>
+      <c r="S399">
+        <v>1.875</v>
+      </c>
+      <c r="T399">
+        <v>2.5</v>
+      </c>
+      <c r="U399">
         <v>1.85</v>
       </c>
-      <c r="S399">
-        <v>2</v>
-      </c>
-      <c r="T399">
-        <v>2.75</v>
-      </c>
-      <c r="U399">
-        <v>1.975</v>
-      </c>
       <c r="V399">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W399">
         <v>-1</v>
       </c>
       <c r="X399">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y399">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB399">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC399">
         <v>-1</v>
@@ -37634,7 +37634,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>5172808</v>
+        <v>5172810</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37646,49 +37646,49 @@
         <v>45004.52083333334</v>
       </c>
       <c r="F418" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G418" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J418" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K418">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L418">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M418">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N418">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O418">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P418">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q418">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R418">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S418">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T418">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U418">
         <v>1.85</v>
@@ -37697,25 +37697,25 @@
         <v>2</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X418">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y418">
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA418">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC418">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37723,7 +37723,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>5172810</v>
+        <v>5172808</v>
       </c>
       <c r="C419" t="s">
         <v>28</v>
@@ -37735,49 +37735,49 @@
         <v>45004.52083333334</v>
       </c>
       <c r="F419" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G419" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H419">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J419" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K419">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L419">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M419">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N419">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O419">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P419">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q419">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R419">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S419">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T419">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U419">
         <v>1.85</v>
@@ -37786,25 +37786,25 @@
         <v>2</v>
       </c>
       <c r="W419">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X419">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y419">
         <v>-1</v>
       </c>
       <c r="Z419">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA419">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB419">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC419">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:29">
@@ -38079,7 +38079,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>5172813</v>
+        <v>5171755</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38091,76 +38091,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F423" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G423" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423">
         <v>2</v>
       </c>
       <c r="J423" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K423">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L423">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M423">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N423">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O423">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P423">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q423">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R423">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S423">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T423">
         <v>3</v>
       </c>
       <c r="U423">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V423">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W423">
         <v>-1</v>
       </c>
       <c r="X423">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y423">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z423">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA423">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC423">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="424" spans="1:29">
@@ -38168,7 +38168,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>5171755</v>
+        <v>5172813</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38180,76 +38180,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F424" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G424" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I424">
         <v>2</v>
       </c>
       <c r="J424" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K424">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L424">
+        <v>3.5</v>
+      </c>
+      <c r="M424">
+        <v>2.9</v>
+      </c>
+      <c r="N424">
+        <v>2.2</v>
+      </c>
+      <c r="O424">
         <v>3.6</v>
       </c>
-      <c r="M424">
-        <v>3.75</v>
-      </c>
-      <c r="N424">
-        <v>1.5</v>
-      </c>
-      <c r="O424">
-        <v>4.75</v>
-      </c>
       <c r="P424">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q424">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R424">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S424">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T424">
         <v>3</v>
       </c>
       <c r="U424">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V424">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W424">
         <v>-1</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y424">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z424">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA424">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC424">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -41817,7 +41817,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>5498511</v>
+        <v>5505757</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41829,13 +41829,13 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F465" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G465" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -41853,16 +41853,16 @@
         <v>2.15</v>
       </c>
       <c r="N465">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O465">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P465">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="Q465">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R465">
         <v>1.85</v>
@@ -41871,13 +41871,13 @@
         <v>2</v>
       </c>
       <c r="T465">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U465">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V465">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W465">
         <v>-1</v>
@@ -41886,7 +41886,7 @@
         <v>-1</v>
       </c>
       <c r="Y465">
-        <v>0.95</v>
+        <v>1.25</v>
       </c>
       <c r="Z465">
         <v>-1</v>
@@ -41895,10 +41895,10 @@
         <v>1</v>
       </c>
       <c r="AB465">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC465">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -41906,7 +41906,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>5498510</v>
+        <v>5505837</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41918,76 +41918,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F466" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G466" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H466">
         <v>2</v>
       </c>
       <c r="I466">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J466" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K466">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L466">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M466">
+        <v>1.95</v>
+      </c>
+      <c r="N466">
         <v>2.55</v>
       </c>
-      <c r="N466">
-        <v>3.4</v>
-      </c>
       <c r="O466">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P466">
+        <v>2.45</v>
+      </c>
+      <c r="Q466">
+        <v>0</v>
+      </c>
+      <c r="R466">
+        <v>2</v>
+      </c>
+      <c r="S466">
         <v>1.85</v>
       </c>
-      <c r="Q466">
-        <v>0.5</v>
-      </c>
-      <c r="R466">
-        <v>1.975</v>
-      </c>
-      <c r="S466">
-        <v>1.875</v>
-      </c>
       <c r="T466">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U466">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V466">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W466">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X466">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y466">
         <v>-1</v>
       </c>
       <c r="Z466">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA466">
         <v>-1</v>
       </c>
       <c r="AB466">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC466">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -41995,7 +41995,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>5495233</v>
+        <v>5498510</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42007,73 +42007,73 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F467" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G467" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H467">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I467">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J467" t="s">
         <v>43</v>
       </c>
       <c r="K467">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="L467">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M467">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N467">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="O467">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P467">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q467">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R467">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S467">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T467">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U467">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V467">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W467">
         <v>-1</v>
       </c>
       <c r="X467">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y467">
         <v>-1</v>
       </c>
       <c r="Z467">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA467">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB467">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC467">
         <v>-1</v>
@@ -42084,7 +42084,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>5505837</v>
+        <v>5498511</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42096,76 +42096,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F468" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G468" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J468" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K468">
+        <v>3.2</v>
+      </c>
+      <c r="L468">
         <v>3.5</v>
       </c>
-      <c r="L468">
+      <c r="M468">
+        <v>2.15</v>
+      </c>
+      <c r="N468">
         <v>3.75</v>
       </c>
-      <c r="M468">
+      <c r="O468">
+        <v>3.75</v>
+      </c>
+      <c r="P468">
         <v>1.95</v>
       </c>
-      <c r="N468">
-        <v>2.55</v>
-      </c>
-      <c r="O468">
-        <v>4</v>
-      </c>
-      <c r="P468">
-        <v>2.45</v>
-      </c>
       <c r="Q468">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R468">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S468">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T468">
         <v>3.25</v>
       </c>
       <c r="U468">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V468">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W468">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X468">
         <v>-1</v>
       </c>
       <c r="Y468">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z468">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA468">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB468">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC468">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="469" spans="1:29">
@@ -42173,7 +42173,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>5505757</v>
+        <v>5495233</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42185,76 +42185,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F469" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G469" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I469">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J469" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K469">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L469">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M469">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N469">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O469">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P469">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q469">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R469">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S469">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T469">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U469">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V469">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W469">
         <v>-1</v>
       </c>
       <c r="X469">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y469">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z469">
         <v>-1</v>
       </c>
       <c r="AA469">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB469">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC469">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42707,7 +42707,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>6811200</v>
+        <v>6810293</v>
       </c>
       <c r="C475" t="s">
         <v>28</v>
@@ -42719,76 +42719,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F475" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G475" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J475" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K475">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L475">
+        <v>3.4</v>
+      </c>
+      <c r="M475">
+        <v>1.95</v>
+      </c>
+      <c r="N475">
         <v>3.5</v>
       </c>
-      <c r="M475">
-        <v>3</v>
-      </c>
-      <c r="N475">
-        <v>1.8</v>
-      </c>
       <c r="O475">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P475">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q475">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R475">
+        <v>1.825</v>
+      </c>
+      <c r="S475">
         <v>2.025</v>
       </c>
-      <c r="S475">
-        <v>1.825</v>
-      </c>
       <c r="T475">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U475">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V475">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W475">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X475">
         <v>-1</v>
       </c>
       <c r="Y475">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z475">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA475">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB475">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC475">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="476" spans="1:29">
@@ -42796,7 +42796,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>6810293</v>
+        <v>6811200</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42808,76 +42808,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F476" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G476" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476">
+        <v>1</v>
+      </c>
+      <c r="J476" t="s">
+        <v>45</v>
+      </c>
+      <c r="K476">
+        <v>2.1</v>
+      </c>
+      <c r="L476">
+        <v>3.5</v>
+      </c>
+      <c r="M476">
         <v>3</v>
       </c>
-      <c r="J476" t="s">
-        <v>44</v>
-      </c>
-      <c r="K476">
-        <v>3.4</v>
-      </c>
-      <c r="L476">
-        <v>3.4</v>
-      </c>
-      <c r="M476">
-        <v>1.95</v>
-      </c>
       <c r="N476">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O476">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P476">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q476">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R476">
+        <v>2.025</v>
+      </c>
+      <c r="S476">
         <v>1.825</v>
       </c>
-      <c r="S476">
-        <v>2.025</v>
-      </c>
       <c r="T476">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U476">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V476">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W476">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X476">
         <v>-1</v>
       </c>
       <c r="Y476">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z476">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA476">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB476">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC476">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42974,7 +42974,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>6810762</v>
+        <v>6811202</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42986,34 +42986,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F478" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G478" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H478">
         <v>2</v>
       </c>
       <c r="I478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J478" t="s">
         <v>45</v>
       </c>
       <c r="K478">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="L478">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M478">
+        <v>7.5</v>
+      </c>
+      <c r="N478">
+        <v>1.4</v>
+      </c>
+      <c r="O478">
         <v>5.25</v>
-      </c>
-      <c r="N478">
-        <v>1.45</v>
-      </c>
-      <c r="O478">
-        <v>4.5</v>
       </c>
       <c r="P478">
         <v>7</v>
@@ -43022,22 +43022,22 @@
         <v>-1.25</v>
       </c>
       <c r="R478">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S478">
+        <v>2.025</v>
+      </c>
+      <c r="T478">
+        <v>3.25</v>
+      </c>
+      <c r="U478">
+        <v>2</v>
+      </c>
+      <c r="V478">
         <v>1.85</v>
       </c>
-      <c r="T478">
-        <v>2.75</v>
-      </c>
-      <c r="U478">
-        <v>1.8</v>
-      </c>
-      <c r="V478">
-        <v>2.05</v>
-      </c>
       <c r="W478">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X478">
         <v>-1</v>
@@ -43046,16 +43046,16 @@
         <v>-1</v>
       </c>
       <c r="Z478">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA478">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB478">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC478">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43063,7 +43063,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>6811202</v>
+        <v>6810762</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43075,34 +43075,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F479" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G479" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H479">
         <v>2</v>
       </c>
       <c r="I479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J479" t="s">
         <v>45</v>
       </c>
       <c r="K479">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="L479">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M479">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N479">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O479">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P479">
         <v>7</v>
@@ -43111,22 +43111,22 @@
         <v>-1.25</v>
       </c>
       <c r="R479">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S479">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T479">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U479">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V479">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W479">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X479">
         <v>-1</v>
@@ -43135,16 +43135,16 @@
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA479">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB479">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC479">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -44131,7 +44131,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>6811209</v>
+        <v>6811288</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44143,13 +44143,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F491" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G491" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I491">
         <v>1</v>
@@ -44158,43 +44158,43 @@
         <v>45</v>
       </c>
       <c r="K491">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L491">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M491">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N491">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O491">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P491">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q491">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R491">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S491">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T491">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U491">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V491">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W491">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X491">
         <v>-1</v>
@@ -44203,16 +44203,16 @@
         <v>-1</v>
       </c>
       <c r="Z491">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA491">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB491">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC491">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44220,7 +44220,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>6811288</v>
+        <v>6811209</v>
       </c>
       <c r="C492" t="s">
         <v>28</v>
@@ -44232,13 +44232,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F492" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G492" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H492">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492">
         <v>1</v>
@@ -44247,43 +44247,43 @@
         <v>45</v>
       </c>
       <c r="K492">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L492">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M492">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N492">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O492">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P492">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q492">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R492">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S492">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T492">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U492">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V492">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W492">
-        <v>1.875</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X492">
         <v>-1</v>
@@ -44292,16 +44292,16 @@
         <v>-1</v>
       </c>
       <c r="Z492">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA492">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB492">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC492">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="493" spans="1:29">
@@ -46089,7 +46089,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>6810298</v>
+        <v>6811225</v>
       </c>
       <c r="C513" t="s">
         <v>28</v>
@@ -46101,58 +46101,58 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F513" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G513" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J513" t="s">
         <v>45</v>
       </c>
       <c r="K513">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L513">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M513">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N513">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O513">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P513">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q513">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R513">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S513">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T513">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U513">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V513">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W513">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X513">
         <v>-1</v>
@@ -46161,16 +46161,16 @@
         <v>-1</v>
       </c>
       <c r="Z513">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA513">
         <v>-1</v>
       </c>
       <c r="AB513">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC513">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="514" spans="1:29">
@@ -46178,7 +46178,7 @@
         <v>512</v>
       </c>
       <c r="B514">
-        <v>6811225</v>
+        <v>6810298</v>
       </c>
       <c r="C514" t="s">
         <v>28</v>
@@ -46190,58 +46190,58 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F514" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G514" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H514">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I514">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J514" t="s">
         <v>45</v>
       </c>
       <c r="K514">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L514">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M514">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N514">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O514">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P514">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q514">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R514">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S514">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T514">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U514">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V514">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W514">
-        <v>0.6499999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X514">
         <v>-1</v>
@@ -46250,16 +46250,16 @@
         <v>-1</v>
       </c>
       <c r="Z514">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA514">
         <v>-1</v>
       </c>
       <c r="AB514">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC514">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="515" spans="1:29">
@@ -46623,7 +46623,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6811229</v>
+        <v>6810768</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46635,10 +46635,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F519" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G519" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H519">
         <v>1</v>
@@ -46650,61 +46650,61 @@
         <v>43</v>
       </c>
       <c r="K519">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L519">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M519">
+        <v>4</v>
+      </c>
+      <c r="N519">
+        <v>2.15</v>
+      </c>
+      <c r="O519">
+        <v>3.75</v>
+      </c>
+      <c r="P519">
+        <v>3.1</v>
+      </c>
+      <c r="Q519">
+        <v>-0.25</v>
+      </c>
+      <c r="R519">
+        <v>1.9</v>
+      </c>
+      <c r="S519">
+        <v>1.95</v>
+      </c>
+      <c r="T519">
         <v>2.75</v>
       </c>
-      <c r="N519">
-        <v>2.55</v>
-      </c>
-      <c r="O519">
-        <v>3.6</v>
-      </c>
-      <c r="P519">
-        <v>2.55</v>
-      </c>
-      <c r="Q519">
-        <v>0</v>
-      </c>
-      <c r="R519">
-        <v>1.925</v>
-      </c>
-      <c r="S519">
-        <v>1.925</v>
-      </c>
-      <c r="T519">
-        <v>3</v>
-      </c>
       <c r="U519">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V519">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y519">
         <v>-1</v>
       </c>
       <c r="Z519">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA519">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB519">
         <v>-1</v>
       </c>
       <c r="AC519">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46712,7 +46712,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>6810768</v>
+        <v>6811229</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46724,10 +46724,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F520" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G520" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H520">
         <v>1</v>
@@ -46739,61 +46739,61 @@
         <v>43</v>
       </c>
       <c r="K520">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L520">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M520">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N520">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O520">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P520">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q520">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R520">
+        <v>1.925</v>
+      </c>
+      <c r="S520">
+        <v>1.925</v>
+      </c>
+      <c r="T520">
+        <v>3</v>
+      </c>
+      <c r="U520">
+        <v>1.95</v>
+      </c>
+      <c r="V520">
         <v>1.9</v>
       </c>
-      <c r="S520">
-        <v>1.95</v>
-      </c>
-      <c r="T520">
-        <v>2.75</v>
-      </c>
-      <c r="U520">
-        <v>1.85</v>
-      </c>
-      <c r="V520">
-        <v>2</v>
-      </c>
       <c r="W520">
         <v>-1</v>
       </c>
       <c r="X520">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y520">
         <v>-1</v>
       </c>
       <c r="Z520">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA520">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -46801,7 +46801,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>6810300</v>
+        <v>6811230</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46813,40 +46813,40 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F521" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G521" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H521">
         <v>2</v>
       </c>
       <c r="I521">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J521" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K521">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L521">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M521">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="N521">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O521">
         <v>3.6</v>
       </c>
       <c r="P521">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q521">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R521">
         <v>1.925</v>
@@ -46855,34 +46855,34 @@
         <v>1.925</v>
       </c>
       <c r="T521">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U521">
+        <v>2.025</v>
+      </c>
+      <c r="V521">
         <v>1.825</v>
       </c>
-      <c r="V521">
-        <v>2.025</v>
-      </c>
       <c r="W521">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X521">
         <v>-1</v>
       </c>
       <c r="Y521">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z521">
+        <v>-1</v>
+      </c>
+      <c r="AA521">
         <v>0.925</v>
       </c>
-      <c r="AA521">
-        <v>-1</v>
-      </c>
       <c r="AB521">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC521">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="522" spans="1:29">
@@ -46890,7 +46890,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>6811230</v>
+        <v>6810300</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46902,40 +46902,40 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F522" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G522" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H522">
         <v>2</v>
       </c>
       <c r="I522">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J522" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K522">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L522">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M522">
-        <v>2.25</v>
+        <v>4.1</v>
       </c>
       <c r="N522">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O522">
         <v>3.6</v>
       </c>
       <c r="P522">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q522">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R522">
         <v>1.925</v>
@@ -46944,34 +46944,34 @@
         <v>1.925</v>
       </c>
       <c r="T522">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U522">
+        <v>1.825</v>
+      </c>
+      <c r="V522">
         <v>2.025</v>
       </c>
-      <c r="V522">
-        <v>1.825</v>
-      </c>
       <c r="W522">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X522">
         <v>-1</v>
       </c>
       <c r="Y522">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z522">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA522">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB522">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC522">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="523" spans="1:29">
@@ -47157,7 +47157,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>6811232</v>
+        <v>6811233</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47169,76 +47169,76 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F525" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G525" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I525">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J525" t="s">
         <v>44</v>
       </c>
       <c r="K525">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L525">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M525">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="N525">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O525">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P525">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q525">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R525">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S525">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T525">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U525">
+        <v>1.9</v>
+      </c>
+      <c r="V525">
+        <v>1.95</v>
+      </c>
+      <c r="W525">
+        <v>-1</v>
+      </c>
+      <c r="X525">
+        <v>-1</v>
+      </c>
+      <c r="Y525">
         <v>1.875</v>
       </c>
-      <c r="V525">
-        <v>1.975</v>
-      </c>
-      <c r="W525">
-        <v>-1</v>
-      </c>
-      <c r="X525">
-        <v>-1</v>
-      </c>
-      <c r="Y525">
-        <v>3.333</v>
-      </c>
       <c r="Z525">
         <v>-1</v>
       </c>
       <c r="AA525">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB525">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC525">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47246,7 +47246,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>6811233</v>
+        <v>6811232</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47258,55 +47258,55 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F526" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G526" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J526" t="s">
         <v>44</v>
       </c>
       <c r="K526">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L526">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M526">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="N526">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O526">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P526">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q526">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R526">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S526">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T526">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U526">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V526">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W526">
         <v>-1</v>
@@ -47315,19 +47315,19 @@
         <v>-1</v>
       </c>
       <c r="Y526">
-        <v>1.875</v>
+        <v>3.333</v>
       </c>
       <c r="Z526">
         <v>-1</v>
       </c>
       <c r="AA526">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB526">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC526">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47869,7 +47869,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>6811238</v>
+        <v>6811239</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47881,55 +47881,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F533" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G533" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J533" t="s">
         <v>43</v>
       </c>
       <c r="K533">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L533">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M533">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N533">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O533">
         <v>3.75</v>
       </c>
       <c r="P533">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q533">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R533">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S533">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T533">
         <v>2.75</v>
       </c>
       <c r="U533">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V533">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W533">
         <v>-1</v>
@@ -47941,16 +47941,16 @@
         <v>-1</v>
       </c>
       <c r="Z533">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA533">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB533">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC533">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="534" spans="1:29">
@@ -47958,7 +47958,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>6811239</v>
+        <v>6811238</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47970,55 +47970,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F534" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G534" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J534" t="s">
         <v>43</v>
       </c>
       <c r="K534">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L534">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M534">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N534">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O534">
         <v>3.75</v>
       </c>
       <c r="P534">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q534">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R534">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S534">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T534">
         <v>2.75</v>
       </c>
       <c r="U534">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V534">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W534">
         <v>-1</v>
@@ -48030,16 +48030,16 @@
         <v>-1</v>
       </c>
       <c r="Z534">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA534">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB534">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC534">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -48225,7 +48225,7 @@
         <v>535</v>
       </c>
       <c r="B537">
-        <v>6811241</v>
+        <v>6810771</v>
       </c>
       <c r="C537" t="s">
         <v>28</v>
@@ -48237,10 +48237,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F537" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G537" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H537">
         <v>2</v>
@@ -48252,43 +48252,43 @@
         <v>45</v>
       </c>
       <c r="K537">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L537">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M537">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N537">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O537">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P537">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q537">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R537">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S537">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T537">
         <v>3</v>
       </c>
       <c r="U537">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V537">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W537">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X537">
         <v>-1</v>
@@ -48297,10 +48297,10 @@
         <v>-1</v>
       </c>
       <c r="Z537">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA537">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB537">
         <v>0</v>
@@ -48314,7 +48314,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>6810771</v>
+        <v>6811241</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -48326,10 +48326,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F538" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G538" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H538">
         <v>2</v>
@@ -48341,43 +48341,43 @@
         <v>45</v>
       </c>
       <c r="K538">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L538">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M538">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N538">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O538">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P538">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q538">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R538">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S538">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T538">
         <v>3</v>
       </c>
       <c r="U538">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V538">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W538">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X538">
         <v>-1</v>
@@ -48386,10 +48386,10 @@
         <v>-1</v>
       </c>
       <c r="Z538">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA538">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB538">
         <v>0</v>
@@ -49471,7 +49471,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>6810774</v>
+        <v>6811251</v>
       </c>
       <c r="C551" t="s">
         <v>28</v>
@@ -49483,73 +49483,73 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F551" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G551" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I551">
         <v>2</v>
       </c>
       <c r="J551" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K551">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L551">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M551">
+        <v>5.5</v>
+      </c>
+      <c r="N551">
+        <v>1.5</v>
+      </c>
+      <c r="O551">
+        <v>4.75</v>
+      </c>
+      <c r="P551">
+        <v>5.25</v>
+      </c>
+      <c r="Q551">
+        <v>-1</v>
+      </c>
+      <c r="R551">
+        <v>1.8</v>
+      </c>
+      <c r="S551">
         <v>2.05</v>
       </c>
-      <c r="N551">
-        <v>3.6</v>
-      </c>
-      <c r="O551">
-        <v>3.8</v>
-      </c>
-      <c r="P551">
-        <v>1.95</v>
-      </c>
-      <c r="Q551">
+      <c r="T551">
+        <v>3.5</v>
+      </c>
+      <c r="U551">
+        <v>2</v>
+      </c>
+      <c r="V551">
+        <v>1.85</v>
+      </c>
+      <c r="W551">
         <v>0.5</v>
       </c>
-      <c r="R551">
-        <v>1.9</v>
-      </c>
-      <c r="S551">
-        <v>1.95</v>
-      </c>
-      <c r="T551">
-        <v>2.75</v>
-      </c>
-      <c r="U551">
-        <v>1.975</v>
-      </c>
-      <c r="V551">
-        <v>1.875</v>
-      </c>
-      <c r="W551">
-        <v>-1</v>
-      </c>
       <c r="X551">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y551">
         <v>-1</v>
       </c>
       <c r="Z551">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA551">
         <v>-1</v>
       </c>
       <c r="AB551">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC551">
         <v>-1</v>
@@ -49560,7 +49560,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>6811251</v>
+        <v>6810774</v>
       </c>
       <c r="C552" t="s">
         <v>28</v>
@@ -49572,73 +49572,73 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F552" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G552" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H552">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I552">
         <v>2</v>
       </c>
       <c r="J552" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K552">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L552">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M552">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N552">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O552">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P552">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q552">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R552">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S552">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T552">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U552">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V552">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W552">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X552">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y552">
         <v>-1</v>
       </c>
       <c r="Z552">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA552">
         <v>-1</v>
       </c>
       <c r="AB552">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC552">
         <v>-1</v>
@@ -50005,7 +50005,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>6811255</v>
+        <v>6811256</v>
       </c>
       <c r="C557" t="s">
         <v>28</v>
@@ -50017,10 +50017,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F557" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G557" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H557">
         <v>3</v>
@@ -50032,43 +50032,43 @@
         <v>45</v>
       </c>
       <c r="K557">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L557">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M557">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N557">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O557">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P557">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q557">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R557">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S557">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T557">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U557">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V557">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W557">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="X557">
         <v>-1</v>
@@ -50077,13 +50077,13 @@
         <v>-1</v>
       </c>
       <c r="Z557">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA557">
         <v>-1</v>
       </c>
       <c r="AB557">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC557">
         <v>-1</v>
@@ -50094,7 +50094,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>6811256</v>
+        <v>6811255</v>
       </c>
       <c r="C558" t="s">
         <v>28</v>
@@ -50106,10 +50106,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F558" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G558" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H558">
         <v>3</v>
@@ -50121,43 +50121,43 @@
         <v>45</v>
       </c>
       <c r="K558">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L558">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M558">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N558">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O558">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P558">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q558">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R558">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S558">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T558">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U558">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V558">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W558">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="X558">
         <v>-1</v>
@@ -50166,13 +50166,13 @@
         <v>-1</v>
       </c>
       <c r="Z558">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA558">
         <v>-1</v>
       </c>
       <c r="AB558">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC558">
         <v>-1</v>
@@ -52675,7 +52675,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>6810310</v>
+        <v>6810779</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52687,76 +52687,76 @@
         <v>45314.625</v>
       </c>
       <c r="F587" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G587" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H587">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I587">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J587" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K587">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="L587">
         <v>3.6</v>
       </c>
       <c r="M587">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N587">
         <v>3.2</v>
       </c>
       <c r="O587">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P587">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q587">
         <v>0.25</v>
       </c>
       <c r="R587">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S587">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T587">
         <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V587">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W587">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X587">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y587">
         <v>-1</v>
       </c>
       <c r="Z587">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA587">
+        <v>-1</v>
+      </c>
+      <c r="AB587">
+        <v>0.4</v>
+      </c>
+      <c r="AC587">
         <v>-0.5</v>
-      </c>
-      <c r="AB587">
-        <v>0.875</v>
-      </c>
-      <c r="AC587">
-        <v>-1</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52764,7 +52764,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6810779</v>
+        <v>6810310</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52776,76 +52776,76 @@
         <v>45314.625</v>
       </c>
       <c r="F588" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G588" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I588">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J588" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K588">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L588">
         <v>3.6</v>
       </c>
       <c r="M588">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N588">
         <v>3.2</v>
       </c>
       <c r="O588">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P588">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q588">
         <v>0.25</v>
       </c>
       <c r="R588">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S588">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T588">
         <v>2.75</v>
       </c>
       <c r="U588">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V588">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W588">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X588">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y588">
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA588">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB588">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC588">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52853,7 +52853,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>6811274</v>
+        <v>6811278</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52862,49 +52862,49 @@
         <v>28</v>
       </c>
       <c r="E589" s="2">
-        <v>45319.42708333334</v>
+        <v>45321.6875</v>
       </c>
       <c r="F589" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G589" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K589">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L589">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M589">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N589">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O589">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P589">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q589">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R589">
+        <v>2.05</v>
+      </c>
+      <c r="S589">
+        <v>1.8</v>
+      </c>
+      <c r="T589">
+        <v>2.75</v>
+      </c>
+      <c r="U589">
         <v>1.925</v>
       </c>
-      <c r="S589">
+      <c r="V589">
         <v>1.925</v>
-      </c>
-      <c r="T589">
-        <v>3.25</v>
-      </c>
-      <c r="U589">
-        <v>2</v>
-      </c>
-      <c r="V589">
-        <v>1.85</v>
       </c>
       <c r="W589">
         <v>0</v>
@@ -52927,7 +52927,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>6811272</v>
+        <v>6810780</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -52936,49 +52936,49 @@
         <v>28</v>
       </c>
       <c r="E590" s="2">
-        <v>45319.52083333334</v>
+        <v>45321.6875</v>
       </c>
       <c r="F590" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G590" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K590">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="L590">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M590">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="N590">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O590">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P590">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="Q590">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R590">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S590">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T590">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U590">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V590">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W590">
         <v>0</v>
@@ -53001,7 +53001,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>6811273</v>
+        <v>6810311</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53010,49 +53010,49 @@
         <v>28</v>
       </c>
       <c r="E591" s="2">
-        <v>45319.52083333334</v>
+        <v>45322.6875</v>
       </c>
       <c r="F591" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G591" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K591">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L591">
+        <v>3.8</v>
+      </c>
+      <c r="M591">
+        <v>3.6</v>
+      </c>
+      <c r="N591">
+        <v>1.95</v>
+      </c>
+      <c r="O591">
+        <v>3.8</v>
+      </c>
+      <c r="P591">
         <v>3.5</v>
       </c>
-      <c r="M591">
-        <v>5</v>
-      </c>
-      <c r="N591">
-        <v>2.05</v>
-      </c>
-      <c r="O591">
-        <v>3.6</v>
-      </c>
-      <c r="P591">
-        <v>3.4</v>
-      </c>
       <c r="Q591">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R591">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S591">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T591">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U591">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V591">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W591">
         <v>0</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>3690081</v>
+        <v>3690080</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,40 +11391,40 @@
         <v>44409.47916666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N123">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R123">
         <v>1.95</v>
@@ -11433,34 +11433,34 @@
         <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U123">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>3690080</v>
+        <v>3690081</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,40 +11480,40 @@
         <v>44409.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M124">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N124">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
         <v>1.95</v>
@@ -11522,34 +11522,34 @@
         <v>1.9</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -14850,7 +14850,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>3690103</v>
+        <v>3690104</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14862,76 +14862,76 @@
         <v>44486.47916666666</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162">
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K162">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="O162">
         <v>3.8</v>
       </c>
       <c r="P162">
+        <v>2.6</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
         <v>1.85</v>
       </c>
-      <c r="Q162">
-        <v>0.5</v>
-      </c>
-      <c r="R162">
-        <v>1.925</v>
-      </c>
       <c r="S162">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
+        <v>-1</v>
+      </c>
+      <c r="Z162">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z162">
-        <v>-1</v>
-      </c>
       <c r="AA162">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC162">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14939,7 +14939,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>3690104</v>
+        <v>3690103</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14951,76 +14951,76 @@
         <v>44486.47916666666</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="L163">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N163">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="O163">
         <v>3.8</v>
       </c>
       <c r="P163">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R163">
+        <v>1.925</v>
+      </c>
+      <c r="S163">
+        <v>1.925</v>
+      </c>
+      <c r="T163">
+        <v>2.75</v>
+      </c>
+      <c r="U163">
         <v>1.85</v>
       </c>
-      <c r="S163">
-        <v>2</v>
-      </c>
-      <c r="T163">
-        <v>3.25</v>
-      </c>
-      <c r="U163">
-        <v>1.875</v>
-      </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W163">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -17965,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3690124</v>
+        <v>3690125</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17977,61 +17977,61 @@
         <v>44542.52083333334</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>43</v>
       </c>
       <c r="K197">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L197">
         <v>3.5</v>
       </c>
       <c r="M197">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N197">
         <v>2.1</v>
       </c>
       <c r="O197">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P197">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S197">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U197">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y197">
         <v>-1</v>
@@ -18040,13 +18040,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18054,7 +18054,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3690125</v>
+        <v>3690124</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18066,61 +18066,61 @@
         <v>44542.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>43</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N198">
         <v>2.1</v>
       </c>
       <c r="O198">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P198">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q198">
         <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T198">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18129,13 +18129,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB198">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -20724,7 +20724,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>3689992</v>
+        <v>3689424</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20736,73 +20736,73 @@
         <v>44619.52083333334</v>
       </c>
       <c r="F228" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G228" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I228">
         <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K228">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L228">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M228">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N228">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O228">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P228">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R228">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S228">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T228">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V228">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W228">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z228">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB228">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20813,7 +20813,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3689424</v>
+        <v>3689992</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20825,73 +20825,73 @@
         <v>44619.52083333334</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I229">
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K229">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L229">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M229">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N229">
+        <v>2.25</v>
+      </c>
+      <c r="O229">
+        <v>3.5</v>
+      </c>
+      <c r="P229">
         <v>3</v>
       </c>
-      <c r="O229">
-        <v>3.2</v>
-      </c>
-      <c r="P229">
-        <v>2.4</v>
-      </c>
       <c r="Q229">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S229">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -25797,7 +25797,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>3988950</v>
+        <v>4052007</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25809,40 +25809,40 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F285" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G285" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
         <v>43</v>
       </c>
       <c r="K285">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L285">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M285">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N285">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O285">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P285">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q285">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R285">
         <v>1.925</v>
@@ -25851,34 +25851,34 @@
         <v>1.925</v>
       </c>
       <c r="T285">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U285">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V285">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB285">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25886,7 +25886,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>4048745</v>
+        <v>4052006</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25898,73 +25898,73 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F286" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G286" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I286">
         <v>2</v>
       </c>
       <c r="J286" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K286">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L286">
         <v>3.6</v>
       </c>
       <c r="M286">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N286">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O286">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P286">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q286">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R286">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S286">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T286">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U286">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V286">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W286">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X286">
         <v>-1</v>
       </c>
       <c r="Y286">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z286">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB286">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC286">
         <v>-1</v>
@@ -26064,7 +26064,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>4052006</v>
+        <v>4048745</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26076,73 +26076,73 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F288" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G288" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I288">
         <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K288">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L288">
         <v>3.6</v>
       </c>
       <c r="M288">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N288">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O288">
+        <v>4.2</v>
+      </c>
+      <c r="P288">
+        <v>4</v>
+      </c>
+      <c r="Q288">
+        <v>-0.75</v>
+      </c>
+      <c r="R288">
+        <v>2</v>
+      </c>
+      <c r="S288">
+        <v>1.85</v>
+      </c>
+      <c r="T288">
         <v>3.5</v>
       </c>
-      <c r="P288">
-        <v>2.2</v>
-      </c>
-      <c r="Q288">
-        <v>0.25</v>
-      </c>
-      <c r="R288">
-        <v>1.975</v>
-      </c>
-      <c r="S288">
-        <v>1.875</v>
-      </c>
-      <c r="T288">
-        <v>2.5</v>
-      </c>
       <c r="U288">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V288">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA288">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB288">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC288">
         <v>-1</v>
@@ -26153,7 +26153,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>4052007</v>
+        <v>3988950</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26165,40 +26165,40 @@
         <v>44700.64583333334</v>
       </c>
       <c r="F289" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G289" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J289" t="s">
         <v>43</v>
       </c>
       <c r="K289">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L289">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M289">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N289">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O289">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P289">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q289">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R289">
         <v>1.925</v>
@@ -26207,34 +26207,34 @@
         <v>1.925</v>
       </c>
       <c r="T289">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U289">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V289">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W289">
         <v>-1</v>
       </c>
       <c r="X289">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA289">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB289">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC289">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26242,7 +26242,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>4082761</v>
+        <v>4077045</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26254,13 +26254,13 @@
         <v>44703.47916666666</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G290" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -26269,31 +26269,31 @@
         <v>45</v>
       </c>
       <c r="K290">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="L290">
         <v>4</v>
       </c>
       <c r="M290">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N290">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O290">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P290">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q290">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R290">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S290">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T290">
         <v>3.75</v>
@@ -26305,7 +26305,7 @@
         <v>1.975</v>
       </c>
       <c r="W290">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26314,16 +26314,16 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA290">
         <v>-1</v>
       </c>
       <c r="AB290">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC290">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26331,7 +26331,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>4077045</v>
+        <v>4082761</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26343,13 +26343,13 @@
         <v>44703.47916666666</v>
       </c>
       <c r="F291" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G291" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H291">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -26358,31 +26358,31 @@
         <v>45</v>
       </c>
       <c r="K291">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="L291">
         <v>4</v>
       </c>
       <c r="M291">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N291">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O291">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P291">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q291">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R291">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S291">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T291">
         <v>3.75</v>
@@ -26394,7 +26394,7 @@
         <v>1.975</v>
       </c>
       <c r="W291">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26403,16 +26403,16 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC291">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -29090,7 +29090,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>5173757</v>
+        <v>5172751</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29102,40 +29102,40 @@
         <v>44801.47916666666</v>
       </c>
       <c r="F322" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J322" t="s">
         <v>44</v>
       </c>
       <c r="K322">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M322">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N322">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O322">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P322">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R322">
         <v>1.825</v>
@@ -29147,10 +29147,10 @@
         <v>2.75</v>
       </c>
       <c r="U322">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V322">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W322">
         <v>-1</v>
@@ -29159,7 +29159,7 @@
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0.6000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="Z322">
         <v>-1</v>
@@ -29168,7 +29168,7 @@
         <v>1.025</v>
       </c>
       <c r="AB322">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29179,7 +29179,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>5172751</v>
+        <v>5173757</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29191,40 +29191,40 @@
         <v>44801.47916666666</v>
       </c>
       <c r="F323" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G323" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J323" t="s">
         <v>44</v>
       </c>
       <c r="K323">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L323">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M323">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N323">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O323">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P323">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R323">
         <v>1.825</v>
@@ -29236,10 +29236,10 @@
         <v>2.75</v>
       </c>
       <c r="U323">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V323">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -29248,7 +29248,7 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>1.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z323">
         <v>-1</v>
@@ -29257,7 +29257,7 @@
         <v>1.025</v>
       </c>
       <c r="AB323">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -31315,7 +31315,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>5172765</v>
+        <v>5172767</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31327,10 +31327,10 @@
         <v>44850.47916666666</v>
       </c>
       <c r="F347" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G347" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -31342,61 +31342,61 @@
         <v>43</v>
       </c>
       <c r="K347">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L347">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M347">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N347">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O347">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P347">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q347">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R347">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S347">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA347">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31404,7 +31404,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>5172767</v>
+        <v>5172765</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31416,10 +31416,10 @@
         <v>44850.47916666666</v>
       </c>
       <c r="F348" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G348" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -31431,61 +31431,61 @@
         <v>43</v>
       </c>
       <c r="K348">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M348">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N348">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O348">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P348">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q348">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R348">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S348">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T348">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V348">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W348">
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31582,7 +31582,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>5172770</v>
+        <v>5171742</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31594,49 +31594,49 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F350" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G350" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I350">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J350" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K350">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="L350">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M350">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N350">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="O350">
         <v>3.75</v>
       </c>
       <c r="P350">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="Q350">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R350">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S350">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T350">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U350">
         <v>2</v>
@@ -31648,16 +31648,16 @@
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y350">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA350">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB350">
         <v>1</v>
@@ -31671,7 +31671,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>5171742</v>
+        <v>5172770</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31683,49 +31683,49 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G351" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H351">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I351">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J351" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K351">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="L351">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M351">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N351">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O351">
         <v>3.75</v>
       </c>
       <c r="P351">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q351">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R351">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S351">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T351">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U351">
         <v>2</v>
@@ -31737,16 +31737,16 @@
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB351">
         <v>1</v>
@@ -33095,7 +33095,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>5172778</v>
+        <v>5172777</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33107,76 +33107,76 @@
         <v>44871.52083333334</v>
       </c>
       <c r="F367" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G367" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K367">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L367">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M367">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N367">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O367">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P367">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q367">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R367">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S367">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T367">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U367">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V367">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W367">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33184,7 +33184,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>5172777</v>
+        <v>5172778</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33196,76 +33196,76 @@
         <v>44871.52083333334</v>
       </c>
       <c r="F368" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G368" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368">
         <v>0</v>
       </c>
       <c r="J368" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K368">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L368">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M368">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N368">
+        <v>2.7</v>
+      </c>
+      <c r="O368">
+        <v>3.3</v>
+      </c>
+      <c r="P368">
+        <v>2.625</v>
+      </c>
+      <c r="Q368">
+        <v>0</v>
+      </c>
+      <c r="R368">
+        <v>1.975</v>
+      </c>
+      <c r="S368">
+        <v>1.875</v>
+      </c>
+      <c r="T368">
+        <v>2.5</v>
+      </c>
+      <c r="U368">
         <v>1.85</v>
       </c>
-      <c r="O368">
-        <v>3.8</v>
-      </c>
-      <c r="P368">
-        <v>3.8</v>
-      </c>
-      <c r="Q368">
-        <v>-0.5</v>
-      </c>
-      <c r="R368">
-        <v>1.85</v>
-      </c>
-      <c r="S368">
-        <v>2</v>
-      </c>
-      <c r="T368">
-        <v>3</v>
-      </c>
-      <c r="U368">
-        <v>2.05</v>
-      </c>
       <c r="V368">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W368">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X368">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y368">
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA368">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB368">
         <v>-1</v>
       </c>
       <c r="AC368">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -34430,7 +34430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>5172789</v>
+        <v>5172788</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34442,49 +34442,49 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F382" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G382" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J382" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K382">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L382">
+        <v>3.3</v>
+      </c>
+      <c r="M382">
         <v>3.4</v>
       </c>
-      <c r="M382">
+      <c r="N382">
+        <v>2</v>
+      </c>
+      <c r="O382">
+        <v>3.5</v>
+      </c>
+      <c r="P382">
+        <v>3.75</v>
+      </c>
+      <c r="Q382">
+        <v>-0.5</v>
+      </c>
+      <c r="R382">
+        <v>2.05</v>
+      </c>
+      <c r="S382">
+        <v>1.8</v>
+      </c>
+      <c r="T382">
         <v>2.5</v>
-      </c>
-      <c r="N382">
-        <v>2.25</v>
-      </c>
-      <c r="O382">
-        <v>3.6</v>
-      </c>
-      <c r="P382">
-        <v>3</v>
-      </c>
-      <c r="Q382">
-        <v>-0.25</v>
-      </c>
-      <c r="R382">
-        <v>2</v>
-      </c>
-      <c r="S382">
-        <v>1.85</v>
-      </c>
-      <c r="T382">
-        <v>3</v>
       </c>
       <c r="U382">
         <v>2</v>
@@ -34493,25 +34493,25 @@
         <v>1.85</v>
       </c>
       <c r="W382">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X382">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y382">
         <v>-1</v>
       </c>
       <c r="Z382">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA382">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB382">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC382">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34519,7 +34519,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>5172788</v>
+        <v>5172789</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34531,49 +34531,49 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F383" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G383" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J383" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K383">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L383">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M383">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N383">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O383">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P383">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q383">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R383">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S383">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T383">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U383">
         <v>2</v>
@@ -34582,25 +34582,25 @@
         <v>1.85</v>
       </c>
       <c r="W383">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X383">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y383">
         <v>-1</v>
       </c>
       <c r="Z383">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA383">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB383">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC383">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -40304,7 +40304,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>5310236</v>
+        <v>5356263</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40316,73 +40316,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F448" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G448" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I448">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J448" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K448">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L448">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M448">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N448">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O448">
+        <v>4.5</v>
+      </c>
+      <c r="P448">
+        <v>4.333</v>
+      </c>
+      <c r="Q448">
+        <v>-0.75</v>
+      </c>
+      <c r="R448">
+        <v>1.8</v>
+      </c>
+      <c r="S448">
+        <v>2.05</v>
+      </c>
+      <c r="T448">
         <v>3.5</v>
       </c>
-      <c r="P448">
-        <v>2.2</v>
-      </c>
-      <c r="Q448">
-        <v>0.25</v>
-      </c>
-      <c r="R448">
-        <v>1.875</v>
-      </c>
-      <c r="S448">
-        <v>1.975</v>
-      </c>
-      <c r="T448">
-        <v>2.75</v>
-      </c>
       <c r="U448">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V448">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W448">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA448">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB448">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC448">
         <v>-1</v>
@@ -40393,7 +40393,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>5356263</v>
+        <v>5310236</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40405,73 +40405,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F449" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G449" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H449">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I449">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J449" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K449">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L449">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M449">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N449">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O449">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P449">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q449">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R449">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S449">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T449">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U449">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V449">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W449">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z449">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA449">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB449">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC449">
         <v>-1</v>
@@ -41639,7 +41639,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>5466932</v>
+        <v>5471184</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41651,76 +41651,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F463" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G463" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463">
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K463">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L463">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M463">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N463">
+        <v>3.1</v>
+      </c>
+      <c r="O463">
+        <v>3.5</v>
+      </c>
+      <c r="P463">
+        <v>2.25</v>
+      </c>
+      <c r="Q463">
+        <v>0.25</v>
+      </c>
+      <c r="R463">
+        <v>1.9</v>
+      </c>
+      <c r="S463">
         <v>1.95</v>
       </c>
-      <c r="O463">
-        <v>3.75</v>
-      </c>
-      <c r="P463">
-        <v>3.6</v>
-      </c>
-      <c r="Q463">
+      <c r="T463">
+        <v>3</v>
+      </c>
+      <c r="U463">
+        <v>2.025</v>
+      </c>
+      <c r="V463">
+        <v>1.825</v>
+      </c>
+      <c r="W463">
+        <v>-1</v>
+      </c>
+      <c r="X463">
+        <v>2.5</v>
+      </c>
+      <c r="Y463">
+        <v>-1</v>
+      </c>
+      <c r="Z463">
+        <v>0.45</v>
+      </c>
+      <c r="AA463">
         <v>-0.5</v>
       </c>
-      <c r="R463">
-        <v>2</v>
-      </c>
-      <c r="S463">
-        <v>1.85</v>
-      </c>
-      <c r="T463">
-        <v>2.75</v>
-      </c>
-      <c r="U463">
-        <v>1.95</v>
-      </c>
-      <c r="V463">
-        <v>1.9</v>
-      </c>
-      <c r="W463">
-        <v>0.95</v>
-      </c>
-      <c r="X463">
-        <v>-1</v>
-      </c>
-      <c r="Y463">
-        <v>-1</v>
-      </c>
-      <c r="Z463">
-        <v>1</v>
-      </c>
-      <c r="AA463">
-        <v>-1</v>
-      </c>
       <c r="AB463">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC463">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41728,7 +41728,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>5471184</v>
+        <v>5466932</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41740,76 +41740,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F464" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G464" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464">
         <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K464">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L464">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M464">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N464">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O464">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P464">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q464">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R464">
+        <v>2</v>
+      </c>
+      <c r="S464">
+        <v>1.85</v>
+      </c>
+      <c r="T464">
+        <v>2.75</v>
+      </c>
+      <c r="U464">
+        <v>1.95</v>
+      </c>
+      <c r="V464">
         <v>1.9</v>
       </c>
-      <c r="S464">
-        <v>1.95</v>
-      </c>
-      <c r="T464">
-        <v>3</v>
-      </c>
-      <c r="U464">
-        <v>2.025</v>
-      </c>
-      <c r="V464">
-        <v>1.825</v>
-      </c>
       <c r="W464">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X464">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA464">
+        <v>-1</v>
+      </c>
+      <c r="AB464">
+        <v>0.475</v>
+      </c>
+      <c r="AC464">
         <v>-0.5</v>
-      </c>
-      <c r="AB464">
-        <v>-1</v>
-      </c>
-      <c r="AC464">
-        <v>0.825</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -42351,7 +42351,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>5574693</v>
+        <v>5578548</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42363,58 +42363,58 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F471" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G471" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H471">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J471" t="s">
         <v>45</v>
       </c>
       <c r="K471">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L471">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M471">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N471">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="O471">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P471">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q471">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R471">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S471">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T471">
         <v>3.75</v>
       </c>
       <c r="U471">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V471">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W471">
-        <v>0.444</v>
+        <v>0.3</v>
       </c>
       <c r="X471">
         <v>-1</v>
@@ -42423,16 +42423,16 @@
         <v>-1</v>
       </c>
       <c r="Z471">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA471">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB471">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC471">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -42440,7 +42440,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>5578548</v>
+        <v>5578547</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42452,76 +42452,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F472" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G472" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472">
         <v>1</v>
       </c>
       <c r="J472" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K472">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L472">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="M472">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N472">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="O472">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P472">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q472">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R472">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S472">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T472">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U472">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V472">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W472">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X472">
         <v>-1</v>
       </c>
       <c r="Y472">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z472">
         <v>-1</v>
       </c>
       <c r="AA472">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB472">
         <v>-1</v>
       </c>
       <c r="AC472">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -42529,7 +42529,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>5578547</v>
+        <v>5574693</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42541,40 +42541,40 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F473" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G473" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H473">
+        <v>4</v>
+      </c>
+      <c r="I473">
         <v>0</v>
       </c>
-      <c r="I473">
-        <v>1</v>
-      </c>
       <c r="J473" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K473">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L473">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="M473">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N473">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O473">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P473">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q473">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R473">
         <v>1.875</v>
@@ -42583,34 +42583,34 @@
         <v>1.975</v>
       </c>
       <c r="T473">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U473">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V473">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W473">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X473">
         <v>-1</v>
       </c>
       <c r="Y473">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z473">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA473">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB473">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC473">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="474" spans="1:29">
@@ -42974,7 +42974,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>6811202</v>
+        <v>6810762</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42986,34 +42986,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F478" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G478" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H478">
         <v>2</v>
       </c>
       <c r="I478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J478" t="s">
         <v>45</v>
       </c>
       <c r="K478">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="L478">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M478">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N478">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O478">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P478">
         <v>7</v>
@@ -43022,22 +43022,22 @@
         <v>-1.25</v>
       </c>
       <c r="R478">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S478">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T478">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U478">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V478">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W478">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X478">
         <v>-1</v>
@@ -43046,16 +43046,16 @@
         <v>-1</v>
       </c>
       <c r="Z478">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA478">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB478">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC478">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43063,7 +43063,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>6810762</v>
+        <v>6811202</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43075,34 +43075,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F479" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G479" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H479">
         <v>2</v>
       </c>
       <c r="I479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J479" t="s">
         <v>45</v>
       </c>
       <c r="K479">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="L479">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M479">
+        <v>7.5</v>
+      </c>
+      <c r="N479">
+        <v>1.4</v>
+      </c>
+      <c r="O479">
         <v>5.25</v>
-      </c>
-      <c r="N479">
-        <v>1.45</v>
-      </c>
-      <c r="O479">
-        <v>4.5</v>
       </c>
       <c r="P479">
         <v>7</v>
@@ -43111,22 +43111,22 @@
         <v>-1.25</v>
       </c>
       <c r="R479">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S479">
+        <v>2.025</v>
+      </c>
+      <c r="T479">
+        <v>3.25</v>
+      </c>
+      <c r="U479">
+        <v>2</v>
+      </c>
+      <c r="V479">
         <v>1.85</v>
       </c>
-      <c r="T479">
-        <v>2.75</v>
-      </c>
-      <c r="U479">
-        <v>1.8</v>
-      </c>
-      <c r="V479">
-        <v>2.05</v>
-      </c>
       <c r="W479">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X479">
         <v>-1</v>
@@ -43135,16 +43135,16 @@
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA479">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB479">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC479">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -44131,7 +44131,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>6811288</v>
+        <v>6811209</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44143,13 +44143,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F491" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G491" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H491">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491">
         <v>1</v>
@@ -44158,43 +44158,43 @@
         <v>45</v>
       </c>
       <c r="K491">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L491">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M491">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N491">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O491">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P491">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q491">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R491">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S491">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T491">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U491">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V491">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W491">
-        <v>1.875</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X491">
         <v>-1</v>
@@ -44203,16 +44203,16 @@
         <v>-1</v>
       </c>
       <c r="Z491">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA491">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB491">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC491">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44220,7 +44220,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>6811209</v>
+        <v>6811288</v>
       </c>
       <c r="C492" t="s">
         <v>28</v>
@@ -44232,13 +44232,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F492" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G492" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I492">
         <v>1</v>
@@ -44247,43 +44247,43 @@
         <v>45</v>
       </c>
       <c r="K492">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L492">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M492">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N492">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O492">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P492">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q492">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R492">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S492">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T492">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U492">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V492">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W492">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X492">
         <v>-1</v>
@@ -44292,16 +44292,16 @@
         <v>-1</v>
       </c>
       <c r="Z492">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA492">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB492">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC492">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493" spans="1:29">
@@ -46445,7 +46445,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>6810299</v>
+        <v>6811228</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46457,76 +46457,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F517" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G517" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H517">
         <v>2</v>
       </c>
       <c r="I517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J517" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K517">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L517">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M517">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N517">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O517">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P517">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q517">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R517">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S517">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T517">
         <v>3</v>
       </c>
       <c r="U517">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V517">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W517">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X517">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y517">
         <v>-1</v>
       </c>
       <c r="Z517">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA517">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB517">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC517">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="518" spans="1:29">
@@ -46534,7 +46534,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>6811228</v>
+        <v>6810299</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46546,76 +46546,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F518" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G518" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H518">
         <v>2</v>
       </c>
       <c r="I518">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J518" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K518">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L518">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M518">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N518">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="O518">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P518">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q518">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R518">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S518">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T518">
         <v>3</v>
       </c>
       <c r="U518">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V518">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W518">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X518">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y518">
         <v>-1</v>
       </c>
       <c r="Z518">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA518">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB518">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC518">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -48937,7 +48937,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>6811248</v>
+        <v>6811245</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
@@ -48949,73 +48949,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F545" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G545" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J545" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K545">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="L545">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M545">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N545">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O545">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P545">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q545">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R545">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S545">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T545">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U545">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V545">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W545">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X545">
         <v>-1</v>
       </c>
       <c r="Y545">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z545">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA545">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB545">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC545">
         <v>-1</v>
@@ -49026,7 +49026,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>6811245</v>
+        <v>6811248</v>
       </c>
       <c r="C546" t="s">
         <v>28</v>
@@ -49038,73 +49038,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F546" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G546" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H546">
+        <v>1</v>
+      </c>
+      <c r="I546">
+        <v>4</v>
+      </c>
+      <c r="J546" t="s">
+        <v>44</v>
+      </c>
+      <c r="K546">
+        <v>3.8</v>
+      </c>
+      <c r="L546">
+        <v>4</v>
+      </c>
+      <c r="M546">
+        <v>1.727</v>
+      </c>
+      <c r="N546">
+        <v>3.5</v>
+      </c>
+      <c r="O546">
+        <v>3.75</v>
+      </c>
+      <c r="P546">
+        <v>2</v>
+      </c>
+      <c r="Q546">
+        <v>0.5</v>
+      </c>
+      <c r="R546">
+        <v>1.825</v>
+      </c>
+      <c r="S546">
+        <v>2.025</v>
+      </c>
+      <c r="T546">
         <v>3</v>
       </c>
-      <c r="I546">
-        <v>1</v>
-      </c>
-      <c r="J546" t="s">
-        <v>45</v>
-      </c>
-      <c r="K546">
-        <v>2.25</v>
-      </c>
-      <c r="L546">
-        <v>3.4</v>
-      </c>
-      <c r="M546">
-        <v>2.875</v>
-      </c>
-      <c r="N546">
-        <v>2.375</v>
-      </c>
-      <c r="O546">
-        <v>3.4</v>
-      </c>
-      <c r="P546">
-        <v>3</v>
-      </c>
-      <c r="Q546">
-        <v>-0.25</v>
-      </c>
-      <c r="R546">
-        <v>2.05</v>
-      </c>
-      <c r="S546">
-        <v>1.8</v>
-      </c>
-      <c r="T546">
-        <v>2.75</v>
-      </c>
       <c r="U546">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V546">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W546">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X546">
         <v>-1</v>
       </c>
       <c r="Y546">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z546">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA546">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB546">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC546">
         <v>-1</v>
@@ -52675,7 +52675,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>6810779</v>
+        <v>6810310</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52687,76 +52687,76 @@
         <v>45314.625</v>
       </c>
       <c r="F587" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G587" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I587">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J587" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K587">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L587">
         <v>3.6</v>
       </c>
       <c r="M587">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N587">
         <v>3.2</v>
       </c>
       <c r="O587">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P587">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q587">
         <v>0.25</v>
       </c>
       <c r="R587">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S587">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T587">
         <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V587">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W587">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X587">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y587">
         <v>-1</v>
       </c>
       <c r="Z587">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA587">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB587">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC587">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52764,7 +52764,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6810310</v>
+        <v>6810779</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52776,76 +52776,76 @@
         <v>45314.625</v>
       </c>
       <c r="F588" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G588" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H588">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I588">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J588" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K588">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="L588">
         <v>3.6</v>
       </c>
       <c r="M588">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N588">
         <v>3.2</v>
       </c>
       <c r="O588">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P588">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q588">
         <v>0.25</v>
       </c>
       <c r="R588">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S588">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T588">
         <v>2.75</v>
       </c>
       <c r="U588">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V588">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W588">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X588">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y588">
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA588">
+        <v>-1</v>
+      </c>
+      <c r="AB588">
+        <v>0.4</v>
+      </c>
+      <c r="AC588">
         <v>-0.5</v>
-      </c>
-      <c r="AB588">
-        <v>0.875</v>
-      </c>
-      <c r="AC588">
-        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -53414,31 +53414,31 @@
         <v>2.875</v>
       </c>
       <c r="N595">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O595">
         <v>3.6</v>
       </c>
       <c r="P595">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q595">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R595">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S595">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T595">
         <v>2.75</v>
       </c>
       <c r="U595">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V595">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W595">
         <v>0</v>
@@ -53500,19 +53500,19 @@
         <v>-1.25</v>
       </c>
       <c r="R596">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S596">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T596">
         <v>3</v>
       </c>
       <c r="U596">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V596">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W596">
         <v>0</v>
@@ -53535,7 +53535,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>6811276</v>
+        <v>6811279</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53547,40 +53547,40 @@
         <v>45322.6875</v>
       </c>
       <c r="F597" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G597" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K597">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L597">
         <v>4</v>
       </c>
       <c r="M597">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N597">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="O597">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P597">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q597">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R597">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S597">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T597">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U597">
         <v>2.025</v>
@@ -53609,7 +53609,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>6811279</v>
+        <v>6811276</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53621,46 +53621,46 @@
         <v>45322.6875</v>
       </c>
       <c r="F598" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G598" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K598">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L598">
         <v>4</v>
       </c>
       <c r="M598">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N598">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="O598">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P598">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q598">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R598">
+        <v>1.95</v>
+      </c>
+      <c r="S598">
+        <v>1.9</v>
+      </c>
+      <c r="T598">
+        <v>3</v>
+      </c>
+      <c r="U598">
+        <v>2.025</v>
+      </c>
+      <c r="V598">
         <v>1.825</v>
-      </c>
-      <c r="S598">
-        <v>2.025</v>
-      </c>
-      <c r="T598">
-        <v>2.75</v>
-      </c>
-      <c r="U598">
-        <v>2</v>
-      </c>
-      <c r="V598">
-        <v>1.85</v>
       </c>
       <c r="W598">
         <v>0</v>
@@ -53731,10 +53731,10 @@
         <v>3</v>
       </c>
       <c r="U599">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V599">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W599">
         <v>0</v>
@@ -53805,10 +53805,10 @@
         <v>3</v>
       </c>
       <c r="U600">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V600">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W600">
         <v>0</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -30870,7 +30870,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>5173753</v>
+        <v>5172763</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30882,49 +30882,49 @@
         <v>44843.47916666666</v>
       </c>
       <c r="F342" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G342" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342">
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K342">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L342">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M342">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N342">
+        <v>2.5</v>
+      </c>
+      <c r="O342">
+        <v>3.3</v>
+      </c>
+      <c r="P342">
+        <v>2.875</v>
+      </c>
+      <c r="Q342">
+        <v>0</v>
+      </c>
+      <c r="R342">
         <v>1.8</v>
       </c>
-      <c r="O342">
-        <v>4</v>
-      </c>
-      <c r="P342">
-        <v>4.2</v>
-      </c>
-      <c r="Q342">
-        <v>-0.5</v>
-      </c>
-      <c r="R342">
-        <v>1.825</v>
-      </c>
       <c r="S342">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T342">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U342">
         <v>2</v>
@@ -30933,19 +30933,19 @@
         <v>1.85</v>
       </c>
       <c r="W342">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X342">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y342">
         <v>-1</v>
       </c>
       <c r="Z342">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA342">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB342">
         <v>-1</v>
@@ -30959,7 +30959,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>5172763</v>
+        <v>5173753</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30971,49 +30971,49 @@
         <v>44843.47916666666</v>
       </c>
       <c r="F343" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G343" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343">
         <v>0</v>
       </c>
       <c r="J343" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K343">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L343">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M343">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N343">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O343">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P343">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q343">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R343">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S343">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T343">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U343">
         <v>2</v>
@@ -31022,19 +31022,19 @@
         <v>1.85</v>
       </c>
       <c r="W343">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X343">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y343">
         <v>-1</v>
       </c>
       <c r="Z343">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB343">
         <v>-1</v>
@@ -31315,7 +31315,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>5172767</v>
+        <v>5172765</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31327,10 +31327,10 @@
         <v>44850.47916666666</v>
       </c>
       <c r="F347" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G347" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -31342,61 +31342,61 @@
         <v>43</v>
       </c>
       <c r="K347">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L347">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M347">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N347">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O347">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P347">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q347">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R347">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S347">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T347">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U347">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V347">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31404,7 +31404,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>5172765</v>
+        <v>5172767</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31416,10 +31416,10 @@
         <v>44850.47916666666</v>
       </c>
       <c r="F348" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G348" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -31431,61 +31431,61 @@
         <v>43</v>
       </c>
       <c r="K348">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L348">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M348">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N348">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O348">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P348">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q348">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R348">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S348">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U348">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V348">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W348">
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA348">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -34430,7 +34430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>5172788</v>
+        <v>5172789</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34442,49 +34442,49 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F382" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G382" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J382" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K382">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L382">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M382">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N382">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O382">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P382">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q382">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R382">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S382">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T382">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U382">
         <v>2</v>
@@ -34493,25 +34493,25 @@
         <v>1.85</v>
       </c>
       <c r="W382">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X382">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y382">
         <v>-1</v>
       </c>
       <c r="Z382">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA382">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB382">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC382">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34519,7 +34519,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>5172789</v>
+        <v>5172788</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34531,49 +34531,49 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F383" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G383" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I383">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J383" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K383">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L383">
+        <v>3.3</v>
+      </c>
+      <c r="M383">
         <v>3.4</v>
       </c>
-      <c r="M383">
+      <c r="N383">
+        <v>2</v>
+      </c>
+      <c r="O383">
+        <v>3.5</v>
+      </c>
+      <c r="P383">
+        <v>3.75</v>
+      </c>
+      <c r="Q383">
+        <v>-0.5</v>
+      </c>
+      <c r="R383">
+        <v>2.05</v>
+      </c>
+      <c r="S383">
+        <v>1.8</v>
+      </c>
+      <c r="T383">
         <v>2.5</v>
-      </c>
-      <c r="N383">
-        <v>2.25</v>
-      </c>
-      <c r="O383">
-        <v>3.6</v>
-      </c>
-      <c r="P383">
-        <v>3</v>
-      </c>
-      <c r="Q383">
-        <v>-0.25</v>
-      </c>
-      <c r="R383">
-        <v>2</v>
-      </c>
-      <c r="S383">
-        <v>1.85</v>
-      </c>
-      <c r="T383">
-        <v>3</v>
       </c>
       <c r="U383">
         <v>2</v>
@@ -34582,25 +34582,25 @@
         <v>1.85</v>
       </c>
       <c r="W383">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X383">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y383">
         <v>-1</v>
       </c>
       <c r="Z383">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA383">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB383">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC383">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -36744,7 +36744,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>5172802</v>
+        <v>5172804</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36756,10 +36756,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F408" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G408" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H408">
         <v>1</v>
@@ -36771,61 +36771,61 @@
         <v>43</v>
       </c>
       <c r="K408">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L408">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M408">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N408">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O408">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P408">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q408">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R408">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S408">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T408">
         <v>2.5</v>
       </c>
       <c r="U408">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V408">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W408">
         <v>-1</v>
       </c>
       <c r="X408">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y408">
         <v>-1</v>
       </c>
       <c r="Z408">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA408">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB408">
         <v>-1</v>
       </c>
       <c r="AC408">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36833,7 +36833,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>5172804</v>
+        <v>5172802</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36845,10 +36845,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F409" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G409" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H409">
         <v>1</v>
@@ -36860,61 +36860,61 @@
         <v>43</v>
       </c>
       <c r="K409">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L409">
+        <v>3.3</v>
+      </c>
+      <c r="M409">
+        <v>2.5</v>
+      </c>
+      <c r="N409">
+        <v>2.8</v>
+      </c>
+      <c r="O409">
         <v>3.4</v>
       </c>
-      <c r="M409">
-        <v>4.2</v>
-      </c>
-      <c r="N409">
-        <v>2.1</v>
-      </c>
-      <c r="O409">
-        <v>3.5</v>
-      </c>
       <c r="P409">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q409">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R409">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S409">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T409">
         <v>2.5</v>
       </c>
       <c r="U409">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V409">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W409">
         <v>-1</v>
       </c>
       <c r="X409">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y409">
         <v>-1</v>
       </c>
       <c r="Z409">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA409">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB409">
         <v>-1</v>
       </c>
       <c r="AC409">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37189,7 +37189,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>5173739</v>
+        <v>5172805</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37201,76 +37201,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F413" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G413" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413">
         <v>1</v>
       </c>
       <c r="J413" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K413">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L413">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M413">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N413">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O413">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P413">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q413">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R413">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S413">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T413">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U413">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V413">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W413">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X413">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y413">
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA413">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB413">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC413">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37278,7 +37278,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>5172805</v>
+        <v>5173739</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37290,76 +37290,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F414" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G414" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414">
         <v>1</v>
       </c>
       <c r="J414" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K414">
+        <v>2.05</v>
+      </c>
+      <c r="L414">
+        <v>3.4</v>
+      </c>
+      <c r="M414">
+        <v>3.2</v>
+      </c>
+      <c r="N414">
+        <v>2.1</v>
+      </c>
+      <c r="O414">
+        <v>3.4</v>
+      </c>
+      <c r="P414">
+        <v>3.5</v>
+      </c>
+      <c r="Q414">
+        <v>-0.25</v>
+      </c>
+      <c r="R414">
+        <v>1.8</v>
+      </c>
+      <c r="S414">
+        <v>2.05</v>
+      </c>
+      <c r="T414">
+        <v>2.5</v>
+      </c>
+      <c r="U414">
+        <v>1.9</v>
+      </c>
+      <c r="V414">
         <v>1.95</v>
       </c>
-      <c r="L414">
-        <v>3.5</v>
-      </c>
-      <c r="M414">
-        <v>3.3</v>
-      </c>
-      <c r="N414">
-        <v>1.85</v>
-      </c>
-      <c r="O414">
-        <v>4</v>
-      </c>
-      <c r="P414">
-        <v>4</v>
-      </c>
-      <c r="Q414">
-        <v>-0.5</v>
-      </c>
-      <c r="R414">
-        <v>1.825</v>
-      </c>
-      <c r="S414">
-        <v>2.025</v>
-      </c>
-      <c r="T414">
-        <v>3.25</v>
-      </c>
-      <c r="U414">
-        <v>2.025</v>
-      </c>
-      <c r="V414">
-        <v>1.825</v>
-      </c>
       <c r="W414">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X414">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y414">
         <v>-1</v>
       </c>
       <c r="Z414">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA414">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB414">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC414">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415" spans="1:29">
@@ -39859,7 +39859,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>6401769</v>
+        <v>6401770</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39871,40 +39871,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F443" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G443" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H443">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J443" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K443">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L443">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M443">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N443">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O443">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P443">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q443">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R443">
         <v>1.975</v>
@@ -39913,34 +39913,34 @@
         <v>1.875</v>
       </c>
       <c r="T443">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U443">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V443">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W443">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X443">
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z443">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA443">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB443">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -39948,7 +39948,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6401770</v>
+        <v>6401769</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39960,40 +39960,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F444" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G444" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J444" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K444">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L444">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M444">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N444">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O444">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P444">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q444">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R444">
         <v>1.975</v>
@@ -40002,34 +40002,34 @@
         <v>1.875</v>
       </c>
       <c r="T444">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U444">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V444">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W444">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA444">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB444">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC444">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -46623,7 +46623,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6810768</v>
+        <v>6811229</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46635,10 +46635,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F519" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G519" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H519">
         <v>1</v>
@@ -46650,61 +46650,61 @@
         <v>43</v>
       </c>
       <c r="K519">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L519">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M519">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N519">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O519">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P519">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q519">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R519">
+        <v>1.925</v>
+      </c>
+      <c r="S519">
+        <v>1.925</v>
+      </c>
+      <c r="T519">
+        <v>3</v>
+      </c>
+      <c r="U519">
+        <v>1.95</v>
+      </c>
+      <c r="V519">
         <v>1.9</v>
       </c>
-      <c r="S519">
-        <v>1.95</v>
-      </c>
-      <c r="T519">
-        <v>2.75</v>
-      </c>
-      <c r="U519">
-        <v>1.85</v>
-      </c>
-      <c r="V519">
-        <v>2</v>
-      </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y519">
         <v>-1</v>
       </c>
       <c r="Z519">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA519">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB519">
         <v>-1</v>
       </c>
       <c r="AC519">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46712,7 +46712,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>6811229</v>
+        <v>6810768</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46724,10 +46724,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F520" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G520" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H520">
         <v>1</v>
@@ -46739,61 +46739,61 @@
         <v>43</v>
       </c>
       <c r="K520">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L520">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M520">
+        <v>4</v>
+      </c>
+      <c r="N520">
+        <v>2.15</v>
+      </c>
+      <c r="O520">
+        <v>3.75</v>
+      </c>
+      <c r="P520">
+        <v>3.1</v>
+      </c>
+      <c r="Q520">
+        <v>-0.25</v>
+      </c>
+      <c r="R520">
+        <v>1.9</v>
+      </c>
+      <c r="S520">
+        <v>1.95</v>
+      </c>
+      <c r="T520">
         <v>2.75</v>
       </c>
-      <c r="N520">
-        <v>2.55</v>
-      </c>
-      <c r="O520">
-        <v>3.6</v>
-      </c>
-      <c r="P520">
-        <v>2.55</v>
-      </c>
-      <c r="Q520">
-        <v>0</v>
-      </c>
-      <c r="R520">
-        <v>1.925</v>
-      </c>
-      <c r="S520">
-        <v>1.925</v>
-      </c>
-      <c r="T520">
-        <v>3</v>
-      </c>
       <c r="U520">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V520">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W520">
         <v>-1</v>
       </c>
       <c r="X520">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y520">
         <v>-1</v>
       </c>
       <c r="Z520">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA520">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -53387,7 +53387,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>6811278</v>
+        <v>6810780</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53399,46 +53399,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F595" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G595" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K595">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L595">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M595">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="N595">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O595">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P595">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q595">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R595">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S595">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T595">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U595">
+        <v>1.875</v>
+      </c>
+      <c r="V595">
         <v>1.975</v>
-      </c>
-      <c r="V595">
-        <v>1.875</v>
       </c>
       <c r="W595">
         <v>0</v>
@@ -53461,7 +53461,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>6810780</v>
+        <v>6811278</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53473,46 +53473,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F596" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G596" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K596">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L596">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M596">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N596">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O596">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P596">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q596">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R596">
+        <v>1.775</v>
+      </c>
+      <c r="S596">
+        <v>2.1</v>
+      </c>
+      <c r="T596">
+        <v>2.75</v>
+      </c>
+      <c r="U596">
+        <v>1.975</v>
+      </c>
+      <c r="V596">
         <v>1.875</v>
-      </c>
-      <c r="S596">
-        <v>1.975</v>
-      </c>
-      <c r="T596">
-        <v>3</v>
-      </c>
-      <c r="U596">
-        <v>1.875</v>
-      </c>
-      <c r="V596">
-        <v>1.975</v>
       </c>
       <c r="W596">
         <v>0</v>
@@ -53535,7 +53535,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>6811279</v>
+        <v>6810311</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53547,31 +53547,31 @@
         <v>45322.6875</v>
       </c>
       <c r="F597" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G597" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K597">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L597">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M597">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N597">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="O597">
         <v>3.8</v>
       </c>
       <c r="P597">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q597">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R597">
         <v>1.825</v>
@@ -53580,13 +53580,13 @@
         <v>2.025</v>
       </c>
       <c r="T597">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U597">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V597">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W597">
         <v>0</v>
@@ -53657,10 +53657,10 @@
         <v>3</v>
       </c>
       <c r="U598">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V598">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W598">
         <v>0</v>
@@ -53683,7 +53683,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>6810311</v>
+        <v>6811279</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53695,46 +53695,46 @@
         <v>45322.6875</v>
       </c>
       <c r="F599" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G599" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K599">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L599">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M599">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N599">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O599">
         <v>3.8</v>
       </c>
       <c r="P599">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q599">
         <v>-0.5</v>
       </c>
       <c r="R599">
+        <v>1.825</v>
+      </c>
+      <c r="S599">
         <v>2.025</v>
       </c>
-      <c r="S599">
+      <c r="T599">
+        <v>2.5</v>
+      </c>
+      <c r="U599">
         <v>1.825</v>
       </c>
-      <c r="T599">
-        <v>3</v>
-      </c>
-      <c r="U599">
-        <v>1.85</v>
-      </c>
       <c r="V599">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W599">
         <v>0</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -26242,7 +26242,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>4077045</v>
+        <v>4082761</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26254,13 +26254,13 @@
         <v>44703.47916666666</v>
       </c>
       <c r="F290" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G290" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H290">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -26269,31 +26269,31 @@
         <v>45</v>
       </c>
       <c r="K290">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="L290">
         <v>4</v>
       </c>
       <c r="M290">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N290">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O290">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P290">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q290">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R290">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S290">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T290">
         <v>3.75</v>
@@ -26305,7 +26305,7 @@
         <v>1.975</v>
       </c>
       <c r="W290">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26314,16 +26314,16 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA290">
         <v>-1</v>
       </c>
       <c r="AB290">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC290">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26331,7 +26331,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>4082761</v>
+        <v>4077045</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26343,13 +26343,13 @@
         <v>44703.47916666666</v>
       </c>
       <c r="F291" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G291" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H291">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -26358,31 +26358,31 @@
         <v>45</v>
       </c>
       <c r="K291">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="L291">
         <v>4</v>
       </c>
       <c r="M291">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N291">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O291">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P291">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q291">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R291">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S291">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T291">
         <v>3.75</v>
@@ -26394,7 +26394,7 @@
         <v>1.975</v>
       </c>
       <c r="W291">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26403,16 +26403,16 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC291">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -29090,7 +29090,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>5172751</v>
+        <v>5173757</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29102,40 +29102,40 @@
         <v>44801.47916666666</v>
       </c>
       <c r="F322" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G322" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J322" t="s">
         <v>44</v>
       </c>
       <c r="K322">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L322">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M322">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N322">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O322">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P322">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R322">
         <v>1.825</v>
@@ -29147,10 +29147,10 @@
         <v>2.75</v>
       </c>
       <c r="U322">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V322">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W322">
         <v>-1</v>
@@ -29159,7 +29159,7 @@
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>1.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z322">
         <v>-1</v>
@@ -29168,7 +29168,7 @@
         <v>1.025</v>
       </c>
       <c r="AB322">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29179,7 +29179,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>5173757</v>
+        <v>5172751</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29191,40 +29191,40 @@
         <v>44801.47916666666</v>
       </c>
       <c r="F323" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G323" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J323" t="s">
         <v>44</v>
       </c>
       <c r="K323">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M323">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N323">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O323">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P323">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R323">
         <v>1.825</v>
@@ -29236,10 +29236,10 @@
         <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V323">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -29248,7 +29248,7 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.6000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="Z323">
         <v>-1</v>
@@ -29257,7 +29257,7 @@
         <v>1.025</v>
       </c>
       <c r="AB323">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -30870,7 +30870,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>5172763</v>
+        <v>5173753</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30882,49 +30882,49 @@
         <v>44843.47916666666</v>
       </c>
       <c r="F342" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G342" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342">
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K342">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L342">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M342">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N342">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O342">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P342">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q342">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R342">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S342">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T342">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U342">
         <v>2</v>
@@ -30933,19 +30933,19 @@
         <v>1.85</v>
       </c>
       <c r="W342">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X342">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y342">
         <v>-1</v>
       </c>
       <c r="Z342">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA342">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB342">
         <v>-1</v>
@@ -30959,7 +30959,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>5173753</v>
+        <v>5172763</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30971,49 +30971,49 @@
         <v>44843.47916666666</v>
       </c>
       <c r="F343" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G343" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I343">
         <v>0</v>
       </c>
       <c r="J343" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K343">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L343">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M343">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N343">
+        <v>2.5</v>
+      </c>
+      <c r="O343">
+        <v>3.3</v>
+      </c>
+      <c r="P343">
+        <v>2.875</v>
+      </c>
+      <c r="Q343">
+        <v>0</v>
+      </c>
+      <c r="R343">
         <v>1.8</v>
       </c>
-      <c r="O343">
-        <v>4</v>
-      </c>
-      <c r="P343">
-        <v>4.2</v>
-      </c>
-      <c r="Q343">
-        <v>-0.5</v>
-      </c>
-      <c r="R343">
-        <v>1.825</v>
-      </c>
       <c r="S343">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T343">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U343">
         <v>2</v>
@@ -31022,19 +31022,19 @@
         <v>1.85</v>
       </c>
       <c r="W343">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X343">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
         <v>-1</v>
       </c>
       <c r="Z343">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA343">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB343">
         <v>-1</v>
@@ -31582,7 +31582,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>5171742</v>
+        <v>5172770</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31594,49 +31594,49 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F350" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G350" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I350">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J350" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K350">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="L350">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M350">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N350">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O350">
         <v>3.75</v>
       </c>
       <c r="P350">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q350">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R350">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S350">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T350">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U350">
         <v>2</v>
@@ -31648,16 +31648,16 @@
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z350">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB350">
         <v>1</v>
@@ -31671,7 +31671,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>5172770</v>
+        <v>5171742</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31683,49 +31683,49 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F351" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G351" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I351">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J351" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K351">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="L351">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M351">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N351">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="O351">
         <v>3.75</v>
       </c>
       <c r="P351">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="Q351">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R351">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S351">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T351">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U351">
         <v>2</v>
@@ -31737,16 +31737,16 @@
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y351">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA351">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB351">
         <v>1</v>
@@ -34430,7 +34430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>5172789</v>
+        <v>5172788</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34442,49 +34442,49 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F382" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G382" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I382">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J382" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K382">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L382">
+        <v>3.3</v>
+      </c>
+      <c r="M382">
         <v>3.4</v>
       </c>
-      <c r="M382">
+      <c r="N382">
+        <v>2</v>
+      </c>
+      <c r="O382">
+        <v>3.5</v>
+      </c>
+      <c r="P382">
+        <v>3.75</v>
+      </c>
+      <c r="Q382">
+        <v>-0.5</v>
+      </c>
+      <c r="R382">
+        <v>2.05</v>
+      </c>
+      <c r="S382">
+        <v>1.8</v>
+      </c>
+      <c r="T382">
         <v>2.5</v>
-      </c>
-      <c r="N382">
-        <v>2.25</v>
-      </c>
-      <c r="O382">
-        <v>3.6</v>
-      </c>
-      <c r="P382">
-        <v>3</v>
-      </c>
-      <c r="Q382">
-        <v>-0.25</v>
-      </c>
-      <c r="R382">
-        <v>2</v>
-      </c>
-      <c r="S382">
-        <v>1.85</v>
-      </c>
-      <c r="T382">
-        <v>3</v>
       </c>
       <c r="U382">
         <v>2</v>
@@ -34493,25 +34493,25 @@
         <v>1.85</v>
       </c>
       <c r="W382">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X382">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y382">
         <v>-1</v>
       </c>
       <c r="Z382">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA382">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB382">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC382">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34519,7 +34519,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>5172788</v>
+        <v>5172789</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34531,49 +34531,49 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F383" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G383" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J383" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K383">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L383">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M383">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N383">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O383">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P383">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q383">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R383">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S383">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T383">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U383">
         <v>2</v>
@@ -34582,25 +34582,25 @@
         <v>1.85</v>
       </c>
       <c r="W383">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X383">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y383">
         <v>-1</v>
       </c>
       <c r="Z383">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA383">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB383">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC383">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -36744,7 +36744,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>5172804</v>
+        <v>5172802</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36756,10 +36756,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F408" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G408" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H408">
         <v>1</v>
@@ -36771,61 +36771,61 @@
         <v>43</v>
       </c>
       <c r="K408">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L408">
+        <v>3.3</v>
+      </c>
+      <c r="M408">
+        <v>2.5</v>
+      </c>
+      <c r="N408">
+        <v>2.8</v>
+      </c>
+      <c r="O408">
         <v>3.4</v>
       </c>
-      <c r="M408">
-        <v>4.2</v>
-      </c>
-      <c r="N408">
-        <v>2.1</v>
-      </c>
-      <c r="O408">
-        <v>3.5</v>
-      </c>
       <c r="P408">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q408">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R408">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S408">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T408">
         <v>2.5</v>
       </c>
       <c r="U408">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V408">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W408">
         <v>-1</v>
       </c>
       <c r="X408">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y408">
         <v>-1</v>
       </c>
       <c r="Z408">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA408">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB408">
         <v>-1</v>
       </c>
       <c r="AC408">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36833,7 +36833,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>5172802</v>
+        <v>5172804</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36845,10 +36845,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F409" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G409" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H409">
         <v>1</v>
@@ -36860,61 +36860,61 @@
         <v>43</v>
       </c>
       <c r="K409">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L409">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M409">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N409">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O409">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P409">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q409">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R409">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S409">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T409">
         <v>2.5</v>
       </c>
       <c r="U409">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V409">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W409">
         <v>-1</v>
       </c>
       <c r="X409">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y409">
         <v>-1</v>
       </c>
       <c r="Z409">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA409">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB409">
         <v>-1</v>
       </c>
       <c r="AC409">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -46623,7 +46623,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6811229</v>
+        <v>6810768</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46635,10 +46635,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F519" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G519" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H519">
         <v>1</v>
@@ -46650,61 +46650,61 @@
         <v>43</v>
       </c>
       <c r="K519">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L519">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M519">
+        <v>4</v>
+      </c>
+      <c r="N519">
+        <v>2.15</v>
+      </c>
+      <c r="O519">
+        <v>3.75</v>
+      </c>
+      <c r="P519">
+        <v>3.1</v>
+      </c>
+      <c r="Q519">
+        <v>-0.25</v>
+      </c>
+      <c r="R519">
+        <v>1.9</v>
+      </c>
+      <c r="S519">
+        <v>1.95</v>
+      </c>
+      <c r="T519">
         <v>2.75</v>
       </c>
-      <c r="N519">
-        <v>2.55</v>
-      </c>
-      <c r="O519">
-        <v>3.6</v>
-      </c>
-      <c r="P519">
-        <v>2.55</v>
-      </c>
-      <c r="Q519">
-        <v>0</v>
-      </c>
-      <c r="R519">
-        <v>1.925</v>
-      </c>
-      <c r="S519">
-        <v>1.925</v>
-      </c>
-      <c r="T519">
-        <v>3</v>
-      </c>
       <c r="U519">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V519">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y519">
         <v>-1</v>
       </c>
       <c r="Z519">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA519">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB519">
         <v>-1</v>
       </c>
       <c r="AC519">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46712,7 +46712,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>6810768</v>
+        <v>6811229</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46724,10 +46724,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F520" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G520" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H520">
         <v>1</v>
@@ -46739,61 +46739,61 @@
         <v>43</v>
       </c>
       <c r="K520">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L520">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M520">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N520">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O520">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P520">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q520">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R520">
+        <v>1.925</v>
+      </c>
+      <c r="S520">
+        <v>1.925</v>
+      </c>
+      <c r="T520">
+        <v>3</v>
+      </c>
+      <c r="U520">
+        <v>1.95</v>
+      </c>
+      <c r="V520">
         <v>1.9</v>
       </c>
-      <c r="S520">
-        <v>1.95</v>
-      </c>
-      <c r="T520">
-        <v>2.75</v>
-      </c>
-      <c r="U520">
-        <v>1.85</v>
-      </c>
-      <c r="V520">
-        <v>2</v>
-      </c>
       <c r="W520">
         <v>-1</v>
       </c>
       <c r="X520">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y520">
         <v>-1</v>
       </c>
       <c r="Z520">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA520">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -51518,7 +51518,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>6810777</v>
+        <v>6811260</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51530,76 +51530,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F574" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G574" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I574">
         <v>1</v>
       </c>
       <c r="J574" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K574">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L574">
         <v>3.6</v>
       </c>
       <c r="M574">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N574">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O574">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P574">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q574">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R574">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S574">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T574">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U574">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V574">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W574">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X574">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y574">
         <v>-1</v>
       </c>
       <c r="Z574">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA574">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB574">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC574">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51607,7 +51607,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>6811260</v>
+        <v>6810777</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51619,76 +51619,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F575" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G575" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I575">
         <v>1</v>
       </c>
       <c r="J575" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K575">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L575">
         <v>3.6</v>
       </c>
       <c r="M575">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N575">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O575">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P575">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q575">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R575">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S575">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T575">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U575">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V575">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W575">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X575">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y575">
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA575">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB575">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC575">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -53387,7 +53387,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>6810780</v>
+        <v>6811278</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53399,46 +53399,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F595" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G595" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K595">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L595">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M595">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N595">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="O595">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P595">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q595">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R595">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S595">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T595">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U595">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V595">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W595">
         <v>0</v>
@@ -53461,7 +53461,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>6811278</v>
+        <v>6810780</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53473,46 +53473,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F596" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G596" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K596">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L596">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M596">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="N596">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O596">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P596">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q596">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R596">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S596">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T596">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U596">
+        <v>1.875</v>
+      </c>
+      <c r="V596">
         <v>1.975</v>
-      </c>
-      <c r="V596">
-        <v>1.875</v>
       </c>
       <c r="W596">
         <v>0</v>
@@ -53535,7 +53535,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>6810311</v>
+        <v>6811279</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53547,31 +53547,31 @@
         <v>45322.6875</v>
       </c>
       <c r="F597" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G597" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K597">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L597">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M597">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N597">
-        <v>2.05</v>
+        <v>1.833</v>
       </c>
       <c r="O597">
         <v>3.8</v>
       </c>
       <c r="P597">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q597">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R597">
         <v>1.825</v>
@@ -53580,13 +53580,13 @@
         <v>2.025</v>
       </c>
       <c r="T597">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U597">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V597">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W597">
         <v>0</v>
@@ -53648,10 +53648,10 @@
         <v>-0.75</v>
       </c>
       <c r="R598">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S598">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T598">
         <v>3</v>
@@ -53683,7 +53683,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>6811279</v>
+        <v>6810311</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53695,31 +53695,31 @@
         <v>45322.6875</v>
       </c>
       <c r="F599" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G599" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K599">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L599">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M599">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N599">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="O599">
         <v>3.8</v>
       </c>
       <c r="P599">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q599">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R599">
         <v>1.825</v>
@@ -53728,13 +53728,13 @@
         <v>2.025</v>
       </c>
       <c r="T599">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U599">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V599">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W599">
         <v>0</v>
@@ -53796,10 +53796,10 @@
         <v>0.25</v>
       </c>
       <c r="R600">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S600">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T600">
         <v>3</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -33095,7 +33095,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>5172777</v>
+        <v>5172778</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33107,76 +33107,76 @@
         <v>44871.52083333334</v>
       </c>
       <c r="F367" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G367" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K367">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L367">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M367">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N367">
+        <v>2.7</v>
+      </c>
+      <c r="O367">
+        <v>3.3</v>
+      </c>
+      <c r="P367">
+        <v>2.625</v>
+      </c>
+      <c r="Q367">
+        <v>0</v>
+      </c>
+      <c r="R367">
+        <v>1.975</v>
+      </c>
+      <c r="S367">
+        <v>1.875</v>
+      </c>
+      <c r="T367">
+        <v>2.5</v>
+      </c>
+      <c r="U367">
         <v>1.85</v>
       </c>
-      <c r="O367">
-        <v>3.8</v>
-      </c>
-      <c r="P367">
-        <v>3.8</v>
-      </c>
-      <c r="Q367">
-        <v>-0.5</v>
-      </c>
-      <c r="R367">
-        <v>1.85</v>
-      </c>
-      <c r="S367">
-        <v>2</v>
-      </c>
-      <c r="T367">
-        <v>3</v>
-      </c>
-      <c r="U367">
-        <v>2.05</v>
-      </c>
       <c r="V367">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W367">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X367">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA367">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33184,7 +33184,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>5172778</v>
+        <v>5172777</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33196,76 +33196,76 @@
         <v>44871.52083333334</v>
       </c>
       <c r="F368" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G368" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368">
         <v>0</v>
       </c>
       <c r="J368" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K368">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L368">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M368">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N368">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O368">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P368">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q368">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R368">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S368">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T368">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U368">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V368">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W368">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X368">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y368">
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA368">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB368">
         <v>-1</v>
       </c>
       <c r="AC368">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -34430,7 +34430,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>5172788</v>
+        <v>5172789</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34442,49 +34442,49 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F382" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G382" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J382" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K382">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L382">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M382">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N382">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O382">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P382">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q382">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R382">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S382">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T382">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U382">
         <v>2</v>
@@ -34493,25 +34493,25 @@
         <v>1.85</v>
       </c>
       <c r="W382">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X382">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y382">
         <v>-1</v>
       </c>
       <c r="Z382">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA382">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB382">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC382">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34519,7 +34519,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>5172789</v>
+        <v>5172788</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34531,49 +34531,49 @@
         <v>44955.52083333334</v>
       </c>
       <c r="F383" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G383" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I383">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J383" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K383">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L383">
+        <v>3.3</v>
+      </c>
+      <c r="M383">
         <v>3.4</v>
       </c>
-      <c r="M383">
+      <c r="N383">
+        <v>2</v>
+      </c>
+      <c r="O383">
+        <v>3.5</v>
+      </c>
+      <c r="P383">
+        <v>3.75</v>
+      </c>
+      <c r="Q383">
+        <v>-0.5</v>
+      </c>
+      <c r="R383">
+        <v>2.05</v>
+      </c>
+      <c r="S383">
+        <v>1.8</v>
+      </c>
+      <c r="T383">
         <v>2.5</v>
-      </c>
-      <c r="N383">
-        <v>2.25</v>
-      </c>
-      <c r="O383">
-        <v>3.6</v>
-      </c>
-      <c r="P383">
-        <v>3</v>
-      </c>
-      <c r="Q383">
-        <v>-0.25</v>
-      </c>
-      <c r="R383">
-        <v>2</v>
-      </c>
-      <c r="S383">
-        <v>1.85</v>
-      </c>
-      <c r="T383">
-        <v>3</v>
       </c>
       <c r="U383">
         <v>2</v>
@@ -34582,25 +34582,25 @@
         <v>1.85</v>
       </c>
       <c r="W383">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X383">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y383">
         <v>-1</v>
       </c>
       <c r="Z383">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA383">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB383">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC383">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -34875,7 +34875,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>5173744</v>
+        <v>5171748</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34887,19 +34887,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F387" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G387" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H387">
         <v>1</v>
       </c>
       <c r="I387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K387">
         <v>3.8</v>
@@ -34911,43 +34911,43 @@
         <v>1.909</v>
       </c>
       <c r="N387">
+        <v>4.333</v>
+      </c>
+      <c r="O387">
+        <v>3.8</v>
+      </c>
+      <c r="P387">
+        <v>1.8</v>
+      </c>
+      <c r="Q387">
+        <v>0.75</v>
+      </c>
+      <c r="R387">
+        <v>1.825</v>
+      </c>
+      <c r="S387">
+        <v>2.025</v>
+      </c>
+      <c r="T387">
         <v>3</v>
       </c>
-      <c r="O387">
-        <v>3.6</v>
-      </c>
-      <c r="P387">
-        <v>2.25</v>
-      </c>
-      <c r="Q387">
-        <v>0.25</v>
-      </c>
-      <c r="R387">
-        <v>1.9</v>
-      </c>
-      <c r="S387">
-        <v>1.95</v>
-      </c>
-      <c r="T387">
-        <v>2.5</v>
-      </c>
       <c r="U387">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V387">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W387">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X387">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y387">
         <v>-1</v>
       </c>
       <c r="Z387">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA387">
         <v>-1</v>
@@ -34956,7 +34956,7 @@
         <v>-1</v>
       </c>
       <c r="AC387">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -34964,7 +34964,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>5171748</v>
+        <v>5173744</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -34976,19 +34976,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F388" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G388" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H388">
         <v>1</v>
       </c>
       <c r="I388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K388">
         <v>3.8</v>
@@ -35000,43 +35000,43 @@
         <v>1.909</v>
       </c>
       <c r="N388">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O388">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P388">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q388">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R388">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S388">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T388">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U388">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V388">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W388">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X388">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y388">
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA388">
         <v>-1</v>
@@ -35045,7 +35045,7 @@
         <v>-1</v>
       </c>
       <c r="AC388">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -39859,7 +39859,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>6401770</v>
+        <v>6401769</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39871,40 +39871,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F443" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G443" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J443" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K443">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L443">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M443">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N443">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O443">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P443">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q443">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R443">
         <v>1.975</v>
@@ -39913,34 +39913,34 @@
         <v>1.875</v>
       </c>
       <c r="T443">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U443">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V443">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W443">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X443">
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA443">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB443">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC443">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -39948,7 +39948,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6401769</v>
+        <v>6401770</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39960,40 +39960,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F444" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G444" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H444">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J444" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K444">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L444">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M444">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N444">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O444">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P444">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q444">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R444">
         <v>1.975</v>
@@ -40002,34 +40002,34 @@
         <v>1.875</v>
       </c>
       <c r="T444">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U444">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V444">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W444">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z444">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA444">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB444">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC444">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -48937,7 +48937,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>6811245</v>
+        <v>6811248</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
@@ -48949,73 +48949,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F545" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G545" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H545">
+        <v>1</v>
+      </c>
+      <c r="I545">
+        <v>4</v>
+      </c>
+      <c r="J545" t="s">
+        <v>44</v>
+      </c>
+      <c r="K545">
+        <v>3.8</v>
+      </c>
+      <c r="L545">
+        <v>4</v>
+      </c>
+      <c r="M545">
+        <v>1.727</v>
+      </c>
+      <c r="N545">
+        <v>3.5</v>
+      </c>
+      <c r="O545">
+        <v>3.75</v>
+      </c>
+      <c r="P545">
+        <v>2</v>
+      </c>
+      <c r="Q545">
+        <v>0.5</v>
+      </c>
+      <c r="R545">
+        <v>1.825</v>
+      </c>
+      <c r="S545">
+        <v>2.025</v>
+      </c>
+      <c r="T545">
         <v>3</v>
       </c>
-      <c r="I545">
-        <v>1</v>
-      </c>
-      <c r="J545" t="s">
-        <v>45</v>
-      </c>
-      <c r="K545">
-        <v>2.25</v>
-      </c>
-      <c r="L545">
-        <v>3.4</v>
-      </c>
-      <c r="M545">
-        <v>2.875</v>
-      </c>
-      <c r="N545">
-        <v>2.375</v>
-      </c>
-      <c r="O545">
-        <v>3.4</v>
-      </c>
-      <c r="P545">
-        <v>3</v>
-      </c>
-      <c r="Q545">
-        <v>-0.25</v>
-      </c>
-      <c r="R545">
-        <v>2.05</v>
-      </c>
-      <c r="S545">
-        <v>1.8</v>
-      </c>
-      <c r="T545">
-        <v>2.75</v>
-      </c>
       <c r="U545">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V545">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W545">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X545">
         <v>-1</v>
       </c>
       <c r="Y545">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z545">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA545">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB545">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC545">
         <v>-1</v>
@@ -49026,7 +49026,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>6811248</v>
+        <v>6811245</v>
       </c>
       <c r="C546" t="s">
         <v>28</v>
@@ -49038,73 +49038,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F546" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G546" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I546">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J546" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K546">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="L546">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M546">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N546">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O546">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P546">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q546">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R546">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S546">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T546">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U546">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V546">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W546">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X546">
         <v>-1</v>
       </c>
       <c r="Y546">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z546">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA546">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB546">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC546">
         <v>-1</v>
@@ -53387,7 +53387,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>6811278</v>
+        <v>6810780</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53399,46 +53399,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F595" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G595" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K595">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L595">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M595">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="N595">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="O595">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P595">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q595">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R595">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S595">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T595">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U595">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V595">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W595">
         <v>0</v>
@@ -53461,7 +53461,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>6810780</v>
+        <v>6811278</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53473,46 +53473,46 @@
         <v>45321.6875</v>
       </c>
       <c r="F596" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G596" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K596">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L596">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M596">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N596">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O596">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P596">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q596">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R596">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S596">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T596">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U596">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V596">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W596">
         <v>0</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -34875,7 +34875,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>5171748</v>
+        <v>5173744</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34887,19 +34887,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F387" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G387" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H387">
         <v>1</v>
       </c>
       <c r="I387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K387">
         <v>3.8</v>
@@ -34911,43 +34911,43 @@
         <v>1.909</v>
       </c>
       <c r="N387">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O387">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P387">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q387">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R387">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S387">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T387">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U387">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V387">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W387">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X387">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y387">
         <v>-1</v>
       </c>
       <c r="Z387">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA387">
         <v>-1</v>
@@ -34956,7 +34956,7 @@
         <v>-1</v>
       </c>
       <c r="AC387">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="388" spans="1:29">
@@ -34964,7 +34964,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>5173744</v>
+        <v>5171748</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -34976,19 +34976,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F388" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G388" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H388">
         <v>1</v>
       </c>
       <c r="I388">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K388">
         <v>3.8</v>
@@ -35000,43 +35000,43 @@
         <v>1.909</v>
       </c>
       <c r="N388">
+        <v>4.333</v>
+      </c>
+      <c r="O388">
+        <v>3.8</v>
+      </c>
+      <c r="P388">
+        <v>1.8</v>
+      </c>
+      <c r="Q388">
+        <v>0.75</v>
+      </c>
+      <c r="R388">
+        <v>1.825</v>
+      </c>
+      <c r="S388">
+        <v>2.025</v>
+      </c>
+      <c r="T388">
         <v>3</v>
       </c>
-      <c r="O388">
-        <v>3.6</v>
-      </c>
-      <c r="P388">
-        <v>2.25</v>
-      </c>
-      <c r="Q388">
-        <v>0.25</v>
-      </c>
-      <c r="R388">
-        <v>1.9</v>
-      </c>
-      <c r="S388">
-        <v>1.95</v>
-      </c>
-      <c r="T388">
-        <v>2.5</v>
-      </c>
       <c r="U388">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V388">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W388">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X388">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y388">
         <v>-1</v>
       </c>
       <c r="Z388">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA388">
         <v>-1</v>
@@ -35045,7 +35045,7 @@
         <v>-1</v>
       </c>
       <c r="AC388">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="389" spans="1:29">
@@ -40304,7 +40304,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>5356263</v>
+        <v>5310236</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40316,73 +40316,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F448" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G448" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H448">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I448">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J448" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K448">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L448">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M448">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N448">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O448">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P448">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q448">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R448">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S448">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T448">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U448">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V448">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W448">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z448">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA448">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB448">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC448">
         <v>-1</v>
@@ -40393,7 +40393,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>5310236</v>
+        <v>5356263</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40405,73 +40405,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F449" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G449" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I449">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J449" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K449">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L449">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M449">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N449">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O449">
+        <v>4.5</v>
+      </c>
+      <c r="P449">
+        <v>4.333</v>
+      </c>
+      <c r="Q449">
+        <v>-0.75</v>
+      </c>
+      <c r="R449">
+        <v>1.8</v>
+      </c>
+      <c r="S449">
+        <v>2.05</v>
+      </c>
+      <c r="T449">
         <v>3.5</v>
       </c>
-      <c r="P449">
-        <v>2.2</v>
-      </c>
-      <c r="Q449">
-        <v>0.25</v>
-      </c>
-      <c r="R449">
-        <v>1.875</v>
-      </c>
-      <c r="S449">
-        <v>1.975</v>
-      </c>
-      <c r="T449">
-        <v>2.75</v>
-      </c>
       <c r="U449">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V449">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W449">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z449">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA449">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB449">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC449">
         <v>-1</v>
@@ -41639,7 +41639,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>5471184</v>
+        <v>5466932</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41651,76 +41651,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F463" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G463" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I463">
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K463">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L463">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M463">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N463">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O463">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P463">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q463">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R463">
+        <v>2</v>
+      </c>
+      <c r="S463">
+        <v>1.85</v>
+      </c>
+      <c r="T463">
+        <v>2.75</v>
+      </c>
+      <c r="U463">
+        <v>1.95</v>
+      </c>
+      <c r="V463">
         <v>1.9</v>
       </c>
-      <c r="S463">
-        <v>1.95</v>
-      </c>
-      <c r="T463">
-        <v>3</v>
-      </c>
-      <c r="U463">
-        <v>2.025</v>
-      </c>
-      <c r="V463">
-        <v>1.825</v>
-      </c>
       <c r="W463">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X463">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA463">
+        <v>-1</v>
+      </c>
+      <c r="AB463">
+        <v>0.475</v>
+      </c>
+      <c r="AC463">
         <v>-0.5</v>
-      </c>
-      <c r="AB463">
-        <v>-1</v>
-      </c>
-      <c r="AC463">
-        <v>0.825</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41728,7 +41728,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>5466932</v>
+        <v>5471184</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41740,76 +41740,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F464" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G464" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464">
         <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K464">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L464">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M464">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N464">
+        <v>3.1</v>
+      </c>
+      <c r="O464">
+        <v>3.5</v>
+      </c>
+      <c r="P464">
+        <v>2.25</v>
+      </c>
+      <c r="Q464">
+        <v>0.25</v>
+      </c>
+      <c r="R464">
+        <v>1.9</v>
+      </c>
+      <c r="S464">
         <v>1.95</v>
       </c>
-      <c r="O464">
-        <v>3.75</v>
-      </c>
-      <c r="P464">
-        <v>3.6</v>
-      </c>
-      <c r="Q464">
+      <c r="T464">
+        <v>3</v>
+      </c>
+      <c r="U464">
+        <v>2.025</v>
+      </c>
+      <c r="V464">
+        <v>1.825</v>
+      </c>
+      <c r="W464">
+        <v>-1</v>
+      </c>
+      <c r="X464">
+        <v>2.5</v>
+      </c>
+      <c r="Y464">
+        <v>-1</v>
+      </c>
+      <c r="Z464">
+        <v>0.45</v>
+      </c>
+      <c r="AA464">
         <v>-0.5</v>
       </c>
-      <c r="R464">
-        <v>2</v>
-      </c>
-      <c r="S464">
-        <v>1.85</v>
-      </c>
-      <c r="T464">
-        <v>2.75</v>
-      </c>
-      <c r="U464">
-        <v>1.95</v>
-      </c>
-      <c r="V464">
-        <v>1.9</v>
-      </c>
-      <c r="W464">
-        <v>0.95</v>
-      </c>
-      <c r="X464">
-        <v>-1</v>
-      </c>
-      <c r="Y464">
-        <v>-1</v>
-      </c>
-      <c r="Z464">
-        <v>1</v>
-      </c>
-      <c r="AA464">
-        <v>-1</v>
-      </c>
       <c r="AB464">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC464">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -42351,7 +42351,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>5578548</v>
+        <v>5574693</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42363,58 +42363,58 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F471" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G471" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J471" t="s">
         <v>45</v>
       </c>
       <c r="K471">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L471">
+        <v>4</v>
+      </c>
+      <c r="M471">
+        <v>4.333</v>
+      </c>
+      <c r="N471">
+        <v>1.444</v>
+      </c>
+      <c r="O471">
+        <v>5.25</v>
+      </c>
+      <c r="P471">
         <v>6</v>
       </c>
-      <c r="M471">
-        <v>9</v>
-      </c>
-      <c r="N471">
-        <v>1.3</v>
-      </c>
-      <c r="O471">
-        <v>6.5</v>
-      </c>
-      <c r="P471">
-        <v>8</v>
-      </c>
       <c r="Q471">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R471">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S471">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T471">
         <v>3.75</v>
       </c>
       <c r="U471">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V471">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W471">
-        <v>0.3</v>
+        <v>0.444</v>
       </c>
       <c r="X471">
         <v>-1</v>
@@ -42423,16 +42423,16 @@
         <v>-1</v>
       </c>
       <c r="Z471">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA471">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB471">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC471">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -42440,7 +42440,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>5578547</v>
+        <v>5578548</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42452,76 +42452,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F472" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G472" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472">
         <v>1</v>
       </c>
       <c r="J472" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K472">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L472">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="M472">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N472">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="O472">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P472">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q472">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R472">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S472">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T472">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U472">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V472">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W472">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X472">
         <v>-1</v>
       </c>
       <c r="Y472">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z472">
         <v>-1</v>
       </c>
       <c r="AA472">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB472">
         <v>-1</v>
       </c>
       <c r="AC472">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -42529,7 +42529,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>5574693</v>
+        <v>5578547</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42541,40 +42541,40 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F473" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G473" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H473">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J473" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K473">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L473">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M473">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N473">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O473">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P473">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q473">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R473">
         <v>1.875</v>
@@ -42583,34 +42583,34 @@
         <v>1.975</v>
       </c>
       <c r="T473">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U473">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V473">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W473">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X473">
         <v>-1</v>
       </c>
       <c r="Y473">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z473">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA473">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB473">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC473">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="474" spans="1:29">
@@ -42974,7 +42974,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>6810762</v>
+        <v>6811202</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42986,34 +42986,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F478" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G478" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H478">
         <v>2</v>
       </c>
       <c r="I478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J478" t="s">
         <v>45</v>
       </c>
       <c r="K478">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="L478">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M478">
+        <v>7.5</v>
+      </c>
+      <c r="N478">
+        <v>1.4</v>
+      </c>
+      <c r="O478">
         <v>5.25</v>
-      </c>
-      <c r="N478">
-        <v>1.45</v>
-      </c>
-      <c r="O478">
-        <v>4.5</v>
       </c>
       <c r="P478">
         <v>7</v>
@@ -43022,22 +43022,22 @@
         <v>-1.25</v>
       </c>
       <c r="R478">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S478">
+        <v>2.025</v>
+      </c>
+      <c r="T478">
+        <v>3.25</v>
+      </c>
+      <c r="U478">
+        <v>2</v>
+      </c>
+      <c r="V478">
         <v>1.85</v>
       </c>
-      <c r="T478">
-        <v>2.75</v>
-      </c>
-      <c r="U478">
-        <v>1.8</v>
-      </c>
-      <c r="V478">
-        <v>2.05</v>
-      </c>
       <c r="W478">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X478">
         <v>-1</v>
@@ -43046,16 +43046,16 @@
         <v>-1</v>
       </c>
       <c r="Z478">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA478">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB478">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC478">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43063,7 +43063,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>6811202</v>
+        <v>6810762</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43075,34 +43075,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F479" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G479" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H479">
         <v>2</v>
       </c>
       <c r="I479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J479" t="s">
         <v>45</v>
       </c>
       <c r="K479">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="L479">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M479">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N479">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O479">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P479">
         <v>7</v>
@@ -43111,22 +43111,22 @@
         <v>-1.25</v>
       </c>
       <c r="R479">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S479">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T479">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U479">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V479">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W479">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X479">
         <v>-1</v>
@@ -43135,16 +43135,16 @@
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA479">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB479">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC479">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -44131,7 +44131,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>6811209</v>
+        <v>6811288</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44143,13 +44143,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F491" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G491" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I491">
         <v>1</v>
@@ -44158,43 +44158,43 @@
         <v>45</v>
       </c>
       <c r="K491">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L491">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M491">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N491">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O491">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P491">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q491">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R491">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S491">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T491">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U491">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V491">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W491">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X491">
         <v>-1</v>
@@ -44203,16 +44203,16 @@
         <v>-1</v>
       </c>
       <c r="Z491">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA491">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB491">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC491">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44220,7 +44220,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>6811288</v>
+        <v>6811209</v>
       </c>
       <c r="C492" t="s">
         <v>28</v>
@@ -44232,13 +44232,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F492" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G492" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H492">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I492">
         <v>1</v>
@@ -44247,43 +44247,43 @@
         <v>45</v>
       </c>
       <c r="K492">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L492">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M492">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N492">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O492">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P492">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q492">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R492">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S492">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T492">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U492">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V492">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W492">
-        <v>1.875</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X492">
         <v>-1</v>
@@ -44292,16 +44292,16 @@
         <v>-1</v>
       </c>
       <c r="Z492">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA492">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB492">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC492">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="493" spans="1:29">
@@ -46445,7 +46445,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>6811228</v>
+        <v>6810299</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46457,76 +46457,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F517" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G517" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H517">
         <v>2</v>
       </c>
       <c r="I517">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J517" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K517">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L517">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M517">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N517">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="O517">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P517">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q517">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R517">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S517">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T517">
         <v>3</v>
       </c>
       <c r="U517">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V517">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W517">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X517">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y517">
         <v>-1</v>
       </c>
       <c r="Z517">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA517">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB517">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC517">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="518" spans="1:29">
@@ -46534,7 +46534,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>6810299</v>
+        <v>6811228</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46546,76 +46546,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F518" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G518" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H518">
         <v>2</v>
       </c>
       <c r="I518">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J518" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K518">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L518">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M518">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N518">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O518">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P518">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q518">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R518">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S518">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T518">
         <v>3</v>
       </c>
       <c r="U518">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V518">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W518">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X518">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y518">
         <v>-1</v>
       </c>
       <c r="Z518">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA518">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB518">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC518">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -51785,7 +51785,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>6811264</v>
+        <v>6811265</v>
       </c>
       <c r="C577" t="s">
         <v>28</v>
@@ -51797,76 +51797,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F577" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G577" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H577">
         <v>1</v>
       </c>
       <c r="I577">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J577" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K577">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="L577">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M577">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="N577">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O577">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P577">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q577">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R577">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S577">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T577">
         <v>2.75</v>
       </c>
       <c r="U577">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V577">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W577">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X577">
         <v>-1</v>
       </c>
       <c r="Y577">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z577">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA577">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB577">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC577">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="578" spans="1:29">
@@ -51874,7 +51874,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>6811265</v>
+        <v>6811264</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51886,76 +51886,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F578" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G578" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H578">
         <v>1</v>
       </c>
       <c r="I578">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J578" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K578">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="L578">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M578">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="N578">
+        <v>2.05</v>
+      </c>
+      <c r="O578">
         <v>3.6</v>
       </c>
-      <c r="O578">
-        <v>3.8</v>
-      </c>
       <c r="P578">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q578">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R578">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S578">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T578">
         <v>2.75</v>
       </c>
       <c r="U578">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V578">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W578">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X578">
         <v>-1</v>
       </c>
       <c r="Y578">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z578">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA578">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB578">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC578">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -52675,7 +52675,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>6810310</v>
+        <v>6810779</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52687,76 +52687,76 @@
         <v>45314.625</v>
       </c>
       <c r="F587" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G587" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H587">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I587">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J587" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K587">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="L587">
         <v>3.6</v>
       </c>
       <c r="M587">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N587">
         <v>3.2</v>
       </c>
       <c r="O587">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P587">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q587">
         <v>0.25</v>
       </c>
       <c r="R587">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S587">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T587">
         <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V587">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W587">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X587">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y587">
         <v>-1</v>
       </c>
       <c r="Z587">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA587">
+        <v>-1</v>
+      </c>
+      <c r="AB587">
+        <v>0.4</v>
+      </c>
+      <c r="AC587">
         <v>-0.5</v>
-      </c>
-      <c r="AB587">
-        <v>0.875</v>
-      </c>
-      <c r="AC587">
-        <v>-1</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52764,7 +52764,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6810779</v>
+        <v>6810310</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52776,76 +52776,76 @@
         <v>45314.625</v>
       </c>
       <c r="F588" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G588" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I588">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J588" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K588">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L588">
         <v>3.6</v>
       </c>
       <c r="M588">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N588">
         <v>3.2</v>
       </c>
       <c r="O588">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P588">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q588">
         <v>0.25</v>
       </c>
       <c r="R588">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S588">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T588">
         <v>2.75</v>
       </c>
       <c r="U588">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V588">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W588">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X588">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y588">
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA588">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB588">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC588">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -53509,10 +53509,10 @@
         <v>2.75</v>
       </c>
       <c r="U596">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V596">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W596">
         <v>0</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC600"/>
+  <dimension ref="A1:AC598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17965,7 +17965,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>3690125</v>
+        <v>3690124</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17977,61 +17977,61 @@
         <v>44542.52083333334</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
         <v>43</v>
       </c>
       <c r="K197">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L197">
         <v>3.5</v>
       </c>
       <c r="M197">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N197">
         <v>2.1</v>
       </c>
       <c r="O197">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P197">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q197">
         <v>-0.25</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T197">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y197">
         <v>-1</v>
@@ -18040,13 +18040,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.5</v>
+        <v>0.5125</v>
       </c>
       <c r="AB197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18054,7 +18054,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>3690124</v>
+        <v>3690125</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18066,61 +18066,61 @@
         <v>44542.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
         <v>43</v>
       </c>
       <c r="K198">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L198">
         <v>3.5</v>
       </c>
       <c r="M198">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N198">
         <v>2.1</v>
       </c>
       <c r="O198">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P198">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q198">
         <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y198">
         <v>-1</v>
@@ -18129,13 +18129,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA198">
-        <v>0.5125</v>
+        <v>0.5</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC198">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -19389,7 +19389,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>3690135</v>
+        <v>3690136</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19401,73 +19401,73 @@
         <v>44598.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G213" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M213">
-        <v>3.4</v>
+        <v>1.571</v>
       </c>
       <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="O213">
+        <v>3.75</v>
+      </c>
+      <c r="P213">
+        <v>2.2</v>
+      </c>
+      <c r="Q213">
+        <v>0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.9</v>
+      </c>
+      <c r="S213">
         <v>1.95</v>
       </c>
-      <c r="O213">
-        <v>3.4</v>
-      </c>
-      <c r="P213">
-        <v>4.2</v>
-      </c>
-      <c r="Q213">
+      <c r="T213">
+        <v>3</v>
+      </c>
+      <c r="U213">
+        <v>1.975</v>
+      </c>
+      <c r="V213">
+        <v>1.875</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>2.75</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0.45</v>
+      </c>
+      <c r="AA213">
         <v>-0.5</v>
       </c>
-      <c r="R213">
-        <v>1.95</v>
-      </c>
-      <c r="S213">
-        <v>1.9</v>
-      </c>
-      <c r="T213">
-        <v>2.25</v>
-      </c>
-      <c r="U213">
-        <v>1.775</v>
-      </c>
-      <c r="V213">
-        <v>2.1</v>
-      </c>
-      <c r="W213">
-        <v>0.95</v>
-      </c>
-      <c r="X213">
-        <v>-1</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
-      <c r="Z213">
-        <v>0.95</v>
-      </c>
-      <c r="AA213">
-        <v>-1</v>
-      </c>
       <c r="AB213">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19478,7 +19478,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>3690136</v>
+        <v>3690135</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19490,73 +19490,73 @@
         <v>44598.52083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K214">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L214">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>1.571</v>
+        <v>3.4</v>
       </c>
       <c r="N214">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
+        <v>1.95</v>
+      </c>
+      <c r="S214">
         <v>1.9</v>
       </c>
-      <c r="S214">
-        <v>1.95</v>
-      </c>
       <c r="T214">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X214">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19834,7 +19834,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>3690137</v>
+        <v>3689990</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19846,13 +19846,13 @@
         <v>44605.52083333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -19870,34 +19870,34 @@
         <v>4</v>
       </c>
       <c r="N218">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P218">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q218">
         <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S218">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
+        <v>2.025</v>
+      </c>
+      <c r="V218">
         <v>1.825</v>
       </c>
-      <c r="V218">
-        <v>2.025</v>
-      </c>
       <c r="W218">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19906,16 +19906,16 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC218">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19923,7 +19923,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>3689990</v>
+        <v>3690137</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19935,13 +19935,13 @@
         <v>44605.52083333334</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -19959,34 +19959,34 @@
         <v>4</v>
       </c>
       <c r="N219">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O219">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q219">
         <v>-0.5</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
+        <v>1.825</v>
+      </c>
+      <c r="V219">
         <v>2.025</v>
       </c>
-      <c r="V219">
-        <v>1.825</v>
-      </c>
       <c r="W219">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -19995,16 +19995,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
+        <v>-1</v>
+      </c>
+      <c r="AC219">
         <v>1.025</v>
-      </c>
-      <c r="AC219">
-        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20279,7 +20279,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>3690142</v>
+        <v>3690140</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20291,76 +20291,76 @@
         <v>44612.52083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
         <v>43</v>
       </c>
       <c r="K223">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="L223">
         <v>3.8</v>
       </c>
       <c r="M223">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="N223">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O223">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P223">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S223">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T223">
         <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC223">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20368,7 +20368,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>3690140</v>
+        <v>3690142</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20380,76 +20380,76 @@
         <v>44612.52083333334</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>43</v>
       </c>
       <c r="K224">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="L224">
         <v>3.8</v>
       </c>
       <c r="M224">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="N224">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P224">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q224">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
+        <v>1</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
         <v>0.875</v>
-      </c>
-      <c r="AA224">
-        <v>-1</v>
-      </c>
-      <c r="AB224">
-        <v>0.8</v>
-      </c>
-      <c r="AC224">
-        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -26242,7 +26242,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>4082761</v>
+        <v>4077045</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26254,13 +26254,13 @@
         <v>44703.47916666666</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G290" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -26269,31 +26269,31 @@
         <v>45</v>
       </c>
       <c r="K290">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="L290">
         <v>4</v>
       </c>
       <c r="M290">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N290">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O290">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P290">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q290">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R290">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S290">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T290">
         <v>3.75</v>
@@ -26305,7 +26305,7 @@
         <v>1.975</v>
       </c>
       <c r="W290">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26314,16 +26314,16 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA290">
         <v>-1</v>
       </c>
       <c r="AB290">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC290">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26331,7 +26331,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>4077045</v>
+        <v>4082761</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26343,13 +26343,13 @@
         <v>44703.47916666666</v>
       </c>
       <c r="F291" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G291" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H291">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -26358,31 +26358,31 @@
         <v>45</v>
       </c>
       <c r="K291">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="L291">
         <v>4</v>
       </c>
       <c r="M291">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N291">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O291">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P291">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q291">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R291">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S291">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T291">
         <v>3.75</v>
@@ -26394,7 +26394,7 @@
         <v>1.975</v>
       </c>
       <c r="W291">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26403,16 +26403,16 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC291">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -29090,7 +29090,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>5173757</v>
+        <v>5172751</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29102,40 +29102,40 @@
         <v>44801.47916666666</v>
       </c>
       <c r="F322" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J322" t="s">
         <v>44</v>
       </c>
       <c r="K322">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M322">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N322">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="O322">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P322">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q322">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R322">
         <v>1.825</v>
@@ -29147,10 +29147,10 @@
         <v>2.75</v>
       </c>
       <c r="U322">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V322">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W322">
         <v>-1</v>
@@ -29159,7 +29159,7 @@
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0.6000000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="Z322">
         <v>-1</v>
@@ -29168,7 +29168,7 @@
         <v>1.025</v>
       </c>
       <c r="AB322">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29179,7 +29179,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>5172751</v>
+        <v>5173757</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29191,40 +29191,40 @@
         <v>44801.47916666666</v>
       </c>
       <c r="F323" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G323" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J323" t="s">
         <v>44</v>
       </c>
       <c r="K323">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="L323">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M323">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N323">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="O323">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P323">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R323">
         <v>1.825</v>
@@ -29236,10 +29236,10 @@
         <v>2.75</v>
       </c>
       <c r="U323">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V323">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W323">
         <v>-1</v>
@@ -29248,7 +29248,7 @@
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>1.8</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z323">
         <v>-1</v>
@@ -29257,7 +29257,7 @@
         <v>1.025</v>
       </c>
       <c r="AB323">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -30870,7 +30870,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>5173753</v>
+        <v>5172763</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30882,49 +30882,49 @@
         <v>44843.47916666666</v>
       </c>
       <c r="F342" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G342" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342">
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K342">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="L342">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M342">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N342">
+        <v>2.5</v>
+      </c>
+      <c r="O342">
+        <v>3.3</v>
+      </c>
+      <c r="P342">
+        <v>2.875</v>
+      </c>
+      <c r="Q342">
+        <v>0</v>
+      </c>
+      <c r="R342">
         <v>1.8</v>
       </c>
-      <c r="O342">
-        <v>4</v>
-      </c>
-      <c r="P342">
-        <v>4.2</v>
-      </c>
-      <c r="Q342">
-        <v>-0.5</v>
-      </c>
-      <c r="R342">
-        <v>1.825</v>
-      </c>
       <c r="S342">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T342">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U342">
         <v>2</v>
@@ -30933,19 +30933,19 @@
         <v>1.85</v>
       </c>
       <c r="W342">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X342">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y342">
         <v>-1</v>
       </c>
       <c r="Z342">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA342">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB342">
         <v>-1</v>
@@ -30959,7 +30959,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>5172763</v>
+        <v>5173753</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30971,49 +30971,49 @@
         <v>44843.47916666666</v>
       </c>
       <c r="F343" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G343" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343">
         <v>0</v>
       </c>
       <c r="J343" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K343">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="L343">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M343">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N343">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="O343">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P343">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q343">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R343">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S343">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T343">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U343">
         <v>2</v>
@@ -31022,19 +31022,19 @@
         <v>1.85</v>
       </c>
       <c r="W343">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X343">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y343">
         <v>-1</v>
       </c>
       <c r="Z343">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB343">
         <v>-1</v>
@@ -31315,7 +31315,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>5172765</v>
+        <v>5172767</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31327,10 +31327,10 @@
         <v>44850.47916666666</v>
       </c>
       <c r="F347" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G347" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -31342,61 +31342,61 @@
         <v>43</v>
       </c>
       <c r="K347">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="L347">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M347">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N347">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O347">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P347">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q347">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R347">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S347">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T347">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y347">
         <v>-1</v>
       </c>
       <c r="Z347">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA347">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
         <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31404,7 +31404,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>5172767</v>
+        <v>5172765</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31416,10 +31416,10 @@
         <v>44850.47916666666</v>
       </c>
       <c r="F348" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G348" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -31431,61 +31431,61 @@
         <v>43</v>
       </c>
       <c r="K348">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L348">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M348">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N348">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O348">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P348">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q348">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R348">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S348">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T348">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V348">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W348">
         <v>-1</v>
       </c>
       <c r="X348">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y348">
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA348">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB348">
         <v>-1</v>
       </c>
       <c r="AC348">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31582,7 +31582,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>5172770</v>
+        <v>5171742</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31594,49 +31594,49 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F350" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G350" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I350">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J350" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K350">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="L350">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M350">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="N350">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="O350">
         <v>3.75</v>
       </c>
       <c r="P350">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="Q350">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R350">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S350">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T350">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U350">
         <v>2</v>
@@ -31648,16 +31648,16 @@
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y350">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA350">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB350">
         <v>1</v>
@@ -31671,7 +31671,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>5171742</v>
+        <v>5172770</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31683,49 +31683,49 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G351" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H351">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I351">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J351" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K351">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="L351">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M351">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="N351">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O351">
         <v>3.75</v>
       </c>
       <c r="P351">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q351">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R351">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S351">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T351">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U351">
         <v>2</v>
@@ -31737,16 +31737,16 @@
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB351">
         <v>1</v>
@@ -33095,7 +33095,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>5172778</v>
+        <v>5172777</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33107,76 +33107,76 @@
         <v>44871.52083333334</v>
       </c>
       <c r="F367" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G367" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367">
         <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K367">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L367">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M367">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N367">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="O367">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P367">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q367">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R367">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S367">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T367">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U367">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V367">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W367">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB367">
         <v>-1</v>
       </c>
       <c r="AC367">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33184,7 +33184,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>5172777</v>
+        <v>5172778</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33196,76 +33196,76 @@
         <v>44871.52083333334</v>
       </c>
       <c r="F368" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G368" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368">
         <v>0</v>
       </c>
       <c r="J368" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K368">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L368">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M368">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N368">
+        <v>2.7</v>
+      </c>
+      <c r="O368">
+        <v>3.3</v>
+      </c>
+      <c r="P368">
+        <v>2.625</v>
+      </c>
+      <c r="Q368">
+        <v>0</v>
+      </c>
+      <c r="R368">
+        <v>1.975</v>
+      </c>
+      <c r="S368">
+        <v>1.875</v>
+      </c>
+      <c r="T368">
+        <v>2.5</v>
+      </c>
+      <c r="U368">
         <v>1.85</v>
       </c>
-      <c r="O368">
-        <v>3.8</v>
-      </c>
-      <c r="P368">
-        <v>3.8</v>
-      </c>
-      <c r="Q368">
-        <v>-0.5</v>
-      </c>
-      <c r="R368">
-        <v>1.85</v>
-      </c>
-      <c r="S368">
-        <v>2</v>
-      </c>
-      <c r="T368">
-        <v>3</v>
-      </c>
-      <c r="U368">
-        <v>2.05</v>
-      </c>
       <c r="V368">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W368">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X368">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y368">
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA368">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB368">
         <v>-1</v>
       </c>
       <c r="AC368">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -36744,7 +36744,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>5172802</v>
+        <v>5172804</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36756,10 +36756,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F408" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G408" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H408">
         <v>1</v>
@@ -36771,61 +36771,61 @@
         <v>43</v>
       </c>
       <c r="K408">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L408">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M408">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N408">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O408">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P408">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q408">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R408">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S408">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T408">
         <v>2.5</v>
       </c>
       <c r="U408">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V408">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W408">
         <v>-1</v>
       </c>
       <c r="X408">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y408">
         <v>-1</v>
       </c>
       <c r="Z408">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA408">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB408">
         <v>-1</v>
       </c>
       <c r="AC408">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36833,7 +36833,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>5172804</v>
+        <v>5172802</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36845,10 +36845,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F409" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G409" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H409">
         <v>1</v>
@@ -36860,61 +36860,61 @@
         <v>43</v>
       </c>
       <c r="K409">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L409">
+        <v>3.3</v>
+      </c>
+      <c r="M409">
+        <v>2.5</v>
+      </c>
+      <c r="N409">
+        <v>2.8</v>
+      </c>
+      <c r="O409">
         <v>3.4</v>
       </c>
-      <c r="M409">
-        <v>4.2</v>
-      </c>
-      <c r="N409">
-        <v>2.1</v>
-      </c>
-      <c r="O409">
-        <v>3.5</v>
-      </c>
       <c r="P409">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q409">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R409">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S409">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T409">
         <v>2.5</v>
       </c>
       <c r="U409">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V409">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W409">
         <v>-1</v>
       </c>
       <c r="X409">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y409">
         <v>-1</v>
       </c>
       <c r="Z409">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA409">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB409">
         <v>-1</v>
       </c>
       <c r="AC409">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -39859,7 +39859,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>6401769</v>
+        <v>6401770</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39871,40 +39871,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F443" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G443" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H443">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J443" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K443">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L443">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M443">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N443">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O443">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P443">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q443">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R443">
         <v>1.975</v>
@@ -39913,34 +39913,34 @@
         <v>1.875</v>
       </c>
       <c r="T443">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U443">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V443">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W443">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X443">
         <v>-1</v>
       </c>
       <c r="Y443">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z443">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA443">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB443">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -39948,7 +39948,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6401770</v>
+        <v>6401769</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39960,40 +39960,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F444" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G444" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J444" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K444">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L444">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M444">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N444">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O444">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P444">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q444">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R444">
         <v>1.975</v>
@@ -40002,34 +40002,34 @@
         <v>1.875</v>
       </c>
       <c r="T444">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U444">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V444">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W444">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X444">
         <v>-1</v>
       </c>
       <c r="Y444">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z444">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA444">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB444">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC444">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -41639,7 +41639,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>5466932</v>
+        <v>5471184</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41651,76 +41651,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F463" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G463" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463">
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K463">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L463">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M463">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N463">
+        <v>3.1</v>
+      </c>
+      <c r="O463">
+        <v>3.5</v>
+      </c>
+      <c r="P463">
+        <v>2.25</v>
+      </c>
+      <c r="Q463">
+        <v>0.25</v>
+      </c>
+      <c r="R463">
+        <v>1.9</v>
+      </c>
+      <c r="S463">
         <v>1.95</v>
       </c>
-      <c r="O463">
-        <v>3.75</v>
-      </c>
-      <c r="P463">
-        <v>3.6</v>
-      </c>
-      <c r="Q463">
+      <c r="T463">
+        <v>3</v>
+      </c>
+      <c r="U463">
+        <v>2.025</v>
+      </c>
+      <c r="V463">
+        <v>1.825</v>
+      </c>
+      <c r="W463">
+        <v>-1</v>
+      </c>
+      <c r="X463">
+        <v>2.5</v>
+      </c>
+      <c r="Y463">
+        <v>-1</v>
+      </c>
+      <c r="Z463">
+        <v>0.45</v>
+      </c>
+      <c r="AA463">
         <v>-0.5</v>
       </c>
-      <c r="R463">
-        <v>2</v>
-      </c>
-      <c r="S463">
-        <v>1.85</v>
-      </c>
-      <c r="T463">
-        <v>2.75</v>
-      </c>
-      <c r="U463">
-        <v>1.95</v>
-      </c>
-      <c r="V463">
-        <v>1.9</v>
-      </c>
-      <c r="W463">
-        <v>0.95</v>
-      </c>
-      <c r="X463">
-        <v>-1</v>
-      </c>
-      <c r="Y463">
-        <v>-1</v>
-      </c>
-      <c r="Z463">
-        <v>1</v>
-      </c>
-      <c r="AA463">
-        <v>-1</v>
-      </c>
       <c r="AB463">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC463">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41728,7 +41728,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>5471184</v>
+        <v>5466932</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41740,76 +41740,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F464" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G464" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I464">
         <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K464">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L464">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M464">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N464">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O464">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P464">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q464">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R464">
+        <v>2</v>
+      </c>
+      <c r="S464">
+        <v>1.85</v>
+      </c>
+      <c r="T464">
+        <v>2.75</v>
+      </c>
+      <c r="U464">
+        <v>1.95</v>
+      </c>
+      <c r="V464">
         <v>1.9</v>
       </c>
-      <c r="S464">
-        <v>1.95</v>
-      </c>
-      <c r="T464">
-        <v>3</v>
-      </c>
-      <c r="U464">
-        <v>2.025</v>
-      </c>
-      <c r="V464">
-        <v>1.825</v>
-      </c>
       <c r="W464">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X464">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA464">
+        <v>-1</v>
+      </c>
+      <c r="AB464">
+        <v>0.475</v>
+      </c>
+      <c r="AC464">
         <v>-0.5</v>
-      </c>
-      <c r="AB464">
-        <v>-1</v>
-      </c>
-      <c r="AC464">
-        <v>0.825</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -42351,7 +42351,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>5574693</v>
+        <v>5578548</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42363,58 +42363,58 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F471" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G471" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H471">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J471" t="s">
         <v>45</v>
       </c>
       <c r="K471">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L471">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M471">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N471">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="O471">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P471">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q471">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R471">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S471">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T471">
         <v>3.75</v>
       </c>
       <c r="U471">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V471">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W471">
-        <v>0.444</v>
+        <v>0.3</v>
       </c>
       <c r="X471">
         <v>-1</v>
@@ -42423,16 +42423,16 @@
         <v>-1</v>
       </c>
       <c r="Z471">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA471">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB471">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC471">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -42440,7 +42440,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>5578548</v>
+        <v>5578547</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42452,76 +42452,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F472" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G472" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472">
         <v>1</v>
       </c>
       <c r="J472" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K472">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L472">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="M472">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N472">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="O472">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P472">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q472">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R472">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S472">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T472">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U472">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V472">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W472">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X472">
         <v>-1</v>
       </c>
       <c r="Y472">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z472">
         <v>-1</v>
       </c>
       <c r="AA472">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB472">
         <v>-1</v>
       </c>
       <c r="AC472">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -42529,7 +42529,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>5578547</v>
+        <v>5574693</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42541,40 +42541,40 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F473" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G473" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H473">
+        <v>4</v>
+      </c>
+      <c r="I473">
         <v>0</v>
       </c>
-      <c r="I473">
-        <v>1</v>
-      </c>
       <c r="J473" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K473">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L473">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="M473">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N473">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O473">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P473">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q473">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R473">
         <v>1.875</v>
@@ -42583,34 +42583,34 @@
         <v>1.975</v>
       </c>
       <c r="T473">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U473">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V473">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W473">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X473">
         <v>-1</v>
       </c>
       <c r="Y473">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z473">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA473">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB473">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC473">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="474" spans="1:29">
@@ -42974,7 +42974,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>6811202</v>
+        <v>6810762</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -42986,34 +42986,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F478" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G478" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H478">
         <v>2</v>
       </c>
       <c r="I478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J478" t="s">
         <v>45</v>
       </c>
       <c r="K478">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="L478">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M478">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N478">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O478">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P478">
         <v>7</v>
@@ -43022,22 +43022,22 @@
         <v>-1.25</v>
       </c>
       <c r="R478">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S478">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T478">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U478">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V478">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W478">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X478">
         <v>-1</v>
@@ -43046,16 +43046,16 @@
         <v>-1</v>
       </c>
       <c r="Z478">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA478">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB478">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC478">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43063,7 +43063,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>6810762</v>
+        <v>6811202</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43075,34 +43075,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F479" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G479" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H479">
         <v>2</v>
       </c>
       <c r="I479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J479" t="s">
         <v>45</v>
       </c>
       <c r="K479">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="L479">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M479">
+        <v>7.5</v>
+      </c>
+      <c r="N479">
+        <v>1.4</v>
+      </c>
+      <c r="O479">
         <v>5.25</v>
-      </c>
-      <c r="N479">
-        <v>1.45</v>
-      </c>
-      <c r="O479">
-        <v>4.5</v>
       </c>
       <c r="P479">
         <v>7</v>
@@ -43111,22 +43111,22 @@
         <v>-1.25</v>
       </c>
       <c r="R479">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S479">
+        <v>2.025</v>
+      </c>
+      <c r="T479">
+        <v>3.25</v>
+      </c>
+      <c r="U479">
+        <v>2</v>
+      </c>
+      <c r="V479">
         <v>1.85</v>
       </c>
-      <c r="T479">
-        <v>2.75</v>
-      </c>
-      <c r="U479">
-        <v>1.8</v>
-      </c>
-      <c r="V479">
-        <v>2.05</v>
-      </c>
       <c r="W479">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X479">
         <v>-1</v>
@@ -43135,16 +43135,16 @@
         <v>-1</v>
       </c>
       <c r="Z479">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA479">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB479">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC479">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -44131,7 +44131,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>6811288</v>
+        <v>6811209</v>
       </c>
       <c r="C491" t="s">
         <v>28</v>
@@ -44143,13 +44143,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F491" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G491" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H491">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I491">
         <v>1</v>
@@ -44158,43 +44158,43 @@
         <v>45</v>
       </c>
       <c r="K491">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L491">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M491">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N491">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O491">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P491">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q491">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R491">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S491">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T491">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U491">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V491">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W491">
-        <v>1.875</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X491">
         <v>-1</v>
@@ -44203,16 +44203,16 @@
         <v>-1</v>
       </c>
       <c r="Z491">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA491">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB491">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC491">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="492" spans="1:29">
@@ -44220,7 +44220,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>6811209</v>
+        <v>6811288</v>
       </c>
       <c r="C492" t="s">
         <v>28</v>
@@ -44232,13 +44232,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F492" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G492" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I492">
         <v>1</v>
@@ -44247,43 +44247,43 @@
         <v>45</v>
       </c>
       <c r="K492">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L492">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M492">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N492">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O492">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P492">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q492">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R492">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S492">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T492">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U492">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V492">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W492">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X492">
         <v>-1</v>
@@ -44292,16 +44292,16 @@
         <v>-1</v>
       </c>
       <c r="Z492">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA492">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB492">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC492">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493" spans="1:29">
@@ -46445,7 +46445,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>6810299</v>
+        <v>6811228</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46457,76 +46457,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F517" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G517" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H517">
         <v>2</v>
       </c>
       <c r="I517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J517" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K517">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L517">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M517">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N517">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O517">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P517">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q517">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R517">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S517">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T517">
         <v>3</v>
       </c>
       <c r="U517">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V517">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W517">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X517">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y517">
         <v>-1</v>
       </c>
       <c r="Z517">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA517">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB517">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC517">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="518" spans="1:29">
@@ -46534,7 +46534,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>6811228</v>
+        <v>6810299</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46546,76 +46546,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F518" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G518" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H518">
         <v>2</v>
       </c>
       <c r="I518">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J518" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K518">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L518">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M518">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N518">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="O518">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P518">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q518">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R518">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S518">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T518">
         <v>3</v>
       </c>
       <c r="U518">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V518">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W518">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X518">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y518">
         <v>-1</v>
       </c>
       <c r="Z518">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA518">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB518">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC518">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46623,7 +46623,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6810768</v>
+        <v>6811229</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46635,10 +46635,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F519" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G519" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H519">
         <v>1</v>
@@ -46650,61 +46650,61 @@
         <v>43</v>
       </c>
       <c r="K519">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L519">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M519">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N519">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O519">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P519">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q519">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R519">
+        <v>1.925</v>
+      </c>
+      <c r="S519">
+        <v>1.925</v>
+      </c>
+      <c r="T519">
+        <v>3</v>
+      </c>
+      <c r="U519">
+        <v>1.95</v>
+      </c>
+      <c r="V519">
         <v>1.9</v>
       </c>
-      <c r="S519">
-        <v>1.95</v>
-      </c>
-      <c r="T519">
-        <v>2.75</v>
-      </c>
-      <c r="U519">
-        <v>1.85</v>
-      </c>
-      <c r="V519">
-        <v>2</v>
-      </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y519">
         <v>-1</v>
       </c>
       <c r="Z519">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA519">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB519">
         <v>-1</v>
       </c>
       <c r="AC519">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46712,7 +46712,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>6811229</v>
+        <v>6810768</v>
       </c>
       <c r="C520" t="s">
         <v>28</v>
@@ -46724,10 +46724,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F520" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G520" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H520">
         <v>1</v>
@@ -46739,61 +46739,61 @@
         <v>43</v>
       </c>
       <c r="K520">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L520">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M520">
+        <v>4</v>
+      </c>
+      <c r="N520">
+        <v>2.15</v>
+      </c>
+      <c r="O520">
+        <v>3.75</v>
+      </c>
+      <c r="P520">
+        <v>3.1</v>
+      </c>
+      <c r="Q520">
+        <v>-0.25</v>
+      </c>
+      <c r="R520">
+        <v>1.9</v>
+      </c>
+      <c r="S520">
+        <v>1.95</v>
+      </c>
+      <c r="T520">
         <v>2.75</v>
       </c>
-      <c r="N520">
-        <v>2.55</v>
-      </c>
-      <c r="O520">
-        <v>3.6</v>
-      </c>
-      <c r="P520">
-        <v>2.55</v>
-      </c>
-      <c r="Q520">
-        <v>0</v>
-      </c>
-      <c r="R520">
-        <v>1.925</v>
-      </c>
-      <c r="S520">
-        <v>1.925</v>
-      </c>
-      <c r="T520">
-        <v>3</v>
-      </c>
       <c r="U520">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V520">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W520">
         <v>-1</v>
       </c>
       <c r="X520">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y520">
         <v>-1</v>
       </c>
       <c r="Z520">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA520">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB520">
         <v>-1</v>
       </c>
       <c r="AC520">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:29">
@@ -48937,7 +48937,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>6811248</v>
+        <v>6811245</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
@@ -48949,73 +48949,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F545" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G545" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H545">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I545">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J545" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K545">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="L545">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M545">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N545">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O545">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P545">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q545">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R545">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S545">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T545">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U545">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V545">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W545">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X545">
         <v>-1</v>
       </c>
       <c r="Y545">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z545">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA545">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB545">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC545">
         <v>-1</v>
@@ -49026,7 +49026,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>6811245</v>
+        <v>6811248</v>
       </c>
       <c r="C546" t="s">
         <v>28</v>
@@ -49038,73 +49038,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F546" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G546" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H546">
+        <v>1</v>
+      </c>
+      <c r="I546">
+        <v>4</v>
+      </c>
+      <c r="J546" t="s">
+        <v>44</v>
+      </c>
+      <c r="K546">
+        <v>3.8</v>
+      </c>
+      <c r="L546">
+        <v>4</v>
+      </c>
+      <c r="M546">
+        <v>1.727</v>
+      </c>
+      <c r="N546">
+        <v>3.5</v>
+      </c>
+      <c r="O546">
+        <v>3.75</v>
+      </c>
+      <c r="P546">
+        <v>2</v>
+      </c>
+      <c r="Q546">
+        <v>0.5</v>
+      </c>
+      <c r="R546">
+        <v>1.825</v>
+      </c>
+      <c r="S546">
+        <v>2.025</v>
+      </c>
+      <c r="T546">
         <v>3</v>
       </c>
-      <c r="I546">
-        <v>1</v>
-      </c>
-      <c r="J546" t="s">
-        <v>45</v>
-      </c>
-      <c r="K546">
-        <v>2.25</v>
-      </c>
-      <c r="L546">
-        <v>3.4</v>
-      </c>
-      <c r="M546">
-        <v>2.875</v>
-      </c>
-      <c r="N546">
-        <v>2.375</v>
-      </c>
-      <c r="O546">
-        <v>3.4</v>
-      </c>
-      <c r="P546">
-        <v>3</v>
-      </c>
-      <c r="Q546">
-        <v>-0.25</v>
-      </c>
-      <c r="R546">
-        <v>2.05</v>
-      </c>
-      <c r="S546">
-        <v>1.8</v>
-      </c>
-      <c r="T546">
-        <v>2.75</v>
-      </c>
       <c r="U546">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V546">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W546">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X546">
         <v>-1</v>
       </c>
       <c r="Y546">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z546">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA546">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB546">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC546">
         <v>-1</v>
@@ -51518,7 +51518,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>6811260</v>
+        <v>6810777</v>
       </c>
       <c r="C574" t="s">
         <v>28</v>
@@ -51530,76 +51530,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F574" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G574" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I574">
         <v>1</v>
       </c>
       <c r="J574" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K574">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L574">
         <v>3.6</v>
       </c>
       <c r="M574">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N574">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O574">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P574">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q574">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R574">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S574">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T574">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U574">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V574">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W574">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X574">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y574">
         <v>-1</v>
       </c>
       <c r="Z574">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA574">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB574">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC574">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="575" spans="1:29">
@@ -51607,7 +51607,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>6810777</v>
+        <v>6811260</v>
       </c>
       <c r="C575" t="s">
         <v>28</v>
@@ -51619,76 +51619,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F575" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G575" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575">
         <v>1</v>
       </c>
       <c r="J575" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K575">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L575">
         <v>3.6</v>
       </c>
       <c r="M575">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N575">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O575">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P575">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q575">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R575">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S575">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T575">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U575">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V575">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W575">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X575">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y575">
         <v>-1</v>
       </c>
       <c r="Z575">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA575">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB575">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC575">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="576" spans="1:29">
@@ -51785,7 +51785,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>6811265</v>
+        <v>6811264</v>
       </c>
       <c r="C577" t="s">
         <v>28</v>
@@ -51797,76 +51797,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F577" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G577" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H577">
         <v>1</v>
       </c>
       <c r="I577">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J577" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K577">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="L577">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M577">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="N577">
+        <v>2.05</v>
+      </c>
+      <c r="O577">
         <v>3.6</v>
       </c>
-      <c r="O577">
-        <v>3.8</v>
-      </c>
       <c r="P577">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q577">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R577">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S577">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T577">
         <v>2.75</v>
       </c>
       <c r="U577">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V577">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W577">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X577">
         <v>-1</v>
       </c>
       <c r="Y577">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z577">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA577">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB577">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC577">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="578" spans="1:29">
@@ -51874,7 +51874,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>6811264</v>
+        <v>6811265</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51886,76 +51886,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F578" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G578" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H578">
         <v>1</v>
       </c>
       <c r="I578">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J578" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K578">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="L578">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M578">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="N578">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O578">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P578">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q578">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R578">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S578">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T578">
         <v>2.75</v>
       </c>
       <c r="U578">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V578">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W578">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X578">
         <v>-1</v>
       </c>
       <c r="Y578">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z578">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA578">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB578">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC578">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -53387,7 +53387,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>6810780</v>
+        <v>6810311</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53396,49 +53396,49 @@
         <v>28</v>
       </c>
       <c r="E595" s="2">
-        <v>45321.6875</v>
+        <v>45322.6875</v>
       </c>
       <c r="F595" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G595" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K595">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L595">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M595">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="N595">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O595">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P595">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q595">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R595">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S595">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T595">
         <v>3</v>
       </c>
       <c r="U595">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V595">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W595">
         <v>0</v>
@@ -53461,7 +53461,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>6811278</v>
+        <v>6811276</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53470,49 +53470,49 @@
         <v>28</v>
       </c>
       <c r="E596" s="2">
-        <v>45321.6875</v>
+        <v>45322.6875</v>
       </c>
       <c r="F596" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G596" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K596">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L596">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M596">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N596">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O596">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P596">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q596">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R596">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S596">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T596">
         <v>2.75</v>
       </c>
       <c r="U596">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V596">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W596">
         <v>0</v>
@@ -53562,31 +53562,31 @@
         <v>4.75</v>
       </c>
       <c r="N597">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O597">
         <v>3.8</v>
       </c>
       <c r="P597">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q597">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R597">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S597">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T597">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U597">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V597">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W597">
         <v>0</v>
@@ -53609,7 +53609,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>6811276</v>
+        <v>6811277</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53618,49 +53618,49 @@
         <v>28</v>
       </c>
       <c r="E598" s="2">
-        <v>45322.6875</v>
+        <v>45323.6875</v>
       </c>
       <c r="F598" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G598" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K598">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="L598">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M598">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N598">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="O598">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P598">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="Q598">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R598">
+        <v>1.875</v>
+      </c>
+      <c r="S598">
         <v>1.975</v>
       </c>
-      <c r="S598">
-        <v>1.875</v>
-      </c>
       <c r="T598">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U598">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V598">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W598">
         <v>0</v>
@@ -53675,154 +53675,6 @@
         <v>0</v>
       </c>
       <c r="AA598">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599" spans="1:29">
-      <c r="A599" s="1">
-        <v>597</v>
-      </c>
-      <c r="B599">
-        <v>6810311</v>
-      </c>
-      <c r="C599" t="s">
-        <v>28</v>
-      </c>
-      <c r="D599" t="s">
-        <v>28</v>
-      </c>
-      <c r="E599" s="2">
-        <v>45322.6875</v>
-      </c>
-      <c r="F599" t="s">
-        <v>31</v>
-      </c>
-      <c r="G599" t="s">
-        <v>36</v>
-      </c>
-      <c r="K599">
-        <v>1.909</v>
-      </c>
-      <c r="L599">
-        <v>3.8</v>
-      </c>
-      <c r="M599">
-        <v>3.6</v>
-      </c>
-      <c r="N599">
-        <v>2.05</v>
-      </c>
-      <c r="O599">
-        <v>3.8</v>
-      </c>
-      <c r="P599">
-        <v>3.4</v>
-      </c>
-      <c r="Q599">
-        <v>-0.25</v>
-      </c>
-      <c r="R599">
-        <v>1.825</v>
-      </c>
-      <c r="S599">
-        <v>2.025</v>
-      </c>
-      <c r="T599">
-        <v>3</v>
-      </c>
-      <c r="U599">
-        <v>1.85</v>
-      </c>
-      <c r="V599">
-        <v>2</v>
-      </c>
-      <c r="W599">
-        <v>0</v>
-      </c>
-      <c r="X599">
-        <v>0</v>
-      </c>
-      <c r="Y599">
-        <v>0</v>
-      </c>
-      <c r="Z599">
-        <v>0</v>
-      </c>
-      <c r="AA599">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="1:29">
-      <c r="A600" s="1">
-        <v>598</v>
-      </c>
-      <c r="B600">
-        <v>6811277</v>
-      </c>
-      <c r="C600" t="s">
-        <v>28</v>
-      </c>
-      <c r="D600" t="s">
-        <v>28</v>
-      </c>
-      <c r="E600" s="2">
-        <v>45323.6875</v>
-      </c>
-      <c r="F600" t="s">
-        <v>41</v>
-      </c>
-      <c r="G600" t="s">
-        <v>38</v>
-      </c>
-      <c r="K600">
-        <v>2.875</v>
-      </c>
-      <c r="L600">
-        <v>3.6</v>
-      </c>
-      <c r="M600">
-        <v>2.3</v>
-      </c>
-      <c r="N600">
-        <v>3</v>
-      </c>
-      <c r="O600">
-        <v>3.6</v>
-      </c>
-      <c r="P600">
-        <v>2.3</v>
-      </c>
-      <c r="Q600">
-        <v>0.25</v>
-      </c>
-      <c r="R600">
-        <v>1.875</v>
-      </c>
-      <c r="S600">
-        <v>1.975</v>
-      </c>
-      <c r="T600">
-        <v>3</v>
-      </c>
-      <c r="U600">
-        <v>2.025</v>
-      </c>
-      <c r="V600">
-        <v>1.825</v>
-      </c>
-      <c r="W600">
-        <v>0</v>
-      </c>
-      <c r="X600">
-        <v>0</v>
-      </c>
-      <c r="Y600">
-        <v>0</v>
-      </c>
-      <c r="Z600">
-        <v>0</v>
-      </c>
-      <c r="AA600">
         <v>0</v>
       </c>
     </row>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC598"/>
+  <dimension ref="A1:AC601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26242,7 +26242,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>4077045</v>
+        <v>4082761</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26254,13 +26254,13 @@
         <v>44703.47916666666</v>
       </c>
       <c r="F290" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G290" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H290">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I290">
         <v>0</v>
@@ -26269,31 +26269,31 @@
         <v>45</v>
       </c>
       <c r="K290">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="L290">
         <v>4</v>
       </c>
       <c r="M290">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N290">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O290">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P290">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q290">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R290">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S290">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T290">
         <v>3.75</v>
@@ -26305,7 +26305,7 @@
         <v>1.975</v>
       </c>
       <c r="W290">
-        <v>0.363</v>
+        <v>0.3</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26314,16 +26314,16 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA290">
         <v>-1</v>
       </c>
       <c r="AB290">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC290">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26331,7 +26331,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>4082761</v>
+        <v>4077045</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26343,13 +26343,13 @@
         <v>44703.47916666666</v>
       </c>
       <c r="F291" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G291" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H291">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -26358,31 +26358,31 @@
         <v>45</v>
       </c>
       <c r="K291">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="L291">
         <v>4</v>
       </c>
       <c r="M291">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N291">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O291">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P291">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q291">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R291">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S291">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T291">
         <v>3.75</v>
@@ -26394,7 +26394,7 @@
         <v>1.975</v>
       </c>
       <c r="W291">
-        <v>0.3</v>
+        <v>0.363</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26403,16 +26403,16 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC291">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="292" spans="1:29">
@@ -28111,7 +28111,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>5171735</v>
+        <v>5172745</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28123,76 +28123,76 @@
         <v>44780.47916666666</v>
       </c>
       <c r="F311" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G311" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K311">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L311">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M311">
+        <v>2.05</v>
+      </c>
+      <c r="N311">
         <v>3</v>
       </c>
-      <c r="N311">
-        <v>2.3</v>
-      </c>
       <c r="O311">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P311">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q311">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R311">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S311">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T311">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U311">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V311">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W311">
         <v>-1</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y311">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA311">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB311">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28200,7 +28200,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>5172745</v>
+        <v>5171735</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28212,76 +28212,76 @@
         <v>44780.47916666666</v>
       </c>
       <c r="F312" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G312" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K312">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L312">
+        <v>3.4</v>
+      </c>
+      <c r="M312">
+        <v>3</v>
+      </c>
+      <c r="N312">
+        <v>2.3</v>
+      </c>
+      <c r="O312">
         <v>3.5</v>
       </c>
-      <c r="M312">
-        <v>2.05</v>
-      </c>
-      <c r="N312">
-        <v>3</v>
-      </c>
-      <c r="O312">
-        <v>3.6</v>
-      </c>
       <c r="P312">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q312">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R312">
+        <v>1.975</v>
+      </c>
+      <c r="S312">
+        <v>1.875</v>
+      </c>
+      <c r="T312">
+        <v>2.75</v>
+      </c>
+      <c r="U312">
+        <v>1.875</v>
+      </c>
+      <c r="V312">
+        <v>1.975</v>
+      </c>
+      <c r="W312">
+        <v>-1</v>
+      </c>
+      <c r="X312">
+        <v>-1</v>
+      </c>
+      <c r="Y312">
         <v>1.9</v>
       </c>
-      <c r="S312">
-        <v>1.95</v>
-      </c>
-      <c r="T312">
-        <v>3.25</v>
-      </c>
-      <c r="U312">
-        <v>2.05</v>
-      </c>
-      <c r="V312">
-        <v>1.8</v>
-      </c>
-      <c r="W312">
-        <v>-1</v>
-      </c>
-      <c r="X312">
-        <v>2.6</v>
-      </c>
-      <c r="Y312">
-        <v>-1</v>
-      </c>
       <c r="Z312">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA312">
+        <v>0.875</v>
+      </c>
+      <c r="AB312">
+        <v>0.4375</v>
+      </c>
+      <c r="AC312">
         <v>-0.5</v>
-      </c>
-      <c r="AB312">
-        <v>-1</v>
-      </c>
-      <c r="AC312">
-        <v>0.8</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28645,7 +28645,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>5172748</v>
+        <v>5172747</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28657,76 +28657,76 @@
         <v>44787.47916666666</v>
       </c>
       <c r="F317" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G317" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K317">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L317">
+        <v>3.5</v>
+      </c>
+      <c r="M317">
         <v>4</v>
       </c>
-      <c r="M317">
-        <v>5.25</v>
-      </c>
       <c r="N317">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O317">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P317">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q317">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S317">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T317">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U317">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V317">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W317">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X317">
         <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z317">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28734,7 +28734,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>5172747</v>
+        <v>5172748</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28746,76 +28746,76 @@
         <v>44787.47916666666</v>
       </c>
       <c r="F318" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G318" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H318">
+        <v>3</v>
+      </c>
+      <c r="I318">
         <v>0</v>
       </c>
-      <c r="I318">
-        <v>2</v>
-      </c>
       <c r="J318" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K318">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="L318">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M318">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="N318">
+        <v>1.4</v>
+      </c>
+      <c r="O318">
+        <v>4.75</v>
+      </c>
+      <c r="P318">
+        <v>7</v>
+      </c>
+      <c r="Q318">
+        <v>-1.25</v>
+      </c>
+      <c r="R318">
+        <v>1.875</v>
+      </c>
+      <c r="S318">
+        <v>1.975</v>
+      </c>
+      <c r="T318">
+        <v>3.25</v>
+      </c>
+      <c r="U318">
+        <v>2</v>
+      </c>
+      <c r="V318">
         <v>1.85</v>
       </c>
-      <c r="O318">
-        <v>4</v>
-      </c>
-      <c r="P318">
-        <v>3.75</v>
-      </c>
-      <c r="Q318">
+      <c r="W318">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X318">
+        <v>-1</v>
+      </c>
+      <c r="Y318">
+        <v>-1</v>
+      </c>
+      <c r="Z318">
+        <v>0.875</v>
+      </c>
+      <c r="AA318">
+        <v>-1</v>
+      </c>
+      <c r="AB318">
         <v>-0.5</v>
       </c>
-      <c r="R318">
-        <v>1.925</v>
-      </c>
-      <c r="S318">
-        <v>1.925</v>
-      </c>
-      <c r="T318">
-        <v>2.75</v>
-      </c>
-      <c r="U318">
-        <v>1.85</v>
-      </c>
-      <c r="V318">
-        <v>2</v>
-      </c>
-      <c r="W318">
-        <v>-1</v>
-      </c>
-      <c r="X318">
-        <v>-1</v>
-      </c>
-      <c r="Y318">
-        <v>2.75</v>
-      </c>
-      <c r="Z318">
-        <v>-1</v>
-      </c>
-      <c r="AA318">
-        <v>0.925</v>
-      </c>
-      <c r="AB318">
-        <v>-1</v>
-      </c>
       <c r="AC318">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -29980,7 +29980,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>5172757</v>
+        <v>5172758</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29992,49 +29992,49 @@
         <v>44815.47916666666</v>
       </c>
       <c r="F332" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G332" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H332">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" t="s">
         <v>45</v>
       </c>
       <c r="K332">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L332">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M332">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N332">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="O332">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P332">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q332">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R332">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S332">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T332">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U332">
         <v>1.825</v>
@@ -30043,7 +30043,7 @@
         <v>2.025</v>
       </c>
       <c r="W332">
-        <v>0.7270000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X332">
         <v>-1</v>
@@ -30052,16 +30052,16 @@
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA332">
         <v>-1</v>
       </c>
       <c r="AB332">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC332">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30069,7 +30069,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>5172758</v>
+        <v>5172757</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30081,49 +30081,49 @@
         <v>44815.47916666666</v>
       </c>
       <c r="F333" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G333" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H333">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="s">
         <v>45</v>
       </c>
       <c r="K333">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L333">
+        <v>3.75</v>
+      </c>
+      <c r="M333">
         <v>5</v>
       </c>
-      <c r="M333">
-        <v>6.5</v>
-      </c>
       <c r="N333">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="O333">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P333">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q333">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R333">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S333">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T333">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U333">
         <v>1.825</v>
@@ -30132,7 +30132,7 @@
         <v>2.025</v>
       </c>
       <c r="W333">
-        <v>0.6000000000000001</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30141,16 +30141,16 @@
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA333">
         <v>-1</v>
       </c>
       <c r="AB333">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC333">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -40304,7 +40304,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>5310236</v>
+        <v>5356263</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40316,73 +40316,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F448" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G448" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I448">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J448" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K448">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L448">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M448">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N448">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O448">
+        <v>4.5</v>
+      </c>
+      <c r="P448">
+        <v>4.333</v>
+      </c>
+      <c r="Q448">
+        <v>-0.75</v>
+      </c>
+      <c r="R448">
+        <v>1.8</v>
+      </c>
+      <c r="S448">
+        <v>2.05</v>
+      </c>
+      <c r="T448">
         <v>3.5</v>
       </c>
-      <c r="P448">
-        <v>2.2</v>
-      </c>
-      <c r="Q448">
-        <v>0.25</v>
-      </c>
-      <c r="R448">
-        <v>1.875</v>
-      </c>
-      <c r="S448">
-        <v>1.975</v>
-      </c>
-      <c r="T448">
-        <v>2.75</v>
-      </c>
       <c r="U448">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V448">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W448">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X448">
         <v>-1</v>
       </c>
       <c r="Y448">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z448">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA448">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB448">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC448">
         <v>-1</v>
@@ -40393,7 +40393,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>5356263</v>
+        <v>5310236</v>
       </c>
       <c r="C449" t="s">
         <v>28</v>
@@ -40405,73 +40405,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F449" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G449" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H449">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I449">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J449" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K449">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L449">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M449">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N449">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O449">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P449">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q449">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R449">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S449">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T449">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U449">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V449">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W449">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X449">
         <v>-1</v>
       </c>
       <c r="Y449">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z449">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA449">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB449">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC449">
         <v>-1</v>
@@ -45733,7 +45733,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>6811223</v>
+        <v>6811222</v>
       </c>
       <c r="C509" t="s">
         <v>28</v>
@@ -45745,40 +45745,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F509" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G509" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J509" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K509">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L509">
         <v>3.6</v>
       </c>
       <c r="M509">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N509">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O509">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P509">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q509">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R509">
         <v>1.95</v>
@@ -45790,31 +45790,31 @@
         <v>2.75</v>
       </c>
       <c r="U509">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V509">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W509">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X509">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y509">
         <v>-1</v>
       </c>
       <c r="Z509">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA509">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB509">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC509">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="510" spans="1:29">
@@ -45822,7 +45822,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>6811222</v>
+        <v>6811223</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45834,40 +45834,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F510" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G510" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J510" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K510">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L510">
         <v>3.6</v>
       </c>
       <c r="M510">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N510">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O510">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P510">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q510">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R510">
         <v>1.95</v>
@@ -45879,31 +45879,31 @@
         <v>2.75</v>
       </c>
       <c r="U510">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V510">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W510">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X510">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y510">
         <v>-1</v>
       </c>
       <c r="Z510">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA510">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB510">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC510">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -53387,7 +53387,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>6810311</v>
+        <v>6811277</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53396,49 +53396,49 @@
         <v>28</v>
       </c>
       <c r="E595" s="2">
-        <v>45322.6875</v>
+        <v>45323.6875</v>
       </c>
       <c r="F595" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G595" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K595">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L595">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M595">
+        <v>2.3</v>
+      </c>
+      <c r="N595">
+        <v>3.1</v>
+      </c>
+      <c r="O595">
         <v>3.6</v>
       </c>
-      <c r="N595">
-        <v>2.05</v>
-      </c>
-      <c r="O595">
-        <v>3.8</v>
-      </c>
       <c r="P595">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q595">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R595">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S595">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T595">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U595">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V595">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W595">
         <v>0</v>
@@ -53461,7 +53461,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>6811276</v>
+        <v>6811282</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53470,49 +53470,49 @@
         <v>28</v>
       </c>
       <c r="E596" s="2">
-        <v>45322.6875</v>
+        <v>45325.58333333334</v>
       </c>
       <c r="F596" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G596" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K596">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="L596">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M596">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N596">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="O596">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P596">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q596">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R596">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S596">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T596">
         <v>2.75</v>
       </c>
       <c r="U596">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V596">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W596">
         <v>0</v>
@@ -53535,7 +53535,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>6811279</v>
+        <v>6811281</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53544,34 +53544,34 @@
         <v>28</v>
       </c>
       <c r="E597" s="2">
-        <v>45322.6875</v>
+        <v>45325.58333333334</v>
       </c>
       <c r="F597" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G597" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K597">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="L597">
+        <v>3.9</v>
+      </c>
+      <c r="M597">
+        <v>2.7</v>
+      </c>
+      <c r="N597">
+        <v>2.3</v>
+      </c>
+      <c r="O597">
         <v>4</v>
       </c>
-      <c r="M597">
-        <v>4.75</v>
-      </c>
-      <c r="N597">
-        <v>1.8</v>
-      </c>
-      <c r="O597">
-        <v>3.8</v>
-      </c>
       <c r="P597">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q597">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R597">
         <v>2.05</v>
@@ -53580,13 +53580,13 @@
         <v>1.8</v>
       </c>
       <c r="T597">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U597">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V597">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W597">
         <v>0</v>
@@ -53609,7 +53609,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>6811277</v>
+        <v>6811280</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53618,49 +53618,49 @@
         <v>28</v>
       </c>
       <c r="E598" s="2">
-        <v>45323.6875</v>
+        <v>45325.6875</v>
       </c>
       <c r="F598" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G598" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K598">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="L598">
         <v>3.6</v>
       </c>
       <c r="M598">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N598">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O598">
         <v>3.6</v>
       </c>
       <c r="P598">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q598">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R598">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S598">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T598">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U598">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V598">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W598">
         <v>0</v>
@@ -53675,6 +53675,228 @@
         <v>0</v>
       </c>
       <c r="AA598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:29">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599">
+        <v>6810781</v>
+      </c>
+      <c r="C599" t="s">
+        <v>28</v>
+      </c>
+      <c r="D599" t="s">
+        <v>28</v>
+      </c>
+      <c r="E599" s="2">
+        <v>45326.42708333334</v>
+      </c>
+      <c r="F599" t="s">
+        <v>42</v>
+      </c>
+      <c r="G599" t="s">
+        <v>35</v>
+      </c>
+      <c r="K599">
+        <v>3.6</v>
+      </c>
+      <c r="L599">
+        <v>3.8</v>
+      </c>
+      <c r="M599">
+        <v>1.909</v>
+      </c>
+      <c r="N599">
+        <v>3.75</v>
+      </c>
+      <c r="O599">
+        <v>3.8</v>
+      </c>
+      <c r="P599">
+        <v>1.85</v>
+      </c>
+      <c r="Q599">
+        <v>0.5</v>
+      </c>
+      <c r="R599">
+        <v>1.975</v>
+      </c>
+      <c r="S599">
+        <v>1.875</v>
+      </c>
+      <c r="T599">
+        <v>2.75</v>
+      </c>
+      <c r="U599">
+        <v>1.925</v>
+      </c>
+      <c r="V599">
+        <v>1.925</v>
+      </c>
+      <c r="W599">
+        <v>0</v>
+      </c>
+      <c r="X599">
+        <v>0</v>
+      </c>
+      <c r="Y599">
+        <v>0</v>
+      </c>
+      <c r="Z599">
+        <v>0</v>
+      </c>
+      <c r="AA599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:29">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600">
+        <v>6810312</v>
+      </c>
+      <c r="C600" t="s">
+        <v>28</v>
+      </c>
+      <c r="D600" t="s">
+        <v>28</v>
+      </c>
+      <c r="E600" s="2">
+        <v>45326.52083333334</v>
+      </c>
+      <c r="F600" t="s">
+        <v>36</v>
+      </c>
+      <c r="G600" t="s">
+        <v>41</v>
+      </c>
+      <c r="K600">
+        <v>1.5</v>
+      </c>
+      <c r="L600">
+        <v>4.1</v>
+      </c>
+      <c r="M600">
+        <v>6.5</v>
+      </c>
+      <c r="N600">
+        <v>1.5</v>
+      </c>
+      <c r="O600">
+        <v>4.2</v>
+      </c>
+      <c r="P600">
+        <v>6.5</v>
+      </c>
+      <c r="Q600">
+        <v>-1.25</v>
+      </c>
+      <c r="R600">
+        <v>2.05</v>
+      </c>
+      <c r="S600">
+        <v>1.8</v>
+      </c>
+      <c r="T600">
+        <v>3</v>
+      </c>
+      <c r="U600">
+        <v>2.05</v>
+      </c>
+      <c r="V600">
+        <v>1.8</v>
+      </c>
+      <c r="W600">
+        <v>0</v>
+      </c>
+      <c r="X600">
+        <v>0</v>
+      </c>
+      <c r="Y600">
+        <v>0</v>
+      </c>
+      <c r="Z600">
+        <v>0</v>
+      </c>
+      <c r="AA600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:29">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601">
+        <v>6811283</v>
+      </c>
+      <c r="C601" t="s">
+        <v>28</v>
+      </c>
+      <c r="D601" t="s">
+        <v>28</v>
+      </c>
+      <c r="E601" s="2">
+        <v>45326.52083333334</v>
+      </c>
+      <c r="F601" t="s">
+        <v>38</v>
+      </c>
+      <c r="G601" t="s">
+        <v>31</v>
+      </c>
+      <c r="K601">
+        <v>2.6</v>
+      </c>
+      <c r="L601">
+        <v>3.6</v>
+      </c>
+      <c r="M601">
+        <v>2.5</v>
+      </c>
+      <c r="N601">
+        <v>2.55</v>
+      </c>
+      <c r="O601">
+        <v>3.6</v>
+      </c>
+      <c r="P601">
+        <v>2.5</v>
+      </c>
+      <c r="Q601">
+        <v>0</v>
+      </c>
+      <c r="R601">
+        <v>1.95</v>
+      </c>
+      <c r="S601">
+        <v>1.9</v>
+      </c>
+      <c r="T601">
+        <v>2.75</v>
+      </c>
+      <c r="U601">
+        <v>1.95</v>
+      </c>
+      <c r="V601">
+        <v>1.9</v>
+      </c>
+      <c r="W601">
+        <v>0</v>
+      </c>
+      <c r="X601">
+        <v>0</v>
+      </c>
+      <c r="Y601">
+        <v>0</v>
+      </c>
+      <c r="Z601">
+        <v>0</v>
+      </c>
+      <c r="AA601">
         <v>0</v>
       </c>
     </row>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -124,10 +124,10 @@
     <t>Young Boys</t>
   </si>
   <si>
-    <t>Servette</t>
+    <t>FC Zurich</t>
   </si>
   <si>
-    <t>FC Zurich</t>
+    <t>Servette</t>
   </si>
   <si>
     <t>Winterthur</t>
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5172788</v>
+        <v>5172789</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,46 +1245,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L9">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1293,25 +1293,25 @@
         <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5172789</v>
+        <v>5172788</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,46 +1334,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
+        <v>3.3</v>
+      </c>
+      <c r="M10">
         <v>3.4</v>
       </c>
-      <c r="M10">
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>3.5</v>
+      </c>
+      <c r="P10">
+        <v>3.75</v>
+      </c>
+      <c r="Q10">
+        <v>-0.5</v>
+      </c>
+      <c r="R10">
+        <v>2.05</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
         <v>2.5</v>
-      </c>
-      <c r="N10">
-        <v>2.25</v>
-      </c>
-      <c r="O10">
-        <v>3.6</v>
-      </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>1.85</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -1382,25 +1382,25 @@
         <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1512,7 +1512,7 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1601,7 +1601,7 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5173744</v>
+        <v>5171748</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,19 +1687,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>3.8</v>
@@ -1711,43 +1711,43 @@
         <v>1.909</v>
       </c>
       <c r="N14">
+        <v>4.333</v>
+      </c>
+      <c r="O14">
+        <v>3.8</v>
+      </c>
+      <c r="P14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14">
+        <v>0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>2.025</v>
+      </c>
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="O14">
-        <v>3.6</v>
-      </c>
-      <c r="P14">
-        <v>2.25</v>
-      </c>
-      <c r="Q14">
-        <v>0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.9</v>
-      </c>
-      <c r="S14">
-        <v>1.95</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1756,7 +1756,7 @@
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5171748</v>
+        <v>5173744</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,19 +1776,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>3.8</v>
@@ -1800,43 +1800,43 @@
         <v>1.909</v>
       </c>
       <c r="N15">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1845,7 +1845,7 @@
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -2132,7 +2132,7 @@
         <v>44969.52083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2313,7 +2313,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2933,7 +2933,7 @@
         <v>44982.6875</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -3200,7 +3200,7 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5172802</v>
+        <v>5172804</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,10 +3556,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3571,61 +3571,61 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5172804</v>
+        <v>5172802</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,10 +3645,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3660,61 +3660,61 @@
         <v>42</v>
       </c>
       <c r="K36">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>2.5</v>
+      </c>
+      <c r="N36">
+        <v>2.8</v>
+      </c>
+      <c r="O36">
         <v>3.4</v>
       </c>
-      <c r="M36">
-        <v>4.2</v>
-      </c>
-      <c r="N36">
-        <v>2.1</v>
-      </c>
-      <c r="O36">
-        <v>3.5</v>
-      </c>
       <c r="P36">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S36">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
         <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3912,7 +3912,7 @@
         <v>44997.42708333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5172805</v>
+        <v>5173739</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K40">
+        <v>2.05</v>
+      </c>
+      <c r="L40">
+        <v>3.4</v>
+      </c>
+      <c r="M40">
+        <v>3.2</v>
+      </c>
+      <c r="N40">
+        <v>2.1</v>
+      </c>
+      <c r="O40">
+        <v>3.4</v>
+      </c>
+      <c r="P40">
+        <v>3.5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.25</v>
+      </c>
+      <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
+        <v>2.05</v>
+      </c>
+      <c r="T40">
+        <v>2.5</v>
+      </c>
+      <c r="U40">
+        <v>1.9</v>
+      </c>
+      <c r="V40">
         <v>1.95</v>
       </c>
-      <c r="L40">
-        <v>3.5</v>
-      </c>
-      <c r="M40">
-        <v>3.3</v>
-      </c>
-      <c r="N40">
-        <v>1.85</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>4</v>
-      </c>
-      <c r="Q40">
-        <v>-0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.825</v>
-      </c>
-      <c r="S40">
-        <v>2.025</v>
-      </c>
-      <c r="T40">
-        <v>3.25</v>
-      </c>
-      <c r="U40">
-        <v>2.025</v>
-      </c>
-      <c r="V40">
-        <v>1.825</v>
-      </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5173739</v>
+        <v>5172805</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4179,7 +4179,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4538,7 +4538,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4624,7 +4624,7 @@
         <v>45017.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -4983,7 +4983,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5069,7 +5069,7 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5161,7 +5161,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5514,7 +5514,7 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -5606,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5172819</v>
+        <v>5172818</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,49 +5781,49 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="L60">
         <v>3.5</v>
       </c>
       <c r="M60">
+        <v>2.2</v>
+      </c>
+      <c r="N60">
+        <v>4.2</v>
+      </c>
+      <c r="O60">
         <v>3.8</v>
       </c>
-      <c r="N60">
-        <v>1.909</v>
-      </c>
-      <c r="O60">
-        <v>3.75</v>
-      </c>
       <c r="P60">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
         <v>1.875</v>
@@ -5835,22 +5835,22 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y60">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5172818</v>
+        <v>5172819</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,49 +5870,49 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L61">
         <v>3.5</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N61">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O61">
+        <v>3.75</v>
+      </c>
+      <c r="P61">
         <v>3.8</v>
       </c>
-      <c r="P61">
-        <v>1.8</v>
-      </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
         <v>1.875</v>
@@ -5924,22 +5924,22 @@
         <v>-1</v>
       </c>
       <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
         <v>2.8</v>
       </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <v>6</v>
@@ -6226,7 +6226,7 @@
         <v>45039.47916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6493,10 +6493,10 @@
         <v>45042.64583333334</v>
       </c>
       <c r="F68" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s">
         <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>37</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6401769</v>
+        <v>6401770</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,40 +6671,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L70">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N70">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
         <v>1.975</v>
@@ -6713,34 +6713,34 @@
         <v>1.875</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6401770</v>
+        <v>6401769</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,40 +6760,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M71">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N71">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
         <v>1.975</v>
@@ -6802,34 +6802,34 @@
         <v>1.875</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -7027,7 +7027,7 @@
         <v>45046.38541666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>31</v>
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5310236</v>
+        <v>5356263</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,73 +7116,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K75">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O75">
+        <v>4.5</v>
+      </c>
+      <c r="P75">
+        <v>4.333</v>
+      </c>
+      <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
+        <v>1.8</v>
+      </c>
+      <c r="S75">
+        <v>2.05</v>
+      </c>
+      <c r="T75">
         <v>3.5</v>
       </c>
-      <c r="P75">
-        <v>2.2</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.875</v>
-      </c>
-      <c r="S75">
-        <v>1.975</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5356263</v>
+        <v>5310236</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,73 +7205,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L76">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N76">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O76">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7564,7 +7564,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>45059.64583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -7920,7 +7920,7 @@
         <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5424855</v>
+        <v>5424853</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,13 +8006,13 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -8021,43 +8021,43 @@
         <v>44</v>
       </c>
       <c r="K85">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L85">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N85">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O85">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>0.6499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8066,16 +8066,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5424853</v>
+        <v>5424855</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,13 +8095,13 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -8110,43 +8110,43 @@
         <v>44</v>
       </c>
       <c r="K86">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>1.65</v>
+      </c>
+      <c r="O86">
+        <v>4.333</v>
+      </c>
+      <c r="P86">
         <v>4.75</v>
       </c>
-      <c r="N86">
-        <v>1.7</v>
-      </c>
-      <c r="O86">
-        <v>4</v>
-      </c>
-      <c r="P86">
-        <v>5</v>
-      </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W86">
-        <v>0.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8155,16 +8155,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
         <v>30</v>
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5498511</v>
+        <v>5495233</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,76 +8629,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N92">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5498510</v>
+        <v>5505757</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,49 +8718,49 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
         <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
+        <v>3.2</v>
+      </c>
+      <c r="O93">
         <v>3.4</v>
       </c>
-      <c r="O93">
-        <v>4.333</v>
-      </c>
       <c r="P93">
+        <v>2.25</v>
+      </c>
+      <c r="Q93">
+        <v>0.25</v>
+      </c>
+      <c r="R93">
         <v>1.85</v>
       </c>
-      <c r="Q93">
-        <v>0.5</v>
-      </c>
-      <c r="R93">
-        <v>1.975</v>
-      </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
         <v>1.875</v>
@@ -8772,22 +8772,22 @@
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z93">
+        <v>-1</v>
+      </c>
+      <c r="AA93">
+        <v>1</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
-      <c r="AB93">
-        <v>0.875</v>
-      </c>
-      <c r="AC93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5505757</v>
+        <v>5498511</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,13 +8896,13 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -8920,16 +8920,16 @@
         <v>2.15</v>
       </c>
       <c r="N95">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P95">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
         <v>1.85</v>
@@ -8938,13 +8938,13 @@
         <v>2</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8953,7 +8953,7 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z95">
         <v>-1</v>
@@ -8962,10 +8962,10 @@
         <v>1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5495233</v>
+        <v>5498510</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,73 +8985,73 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>42</v>
       </c>
       <c r="K96">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N96">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA96">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5578547</v>
+        <v>5578548</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,76 +9074,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K97">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L97">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="M97">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N97">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="O97">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P97">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5578546</v>
+        <v>5578547</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,76 +9163,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M98">
+        <v>2.375</v>
+      </c>
+      <c r="N98">
+        <v>3.3</v>
+      </c>
+      <c r="O98">
         <v>4.2</v>
       </c>
-      <c r="N98">
-        <v>1.666</v>
-      </c>
-      <c r="O98">
-        <v>4.5</v>
-      </c>
       <c r="P98">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
         <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5574693</v>
+        <v>5578546</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,58 +9252,58 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>44</v>
       </c>
       <c r="K99">
+        <v>1.75</v>
+      </c>
+      <c r="L99">
+        <v>3.75</v>
+      </c>
+      <c r="M99">
+        <v>4.2</v>
+      </c>
+      <c r="N99">
         <v>1.666</v>
       </c>
-      <c r="L99">
-        <v>4</v>
-      </c>
-      <c r="M99">
+      <c r="O99">
+        <v>4.5</v>
+      </c>
+      <c r="P99">
         <v>4.333</v>
       </c>
-      <c r="N99">
-        <v>1.444</v>
-      </c>
-      <c r="O99">
-        <v>5.25</v>
-      </c>
-      <c r="P99">
-        <v>6</v>
-      </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9312,16 +9312,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5578548</v>
+        <v>5574694</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,49 +9341,49 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="Q100">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
         <v>1.925</v>
@@ -9392,25 +9392,25 @@
         <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB100">
         <v>0.925</v>
       </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5574694</v>
+        <v>5574693</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,76 +9430,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P101">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
+        <v>1.975</v>
+      </c>
+      <c r="T101">
+        <v>3.75</v>
+      </c>
+      <c r="U101">
+        <v>2</v>
+      </c>
+      <c r="V101">
         <v>1.85</v>
       </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.925</v>
-      </c>
-      <c r="V101">
-        <v>1.925</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6810762</v>
+        <v>6811202</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,34 +9786,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>44</v>
       </c>
       <c r="K105">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M105">
+        <v>7.5</v>
+      </c>
+      <c r="N105">
+        <v>1.4</v>
+      </c>
+      <c r="O105">
         <v>5.25</v>
-      </c>
-      <c r="N105">
-        <v>1.45</v>
-      </c>
-      <c r="O105">
-        <v>4.5</v>
       </c>
       <c r="P105">
         <v>7</v>
@@ -9822,22 +9822,22 @@
         <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
+        <v>3.25</v>
+      </c>
+      <c r="U105">
+        <v>2</v>
+      </c>
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="T105">
-        <v>2.75</v>
-      </c>
-      <c r="U105">
-        <v>1.8</v>
-      </c>
-      <c r="V105">
-        <v>2.05</v>
-      </c>
       <c r="W105">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9846,16 +9846,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6811202</v>
+        <v>6810762</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,34 +9875,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
       </c>
       <c r="K106">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="L106">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N106">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O106">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
         <v>7</v>
@@ -9911,22 +9911,22 @@
         <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W106">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9935,16 +9935,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA106">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10231,10 +10231,10 @@
         <v>45136.64583333334</v>
       </c>
       <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s">
         <v>36</v>
-      </c>
-      <c r="G110" t="s">
-        <v>37</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6810295</v>
+        <v>6811207</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K114">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="L114">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M114">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="N114">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O114">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P114">
-        <v>2.05</v>
+        <v>7</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R114">
+        <v>1.825</v>
+      </c>
+      <c r="S114">
         <v>2.025</v>
       </c>
-      <c r="S114">
-        <v>1.825</v>
-      </c>
       <c r="T114">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X114">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6811207</v>
+        <v>6810295</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="L115">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="N115">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O115">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
+        <v>2.025</v>
+      </c>
+      <c r="S115">
         <v>1.825</v>
       </c>
-      <c r="S115">
-        <v>2.025</v>
-      </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W115">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10765,7 +10765,7 @@
         <v>45143.64583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6811209</v>
+        <v>6811288</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,13 +10943,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -10958,43 +10958,43 @@
         <v>44</v>
       </c>
       <c r="K118">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N118">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W118">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11003,16 +11003,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6811288</v>
+        <v>6811209</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,13 +11032,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -11047,43 +11047,43 @@
         <v>44</v>
       </c>
       <c r="K119">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N119">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>1.875</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11092,16 +11092,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6811210</v>
+        <v>6811211</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K120">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N120">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P120">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11198,7 +11198,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6811211</v>
+        <v>6811210</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11210,76 +11210,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>3</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K121">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N121">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W121">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB121">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11299,7 +11299,7 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
         <v>32</v>
@@ -11643,7 +11643,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6811213</v>
+        <v>6811747</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11655,76 +11655,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F126" t="s">
+        <v>41</v>
+      </c>
+      <c r="G126" t="s">
         <v>37</v>
       </c>
-      <c r="G126" t="s">
-        <v>32</v>
-      </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K126">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P126">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X126">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA126">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6811747</v>
+        <v>6811213</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,76 +11744,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K127">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O127">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="Q127">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>1.85</v>
+      </c>
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
         <v>1.825</v>
       </c>
-      <c r="S127">
+      <c r="V127">
         <v>2.025</v>
       </c>
-      <c r="T127">
-        <v>3</v>
-      </c>
-      <c r="U127">
-        <v>1.875</v>
-      </c>
-      <c r="V127">
-        <v>1.975</v>
-      </c>
       <c r="W127">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6811217</v>
+        <v>6811216</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,55 +11833,55 @@
         <v>45165.47916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
       </c>
       <c r="K128">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L128">
+        <v>3.5</v>
+      </c>
+      <c r="M128">
+        <v>2.15</v>
+      </c>
+      <c r="N128">
         <v>3.75</v>
       </c>
-      <c r="M128">
-        <v>4</v>
-      </c>
-      <c r="N128">
-        <v>1.727</v>
-      </c>
       <c r="O128">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T128">
         <v>3</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11890,19 +11890,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811216</v>
+        <v>6811217</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,55 +11922,55 @@
         <v>45165.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N129">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
         <v>3</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11979,19 +11979,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>45172.38541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
         <v>35</v>
@@ -12355,7 +12355,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6811220</v>
+        <v>6811221</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12367,73 +12367,73 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K134">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="N134">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O134">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X134">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6811221</v>
+        <v>6811220</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,73 +12456,73 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6811222</v>
+        <v>6811223</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,40 +12545,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
         <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N136">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
         <v>1.95</v>
@@ -12590,31 +12590,31 @@
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X136">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC136">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6811223</v>
+        <v>6811222</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,40 +12634,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L137">
         <v>3.6</v>
       </c>
       <c r="M137">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N137">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R137">
         <v>1.95</v>
@@ -12679,31 +12679,31 @@
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13079,7 +13079,7 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>30</v>
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6810299</v>
+        <v>6811227</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L144">
+        <v>3.75</v>
+      </c>
+      <c r="M144">
         <v>4</v>
       </c>
-      <c r="M144">
-        <v>4.75</v>
-      </c>
       <c r="N144">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O144">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X144">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6811227</v>
+        <v>6810299</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,76 +13346,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K145">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N145">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
+        <v>1.875</v>
+      </c>
+      <c r="S145">
+        <v>1.975</v>
+      </c>
+      <c r="T145">
+        <v>3</v>
+      </c>
+      <c r="U145">
         <v>1.95</v>
       </c>
-      <c r="S145">
+      <c r="V145">
         <v>1.9</v>
       </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
-      <c r="U145">
-        <v>1.825</v>
-      </c>
-      <c r="V145">
-        <v>2.025</v>
-      </c>
       <c r="W145">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB145">
         <v>0.95</v>
       </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
-      <c r="AB145">
-        <v>0.4125</v>
-      </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13702,7 +13702,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6811232</v>
+        <v>6811233</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,76 +13969,76 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J152" t="s">
         <v>43</v>
       </c>
       <c r="K152">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L152">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="N152">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O152">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
+        <v>1.9</v>
+      </c>
+      <c r="V152">
+        <v>1.95</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
         <v>1.875</v>
       </c>
-      <c r="V152">
-        <v>1.975</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>3.333</v>
-      </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6811233</v>
+        <v>6811232</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,55 +14058,55 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
         <v>43</v>
       </c>
       <c r="K153">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M153">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="N153">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -14115,19 +14115,19 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.875</v>
+        <v>3.333</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB153">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14135,7 +14135,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6810770</v>
+        <v>6811234</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14147,76 +14147,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>44</v>
+      </c>
+      <c r="K154">
+        <v>1.571</v>
+      </c>
+      <c r="L154">
+        <v>4.333</v>
+      </c>
+      <c r="M154">
+        <v>4.75</v>
+      </c>
+      <c r="N154">
+        <v>1.615</v>
+      </c>
+      <c r="O154">
+        <v>4.2</v>
+      </c>
+      <c r="P154">
+        <v>5.25</v>
+      </c>
+      <c r="Q154">
+        <v>-1</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
+        <v>1.8</v>
+      </c>
+      <c r="T154">
+        <v>3</v>
+      </c>
+      <c r="U154">
+        <v>1.925</v>
+      </c>
+      <c r="V154">
+        <v>1.925</v>
+      </c>
+      <c r="W154">
+        <v>0.615</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>3</v>
-      </c>
-      <c r="J154" t="s">
-        <v>43</v>
-      </c>
-      <c r="K154">
-        <v>2.55</v>
-      </c>
-      <c r="L154">
-        <v>3.4</v>
-      </c>
-      <c r="M154">
-        <v>2.55</v>
-      </c>
-      <c r="N154">
-        <v>2.5</v>
-      </c>
-      <c r="O154">
-        <v>3.5</v>
-      </c>
-      <c r="P154">
-        <v>2.75</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
-        <v>1.875</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>2.75</v>
-      </c>
-      <c r="U154">
-        <v>1.875</v>
-      </c>
-      <c r="V154">
-        <v>1.975</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>1.75</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
-      </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB154">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6811234</v>
+        <v>6810770</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,76 +14236,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
         <v>3</v>
       </c>
-      <c r="I155">
-        <v>2</v>
-      </c>
       <c r="J155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K155">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L155">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N155">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O155">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P155">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6811236</v>
+        <v>6811237</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,58 +14503,58 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>3</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
       <c r="K158">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M158">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N158">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P158">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R158">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U158">
+        <v>2</v>
+      </c>
+      <c r="V158">
         <v>1.85</v>
       </c>
-      <c r="V158">
-        <v>2</v>
-      </c>
       <c r="W158">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14563,16 +14563,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6811237</v>
+        <v>6811236</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,58 +14592,58 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H159">
         <v>3</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>44</v>
       </c>
       <c r="K159">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L159">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O159">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P159">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q159">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>0.5</v>
+        <v>1.55</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14652,16 +14652,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6811239</v>
+        <v>6811238</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,55 +14681,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>42</v>
       </c>
       <c r="K160">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N160">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O160">
         <v>3.75</v>
       </c>
       <c r="P160">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14741,16 +14741,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA160">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14758,7 +14758,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6811238</v>
+        <v>6811239</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14770,55 +14770,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>42</v>
       </c>
       <c r="K161">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N161">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
         <v>3.75</v>
       </c>
       <c r="P161">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14830,16 +14830,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6811241</v>
+        <v>6810771</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,10 +15037,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15052,43 +15052,43 @@
         <v>44</v>
       </c>
       <c r="K164">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N164">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P164">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15097,10 +15097,10 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
         <v>0</v>
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6810771</v>
+        <v>6811241</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,10 +15126,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15141,43 +15141,43 @@
         <v>44</v>
       </c>
       <c r="K165">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N165">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O165">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P165">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15186,10 +15186,10 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>0</v>
@@ -15203,7 +15203,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6811243</v>
+        <v>6810772</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15215,76 +15215,76 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H166">
+        <v>1</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>42</v>
+      </c>
+      <c r="K166">
+        <v>3.1</v>
+      </c>
+      <c r="L166">
+        <v>3.4</v>
+      </c>
+      <c r="M166">
+        <v>2.25</v>
+      </c>
+      <c r="N166">
+        <v>2.5</v>
+      </c>
+      <c r="O166">
+        <v>3.5</v>
+      </c>
+      <c r="P166">
+        <v>2.75</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>1.825</v>
+      </c>
+      <c r="S166">
+        <v>2.025</v>
+      </c>
+      <c r="T166">
         <v>3</v>
       </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-      <c r="J166" t="s">
-        <v>44</v>
-      </c>
-      <c r="K166">
-        <v>1.533</v>
-      </c>
-      <c r="L166">
-        <v>4.5</v>
-      </c>
-      <c r="M166">
-        <v>5.25</v>
-      </c>
-      <c r="N166">
-        <v>1.615</v>
-      </c>
-      <c r="O166">
-        <v>4.333</v>
-      </c>
-      <c r="P166">
-        <v>4.75</v>
-      </c>
-      <c r="Q166">
-        <v>-1</v>
-      </c>
-      <c r="R166">
-        <v>2.025</v>
-      </c>
-      <c r="S166">
-        <v>1.825</v>
-      </c>
-      <c r="T166">
-        <v>3.25</v>
-      </c>
       <c r="U166">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W166">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15292,7 +15292,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6810772</v>
+        <v>6811243</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15304,76 +15304,76 @@
         <v>45227.54166666666</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K167">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="L167">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M167">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="N167">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P167">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R167">
+        <v>2.025</v>
+      </c>
+      <c r="S167">
         <v>1.825</v>
       </c>
-      <c r="S167">
+      <c r="T167">
+        <v>3.25</v>
+      </c>
+      <c r="U167">
+        <v>1.825</v>
+      </c>
+      <c r="V167">
         <v>2.025</v>
       </c>
-      <c r="T167">
-        <v>3</v>
-      </c>
-      <c r="U167">
-        <v>1.975</v>
-      </c>
-      <c r="V167">
-        <v>1.875</v>
-      </c>
       <c r="W167">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X167">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA167">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC167">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15393,7 +15393,7 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
         <v>39</v>
@@ -15660,7 +15660,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
         <v>29</v>
@@ -15927,10 +15927,10 @@
         <v>45234.6875</v>
       </c>
       <c r="F174" t="s">
+        <v>36</v>
+      </c>
+      <c r="G174" t="s">
         <v>37</v>
-      </c>
-      <c r="G174" t="s">
-        <v>36</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16642,7 +16642,7 @@
         <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16728,7 +16728,7 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
         <v>34</v>
@@ -16805,7 +16805,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6811256</v>
+        <v>6811255</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,10 +16817,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H184">
         <v>3</v>
@@ -16832,43 +16832,43 @@
         <v>44</v>
       </c>
       <c r="K184">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N184">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16877,13 +16877,13 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16894,7 +16894,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6811255</v>
+        <v>6811256</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16906,10 +16906,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>3</v>
@@ -16921,43 +16921,43 @@
         <v>44</v>
       </c>
       <c r="K185">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N185">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P185">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16966,13 +16966,13 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6811253</v>
+        <v>6810306</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,10 +17173,10 @@
         <v>45256.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17188,43 +17188,43 @@
         <v>44</v>
       </c>
       <c r="K188">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L188">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P188">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
-        <v>2</v>
+        <v>0.55</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17233,7 +17233,7 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA188">
         <v>-1</v>
@@ -17242,7 +17242,7 @@
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6810306</v>
+        <v>6811253</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,10 +17262,10 @@
         <v>45256.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17277,43 +17277,43 @@
         <v>44</v>
       </c>
       <c r="K189">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L189">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N189">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
-        <v>0.55</v>
+        <v>2</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17322,7 +17322,7 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA189">
         <v>-1</v>
@@ -17331,7 +17331,7 @@
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6810307</v>
+        <v>6811257</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,76 +17529,76 @@
         <v>45263.52083333334</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N192">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O192">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T192">
         <v>3</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X192">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA192">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6811257</v>
+        <v>6810307</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,76 +17618,76 @@
         <v>45263.52083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H193">
         <v>1</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K193">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
+        <v>3.25</v>
+      </c>
+      <c r="N193">
+        <v>2.1</v>
+      </c>
+      <c r="O193">
+        <v>4</v>
+      </c>
+      <c r="P193">
         <v>3</v>
-      </c>
-      <c r="N193">
-        <v>2.25</v>
-      </c>
-      <c r="O193">
-        <v>3.5</v>
-      </c>
-      <c r="P193">
-        <v>3.2</v>
       </c>
       <c r="Q193">
         <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T193">
         <v>3</v>
       </c>
       <c r="U193">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7107309</v>
+        <v>7505765</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,76 +17796,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L195">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O195">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P195">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S195">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
+        <v>1.85</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
         <v>3</v>
       </c>
-      <c r="U195">
-        <v>1.825</v>
-      </c>
-      <c r="V195">
-        <v>2.025</v>
-      </c>
-      <c r="W195">
-        <v>0.5</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
-      <c r="Y195">
-        <v>-1</v>
-      </c>
       <c r="Z195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC195">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7505765</v>
+        <v>7107309</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,76 +17885,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>44</v>
+      </c>
+      <c r="K196">
+        <v>1.363</v>
+      </c>
+      <c r="L196">
+        <v>5.5</v>
+      </c>
+      <c r="M196">
+        <v>6.5</v>
+      </c>
+      <c r="N196">
+        <v>1.5</v>
+      </c>
+      <c r="O196">
+        <v>4.75</v>
+      </c>
+      <c r="P196">
+        <v>5.5</v>
+      </c>
+      <c r="Q196">
+        <v>-1</v>
+      </c>
+      <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2.05</v>
+      </c>
+      <c r="T196">
         <v>3</v>
       </c>
-      <c r="J196" t="s">
-        <v>43</v>
-      </c>
-      <c r="K196">
-        <v>1.95</v>
-      </c>
-      <c r="L196">
-        <v>3.75</v>
-      </c>
-      <c r="M196">
-        <v>3.5</v>
-      </c>
-      <c r="N196">
-        <v>1.85</v>
-      </c>
-      <c r="O196">
-        <v>3.75</v>
-      </c>
-      <c r="P196">
-        <v>4</v>
-      </c>
-      <c r="Q196">
-        <v>-0.5</v>
-      </c>
-      <c r="R196">
-        <v>1.875</v>
-      </c>
-      <c r="S196">
-        <v>1.975</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
       <c r="U196">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17962,7 +17962,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6811262</v>
+        <v>6811292</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17974,49 +17974,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>2</v>
       </c>
       <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
+        <v>3.5</v>
+      </c>
+      <c r="N197">
+        <v>1.833</v>
+      </c>
+      <c r="O197">
         <v>3.8</v>
       </c>
-      <c r="M197">
-        <v>3.3</v>
-      </c>
-      <c r="N197">
-        <v>2.3</v>
-      </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
       <c r="P197">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
+        <v>1.825</v>
+      </c>
+      <c r="S197">
         <v>2.025</v>
       </c>
-      <c r="S197">
-        <v>1.775</v>
-      </c>
       <c r="T197">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
         <v>1.975</v>
@@ -18025,19 +18025,19 @@
         <v>1.875</v>
       </c>
       <c r="W197">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
         <v>1.025</v>
-      </c>
-      <c r="AA197">
-        <v>-1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6811292</v>
+        <v>6811262</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,49 +18063,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H198">
+        <v>3</v>
+      </c>
+      <c r="I198">
         <v>0</v>
       </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K198">
         <v>2</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M198">
+        <v>3.3</v>
+      </c>
+      <c r="N198">
+        <v>2.3</v>
+      </c>
+      <c r="O198">
+        <v>4</v>
+      </c>
+      <c r="P198">
+        <v>2.8</v>
+      </c>
+      <c r="Q198">
+        <v>-0.25</v>
+      </c>
+      <c r="R198">
+        <v>2.025</v>
+      </c>
+      <c r="S198">
+        <v>1.775</v>
+      </c>
+      <c r="T198">
         <v>3.5</v>
-      </c>
-      <c r="N198">
-        <v>1.833</v>
-      </c>
-      <c r="O198">
-        <v>3.8</v>
-      </c>
-      <c r="P198">
-        <v>4.2</v>
-      </c>
-      <c r="Q198">
-        <v>-0.5</v>
-      </c>
-      <c r="R198">
-        <v>1.825</v>
-      </c>
-      <c r="S198">
-        <v>2.025</v>
-      </c>
-      <c r="T198">
-        <v>2.75</v>
       </c>
       <c r="U198">
         <v>1.975</v>
@@ -18114,19 +18114,19 @@
         <v>1.875</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
@@ -18155,7 +18155,7 @@
         <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18419,7 +18419,7 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
         <v>29</v>
@@ -18511,7 +18511,7 @@
         <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6811264</v>
+        <v>6811265</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,76 +18597,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K204">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="L204">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M204">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="N204">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O204">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R204">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W204">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z204">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC204">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6811265</v>
+        <v>6811264</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,76 +18686,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K205">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="N205">
+        <v>2.05</v>
+      </c>
+      <c r="O205">
         <v>3.6</v>
       </c>
-      <c r="O205">
-        <v>3.8</v>
-      </c>
       <c r="P205">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q205">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA205">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19042,7 +19042,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
         <v>33</v>
@@ -19297,7 +19297,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6811270</v>
+        <v>6811268</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19309,76 +19309,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K212">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M212">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O212">
         <v>4</v>
       </c>
       <c r="P212">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q212">
         <v>-0.75</v>
       </c>
       <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>2.025</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
         <v>1.975</v>
       </c>
-      <c r="S212">
+      <c r="V212">
         <v>1.875</v>
       </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.825</v>
-      </c>
-      <c r="V212">
-        <v>2.025</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC212">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19386,7 +19386,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6811268</v>
+        <v>6811270</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19398,76 +19398,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K213">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L213">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N213">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
         <v>4</v>
       </c>
       <c r="P213">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.975</v>
+      </c>
+      <c r="S213">
+        <v>1.875</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
         <v>1.825</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>2.025</v>
       </c>
-      <c r="T213">
-        <v>2.75</v>
-      </c>
-      <c r="U213">
-        <v>1.975</v>
-      </c>
-      <c r="V213">
-        <v>1.875</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y213">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
+        <v>0.875</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>1.025</v>
-      </c>
-      <c r="AB213">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19475,7 +19475,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6810310</v>
+        <v>6810779</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19487,76 +19487,76 @@
         <v>45314.625</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K214">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="L214">
         <v>3.6</v>
       </c>
       <c r="M214">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N214">
         <v>3.2</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q214">
         <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X214">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>0.4</v>
+      </c>
+      <c r="AC214">
         <v>-0.5</v>
-      </c>
-      <c r="AB214">
-        <v>0.875</v>
-      </c>
-      <c r="AC214">
-        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19564,7 +19564,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6810779</v>
+        <v>6810310</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19576,76 +19576,76 @@
         <v>45314.625</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K215">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L215">
         <v>3.6</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N215">
         <v>3.2</v>
       </c>
       <c r="O215">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q215">
         <v>0.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19653,7 +19653,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6811275</v>
+        <v>6811746</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,76 +19665,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K216">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N216">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P216">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB216">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19742,7 +19742,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6811746</v>
+        <v>6811275</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19754,76 +19754,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G217" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217" t="s">
+        <v>43</v>
+      </c>
+      <c r="K217">
+        <v>2.7</v>
+      </c>
+      <c r="L217">
+        <v>3.4</v>
+      </c>
+      <c r="M217">
+        <v>2.5</v>
+      </c>
+      <c r="N217">
+        <v>2.7</v>
+      </c>
+      <c r="O217">
+        <v>3.4</v>
+      </c>
+      <c r="P217">
+        <v>2.55</v>
+      </c>
+      <c r="Q217">
         <v>0</v>
       </c>
-      <c r="J217" t="s">
-        <v>44</v>
-      </c>
-      <c r="K217">
-        <v>1.4</v>
-      </c>
-      <c r="L217">
-        <v>4.5</v>
-      </c>
-      <c r="M217">
-        <v>7.5</v>
-      </c>
-      <c r="N217">
-        <v>1.45</v>
-      </c>
-      <c r="O217">
-        <v>4.333</v>
-      </c>
-      <c r="P217">
-        <v>7.5</v>
-      </c>
-      <c r="Q217">
-        <v>-1.25</v>
-      </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W217">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC217">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20009,7 +20009,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6811273</v>
+        <v>6811272</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20021,10 +20021,10 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20036,43 +20036,43 @@
         <v>44</v>
       </c>
       <c r="K220">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L220">
+        <v>3.6</v>
+      </c>
+      <c r="M220">
+        <v>1.909</v>
+      </c>
+      <c r="N220">
         <v>3.5</v>
       </c>
-      <c r="M220">
-        <v>5</v>
-      </c>
-      <c r="N220">
-        <v>2.05</v>
-      </c>
       <c r="O220">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R220">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20081,16 +20081,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20098,7 +20098,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6811272</v>
+        <v>6811273</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20110,10 +20110,10 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20125,43 +20125,43 @@
         <v>44</v>
       </c>
       <c r="K221">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L221">
+        <v>3.5</v>
+      </c>
+      <c r="M221">
+        <v>5</v>
+      </c>
+      <c r="N221">
+        <v>2.05</v>
+      </c>
+      <c r="O221">
         <v>3.6</v>
       </c>
-      <c r="M221">
-        <v>1.909</v>
-      </c>
-      <c r="N221">
+      <c r="P221">
         <v>3.5</v>
       </c>
-      <c r="O221">
-        <v>3.8</v>
-      </c>
-      <c r="P221">
-        <v>1.95</v>
-      </c>
       <c r="Q221">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20170,16 +20170,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20454,7 +20454,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6810311</v>
+        <v>6811279</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20466,76 +20466,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K225">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L225">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M225">
+        <v>4.75</v>
+      </c>
+      <c r="N225">
+        <v>1.85</v>
+      </c>
+      <c r="O225">
         <v>3.6</v>
       </c>
-      <c r="N225">
-        <v>2.5</v>
-      </c>
-      <c r="O225">
-        <v>3.4</v>
-      </c>
       <c r="P225">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S225">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20543,7 +20543,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6811279</v>
+        <v>6810311</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,76 +20555,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F226" t="s">
+        <v>32</v>
+      </c>
+      <c r="G226" t="s">
         <v>37</v>
       </c>
-      <c r="G226" t="s">
-        <v>40</v>
-      </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226">
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K226">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M226">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N226">
+        <v>2.5</v>
+      </c>
+      <c r="O226">
+        <v>3.4</v>
+      </c>
+      <c r="P226">
+        <v>2.75</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>1.8</v>
+      </c>
+      <c r="S226">
+        <v>2.05</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>2</v>
+      </c>
+      <c r="V226">
         <v>1.85</v>
       </c>
-      <c r="O226">
-        <v>3.6</v>
-      </c>
-      <c r="P226">
-        <v>4.333</v>
-      </c>
-      <c r="Q226">
-        <v>-0.5</v>
-      </c>
-      <c r="R226">
-        <v>1.875</v>
-      </c>
-      <c r="S226">
-        <v>1.975</v>
-      </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>1.85</v>
-      </c>
-      <c r="V226">
-        <v>2</v>
-      </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB226">
+        <v>-1</v>
+      </c>
+      <c r="AC226">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC226">
-        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20721,7 +20721,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6811282</v>
+        <v>6811281</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20733,37 +20733,37 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K228">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L228">
+        <v>3.9</v>
+      </c>
+      <c r="M228">
+        <v>2.7</v>
+      </c>
+      <c r="N228">
+        <v>2.3</v>
+      </c>
+      <c r="O228">
         <v>3.8</v>
       </c>
-      <c r="M228">
-        <v>2.2</v>
-      </c>
-      <c r="N228">
-        <v>2.875</v>
-      </c>
-      <c r="O228">
-        <v>4</v>
-      </c>
       <c r="P228">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S228">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T228">
         <v>2.75</v>
@@ -20795,7 +20795,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6811281</v>
+        <v>6811282</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20807,46 +20807,46 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K229">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L229">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M229">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N229">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O229">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P229">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R229">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S229">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T229">
         <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W229">
         <v>0</v>
@@ -20902,7 +20902,7 @@
         <v>3.6</v>
       </c>
       <c r="P230">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q230">
         <v>-0.25</v>
@@ -20958,7 +20958,7 @@
         <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K231">
         <v>3.6</v>
@@ -20970,7 +20970,7 @@
         <v>1.909</v>
       </c>
       <c r="N231">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O231">
         <v>3.8</v>
@@ -21017,7 +21017,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6810312</v>
+        <v>6811283</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21029,46 +21029,46 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K232">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L232">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N232">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="O232">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="Q232">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R232">
+        <v>1.95</v>
+      </c>
+      <c r="S232">
+        <v>1.9</v>
+      </c>
+      <c r="T232">
+        <v>2.75</v>
+      </c>
+      <c r="U232">
+        <v>1.875</v>
+      </c>
+      <c r="V232">
         <v>1.975</v>
-      </c>
-      <c r="S232">
-        <v>1.875</v>
-      </c>
-      <c r="T232">
-        <v>3</v>
-      </c>
-      <c r="U232">
-        <v>1.975</v>
-      </c>
-      <c r="V232">
-        <v>1.875</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21091,7 +21091,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6811283</v>
+        <v>6810312</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21103,31 +21103,31 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K233">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L233">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M233">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N233">
-        <v>2.625</v>
+        <v>1.444</v>
       </c>
       <c r="O233">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P233">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R233">
         <v>1.975</v>
@@ -21136,13 +21136,13 @@
         <v>1.875</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W233">
         <v>0</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5173739</v>
+        <v>5172805</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N40">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5172805</v>
+        <v>5173739</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K41">
+        <v>2.05</v>
+      </c>
+      <c r="L41">
+        <v>3.4</v>
+      </c>
+      <c r="M41">
+        <v>3.2</v>
+      </c>
+      <c r="N41">
+        <v>2.1</v>
+      </c>
+      <c r="O41">
+        <v>3.4</v>
+      </c>
+      <c r="P41">
+        <v>3.5</v>
+      </c>
+      <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.8</v>
+      </c>
+      <c r="S41">
+        <v>2.05</v>
+      </c>
+      <c r="T41">
+        <v>2.5</v>
+      </c>
+      <c r="U41">
+        <v>1.9</v>
+      </c>
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="L41">
-        <v>3.5</v>
-      </c>
-      <c r="M41">
-        <v>3.3</v>
-      </c>
-      <c r="N41">
-        <v>1.85</v>
-      </c>
-      <c r="O41">
-        <v>4</v>
-      </c>
-      <c r="P41">
-        <v>4</v>
-      </c>
-      <c r="Q41">
-        <v>-0.5</v>
-      </c>
-      <c r="R41">
-        <v>1.825</v>
-      </c>
-      <c r="S41">
-        <v>2.025</v>
-      </c>
-      <c r="T41">
-        <v>3.25</v>
-      </c>
-      <c r="U41">
-        <v>2.025</v>
-      </c>
-      <c r="V41">
-        <v>1.825</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X41">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6401770</v>
+        <v>6401769</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,40 +6671,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M70">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N70">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
         <v>1.975</v>
@@ -6713,34 +6713,34 @@
         <v>1.875</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6401769</v>
+        <v>6401770</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,40 +6760,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L71">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N71">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
         <v>1.975</v>
@@ -6802,34 +6802,34 @@
         <v>1.875</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V71">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6811229</v>
+        <v>6810768</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,10 +13435,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13450,61 +13450,61 @@
         <v>42</v>
       </c>
       <c r="K146">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>2.15</v>
+      </c>
+      <c r="O146">
+        <v>3.75</v>
+      </c>
+      <c r="P146">
+        <v>3.1</v>
+      </c>
+      <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
+        <v>1.95</v>
+      </c>
+      <c r="T146">
         <v>2.75</v>
       </c>
-      <c r="N146">
-        <v>2.55</v>
-      </c>
-      <c r="O146">
-        <v>3.6</v>
-      </c>
-      <c r="P146">
-        <v>2.55</v>
-      </c>
-      <c r="Q146">
-        <v>0</v>
-      </c>
-      <c r="R146">
-        <v>1.925</v>
-      </c>
-      <c r="S146">
-        <v>1.925</v>
-      </c>
-      <c r="T146">
-        <v>3</v>
-      </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6810768</v>
+        <v>6811229</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,10 +13524,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13539,61 +13539,61 @@
         <v>42</v>
       </c>
       <c r="K147">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N147">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
+        <v>1.925</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
         <v>1.9</v>
       </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.85</v>
-      </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -17962,7 +17962,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6811292</v>
+        <v>6811262</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17974,49 +17974,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H197">
+        <v>3</v>
+      </c>
+      <c r="I197">
         <v>0</v>
       </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K197">
         <v>2</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M197">
+        <v>3.3</v>
+      </c>
+      <c r="N197">
+        <v>2.3</v>
+      </c>
+      <c r="O197">
+        <v>4</v>
+      </c>
+      <c r="P197">
+        <v>2.8</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>2.025</v>
+      </c>
+      <c r="S197">
+        <v>1.775</v>
+      </c>
+      <c r="T197">
         <v>3.5</v>
-      </c>
-      <c r="N197">
-        <v>1.833</v>
-      </c>
-      <c r="O197">
-        <v>3.8</v>
-      </c>
-      <c r="P197">
-        <v>4.2</v>
-      </c>
-      <c r="Q197">
-        <v>-0.5</v>
-      </c>
-      <c r="R197">
-        <v>1.825</v>
-      </c>
-      <c r="S197">
-        <v>2.025</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
       </c>
       <c r="U197">
         <v>1.975</v>
@@ -18025,19 +18025,19 @@
         <v>1.875</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA197">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6811262</v>
+        <v>6811292</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,49 +18063,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K198">
         <v>2</v>
       </c>
       <c r="L198">
+        <v>3.6</v>
+      </c>
+      <c r="M198">
+        <v>3.5</v>
+      </c>
+      <c r="N198">
+        <v>1.833</v>
+      </c>
+      <c r="O198">
         <v>3.8</v>
       </c>
-      <c r="M198">
-        <v>3.3</v>
-      </c>
-      <c r="N198">
-        <v>2.3</v>
-      </c>
-      <c r="O198">
-        <v>4</v>
-      </c>
       <c r="P198">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
+        <v>1.825</v>
+      </c>
+      <c r="S198">
         <v>2.025</v>
       </c>
-      <c r="S198">
-        <v>1.775</v>
-      </c>
       <c r="T198">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
         <v>1.975</v>
@@ -18114,19 +18114,19 @@
         <v>1.875</v>
       </c>
       <c r="W198">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
         <v>1.025</v>
-      </c>
-      <c r="AA198">
-        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6810777</v>
+        <v>6811260</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18330,76 +18330,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K201">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L201">
         <v>3.6</v>
       </c>
       <c r="M201">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N201">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O201">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S201">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W201">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB201">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6811260</v>
+        <v>6810777</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18419,76 +18419,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K202">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L202">
         <v>3.6</v>
       </c>
       <c r="M202">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N202">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S202">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X202">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA202">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC202">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18941,7 +18941,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6811263</v>
+        <v>6810309</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18953,76 +18953,76 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K208">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L208">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M208">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N208">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O208">
         <v>3.8</v>
       </c>
       <c r="P208">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q208">
         <v>-0.75</v>
       </c>
       <c r="R208">
+        <v>2.025</v>
+      </c>
+      <c r="S208">
         <v>1.825</v>
       </c>
-      <c r="S208">
-        <v>2.025</v>
-      </c>
       <c r="T208">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y208">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC208">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19030,7 +19030,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6810309</v>
+        <v>6811263</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19042,76 +19042,76 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K209">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L209">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M209">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N209">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O209">
         <v>3.8</v>
       </c>
       <c r="P209">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q209">
         <v>-0.75</v>
       </c>
       <c r="R209">
+        <v>1.825</v>
+      </c>
+      <c r="S209">
         <v>2.025</v>
       </c>
-      <c r="S209">
-        <v>1.825</v>
-      </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U209">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB209">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19297,7 +19297,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6811268</v>
+        <v>6811270</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19309,76 +19309,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K212">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L212">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N212">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O212">
         <v>4</v>
       </c>
       <c r="P212">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q212">
         <v>-0.75</v>
       </c>
       <c r="R212">
+        <v>1.975</v>
+      </c>
+      <c r="S212">
+        <v>1.875</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
         <v>1.825</v>
       </c>
-      <c r="S212">
+      <c r="V212">
         <v>2.025</v>
       </c>
-      <c r="T212">
-        <v>2.75</v>
-      </c>
-      <c r="U212">
-        <v>1.975</v>
-      </c>
-      <c r="V212">
-        <v>1.875</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y212">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
+        <v>0.875</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>1.025</v>
-      </c>
-      <c r="AB212">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19386,7 +19386,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6811270</v>
+        <v>6811268</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19398,76 +19398,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K213">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M213">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O213">
         <v>4</v>
       </c>
       <c r="P213">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
+        <v>2.025</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
         <v>1.975</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.875</v>
       </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>1.825</v>
-      </c>
-      <c r="V213">
-        <v>2.025</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19475,7 +19475,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6810779</v>
+        <v>6810310</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19487,76 +19487,76 @@
         <v>45314.625</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K214">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L214">
         <v>3.6</v>
       </c>
       <c r="M214">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N214">
         <v>3.2</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q214">
         <v>0.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W214">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19564,7 +19564,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6810310</v>
+        <v>6810779</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19576,76 +19576,76 @@
         <v>45314.625</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K215">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="L215">
         <v>3.6</v>
       </c>
       <c r="M215">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
         <v>3.2</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P215">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q215">
         <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X215">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>0.4</v>
+      </c>
+      <c r="AC215">
         <v>-0.5</v>
-      </c>
-      <c r="AB215">
-        <v>0.875</v>
-      </c>
-      <c r="AC215">
-        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20187,7 +20187,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6810780</v>
+        <v>6811278</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20199,73 +20199,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G222" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H222">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K222">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L222">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N222">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O222">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P222">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q222">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S222">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
+        <v>1.825</v>
+      </c>
+      <c r="V222">
         <v>2.025</v>
       </c>
-      <c r="V222">
-        <v>1.825</v>
-      </c>
       <c r="W222">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB222">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20276,7 +20276,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6811278</v>
+        <v>6810780</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20288,73 +20288,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F223" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K223">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L223">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M223">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="N223">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P223">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R223">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U223">
+        <v>2.025</v>
+      </c>
+      <c r="V223">
         <v>1.825</v>
       </c>
-      <c r="V223">
-        <v>2.025</v>
-      </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20454,7 +20454,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6811279</v>
+        <v>6810311</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20466,76 +20466,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K225">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M225">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N225">
+        <v>2.5</v>
+      </c>
+      <c r="O225">
+        <v>3.4</v>
+      </c>
+      <c r="P225">
+        <v>2.75</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>1.8</v>
+      </c>
+      <c r="S225">
+        <v>2.05</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
         <v>1.85</v>
       </c>
-      <c r="O225">
-        <v>3.6</v>
-      </c>
-      <c r="P225">
-        <v>4.333</v>
-      </c>
-      <c r="Q225">
-        <v>-0.5</v>
-      </c>
-      <c r="R225">
-        <v>1.875</v>
-      </c>
-      <c r="S225">
-        <v>1.975</v>
-      </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>1.85</v>
-      </c>
-      <c r="V225">
-        <v>2</v>
-      </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB225">
+        <v>-1</v>
+      </c>
+      <c r="AC225">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC225">
-        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20543,7 +20543,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6810311</v>
+        <v>6811279</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,76 +20555,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226">
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K226">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L226">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M226">
+        <v>4.75</v>
+      </c>
+      <c r="N226">
+        <v>1.85</v>
+      </c>
+      <c r="O226">
         <v>3.6</v>
       </c>
-      <c r="N226">
-        <v>2.5</v>
-      </c>
-      <c r="O226">
-        <v>3.4</v>
-      </c>
       <c r="P226">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y226">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20748,22 +20748,22 @@
         <v>2.7</v>
       </c>
       <c r="N228">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O228">
         <v>3.8</v>
       </c>
       <c r="P228">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T228">
         <v>2.75</v>
@@ -20822,31 +20822,31 @@
         <v>2.2</v>
       </c>
       <c r="N229">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O229">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P229">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q229">
         <v>0.25</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U229">
+        <v>2.05</v>
+      </c>
+      <c r="V229">
         <v>1.8</v>
-      </c>
-      <c r="V229">
-        <v>2.05</v>
       </c>
       <c r="W229">
         <v>0</v>
@@ -20899,7 +20899,7 @@
         <v>2.25</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P230">
         <v>3</v>
@@ -20908,19 +20908,19 @@
         <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -20991,10 +20991,10 @@
         <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21056,10 +21056,10 @@
         <v>0</v>
       </c>
       <c r="R232">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T232">
         <v>2.75</v>
@@ -21130,19 +21130,19 @@
         <v>-1.25</v>
       </c>
       <c r="R233">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
         <v>3</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W233">
         <v>0</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC233"/>
+  <dimension ref="A1:AC239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5171748</v>
+        <v>5173744</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,19 +1687,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>3.8</v>
@@ -1711,43 +1711,43 @@
         <v>1.909</v>
       </c>
       <c r="N14">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1756,7 +1756,7 @@
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5173744</v>
+        <v>5171748</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,19 +1776,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>3.8</v>
@@ -1800,43 +1800,43 @@
         <v>1.909</v>
       </c>
       <c r="N15">
+        <v>4.333</v>
+      </c>
+      <c r="O15">
+        <v>3.8</v>
+      </c>
+      <c r="P15">
+        <v>1.8</v>
+      </c>
+      <c r="Q15">
+        <v>0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>2.025</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="O15">
-        <v>3.6</v>
-      </c>
-      <c r="P15">
-        <v>2.25</v>
-      </c>
-      <c r="Q15">
-        <v>0.25</v>
-      </c>
-      <c r="R15">
-        <v>1.9</v>
-      </c>
-      <c r="S15">
-        <v>1.95</v>
-      </c>
-      <c r="T15">
-        <v>2.5</v>
-      </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1845,7 +1845,7 @@
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5172804</v>
+        <v>5172802</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,10 +3556,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3571,61 +3571,61 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L35">
+        <v>3.3</v>
+      </c>
+      <c r="M35">
+        <v>2.5</v>
+      </c>
+      <c r="N35">
+        <v>2.8</v>
+      </c>
+      <c r="O35">
         <v>3.4</v>
       </c>
-      <c r="M35">
-        <v>4.2</v>
-      </c>
-      <c r="N35">
-        <v>2.1</v>
-      </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
       <c r="P35">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S35">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5172802</v>
+        <v>5172804</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,10 +3645,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3660,61 +3660,61 @@
         <v>42</v>
       </c>
       <c r="K36">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N36">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T36">
         <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5171755</v>
+        <v>5172813</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L50">
+        <v>3.5</v>
+      </c>
+      <c r="M50">
+        <v>2.9</v>
+      </c>
+      <c r="N50">
+        <v>2.2</v>
+      </c>
+      <c r="O50">
         <v>3.6</v>
       </c>
-      <c r="M50">
-        <v>3.75</v>
-      </c>
-      <c r="N50">
-        <v>1.5</v>
-      </c>
-      <c r="O50">
-        <v>4.75</v>
-      </c>
       <c r="P50">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y50">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5172813</v>
+        <v>5171755</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,76 +4980,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N51">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5356263</v>
+        <v>5310236</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,73 +7116,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L75">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N75">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5310236</v>
+        <v>5356263</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,73 +7205,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M76">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O76">
+        <v>4.5</v>
+      </c>
+      <c r="P76">
+        <v>4.333</v>
+      </c>
+      <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.8</v>
+      </c>
+      <c r="S76">
+        <v>2.05</v>
+      </c>
+      <c r="T76">
         <v>3.5</v>
       </c>
-      <c r="P76">
-        <v>2.2</v>
-      </c>
-      <c r="Q76">
-        <v>0.25</v>
-      </c>
-      <c r="R76">
-        <v>1.875</v>
-      </c>
-      <c r="S76">
-        <v>1.975</v>
-      </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5380959</v>
+        <v>5390731</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,55 +7561,55 @@
         <v>45053.47916666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
         <v>43</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N80">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="O80">
         <v>3.75</v>
       </c>
       <c r="P80">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
+        <v>1.9</v>
+      </c>
+      <c r="S80">
         <v>1.95</v>
       </c>
-      <c r="S80">
-        <v>1.9</v>
-      </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7618,19 +7618,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2.75</v>
+        <v>0.95</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5390731</v>
+        <v>5380959</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,55 +7650,55 @@
         <v>45053.47916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>43</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M81">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="N81">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
+        <v>3.75</v>
+      </c>
+      <c r="Q81">
+        <v>-0.5</v>
+      </c>
+      <c r="R81">
         <v>1.95</v>
       </c>
-      <c r="Q81">
-        <v>0.5</v>
-      </c>
-      <c r="R81">
+      <c r="S81">
         <v>1.9</v>
       </c>
-      <c r="S81">
-        <v>1.95</v>
-      </c>
       <c r="T81">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7707,19 +7707,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.95</v>
+        <v>2.75</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5466932</v>
+        <v>5471184</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N90">
+        <v>3.1</v>
+      </c>
+      <c r="O90">
+        <v>3.5</v>
+      </c>
+      <c r="P90">
+        <v>2.25</v>
+      </c>
+      <c r="Q90">
+        <v>0.25</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
         <v>1.95</v>
       </c>
-      <c r="O90">
-        <v>3.75</v>
-      </c>
-      <c r="P90">
-        <v>3.6</v>
-      </c>
-      <c r="Q90">
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
+        <v>2.025</v>
+      </c>
+      <c r="V90">
+        <v>1.825</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>2.5</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>0.45</v>
+      </c>
+      <c r="AA90">
         <v>-0.5</v>
       </c>
-      <c r="R90">
-        <v>2</v>
-      </c>
-      <c r="S90">
-        <v>1.85</v>
-      </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
-      <c r="V90">
-        <v>1.9</v>
-      </c>
-      <c r="W90">
-        <v>0.95</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>1</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5471184</v>
+        <v>5466932</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,76 +8540,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N91">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P91">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>1.85</v>
+      </c>
+      <c r="T91">
+        <v>2.75</v>
+      </c>
+      <c r="U91">
+        <v>1.95</v>
+      </c>
+      <c r="V91">
         <v>1.9</v>
       </c>
-      <c r="S91">
-        <v>1.95</v>
-      </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-      <c r="U91">
-        <v>2.025</v>
-      </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>0.475</v>
+      </c>
+      <c r="AC91">
         <v>-0.5</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5495233</v>
+        <v>5498510</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,73 +8629,73 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>42</v>
       </c>
       <c r="K92">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N92">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P92">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>3</v>
+        <v>3.333</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5505757</v>
+        <v>5498511</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,13 +8718,13 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -8742,16 +8742,16 @@
         <v>2.15</v>
       </c>
       <c r="N93">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
         <v>1.85</v>
@@ -8760,13 +8760,13 @@
         <v>2</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8775,7 +8775,7 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z93">
         <v>-1</v>
@@ -8784,10 +8784,10 @@
         <v>1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5505837</v>
+        <v>5505757</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,76 +8807,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K94">
+        <v>3.2</v>
+      </c>
+      <c r="L94">
         <v>3.5</v>
       </c>
-      <c r="L94">
-        <v>3.75</v>
-      </c>
       <c r="M94">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N94">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB94">
         <v>-1</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5498511</v>
+        <v>5505837</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,76 +8896,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K95">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N95">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="O95">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P95">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="Q95">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
         <v>1.85</v>
-      </c>
-      <c r="S95">
-        <v>2</v>
       </c>
       <c r="T95">
         <v>3.25</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5498510</v>
+        <v>5495233</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,73 +8985,73 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
         <v>42</v>
       </c>
       <c r="K96">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="O96">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5578548</v>
+        <v>5574693</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,58 +9074,58 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>44</v>
       </c>
       <c r="K97">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>4.333</v>
+      </c>
+      <c r="N97">
+        <v>1.444</v>
+      </c>
+      <c r="O97">
+        <v>5.25</v>
+      </c>
+      <c r="P97">
         <v>6</v>
       </c>
-      <c r="M97">
-        <v>9</v>
-      </c>
-      <c r="N97">
-        <v>1.3</v>
-      </c>
-      <c r="O97">
-        <v>6.5</v>
-      </c>
-      <c r="P97">
-        <v>8</v>
-      </c>
       <c r="Q97">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T97">
         <v>3.75</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
-        <v>0.3</v>
+        <v>0.444</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9134,16 +9134,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5578547</v>
+        <v>5578548</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,76 +9163,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L98">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N98">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P98">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5574694</v>
+        <v>5578547</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,55 +9341,55 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>43</v>
       </c>
       <c r="K100">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9398,19 +9398,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5574693</v>
+        <v>5574694</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,76 +9430,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="N101">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="O101">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>1.85</v>
+      </c>
+      <c r="T101">
+        <v>2.75</v>
+      </c>
+      <c r="U101">
+        <v>1.925</v>
+      </c>
+      <c r="V101">
+        <v>1.925</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
         <v>1.875</v>
       </c>
-      <c r="S101">
-        <v>1.975</v>
-      </c>
-      <c r="T101">
-        <v>3.75</v>
-      </c>
-      <c r="U101">
-        <v>2</v>
-      </c>
-      <c r="V101">
-        <v>1.85</v>
-      </c>
-      <c r="W101">
-        <v>0.444</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6811287</v>
+        <v>6811204</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,76 +10053,76 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L108">
         <v>3.4</v>
       </c>
       <c r="M108">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O108">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
+        <v>2.05</v>
+      </c>
+      <c r="V108">
         <v>1.8</v>
       </c>
-      <c r="V108">
-        <v>2.05</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6811204</v>
+        <v>6811287</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,76 +10142,76 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K109">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L109">
         <v>3.4</v>
       </c>
       <c r="M109">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N109">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
+        <v>4.75</v>
+      </c>
+      <c r="Q109">
+        <v>-0.75</v>
+      </c>
+      <c r="R109">
+        <v>1.875</v>
+      </c>
+      <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
         <v>2.75</v>
       </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
+      <c r="U109">
         <v>1.8</v>
       </c>
-      <c r="S109">
+      <c r="V109">
         <v>2.05</v>
       </c>
-      <c r="T109">
-        <v>3.25</v>
-      </c>
-      <c r="U109">
-        <v>2.05</v>
-      </c>
-      <c r="V109">
-        <v>1.8</v>
-      </c>
       <c r="W109">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6811211</v>
+        <v>6811210</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N120">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O120">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W120">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11198,7 +11198,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6811210</v>
+        <v>6811211</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11210,76 +11210,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K121">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N121">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6811212</v>
+        <v>6810765</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45151.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M124">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
+        <v>1.444</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>6.5</v>
+      </c>
+      <c r="Q124">
+        <v>-1.25</v>
+      </c>
+      <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
         <v>3</v>
       </c>
-      <c r="O124">
-        <v>3.3</v>
-      </c>
-      <c r="P124">
-        <v>2.375</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6810765</v>
+        <v>6811212</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45151.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K125">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="L125">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11643,7 +11643,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6811747</v>
+        <v>6811213</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11655,76 +11655,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K126">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="N126">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O126">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="Q126">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>1.85</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
         <v>1.825</v>
       </c>
-      <c r="S126">
+      <c r="V126">
         <v>2.025</v>
       </c>
-      <c r="T126">
-        <v>3</v>
-      </c>
-      <c r="U126">
-        <v>1.875</v>
-      </c>
-      <c r="V126">
-        <v>1.975</v>
-      </c>
       <c r="W126">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6811213</v>
+        <v>6811747</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,76 +11744,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K127">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L127">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="N127">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P127">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X127">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA127">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC127">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811218</v>
+        <v>6811219</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,10 +12011,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12026,43 +12026,43 @@
         <v>44</v>
       </c>
       <c r="K130">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
         <v>3</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12071,10 +12071,10 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811219</v>
+        <v>6811218</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,10 +12100,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12115,43 +12115,43 @@
         <v>44</v>
       </c>
       <c r="K131">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M131">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N131">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>3</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12160,10 +12160,10 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
         <v>0</v>
@@ -12355,7 +12355,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6811221</v>
+        <v>6811220</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12367,73 +12367,73 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K134">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N134">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O134">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB134">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6811220</v>
+        <v>6811221</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,73 +12456,73 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K135">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="N135">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X135">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA135">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6811228</v>
+        <v>6810299</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K143">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S143">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T143">
         <v>3</v>
       </c>
       <c r="U143">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6810299</v>
+        <v>6811228</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,76 +13346,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K145">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N145">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O145">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S145">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
         <v>3</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X145">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6811230</v>
+        <v>6810300</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,40 +13613,40 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H148">
         <v>2</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>2.25</v>
+        <v>4.1</v>
       </c>
       <c r="N148">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O148">
         <v>3.6</v>
       </c>
       <c r="P148">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
         <v>1.925</v>
@@ -13655,34 +13655,34 @@
         <v>1.925</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
+        <v>1.825</v>
+      </c>
+      <c r="V148">
         <v>2.025</v>
       </c>
-      <c r="V148">
-        <v>1.825</v>
-      </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6810300</v>
+        <v>6811230</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,40 +13702,40 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>2</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K149">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="N149">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O149">
         <v>3.6</v>
       </c>
       <c r="P149">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R149">
         <v>1.925</v>
@@ -13744,34 +13744,34 @@
         <v>1.925</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
+        <v>2.025</v>
+      </c>
+      <c r="V149">
         <v>1.825</v>
       </c>
-      <c r="V149">
-        <v>2.025</v>
-      </c>
       <c r="W149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
         <v>0.925</v>
       </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
       <c r="AB149">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC149">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6811237</v>
+        <v>6811236</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,58 +14503,58 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>3</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
       <c r="K158">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L158">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N158">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O158">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W158">
-        <v>0.5</v>
+        <v>1.55</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14563,16 +14563,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6811236</v>
+        <v>6811237</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,58 +14592,58 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H159">
         <v>3</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>44</v>
       </c>
       <c r="K159">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M159">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N159">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P159">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R159">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U159">
+        <v>2</v>
+      </c>
+      <c r="V159">
         <v>1.85</v>
       </c>
-      <c r="V159">
-        <v>2</v>
-      </c>
       <c r="W159">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14652,16 +14652,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6810771</v>
+        <v>6811241</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,10 +15037,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15052,43 +15052,43 @@
         <v>44</v>
       </c>
       <c r="K164">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N164">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O164">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15097,10 +15097,10 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
         <v>0</v>
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6811241</v>
+        <v>6810771</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,10 +15126,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15141,43 +15141,43 @@
         <v>44</v>
       </c>
       <c r="K165">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N165">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P165">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W165">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15186,10 +15186,10 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
         <v>0</v>
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6810773</v>
+        <v>6811247</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,40 +16105,40 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H176">
         <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K176">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="L176">
         <v>4</v>
       </c>
       <c r="M176">
+        <v>1.75</v>
+      </c>
+      <c r="N176">
         <v>3.8</v>
       </c>
-      <c r="N176">
-        <v>1.75</v>
-      </c>
       <c r="O176">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R176">
         <v>2.025</v>
@@ -16147,34 +16147,34 @@
         <v>1.825</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z176">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB176">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6811247</v>
+        <v>6810773</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,40 +16194,40 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H177">
         <v>2</v>
       </c>
       <c r="I177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K177">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
+        <v>3.8</v>
+      </c>
+      <c r="N177">
         <v>1.75</v>
       </c>
-      <c r="N177">
-        <v>3.8</v>
-      </c>
       <c r="O177">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
         <v>2.025</v>
@@ -16236,34 +16236,34 @@
         <v>1.825</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA177">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6810774</v>
+        <v>6811251</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,73 +16283,73 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K178">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L178">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M178">
+        <v>5.5</v>
+      </c>
+      <c r="N178">
+        <v>1.5</v>
+      </c>
+      <c r="O178">
+        <v>4.75</v>
+      </c>
+      <c r="P178">
+        <v>5.25</v>
+      </c>
+      <c r="Q178">
+        <v>-1</v>
+      </c>
+      <c r="R178">
+        <v>1.8</v>
+      </c>
+      <c r="S178">
         <v>2.05</v>
       </c>
-      <c r="N178">
-        <v>3.6</v>
-      </c>
-      <c r="O178">
-        <v>3.8</v>
-      </c>
-      <c r="P178">
-        <v>1.95</v>
-      </c>
-      <c r="Q178">
+      <c r="T178">
+        <v>3.5</v>
+      </c>
+      <c r="U178">
+        <v>2</v>
+      </c>
+      <c r="V178">
+        <v>1.85</v>
+      </c>
+      <c r="W178">
         <v>0.5</v>
       </c>
-      <c r="R178">
-        <v>1.9</v>
-      </c>
-      <c r="S178">
-        <v>1.95</v>
-      </c>
-      <c r="T178">
-        <v>2.75</v>
-      </c>
-      <c r="U178">
-        <v>1.975</v>
-      </c>
-      <c r="V178">
-        <v>1.875</v>
-      </c>
-      <c r="W178">
-        <v>-1</v>
-      </c>
       <c r="X178">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6811251</v>
+        <v>6810774</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,73 +16372,73 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K179">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L179">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M179">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N179">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P179">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6811250</v>
+        <v>6810305</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,73 +16639,73 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182" t="s">
+        <v>44</v>
+      </c>
+      <c r="K182">
+        <v>1.65</v>
+      </c>
+      <c r="L182">
+        <v>4.2</v>
+      </c>
+      <c r="M182">
+        <v>4.5</v>
+      </c>
+      <c r="N182">
+        <v>1.6</v>
+      </c>
+      <c r="O182">
+        <v>4.333</v>
+      </c>
+      <c r="P182">
+        <v>5</v>
+      </c>
+      <c r="Q182">
+        <v>-1</v>
+      </c>
+      <c r="R182">
+        <v>2.025</v>
+      </c>
+      <c r="S182">
+        <v>1.825</v>
+      </c>
+      <c r="T182">
         <v>3</v>
       </c>
-      <c r="J182" t="s">
-        <v>43</v>
-      </c>
-      <c r="K182">
-        <v>2.3</v>
-      </c>
-      <c r="L182">
-        <v>3.5</v>
-      </c>
-      <c r="M182">
-        <v>2.9</v>
-      </c>
-      <c r="N182">
-        <v>2.875</v>
-      </c>
-      <c r="O182">
-        <v>3.4</v>
-      </c>
-      <c r="P182">
-        <v>2.45</v>
-      </c>
-      <c r="Q182">
-        <v>0</v>
-      </c>
-      <c r="R182">
-        <v>2.05</v>
-      </c>
-      <c r="S182">
-        <v>1.8</v>
-      </c>
-      <c r="T182">
-        <v>2.5</v>
-      </c>
       <c r="U182">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16716,7 +16716,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6810305</v>
+        <v>6811250</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16728,73 +16728,73 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K183">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L183">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M183">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N183">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P183">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S183">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T183">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U183">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W183">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z183">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB183">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -16805,7 +16805,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6811255</v>
+        <v>6811256</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,10 +16817,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H184">
         <v>3</v>
@@ -16832,43 +16832,43 @@
         <v>44</v>
       </c>
       <c r="K184">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N184">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O184">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P184">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16877,13 +16877,13 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16894,7 +16894,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6811256</v>
+        <v>6811255</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16906,10 +16906,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>3</v>
@@ -16921,43 +16921,43 @@
         <v>44</v>
       </c>
       <c r="K185">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N185">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16966,13 +16966,13 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7505765</v>
+        <v>7107309</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,76 +17796,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>44</v>
+      </c>
+      <c r="K195">
+        <v>1.363</v>
+      </c>
+      <c r="L195">
+        <v>5.5</v>
+      </c>
+      <c r="M195">
+        <v>6.5</v>
+      </c>
+      <c r="N195">
+        <v>1.5</v>
+      </c>
+      <c r="O195">
+        <v>4.75</v>
+      </c>
+      <c r="P195">
+        <v>5.5</v>
+      </c>
+      <c r="Q195">
+        <v>-1</v>
+      </c>
+      <c r="R195">
+        <v>1.8</v>
+      </c>
+      <c r="S195">
+        <v>2.05</v>
+      </c>
+      <c r="T195">
         <v>3</v>
       </c>
-      <c r="J195" t="s">
-        <v>43</v>
-      </c>
-      <c r="K195">
-        <v>1.95</v>
-      </c>
-      <c r="L195">
-        <v>3.75</v>
-      </c>
-      <c r="M195">
-        <v>3.5</v>
-      </c>
-      <c r="N195">
-        <v>1.85</v>
-      </c>
-      <c r="O195">
-        <v>3.75</v>
-      </c>
-      <c r="P195">
-        <v>4</v>
-      </c>
-      <c r="Q195">
-        <v>-0.5</v>
-      </c>
-      <c r="R195">
-        <v>1.875</v>
-      </c>
-      <c r="S195">
-        <v>1.975</v>
-      </c>
-      <c r="T195">
-        <v>2.75</v>
-      </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA195">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB195">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7107309</v>
+        <v>7505765</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,76 +17885,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K196">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L196">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O196">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P196">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S196">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
+        <v>1.85</v>
+      </c>
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
         <v>3</v>
       </c>
-      <c r="U196">
-        <v>1.825</v>
-      </c>
-      <c r="V196">
-        <v>2.025</v>
-      </c>
-      <c r="W196">
-        <v>0.5</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
       <c r="Z196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC196">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17962,7 +17962,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6811262</v>
+        <v>6811292</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17974,49 +17974,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>2</v>
       </c>
       <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
+        <v>3.5</v>
+      </c>
+      <c r="N197">
+        <v>1.833</v>
+      </c>
+      <c r="O197">
         <v>3.8</v>
       </c>
-      <c r="M197">
-        <v>3.3</v>
-      </c>
-      <c r="N197">
-        <v>2.3</v>
-      </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
       <c r="P197">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
+        <v>1.825</v>
+      </c>
+      <c r="S197">
         <v>2.025</v>
       </c>
-      <c r="S197">
-        <v>1.775</v>
-      </c>
       <c r="T197">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
         <v>1.975</v>
@@ -18025,19 +18025,19 @@
         <v>1.875</v>
       </c>
       <c r="W197">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
         <v>1.025</v>
-      </c>
-      <c r="AA197">
-        <v>-1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6811292</v>
+        <v>6811262</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,49 +18063,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H198">
+        <v>3</v>
+      </c>
+      <c r="I198">
         <v>0</v>
       </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K198">
         <v>2</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M198">
+        <v>3.3</v>
+      </c>
+      <c r="N198">
+        <v>2.3</v>
+      </c>
+      <c r="O198">
+        <v>4</v>
+      </c>
+      <c r="P198">
+        <v>2.8</v>
+      </c>
+      <c r="Q198">
+        <v>-0.25</v>
+      </c>
+      <c r="R198">
+        <v>2.025</v>
+      </c>
+      <c r="S198">
+        <v>1.775</v>
+      </c>
+      <c r="T198">
         <v>3.5</v>
-      </c>
-      <c r="N198">
-        <v>1.833</v>
-      </c>
-      <c r="O198">
-        <v>3.8</v>
-      </c>
-      <c r="P198">
-        <v>4.2</v>
-      </c>
-      <c r="Q198">
-        <v>-0.5</v>
-      </c>
-      <c r="R198">
-        <v>1.825</v>
-      </c>
-      <c r="S198">
-        <v>2.025</v>
-      </c>
-      <c r="T198">
-        <v>2.75</v>
       </c>
       <c r="U198">
         <v>1.975</v>
@@ -18114,19 +18114,19 @@
         <v>1.875</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6811260</v>
+        <v>6810777</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18330,76 +18330,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K201">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L201">
         <v>3.6</v>
       </c>
       <c r="M201">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N201">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P201">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X201">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6810777</v>
+        <v>6811260</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18419,76 +18419,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K202">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L202">
         <v>3.6</v>
       </c>
       <c r="M202">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N202">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O202">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q202">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S202">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6811265</v>
+        <v>6811264</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,76 +18597,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K204">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M204">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="N204">
+        <v>2.05</v>
+      </c>
+      <c r="O204">
         <v>3.6</v>
       </c>
-      <c r="O204">
-        <v>3.8</v>
-      </c>
       <c r="P204">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q204">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V204">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA204">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6811264</v>
+        <v>6811265</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,76 +18686,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K205">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="L205">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="N205">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O205">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R205">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V205">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W205">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z205">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC205">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19475,7 +19475,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6810310</v>
+        <v>6810779</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19487,76 +19487,76 @@
         <v>45314.625</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K214">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="L214">
         <v>3.6</v>
       </c>
       <c r="M214">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N214">
         <v>3.2</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q214">
         <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X214">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>0.4</v>
+      </c>
+      <c r="AC214">
         <v>-0.5</v>
-      </c>
-      <c r="AB214">
-        <v>0.875</v>
-      </c>
-      <c r="AC214">
-        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19564,7 +19564,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6810779</v>
+        <v>6810310</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19576,76 +19576,76 @@
         <v>45314.625</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K215">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L215">
         <v>3.6</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N215">
         <v>3.2</v>
       </c>
       <c r="O215">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q215">
         <v>0.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19653,7 +19653,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6811746</v>
+        <v>6811275</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,76 +19665,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
+        <v>3</v>
+      </c>
+      <c r="J216" t="s">
+        <v>43</v>
+      </c>
+      <c r="K216">
+        <v>2.7</v>
+      </c>
+      <c r="L216">
+        <v>3.4</v>
+      </c>
+      <c r="M216">
+        <v>2.5</v>
+      </c>
+      <c r="N216">
+        <v>2.7</v>
+      </c>
+      <c r="O216">
+        <v>3.4</v>
+      </c>
+      <c r="P216">
+        <v>2.55</v>
+      </c>
+      <c r="Q216">
         <v>0</v>
       </c>
-      <c r="J216" t="s">
-        <v>44</v>
-      </c>
-      <c r="K216">
-        <v>1.4</v>
-      </c>
-      <c r="L216">
-        <v>4.5</v>
-      </c>
-      <c r="M216">
-        <v>7.5</v>
-      </c>
-      <c r="N216">
-        <v>1.45</v>
-      </c>
-      <c r="O216">
-        <v>4.333</v>
-      </c>
-      <c r="P216">
-        <v>7.5</v>
-      </c>
-      <c r="Q216">
-        <v>-1.25</v>
-      </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S216">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC216">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19742,7 +19742,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6811275</v>
+        <v>6811746</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19754,76 +19754,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G217" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K217">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L217">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M217">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N217">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="O217">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P217">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB217">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20009,7 +20009,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6811272</v>
+        <v>6811273</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20021,10 +20021,10 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20036,43 +20036,43 @@
         <v>44</v>
       </c>
       <c r="K220">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L220">
+        <v>3.5</v>
+      </c>
+      <c r="M220">
+        <v>5</v>
+      </c>
+      <c r="N220">
+        <v>2.05</v>
+      </c>
+      <c r="O220">
         <v>3.6</v>
       </c>
-      <c r="M220">
-        <v>1.909</v>
-      </c>
-      <c r="N220">
+      <c r="P220">
         <v>3.5</v>
       </c>
-      <c r="O220">
-        <v>3.8</v>
-      </c>
-      <c r="P220">
-        <v>1.95</v>
-      </c>
       <c r="Q220">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20081,16 +20081,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20098,7 +20098,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6811273</v>
+        <v>6811272</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20110,10 +20110,10 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20125,43 +20125,43 @@
         <v>44</v>
       </c>
       <c r="K221">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L221">
+        <v>3.6</v>
+      </c>
+      <c r="M221">
+        <v>1.909</v>
+      </c>
+      <c r="N221">
         <v>3.5</v>
       </c>
-      <c r="M221">
-        <v>5</v>
-      </c>
-      <c r="N221">
-        <v>2.05</v>
-      </c>
       <c r="O221">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R221">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W221">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20170,16 +20170,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20187,7 +20187,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6811278</v>
+        <v>6810780</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20199,73 +20199,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K222">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M222">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="N222">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O222">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P222">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U222">
+        <v>2.025</v>
+      </c>
+      <c r="V222">
         <v>1.825</v>
       </c>
-      <c r="V222">
-        <v>2.025</v>
-      </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA222">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20276,7 +20276,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6810780</v>
+        <v>6811278</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20288,73 +20288,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G223" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H223">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K223">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L223">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N223">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O223">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P223">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q223">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S223">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T223">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
+        <v>1.825</v>
+      </c>
+      <c r="V223">
         <v>2.025</v>
       </c>
-      <c r="V223">
-        <v>1.825</v>
-      </c>
       <c r="W223">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB223">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20454,7 +20454,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6810311</v>
+        <v>6811279</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20466,76 +20466,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K225">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L225">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M225">
+        <v>4.75</v>
+      </c>
+      <c r="N225">
+        <v>1.85</v>
+      </c>
+      <c r="O225">
         <v>3.6</v>
       </c>
-      <c r="N225">
-        <v>2.5</v>
-      </c>
-      <c r="O225">
-        <v>3.4</v>
-      </c>
       <c r="P225">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S225">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20543,7 +20543,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6811279</v>
+        <v>6810311</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,76 +20555,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226">
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K226">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M226">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N226">
+        <v>2.5</v>
+      </c>
+      <c r="O226">
+        <v>3.4</v>
+      </c>
+      <c r="P226">
+        <v>2.75</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>1.8</v>
+      </c>
+      <c r="S226">
+        <v>2.05</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>2</v>
+      </c>
+      <c r="V226">
         <v>1.85</v>
       </c>
-      <c r="O226">
-        <v>3.6</v>
-      </c>
-      <c r="P226">
-        <v>4.333</v>
-      </c>
-      <c r="Q226">
-        <v>-0.5</v>
-      </c>
-      <c r="R226">
-        <v>1.875</v>
-      </c>
-      <c r="S226">
-        <v>1.975</v>
-      </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>1.85</v>
-      </c>
-      <c r="V226">
-        <v>2</v>
-      </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB226">
+        <v>-1</v>
+      </c>
+      <c r="AC226">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC226">
-        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20738,6 +20738,15 @@
       <c r="G228" t="s">
         <v>38</v>
       </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>43</v>
+      </c>
       <c r="K228">
         <v>2.3</v>
       </c>
@@ -20748,46 +20757,52 @@
         <v>2.7</v>
       </c>
       <c r="N228">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O228">
         <v>3.8</v>
       </c>
       <c r="P228">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q228">
         <v>0</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T228">
         <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V228">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
+        <v>0.925</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20812,6 +20827,15 @@
       <c r="G229" t="s">
         <v>35</v>
       </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>43</v>
+      </c>
       <c r="K229">
         <v>2.9</v>
       </c>
@@ -20822,10 +20846,10 @@
         <v>2.2</v>
       </c>
       <c r="N229">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P229">
         <v>2.3</v>
@@ -20834,34 +20858,40 @@
         <v>0.25</v>
       </c>
       <c r="R229">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S229">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T229">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20886,6 +20916,15 @@
       <c r="G230" t="s">
         <v>33</v>
       </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>43</v>
+      </c>
       <c r="K230">
         <v>2.5</v>
       </c>
@@ -20908,34 +20947,40 @@
         <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V230">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20960,6 +21005,15 @@
       <c r="G231" t="s">
         <v>36</v>
       </c>
+      <c r="H231">
+        <v>3</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231" t="s">
+        <v>44</v>
+      </c>
       <c r="K231">
         <v>3.6</v>
       </c>
@@ -20970,46 +21024,52 @@
         <v>1.909</v>
       </c>
       <c r="N231">
+        <v>4.333</v>
+      </c>
+      <c r="O231">
         <v>4</v>
       </c>
-      <c r="O231">
-        <v>3.8</v>
-      </c>
       <c r="P231">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="Q231">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R231">
+        <v>1.875</v>
+      </c>
+      <c r="S231">
         <v>1.975</v>
       </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB231">
+        <v>0.825</v>
+      </c>
+      <c r="AC231">
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21017,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6811283</v>
+        <v>6810312</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21029,31 +21089,40 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="H232">
+        <v>3</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" t="s">
+        <v>44</v>
       </c>
       <c r="K232">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L232">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M232">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N232">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P232">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R232">
         <v>1.925</v>
@@ -21062,28 +21131,34 @@
         <v>1.925</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U232">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB232">
+        <v>1.025</v>
+      </c>
+      <c r="AC232">
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21091,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6810312</v>
+        <v>6811283</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21103,60 +21178,519 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F233" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233" t="s">
+        <v>44</v>
       </c>
       <c r="K233">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L233">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M233">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N233">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="O233">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P233">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="Q233">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T233">
         <v>3</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
+        <v>1.875</v>
+      </c>
+      <c r="W233">
+        <v>1.55</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>-1</v>
+      </c>
+      <c r="Z233">
+        <v>0.95</v>
+      </c>
+      <c r="AA233">
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>7616922</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45332.58333333334</v>
+      </c>
+      <c r="F234" t="s">
+        <v>39</v>
+      </c>
+      <c r="G234" t="s">
+        <v>40</v>
+      </c>
+      <c r="K234">
+        <v>3.1</v>
+      </c>
+      <c r="L234">
+        <v>3.6</v>
+      </c>
+      <c r="M234">
+        <v>2.15</v>
+      </c>
+      <c r="N234">
+        <v>3.2</v>
+      </c>
+      <c r="O234">
+        <v>3.5</v>
+      </c>
+      <c r="P234">
+        <v>2.2</v>
+      </c>
+      <c r="Q234">
+        <v>0.25</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
         <v>1.85</v>
       </c>
-      <c r="W233">
+      <c r="T234">
+        <v>2.75</v>
+      </c>
+      <c r="U234">
+        <v>1.975</v>
+      </c>
+      <c r="V234">
+        <v>1.875</v>
+      </c>
+      <c r="W234">
         <v>0</v>
       </c>
-      <c r="X233">
+      <c r="X234">
         <v>0</v>
       </c>
-      <c r="Y233">
+      <c r="Y234">
         <v>0</v>
       </c>
-      <c r="Z233">
+      <c r="Z234">
         <v>0</v>
       </c>
-      <c r="AA233">
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>7616921</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45332.58333333334</v>
+      </c>
+      <c r="F235" t="s">
+        <v>36</v>
+      </c>
+      <c r="G235" t="s">
+        <v>30</v>
+      </c>
+      <c r="K235">
+        <v>1.615</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="M235">
+        <v>5</v>
+      </c>
+      <c r="N235">
+        <v>1.727</v>
+      </c>
+      <c r="O235">
+        <v>3.75</v>
+      </c>
+      <c r="P235">
+        <v>5</v>
+      </c>
+      <c r="Q235">
+        <v>-0.75</v>
+      </c>
+      <c r="R235">
+        <v>1.925</v>
+      </c>
+      <c r="S235">
+        <v>1.925</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
+        <v>1.875</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>7617018</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45332.6875</v>
+      </c>
+      <c r="F236" t="s">
+        <v>33</v>
+      </c>
+      <c r="G236" t="s">
+        <v>35</v>
+      </c>
+      <c r="K236">
+        <v>2.55</v>
+      </c>
+      <c r="L236">
+        <v>3.6</v>
+      </c>
+      <c r="M236">
+        <v>2.45</v>
+      </c>
+      <c r="N236">
+        <v>3</v>
+      </c>
+      <c r="O236">
+        <v>3.6</v>
+      </c>
+      <c r="P236">
+        <v>2.3</v>
+      </c>
+      <c r="Q236">
+        <v>0.25</v>
+      </c>
+      <c r="R236">
+        <v>1.8</v>
+      </c>
+      <c r="S236">
+        <v>2.05</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
+        <v>1.85</v>
+      </c>
+      <c r="V236">
+        <v>2</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>7616923</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45333.42708333334</v>
+      </c>
+      <c r="F237" t="s">
+        <v>38</v>
+      </c>
+      <c r="G237" t="s">
+        <v>29</v>
+      </c>
+      <c r="K237">
+        <v>2.625</v>
+      </c>
+      <c r="L237">
+        <v>3.6</v>
+      </c>
+      <c r="M237">
+        <v>2.45</v>
+      </c>
+      <c r="N237">
+        <v>2.75</v>
+      </c>
+      <c r="O237">
+        <v>3.5</v>
+      </c>
+      <c r="P237">
+        <v>2.5</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
+        <v>1.85</v>
+      </c>
+      <c r="T237">
+        <v>3</v>
+      </c>
+      <c r="U237">
+        <v>2.05</v>
+      </c>
+      <c r="V237">
+        <v>1.8</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>7616924</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45333.52083333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>34</v>
+      </c>
+      <c r="G238" t="s">
+        <v>32</v>
+      </c>
+      <c r="K238">
+        <v>2.875</v>
+      </c>
+      <c r="L238">
+        <v>3.75</v>
+      </c>
+      <c r="M238">
+        <v>2.25</v>
+      </c>
+      <c r="N238">
+        <v>2.8</v>
+      </c>
+      <c r="O238">
+        <v>3.6</v>
+      </c>
+      <c r="P238">
+        <v>2.4</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>2.05</v>
+      </c>
+      <c r="S238">
+        <v>1.8</v>
+      </c>
+      <c r="T238">
+        <v>2.75</v>
+      </c>
+      <c r="U238">
+        <v>1.85</v>
+      </c>
+      <c r="V238">
+        <v>2</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>7616836</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45333.52083333334</v>
+      </c>
+      <c r="F239" t="s">
+        <v>41</v>
+      </c>
+      <c r="G239" t="s">
+        <v>37</v>
+      </c>
+      <c r="K239">
+        <v>4.5</v>
+      </c>
+      <c r="L239">
+        <v>4.333</v>
+      </c>
+      <c r="M239">
+        <v>1.615</v>
+      </c>
+      <c r="N239">
+        <v>5</v>
+      </c>
+      <c r="O239">
+        <v>4.2</v>
+      </c>
+      <c r="P239">
+        <v>1.65</v>
+      </c>
+      <c r="Q239">
+        <v>0.75</v>
+      </c>
+      <c r="R239">
+        <v>2.025</v>
+      </c>
+      <c r="S239">
+        <v>1.825</v>
+      </c>
+      <c r="T239">
+        <v>2.75</v>
+      </c>
+      <c r="U239">
+        <v>1.8</v>
+      </c>
+      <c r="V239">
+        <v>2.05</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
         <v>0</v>
       </c>
     </row>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>Young Boys</t>
   </si>
   <si>
-    <t>FC Zurich</t>
+    <t>Servette</t>
   </si>
   <si>
-    <t>Servette</t>
+    <t>FC Zurich</t>
   </si>
   <si>
     <t>Winterthur</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC239"/>
+  <dimension ref="A1:AC236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5172789</v>
+        <v>5172788</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,46 +1245,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
+        <v>3.3</v>
+      </c>
+      <c r="M9">
         <v>3.4</v>
       </c>
-      <c r="M9">
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>3.5</v>
+      </c>
+      <c r="P9">
+        <v>3.75</v>
+      </c>
+      <c r="Q9">
+        <v>-0.5</v>
+      </c>
+      <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
         <v>2.5</v>
-      </c>
-      <c r="N9">
-        <v>2.25</v>
-      </c>
-      <c r="O9">
-        <v>3.6</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1293,25 +1293,25 @@
         <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5172788</v>
+        <v>5172789</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,46 +1334,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -1382,25 +1382,25 @@
         <v>1.85</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X10">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1512,7 +1512,7 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1601,7 +1601,7 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -2132,7 +2132,7 @@
         <v>44969.52083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2313,7 +2313,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2933,7 +2933,7 @@
         <v>44982.6875</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5172799</v>
+        <v>5173741</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N30">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
+        <v>5.25</v>
+      </c>
+      <c r="Q30">
+        <v>-0.75</v>
+      </c>
+      <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
+        <v>1.95</v>
+      </c>
+      <c r="T30">
         <v>2.5</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.825</v>
-      </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5173741</v>
+        <v>5172799</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,76 +3200,76 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>42</v>
       </c>
       <c r="K31">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L31">
+        <v>3.4</v>
+      </c>
+      <c r="M31">
+        <v>2.55</v>
+      </c>
+      <c r="N31">
+        <v>2.7</v>
+      </c>
+      <c r="O31">
         <v>3.5</v>
       </c>
-      <c r="M31">
-        <v>4.5</v>
-      </c>
-      <c r="N31">
-        <v>1.7</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.925</v>
+      </c>
+      <c r="V31">
+        <v>1.925</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
         <v>2.5</v>
       </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
-      <c r="V31">
-        <v>1.85</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>2.6</v>
-      </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3645,10 +3645,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
         <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3826,7 +3826,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3912,7 +3912,7 @@
         <v>44997.42708333334</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5172805</v>
+        <v>5173739</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K40">
+        <v>2.05</v>
+      </c>
+      <c r="L40">
+        <v>3.4</v>
+      </c>
+      <c r="M40">
+        <v>3.2</v>
+      </c>
+      <c r="N40">
+        <v>2.1</v>
+      </c>
+      <c r="O40">
+        <v>3.4</v>
+      </c>
+      <c r="P40">
+        <v>3.5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.25</v>
+      </c>
+      <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
+        <v>2.05</v>
+      </c>
+      <c r="T40">
+        <v>2.5</v>
+      </c>
+      <c r="U40">
+        <v>1.9</v>
+      </c>
+      <c r="V40">
         <v>1.95</v>
       </c>
-      <c r="L40">
-        <v>3.5</v>
-      </c>
-      <c r="M40">
-        <v>3.3</v>
-      </c>
-      <c r="N40">
-        <v>1.85</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>4</v>
-      </c>
-      <c r="Q40">
-        <v>-0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.825</v>
-      </c>
-      <c r="S40">
-        <v>2.025</v>
-      </c>
-      <c r="T40">
-        <v>3.25</v>
-      </c>
-      <c r="U40">
-        <v>2.025</v>
-      </c>
-      <c r="V40">
-        <v>1.825</v>
-      </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5173739</v>
+        <v>5172805</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4179,7 +4179,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4538,7 +4538,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4624,7 +4624,7 @@
         <v>45017.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5172813</v>
+        <v>5171755</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5171755</v>
+        <v>5172813</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,76 +4980,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L51">
+        <v>3.5</v>
+      </c>
+      <c r="M51">
+        <v>2.9</v>
+      </c>
+      <c r="N51">
+        <v>2.2</v>
+      </c>
+      <c r="O51">
         <v>3.6</v>
       </c>
-      <c r="M51">
-        <v>3.75</v>
-      </c>
-      <c r="N51">
-        <v>1.5</v>
-      </c>
-      <c r="O51">
-        <v>4.75</v>
-      </c>
       <c r="P51">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y51">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5161,7 +5161,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5514,7 +5514,7 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -5606,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5172818</v>
+        <v>5172819</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,49 +5781,49 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L60">
         <v>3.5</v>
       </c>
       <c r="M60">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N60">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O60">
+        <v>3.75</v>
+      </c>
+      <c r="P60">
         <v>3.8</v>
       </c>
-      <c r="P60">
-        <v>1.8</v>
-      </c>
       <c r="Q60">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
         <v>1.875</v>
@@ -5835,22 +5835,22 @@
         <v>-1</v>
       </c>
       <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
         <v>2.8</v>
       </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
       <c r="Z60">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5172819</v>
+        <v>5172818</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,49 +5870,49 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="L61">
         <v>3.5</v>
       </c>
       <c r="M61">
+        <v>2.2</v>
+      </c>
+      <c r="N61">
+        <v>4.2</v>
+      </c>
+      <c r="O61">
         <v>3.8</v>
       </c>
-      <c r="N61">
-        <v>1.909</v>
-      </c>
-      <c r="O61">
-        <v>3.75</v>
-      </c>
       <c r="P61">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U61">
         <v>1.875</v>
@@ -5924,22 +5924,22 @@
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63">
         <v>6</v>
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5181240</v>
+        <v>5172821</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,13 +6226,13 @@
         <v>45039.47916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6241,43 +6241,43 @@
         <v>44</v>
       </c>
       <c r="K65">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R65">
+        <v>1.975</v>
+      </c>
+      <c r="S65">
         <v>1.875</v>
-      </c>
-      <c r="S65">
-        <v>1.975</v>
       </c>
       <c r="T65">
         <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6286,7 +6286,7 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6295,7 +6295,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5172821</v>
+        <v>5181240</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,13 +6315,13 @@
         <v>45039.47916666666</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6330,43 +6330,43 @@
         <v>44</v>
       </c>
       <c r="K66">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L66">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N66">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
+        <v>1.875</v>
+      </c>
+      <c r="S66">
         <v>1.975</v>
-      </c>
-      <c r="S66">
-        <v>1.875</v>
       </c>
       <c r="T66">
         <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6375,7 +6375,7 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
         <v>-1</v>
@@ -6384,7 +6384,7 @@
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6493,10 +6493,10 @@
         <v>45042.64583333334</v>
       </c>
       <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
         <v>37</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -6849,7 +6849,7 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -7027,7 +7027,7 @@
         <v>45046.38541666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>31</v>
@@ -7564,7 +7564,7 @@
         <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7653,7 +7653,7 @@
         <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7828,7 +7828,7 @@
         <v>45059.64583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -7920,7 +7920,7 @@
         <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5424853</v>
+        <v>5424855</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,13 +8006,13 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -8021,43 +8021,43 @@
         <v>44</v>
       </c>
       <c r="K85">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>1.65</v>
+      </c>
+      <c r="O85">
+        <v>4.333</v>
+      </c>
+      <c r="P85">
         <v>4.75</v>
       </c>
-      <c r="N85">
-        <v>1.7</v>
-      </c>
-      <c r="O85">
-        <v>4</v>
-      </c>
-      <c r="P85">
-        <v>5</v>
-      </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W85">
-        <v>0.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8066,16 +8066,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5424855</v>
+        <v>5424853</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,13 +8095,13 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -8110,43 +8110,43 @@
         <v>44</v>
       </c>
       <c r="K86">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O86">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>0.6499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8155,16 +8155,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5471184</v>
+        <v>5466932</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1.85</v>
+      </c>
+      <c r="T90">
+        <v>2.75</v>
+      </c>
+      <c r="U90">
+        <v>1.95</v>
+      </c>
+      <c r="V90">
         <v>1.9</v>
       </c>
-      <c r="S90">
-        <v>1.95</v>
-      </c>
-      <c r="T90">
-        <v>3</v>
-      </c>
-      <c r="U90">
-        <v>2.025</v>
-      </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>0.475</v>
+      </c>
+      <c r="AC90">
         <v>-0.5</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5466932</v>
+        <v>5471184</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,76 +8540,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N91">
+        <v>3.1</v>
+      </c>
+      <c r="O91">
+        <v>3.5</v>
+      </c>
+      <c r="P91">
+        <v>2.25</v>
+      </c>
+      <c r="Q91">
+        <v>0.25</v>
+      </c>
+      <c r="R91">
+        <v>1.9</v>
+      </c>
+      <c r="S91">
         <v>1.95</v>
       </c>
-      <c r="O91">
-        <v>3.75</v>
-      </c>
-      <c r="P91">
-        <v>3.6</v>
-      </c>
-      <c r="Q91">
+      <c r="T91">
+        <v>3</v>
+      </c>
+      <c r="U91">
+        <v>2.025</v>
+      </c>
+      <c r="V91">
+        <v>1.825</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>2.5</v>
+      </c>
+      <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
+        <v>0.45</v>
+      </c>
+      <c r="AA91">
         <v>-0.5</v>
       </c>
-      <c r="R91">
-        <v>2</v>
-      </c>
-      <c r="S91">
-        <v>1.85</v>
-      </c>
-      <c r="T91">
-        <v>2.75</v>
-      </c>
-      <c r="U91">
-        <v>1.95</v>
-      </c>
-      <c r="V91">
-        <v>1.9</v>
-      </c>
-      <c r="W91">
-        <v>0.95</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>-1</v>
-      </c>
-      <c r="Z91">
-        <v>1</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5498511</v>
+        <v>5495233</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,76 +8718,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N93">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5505757</v>
+        <v>5498511</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,13 +8807,13 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -8831,16 +8831,16 @@
         <v>2.15</v>
       </c>
       <c r="N94">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P94">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R94">
         <v>1.85</v>
@@ -8849,13 +8849,13 @@
         <v>2</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8864,7 +8864,7 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z94">
         <v>-1</v>
@@ -8873,10 +8873,10 @@
         <v>1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5495233</v>
+        <v>5505757</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,76 +8985,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F96" t="s">
+        <v>38</v>
+      </c>
+      <c r="G96" t="s">
         <v>37</v>
       </c>
-      <c r="G96" t="s">
-        <v>34</v>
-      </c>
       <c r="H96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5574693</v>
+        <v>5578548</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,58 +9074,58 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>44</v>
       </c>
       <c r="K97">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M97">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N97">
-        <v>1.444</v>
+        <v>1.3</v>
       </c>
       <c r="O97">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="P97">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q97">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
         <v>3.75</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>0.444</v>
+        <v>0.3</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9134,16 +9134,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB97">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5578548</v>
+        <v>5578547</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,76 +9163,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="M98">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N98">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="O98">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q98">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5578547</v>
+        <v>5574693</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,40 +9341,40 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H100">
+        <v>4</v>
+      </c>
+      <c r="I100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K100">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L100">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N100">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P100">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9383,34 +9383,34 @@
         <v>1.975</v>
       </c>
       <c r="T100">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC100">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6810293</v>
+        <v>6811200</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,76 +9519,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>44</v>
+      </c>
+      <c r="K102">
+        <v>2.1</v>
+      </c>
+      <c r="L102">
+        <v>3.5</v>
+      </c>
+      <c r="M102">
         <v>3</v>
       </c>
-      <c r="J102" t="s">
-        <v>43</v>
-      </c>
-      <c r="K102">
-        <v>3.4</v>
-      </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>1.95</v>
-      </c>
       <c r="N102">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
+        <v>2.025</v>
+      </c>
+      <c r="S102">
         <v>1.825</v>
       </c>
-      <c r="S102">
-        <v>2.025</v>
-      </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6811200</v>
+        <v>6810293</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L103">
+        <v>3.4</v>
+      </c>
+      <c r="M103">
+        <v>1.95</v>
+      </c>
+      <c r="N103">
         <v>3.5</v>
       </c>
-      <c r="M103">
-        <v>3</v>
-      </c>
-      <c r="N103">
-        <v>1.8</v>
-      </c>
       <c r="O103">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
+        <v>1.825</v>
+      </c>
+      <c r="S103">
         <v>2.025</v>
       </c>
-      <c r="S103">
-        <v>1.825</v>
-      </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z103">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9875,7 +9875,7 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>41</v>
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6811204</v>
+        <v>6811287</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,76 +10053,76 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K108">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
         <v>3.4</v>
       </c>
       <c r="M108">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N108">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O108">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
+        <v>4.75</v>
+      </c>
+      <c r="Q108">
+        <v>-0.75</v>
+      </c>
+      <c r="R108">
+        <v>1.875</v>
+      </c>
+      <c r="S108">
+        <v>1.975</v>
+      </c>
+      <c r="T108">
         <v>2.75</v>
       </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
+      <c r="U108">
         <v>1.8</v>
       </c>
-      <c r="S108">
+      <c r="V108">
         <v>2.05</v>
       </c>
-      <c r="T108">
-        <v>3.25</v>
-      </c>
-      <c r="U108">
-        <v>2.05</v>
-      </c>
-      <c r="V108">
-        <v>1.8</v>
-      </c>
       <c r="W108">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6811287</v>
+        <v>6811204</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,76 +10142,76 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K109">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L109">
         <v>3.4</v>
       </c>
       <c r="M109">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N109">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O109">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P109">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U109">
+        <v>2.05</v>
+      </c>
+      <c r="V109">
         <v>1.8</v>
       </c>
-      <c r="V109">
-        <v>2.05</v>
-      </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X109">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10231,10 +10231,10 @@
         <v>45136.64583333334</v>
       </c>
       <c r="F110" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s">
         <v>37</v>
-      </c>
-      <c r="G110" t="s">
-        <v>36</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6811207</v>
+        <v>6810295</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K114">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="L114">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M114">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="N114">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O114">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q114">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
+        <v>2.025</v>
+      </c>
+      <c r="S114">
         <v>1.825</v>
       </c>
-      <c r="S114">
-        <v>2.025</v>
-      </c>
       <c r="T114">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W114">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6810295</v>
+        <v>6811207</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45143.54166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K115">
-        <v>4.2</v>
+        <v>1.285</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M115">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="N115">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P115">
-        <v>2.05</v>
+        <v>7</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R115">
+        <v>1.825</v>
+      </c>
+      <c r="S115">
         <v>2.025</v>
       </c>
-      <c r="S115">
-        <v>1.825</v>
-      </c>
       <c r="T115">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X115">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10765,7 +10765,7 @@
         <v>45143.64583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6811288</v>
+        <v>6811209</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,13 +10943,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -10958,43 +10958,43 @@
         <v>44</v>
       </c>
       <c r="K118">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N118">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>1.875</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11003,16 +11003,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6811209</v>
+        <v>6811288</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,13 +11032,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -11047,43 +11047,43 @@
         <v>44</v>
       </c>
       <c r="K119">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11092,16 +11092,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6811210</v>
+        <v>6811211</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K120">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N120">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P120">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11198,7 +11198,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6811211</v>
+        <v>6811210</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11210,76 +11210,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>3</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K121">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N121">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W121">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB121">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11299,7 +11299,7 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>32</v>
@@ -11643,7 +11643,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6811213</v>
+        <v>6811747</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11655,76 +11655,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F126" t="s">
+        <v>41</v>
+      </c>
+      <c r="G126" t="s">
         <v>36</v>
       </c>
-      <c r="G126" t="s">
-        <v>32</v>
-      </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K126">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P126">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V126">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X126">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA126">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11732,7 +11732,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6811747</v>
+        <v>6811213</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11744,76 +11744,76 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K127">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="N127">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O127">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="Q127">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>1.85</v>
+      </c>
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
         <v>1.825</v>
       </c>
-      <c r="S127">
+      <c r="V127">
         <v>2.025</v>
       </c>
-      <c r="T127">
-        <v>3</v>
-      </c>
-      <c r="U127">
-        <v>1.875</v>
-      </c>
-      <c r="V127">
-        <v>1.975</v>
-      </c>
       <c r="W127">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6811216</v>
+        <v>6811217</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,55 +11833,55 @@
         <v>45165.47916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
       </c>
       <c r="K128">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N128">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>3</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11890,19 +11890,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811217</v>
+        <v>6811216</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,55 +11922,55 @@
         <v>45165.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L129">
+        <v>3.5</v>
+      </c>
+      <c r="M129">
+        <v>2.15</v>
+      </c>
+      <c r="N129">
         <v>3.75</v>
       </c>
-      <c r="M129">
-        <v>4</v>
-      </c>
-      <c r="N129">
-        <v>1.727</v>
-      </c>
       <c r="O129">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
         <v>3</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11979,19 +11979,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811219</v>
+        <v>6811218</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,10 +12011,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12026,43 +12026,43 @@
         <v>44</v>
       </c>
       <c r="K130">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
         <v>3</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12071,10 +12071,10 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811218</v>
+        <v>6811219</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,10 +12100,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12115,43 +12115,43 @@
         <v>44</v>
       </c>
       <c r="K131">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
         <v>3</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12160,10 +12160,10 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>0</v>
@@ -12278,7 +12278,7 @@
         <v>45172.38541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>35</v>
@@ -12355,7 +12355,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6811220</v>
+        <v>6811221</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12367,73 +12367,73 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K134">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="N134">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O134">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X134">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC134">
         <v>-1</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6811221</v>
+        <v>6811220</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,73 +12456,73 @@
         <v>45172.47916666666</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="N135">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6811223</v>
+        <v>6811222</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,40 +12545,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L136">
         <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N136">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R136">
         <v>1.95</v>
@@ -12590,31 +12590,31 @@
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6811222</v>
+        <v>6811223</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,40 +12634,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
         <v>3.6</v>
       </c>
       <c r="M137">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N137">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
         <v>1.95</v>
@@ -12679,31 +12679,31 @@
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X137">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6810298</v>
+        <v>6811225</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,58 +12901,58 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>44</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N140">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P140">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12961,16 +12961,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6811225</v>
+        <v>6810298</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,58 +12990,58 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>44</v>
       </c>
       <c r="K141">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>0.6499999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13050,16 +13050,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
         <v>30</v>
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6810299</v>
+        <v>6811227</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L143">
+        <v>3.75</v>
+      </c>
+      <c r="M143">
         <v>4</v>
       </c>
-      <c r="M143">
-        <v>4.75</v>
-      </c>
       <c r="N143">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X143">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6811227</v>
+        <v>6811228</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,10 +13257,10 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13272,43 +13272,43 @@
         <v>44</v>
       </c>
       <c r="K144">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N144">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O144">
         <v>3.6</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13317,16 +13317,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6811228</v>
+        <v>6810299</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,76 +13346,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K145">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N145">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P145">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T145">
         <v>3</v>
       </c>
       <c r="U145">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC145">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13613,7 +13613,7 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G148" t="s">
         <v>40</v>
@@ -13972,7 +13972,7 @@
         <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14147,7 +14147,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14417,7 +14417,7 @@
         <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6811236</v>
+        <v>6811237</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,58 +14503,58 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>3</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
       <c r="K158">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M158">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N158">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P158">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R158">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U158">
+        <v>2</v>
+      </c>
+      <c r="V158">
         <v>1.85</v>
       </c>
-      <c r="V158">
-        <v>2</v>
-      </c>
       <c r="W158">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14563,16 +14563,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6811237</v>
+        <v>6811236</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,58 +14592,58 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H159">
         <v>3</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>44</v>
       </c>
       <c r="K159">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L159">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O159">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P159">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q159">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>0.5</v>
+        <v>1.55</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14652,16 +14652,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6811238</v>
+        <v>6811239</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,55 +14681,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>42</v>
       </c>
       <c r="K160">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N160">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O160">
         <v>3.75</v>
       </c>
       <c r="P160">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14741,16 +14741,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB160">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14758,7 +14758,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6811239</v>
+        <v>6811238</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14770,55 +14770,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>42</v>
       </c>
       <c r="K161">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O161">
         <v>3.75</v>
       </c>
       <c r="P161">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14830,16 +14830,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA161">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6811241</v>
+        <v>6810771</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,10 +15037,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15052,43 +15052,43 @@
         <v>44</v>
       </c>
       <c r="K164">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N164">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P164">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15097,10 +15097,10 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
         <v>0</v>
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6810771</v>
+        <v>6811241</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,10 +15126,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15141,43 +15141,43 @@
         <v>44</v>
       </c>
       <c r="K165">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N165">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O165">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P165">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15186,10 +15186,10 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
         <v>39</v>
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6811242</v>
+        <v>6810303</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,76 +15571,76 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>3.75</v>
+      </c>
+      <c r="M170">
+        <v>3.3</v>
+      </c>
+      <c r="N170">
+        <v>1.85</v>
+      </c>
+      <c r="O170">
+        <v>3.8</v>
+      </c>
+      <c r="P170">
+        <v>3.8</v>
+      </c>
+      <c r="Q170">
+        <v>-0.5</v>
+      </c>
+      <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
+        <v>1.975</v>
+      </c>
+      <c r="T170">
         <v>3</v>
       </c>
-      <c r="L170">
-        <v>3.6</v>
-      </c>
-      <c r="M170">
-        <v>2.2</v>
-      </c>
-      <c r="N170">
-        <v>2.8</v>
-      </c>
-      <c r="O170">
-        <v>3.5</v>
-      </c>
-      <c r="P170">
-        <v>2.45</v>
-      </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>2.05</v>
-      </c>
-      <c r="S170">
-        <v>1.8</v>
-      </c>
-      <c r="T170">
-        <v>2.75</v>
-      </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X170">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6810303</v>
+        <v>6811242</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,76 +15660,76 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L171">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N171">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O171">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15927,10 +15927,10 @@
         <v>45234.6875</v>
       </c>
       <c r="F174" t="s">
+        <v>37</v>
+      </c>
+      <c r="G174" t="s">
         <v>36</v>
-      </c>
-      <c r="G174" t="s">
-        <v>37</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6811247</v>
+        <v>6810773</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,40 +16105,40 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H176">
         <v>2</v>
       </c>
       <c r="I176">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K176">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="L176">
         <v>4</v>
       </c>
       <c r="M176">
+        <v>3.8</v>
+      </c>
+      <c r="N176">
         <v>1.75</v>
       </c>
-      <c r="N176">
-        <v>3.8</v>
-      </c>
       <c r="O176">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
         <v>2.025</v>
@@ -16147,34 +16147,34 @@
         <v>1.825</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA176">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6810773</v>
+        <v>6811247</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,40 +16194,40 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H177">
         <v>2</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K177">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
+        <v>1.75</v>
+      </c>
+      <c r="N177">
         <v>3.8</v>
       </c>
-      <c r="N177">
-        <v>1.75</v>
-      </c>
       <c r="O177">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P177">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
         <v>2.025</v>
@@ -16236,34 +16236,34 @@
         <v>1.825</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z177">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB177">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6811251</v>
+        <v>6810774</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,73 +16283,73 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K178">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L178">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="N178">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O178">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P178">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6810774</v>
+        <v>6811251</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,73 +16372,73 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K179">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="L179">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M179">
+        <v>5.5</v>
+      </c>
+      <c r="N179">
+        <v>1.5</v>
+      </c>
+      <c r="O179">
+        <v>4.75</v>
+      </c>
+      <c r="P179">
+        <v>5.25</v>
+      </c>
+      <c r="Q179">
+        <v>-1</v>
+      </c>
+      <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
         <v>2.05</v>
       </c>
-      <c r="N179">
-        <v>3.6</v>
-      </c>
-      <c r="O179">
-        <v>3.8</v>
-      </c>
-      <c r="P179">
-        <v>1.95</v>
-      </c>
-      <c r="Q179">
+      <c r="T179">
+        <v>3.5</v>
+      </c>
+      <c r="U179">
+        <v>2</v>
+      </c>
+      <c r="V179">
+        <v>1.85</v>
+      </c>
+      <c r="W179">
         <v>0.5</v>
       </c>
-      <c r="R179">
-        <v>1.9</v>
-      </c>
-      <c r="S179">
-        <v>1.95</v>
-      </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
-      <c r="U179">
-        <v>1.975</v>
-      </c>
-      <c r="V179">
-        <v>1.875</v>
-      </c>
-      <c r="W179">
-        <v>-1</v>
-      </c>
       <c r="X179">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16639,7 +16639,7 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
         <v>34</v>
@@ -16731,7 +16731,7 @@
         <v>33</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16805,7 +16805,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6811256</v>
+        <v>6811255</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,10 +16817,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H184">
         <v>3</v>
@@ -16832,43 +16832,43 @@
         <v>44</v>
       </c>
       <c r="K184">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N184">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16877,13 +16877,13 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16894,7 +16894,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6811255</v>
+        <v>6811256</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16906,10 +16906,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>3</v>
@@ -16921,43 +16921,43 @@
         <v>44</v>
       </c>
       <c r="K185">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N185">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P185">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16966,13 +16966,13 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6810306</v>
+        <v>6811253</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,10 +17173,10 @@
         <v>45256.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17188,43 +17188,43 @@
         <v>44</v>
       </c>
       <c r="K188">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N188">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q188">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>0.55</v>
+        <v>2</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17233,7 +17233,7 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA188">
         <v>-1</v>
@@ -17242,7 +17242,7 @@
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6811253</v>
+        <v>6810306</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,10 +17262,10 @@
         <v>45256.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17277,43 +17277,43 @@
         <v>44</v>
       </c>
       <c r="K189">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L189">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P189">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
-        <v>2</v>
+        <v>0.55</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17322,7 +17322,7 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
         <v>-1</v>
@@ -17331,7 +17331,7 @@
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -18155,7 +18155,7 @@
         <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6810777</v>
+        <v>6811260</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18330,76 +18330,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K201">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L201">
         <v>3.6</v>
       </c>
       <c r="M201">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N201">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O201">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S201">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W201">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB201">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6811260</v>
+        <v>6810777</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18419,76 +18419,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K202">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L202">
         <v>3.6</v>
       </c>
       <c r="M202">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N202">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S202">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X202">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA202">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC202">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18511,7 +18511,7 @@
         <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18600,7 +18600,7 @@
         <v>32</v>
       </c>
       <c r="G204" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
         <v>33</v>
@@ -19297,7 +19297,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6811270</v>
+        <v>6811268</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19309,76 +19309,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K212">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M212">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O212">
         <v>4</v>
       </c>
       <c r="P212">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q212">
         <v>-0.75</v>
       </c>
       <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>2.025</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
         <v>1.975</v>
       </c>
-      <c r="S212">
+      <c r="V212">
         <v>1.875</v>
       </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.825</v>
-      </c>
-      <c r="V212">
-        <v>2.025</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC212">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19386,7 +19386,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6811268</v>
+        <v>6811270</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19398,76 +19398,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K213">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L213">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N213">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
         <v>4</v>
       </c>
       <c r="P213">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.975</v>
+      </c>
+      <c r="S213">
+        <v>1.875</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
         <v>1.825</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>2.025</v>
       </c>
-      <c r="T213">
-        <v>2.75</v>
-      </c>
-      <c r="U213">
-        <v>1.975</v>
-      </c>
-      <c r="V213">
-        <v>1.875</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y213">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
+        <v>0.875</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>1.025</v>
-      </c>
-      <c r="AB213">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>3</v>
@@ -19653,7 +19653,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6811275</v>
+        <v>6811746</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,76 +19665,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K216">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N216">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P216">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB216">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19742,7 +19742,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6811746</v>
+        <v>6811275</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19754,76 +19754,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G217" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217" t="s">
+        <v>43</v>
+      </c>
+      <c r="K217">
+        <v>2.7</v>
+      </c>
+      <c r="L217">
+        <v>3.4</v>
+      </c>
+      <c r="M217">
+        <v>2.5</v>
+      </c>
+      <c r="N217">
+        <v>2.7</v>
+      </c>
+      <c r="O217">
+        <v>3.4</v>
+      </c>
+      <c r="P217">
+        <v>2.55</v>
+      </c>
+      <c r="Q217">
         <v>0</v>
       </c>
-      <c r="J217" t="s">
-        <v>44</v>
-      </c>
-      <c r="K217">
-        <v>1.4</v>
-      </c>
-      <c r="L217">
-        <v>4.5</v>
-      </c>
-      <c r="M217">
-        <v>7.5</v>
-      </c>
-      <c r="N217">
-        <v>1.45</v>
-      </c>
-      <c r="O217">
-        <v>4.333</v>
-      </c>
-      <c r="P217">
-        <v>7.5</v>
-      </c>
-      <c r="Q217">
-        <v>-1.25</v>
-      </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W217">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC217">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20009,7 +20009,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6811273</v>
+        <v>6811272</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20021,10 +20021,10 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20036,43 +20036,43 @@
         <v>44</v>
       </c>
       <c r="K220">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L220">
+        <v>3.6</v>
+      </c>
+      <c r="M220">
+        <v>1.909</v>
+      </c>
+      <c r="N220">
         <v>3.5</v>
       </c>
-      <c r="M220">
-        <v>5</v>
-      </c>
-      <c r="N220">
-        <v>2.05</v>
-      </c>
       <c r="O220">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R220">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20081,16 +20081,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20098,7 +20098,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6811272</v>
+        <v>6811273</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20110,10 +20110,10 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20125,43 +20125,43 @@
         <v>44</v>
       </c>
       <c r="K221">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L221">
+        <v>3.5</v>
+      </c>
+      <c r="M221">
+        <v>5</v>
+      </c>
+      <c r="N221">
+        <v>2.05</v>
+      </c>
+      <c r="O221">
         <v>3.6</v>
       </c>
-      <c r="M221">
-        <v>1.909</v>
-      </c>
-      <c r="N221">
+      <c r="P221">
         <v>3.5</v>
       </c>
-      <c r="O221">
-        <v>3.8</v>
-      </c>
-      <c r="P221">
-        <v>1.95</v>
-      </c>
       <c r="Q221">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20170,16 +20170,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20365,7 +20365,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6811276</v>
+        <v>6810311</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20377,76 +20377,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
       <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224" t="s">
+        <v>43</v>
+      </c>
+      <c r="K224">
+        <v>1.909</v>
+      </c>
+      <c r="L224">
+        <v>3.8</v>
+      </c>
+      <c r="M224">
+        <v>3.6</v>
+      </c>
+      <c r="N224">
+        <v>2.5</v>
+      </c>
+      <c r="O224">
+        <v>3.4</v>
+      </c>
+      <c r="P224">
+        <v>2.75</v>
+      </c>
+      <c r="Q224">
         <v>0</v>
       </c>
-      <c r="J224" t="s">
-        <v>42</v>
-      </c>
-      <c r="K224">
-        <v>1.727</v>
-      </c>
-      <c r="L224">
-        <v>4</v>
-      </c>
-      <c r="M224">
-        <v>4.333</v>
-      </c>
-      <c r="N224">
-        <v>1.85</v>
-      </c>
-      <c r="O224">
-        <v>3.75</v>
-      </c>
-      <c r="P224">
-        <v>4</v>
-      </c>
-      <c r="Q224">
-        <v>-0.5</v>
-      </c>
       <c r="R224">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S224">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20466,7 +20466,7 @@
         <v>45322.6875</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G225" t="s">
         <v>40</v>
@@ -20543,7 +20543,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6810311</v>
+        <v>6811276</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,76 +20555,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K226">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L226">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M226">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N226">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O226">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P226">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T226">
         <v>2.75</v>
       </c>
       <c r="U226">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V226">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y226">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20721,7 +20721,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6811281</v>
+        <v>6811282</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20733,10 +20733,10 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20748,40 +20748,40 @@
         <v>43</v>
       </c>
       <c r="K228">
+        <v>2.9</v>
+      </c>
+      <c r="L228">
+        <v>3.8</v>
+      </c>
+      <c r="M228">
+        <v>2.2</v>
+      </c>
+      <c r="N228">
+        <v>2.875</v>
+      </c>
+      <c r="O228">
+        <v>3.5</v>
+      </c>
+      <c r="P228">
         <v>2.3</v>
       </c>
-      <c r="L228">
-        <v>3.9</v>
-      </c>
-      <c r="M228">
-        <v>2.7</v>
-      </c>
-      <c r="N228">
-        <v>2.375</v>
-      </c>
-      <c r="O228">
-        <v>3.8</v>
-      </c>
-      <c r="P228">
-        <v>2.75</v>
-      </c>
       <c r="Q228">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R228">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S228">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20790,19 +20790,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20810,7 +20810,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6811282</v>
+        <v>6811281</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20822,10 +20822,10 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20837,40 +20837,40 @@
         <v>43</v>
       </c>
       <c r="K229">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L229">
+        <v>3.9</v>
+      </c>
+      <c r="M229">
+        <v>2.7</v>
+      </c>
+      <c r="N229">
+        <v>2.375</v>
+      </c>
+      <c r="O229">
         <v>3.8</v>
       </c>
-      <c r="M229">
-        <v>2.2</v>
-      </c>
-      <c r="N229">
-        <v>2.875</v>
-      </c>
-      <c r="O229">
-        <v>3.5</v>
-      </c>
       <c r="P229">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q229">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S229">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
         <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20879,19 +20879,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H231">
         <v>3</v>
@@ -21089,7 +21089,7 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F232" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
         <v>39</v>
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7616922</v>
+        <v>7616923</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21264,49 +21264,49 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45332.58333333334</v>
+        <v>45333.42708333334</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K234">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L234">
         <v>3.6</v>
       </c>
       <c r="M234">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="N234">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P234">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q234">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S234">
+        <v>1.8</v>
+      </c>
+      <c r="T234">
+        <v>3</v>
+      </c>
+      <c r="U234">
+        <v>2</v>
+      </c>
+      <c r="V234">
         <v>1.85</v>
-      </c>
-      <c r="T234">
-        <v>2.75</v>
-      </c>
-      <c r="U234">
-        <v>1.975</v>
-      </c>
-      <c r="V234">
-        <v>1.875</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21329,7 +21329,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7616921</v>
+        <v>7616836</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21338,49 +21338,49 @@
         <v>28</v>
       </c>
       <c r="E235" s="2">
-        <v>45332.58333333334</v>
+        <v>45333.52083333334</v>
       </c>
       <c r="F235" t="s">
+        <v>41</v>
+      </c>
+      <c r="G235" t="s">
         <v>36</v>
       </c>
-      <c r="G235" t="s">
-        <v>30</v>
-      </c>
       <c r="K235">
+        <v>4.5</v>
+      </c>
+      <c r="L235">
+        <v>4.333</v>
+      </c>
+      <c r="M235">
         <v>1.615</v>
       </c>
-      <c r="L235">
-        <v>4</v>
-      </c>
-      <c r="M235">
+      <c r="N235">
         <v>5</v>
       </c>
-      <c r="N235">
-        <v>1.727</v>
-      </c>
       <c r="O235">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P235">
-        <v>5</v>
+        <v>1.65</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R235">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V235">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W235">
         <v>0</v>
@@ -21403,7 +21403,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7617018</v>
+        <v>7616924</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21412,34 +21412,34 @@
         <v>28</v>
       </c>
       <c r="E236" s="2">
-        <v>45332.6875</v>
+        <v>45333.52083333334</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K236">
+        <v>2.875</v>
+      </c>
+      <c r="L236">
+        <v>3.75</v>
+      </c>
+      <c r="M236">
+        <v>2.25</v>
+      </c>
+      <c r="N236">
         <v>2.55</v>
       </c>
-      <c r="L236">
-        <v>3.6</v>
-      </c>
-      <c r="M236">
-        <v>2.45</v>
-      </c>
-      <c r="N236">
-        <v>3</v>
-      </c>
       <c r="O236">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P236">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R236">
         <v>1.8</v>
@@ -21451,10 +21451,10 @@
         <v>2.75</v>
       </c>
       <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
         <v>1.85</v>
-      </c>
-      <c r="V236">
-        <v>2</v>
       </c>
       <c r="W236">
         <v>0</v>
@@ -21469,228 +21469,6 @@
         <v>0</v>
       </c>
       <c r="AA236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:29">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237">
-        <v>7616923</v>
-      </c>
-      <c r="C237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D237" t="s">
-        <v>28</v>
-      </c>
-      <c r="E237" s="2">
-        <v>45333.42708333334</v>
-      </c>
-      <c r="F237" t="s">
-        <v>38</v>
-      </c>
-      <c r="G237" t="s">
-        <v>29</v>
-      </c>
-      <c r="K237">
-        <v>2.625</v>
-      </c>
-      <c r="L237">
-        <v>3.6</v>
-      </c>
-      <c r="M237">
-        <v>2.45</v>
-      </c>
-      <c r="N237">
-        <v>2.75</v>
-      </c>
-      <c r="O237">
-        <v>3.5</v>
-      </c>
-      <c r="P237">
-        <v>2.5</v>
-      </c>
-      <c r="Q237">
-        <v>0</v>
-      </c>
-      <c r="R237">
-        <v>2</v>
-      </c>
-      <c r="S237">
-        <v>1.85</v>
-      </c>
-      <c r="T237">
-        <v>3</v>
-      </c>
-      <c r="U237">
-        <v>2.05</v>
-      </c>
-      <c r="V237">
-        <v>1.8</v>
-      </c>
-      <c r="W237">
-        <v>0</v>
-      </c>
-      <c r="X237">
-        <v>0</v>
-      </c>
-      <c r="Y237">
-        <v>0</v>
-      </c>
-      <c r="Z237">
-        <v>0</v>
-      </c>
-      <c r="AA237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:29">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238">
-        <v>7616924</v>
-      </c>
-      <c r="C238" t="s">
-        <v>28</v>
-      </c>
-      <c r="D238" t="s">
-        <v>28</v>
-      </c>
-      <c r="E238" s="2">
-        <v>45333.52083333334</v>
-      </c>
-      <c r="F238" t="s">
-        <v>34</v>
-      </c>
-      <c r="G238" t="s">
-        <v>32</v>
-      </c>
-      <c r="K238">
-        <v>2.875</v>
-      </c>
-      <c r="L238">
-        <v>3.75</v>
-      </c>
-      <c r="M238">
-        <v>2.25</v>
-      </c>
-      <c r="N238">
-        <v>2.8</v>
-      </c>
-      <c r="O238">
-        <v>3.6</v>
-      </c>
-      <c r="P238">
-        <v>2.4</v>
-      </c>
-      <c r="Q238">
-        <v>0</v>
-      </c>
-      <c r="R238">
-        <v>2.05</v>
-      </c>
-      <c r="S238">
-        <v>1.8</v>
-      </c>
-      <c r="T238">
-        <v>2.75</v>
-      </c>
-      <c r="U238">
-        <v>1.85</v>
-      </c>
-      <c r="V238">
-        <v>2</v>
-      </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <v>0</v>
-      </c>
-      <c r="Y238">
-        <v>0</v>
-      </c>
-      <c r="Z238">
-        <v>0</v>
-      </c>
-      <c r="AA238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:29">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>7616836</v>
-      </c>
-      <c r="C239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D239" t="s">
-        <v>28</v>
-      </c>
-      <c r="E239" s="2">
-        <v>45333.52083333334</v>
-      </c>
-      <c r="F239" t="s">
-        <v>41</v>
-      </c>
-      <c r="G239" t="s">
-        <v>37</v>
-      </c>
-      <c r="K239">
-        <v>4.5</v>
-      </c>
-      <c r="L239">
-        <v>4.333</v>
-      </c>
-      <c r="M239">
-        <v>1.615</v>
-      </c>
-      <c r="N239">
-        <v>5</v>
-      </c>
-      <c r="O239">
-        <v>4.2</v>
-      </c>
-      <c r="P239">
-        <v>1.65</v>
-      </c>
-      <c r="Q239">
-        <v>0.75</v>
-      </c>
-      <c r="R239">
-        <v>2.025</v>
-      </c>
-      <c r="S239">
-        <v>1.825</v>
-      </c>
-      <c r="T239">
-        <v>2.75</v>
-      </c>
-      <c r="U239">
-        <v>1.8</v>
-      </c>
-      <c r="V239">
-        <v>2.05</v>
-      </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-      <c r="X239">
-        <v>0</v>
-      </c>
-      <c r="Y239">
-        <v>0</v>
-      </c>
-      <c r="Z239">
-        <v>0</v>
-      </c>
-      <c r="AA239">
         <v>0</v>
       </c>
     </row>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5172797</v>
+        <v>5172796</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,73 +2666,73 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
+        <v>1.85</v>
+      </c>
+      <c r="L25">
         <v>3.6</v>
       </c>
-      <c r="L25">
-        <v>3.5</v>
-      </c>
       <c r="M25">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N25">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
+        <v>4.333</v>
+      </c>
+      <c r="Q25">
+        <v>-0.5</v>
+      </c>
+      <c r="R25">
         <v>1.85</v>
       </c>
-      <c r="Q25">
-        <v>0.5</v>
-      </c>
-      <c r="R25">
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>2.75</v>
+      </c>
+      <c r="U25">
         <v>1.975</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>1.875</v>
       </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.85</v>
-      </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
         <v>-1</v>
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5172796</v>
+        <v>5172797</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,73 +2755,73 @@
         <v>44976.52083333334</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
+        <v>3.6</v>
+      </c>
+      <c r="L26">
+        <v>3.5</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>4.2</v>
+      </c>
+      <c r="O26">
+        <v>3.5</v>
+      </c>
+      <c r="P26">
         <v>1.85</v>
       </c>
-      <c r="L26">
-        <v>3.6</v>
-      </c>
-      <c r="M26">
-        <v>4.2</v>
-      </c>
-      <c r="N26">
-        <v>1.833</v>
-      </c>
-      <c r="O26">
-        <v>3.6</v>
-      </c>
-      <c r="P26">
-        <v>4.333</v>
-      </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.875</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
         <v>1.85</v>
       </c>
-      <c r="S26">
-        <v>2</v>
-      </c>
-      <c r="T26">
-        <v>2.75</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5172799</v>
+        <v>5173741</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N30">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
+        <v>5.25</v>
+      </c>
+      <c r="Q30">
+        <v>-0.75</v>
+      </c>
+      <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
+        <v>1.95</v>
+      </c>
+      <c r="T30">
         <v>2.5</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.825</v>
-      </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5173741</v>
+        <v>5172799</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,76 +3200,76 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>42</v>
       </c>
       <c r="K31">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L31">
+        <v>3.4</v>
+      </c>
+      <c r="M31">
+        <v>2.55</v>
+      </c>
+      <c r="N31">
+        <v>2.7</v>
+      </c>
+      <c r="O31">
         <v>3.5</v>
       </c>
-      <c r="M31">
-        <v>4.5</v>
-      </c>
-      <c r="N31">
-        <v>1.7</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.925</v>
+      </c>
+      <c r="V31">
+        <v>1.925</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
         <v>2.5</v>
       </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
-      <c r="V31">
-        <v>1.85</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>2.6</v>
-      </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5172805</v>
+        <v>5173739</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K40">
+        <v>2.05</v>
+      </c>
+      <c r="L40">
+        <v>3.4</v>
+      </c>
+      <c r="M40">
+        <v>3.2</v>
+      </c>
+      <c r="N40">
+        <v>2.1</v>
+      </c>
+      <c r="O40">
+        <v>3.4</v>
+      </c>
+      <c r="P40">
+        <v>3.5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.25</v>
+      </c>
+      <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
+        <v>2.05</v>
+      </c>
+      <c r="T40">
+        <v>2.5</v>
+      </c>
+      <c r="U40">
+        <v>1.9</v>
+      </c>
+      <c r="V40">
         <v>1.95</v>
       </c>
-      <c r="L40">
-        <v>3.5</v>
-      </c>
-      <c r="M40">
-        <v>3.3</v>
-      </c>
-      <c r="N40">
-        <v>1.85</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>4</v>
-      </c>
-      <c r="Q40">
-        <v>-0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.825</v>
-      </c>
-      <c r="S40">
-        <v>2.025</v>
-      </c>
-      <c r="T40">
-        <v>3.25</v>
-      </c>
-      <c r="U40">
-        <v>2.025</v>
-      </c>
-      <c r="V40">
-        <v>1.825</v>
-      </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5173739</v>
+        <v>5172805</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5172819</v>
+        <v>5172818</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,49 +5781,49 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="L60">
         <v>3.5</v>
       </c>
       <c r="M60">
+        <v>2.2</v>
+      </c>
+      <c r="N60">
+        <v>4.2</v>
+      </c>
+      <c r="O60">
         <v>3.8</v>
       </c>
-      <c r="N60">
-        <v>1.909</v>
-      </c>
-      <c r="O60">
-        <v>3.75</v>
-      </c>
       <c r="P60">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
         <v>1.875</v>
@@ -5835,22 +5835,22 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y60">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5172818</v>
+        <v>5172819</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,49 +5870,49 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L61">
         <v>3.5</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N61">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O61">
+        <v>3.75</v>
+      </c>
+      <c r="P61">
         <v>3.8</v>
       </c>
-      <c r="P61">
-        <v>1.8</v>
-      </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
         <v>1.875</v>
@@ -5924,22 +5924,22 @@
         <v>-1</v>
       </c>
       <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
         <v>2.8</v>
       </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5172824</v>
+        <v>5172826</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,76 +6493,76 @@
         <v>45042.64583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N68">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q68">
         <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5172826</v>
+        <v>5172824</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,76 +6582,76 @@
         <v>45042.64583333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
+        <v>2.875</v>
+      </c>
+      <c r="N69">
+        <v>2.05</v>
+      </c>
+      <c r="O69">
         <v>3.6</v>
       </c>
-      <c r="N69">
-        <v>1.909</v>
-      </c>
-      <c r="O69">
-        <v>3.8</v>
-      </c>
       <c r="P69">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
         <v>-0.5</v>
       </c>
       <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>1.8</v>
+      </c>
+      <c r="T69">
+        <v>2.5</v>
+      </c>
+      <c r="U69">
         <v>1.9</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.95</v>
       </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.975</v>
-      </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5356263</v>
+        <v>5310236</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,73 +7116,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L75">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N75">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5310236</v>
+        <v>5356263</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,73 +7205,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M76">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O76">
+        <v>4.5</v>
+      </c>
+      <c r="P76">
+        <v>4.333</v>
+      </c>
+      <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.8</v>
+      </c>
+      <c r="S76">
+        <v>2.05</v>
+      </c>
+      <c r="T76">
         <v>3.5</v>
       </c>
-      <c r="P76">
-        <v>2.2</v>
-      </c>
-      <c r="Q76">
-        <v>0.25</v>
-      </c>
-      <c r="R76">
-        <v>1.875</v>
-      </c>
-      <c r="S76">
-        <v>1.975</v>
-      </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5471184</v>
+        <v>5466932</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1.85</v>
+      </c>
+      <c r="T90">
+        <v>2.75</v>
+      </c>
+      <c r="U90">
+        <v>1.95</v>
+      </c>
+      <c r="V90">
         <v>1.9</v>
       </c>
-      <c r="S90">
-        <v>1.95</v>
-      </c>
-      <c r="T90">
-        <v>3</v>
-      </c>
-      <c r="U90">
-        <v>2.025</v>
-      </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>0.475</v>
+      </c>
+      <c r="AC90">
         <v>-0.5</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5466932</v>
+        <v>5471184</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,76 +8540,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N91">
+        <v>3.1</v>
+      </c>
+      <c r="O91">
+        <v>3.5</v>
+      </c>
+      <c r="P91">
+        <v>2.25</v>
+      </c>
+      <c r="Q91">
+        <v>0.25</v>
+      </c>
+      <c r="R91">
+        <v>1.9</v>
+      </c>
+      <c r="S91">
         <v>1.95</v>
       </c>
-      <c r="O91">
-        <v>3.75</v>
-      </c>
-      <c r="P91">
-        <v>3.6</v>
-      </c>
-      <c r="Q91">
+      <c r="T91">
+        <v>3</v>
+      </c>
+      <c r="U91">
+        <v>2.025</v>
+      </c>
+      <c r="V91">
+        <v>1.825</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>2.5</v>
+      </c>
+      <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
+        <v>0.45</v>
+      </c>
+      <c r="AA91">
         <v>-0.5</v>
       </c>
-      <c r="R91">
-        <v>2</v>
-      </c>
-      <c r="S91">
-        <v>1.85</v>
-      </c>
-      <c r="T91">
-        <v>2.75</v>
-      </c>
-      <c r="U91">
-        <v>1.95</v>
-      </c>
-      <c r="V91">
-        <v>1.9</v>
-      </c>
-      <c r="W91">
-        <v>0.95</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>-1</v>
-      </c>
-      <c r="Z91">
-        <v>1</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5505757</v>
+        <v>5498510</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,49 +8629,49 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L92">
         <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N92">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P92">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U92">
         <v>1.875</v>
@@ -8683,22 +8683,22 @@
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y92">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5505837</v>
+        <v>5495233</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,76 +8718,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="N93">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="O93">
         <v>4</v>
       </c>
       <c r="P93">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U93">
+        <v>1.825</v>
+      </c>
+      <c r="V93">
         <v>2.025</v>
       </c>
-      <c r="V93">
-        <v>1.825</v>
-      </c>
       <c r="W93">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5498510</v>
+        <v>5505837</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,76 +8807,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K94">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L94">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
+        <v>1.95</v>
+      </c>
+      <c r="N94">
         <v>2.55</v>
       </c>
-      <c r="N94">
-        <v>3.4</v>
-      </c>
       <c r="O94">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P94">
+        <v>2.45</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94">
         <v>1.85</v>
       </c>
-      <c r="Q94">
-        <v>0.5</v>
-      </c>
-      <c r="R94">
-        <v>1.975</v>
-      </c>
-      <c r="S94">
-        <v>1.875</v>
-      </c>
       <c r="T94">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X94">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5495233</v>
+        <v>5505757</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,76 +8896,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5574694</v>
+        <v>5578547</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,55 +9074,55 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>43</v>
       </c>
       <c r="K97">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M97">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="N97">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P97">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
         <v>-1</v>
@@ -9131,19 +9131,19 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5578546</v>
+        <v>5574693</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,58 +9163,58 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>44</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98">
+        <v>4.333</v>
+      </c>
+      <c r="N98">
+        <v>1.444</v>
+      </c>
+      <c r="O98">
+        <v>5.25</v>
+      </c>
+      <c r="P98">
+        <v>6</v>
+      </c>
+      <c r="Q98">
+        <v>-1.25</v>
+      </c>
+      <c r="R98">
+        <v>1.875</v>
+      </c>
+      <c r="S98">
+        <v>1.975</v>
+      </c>
+      <c r="T98">
         <v>3.75</v>
       </c>
-      <c r="M98">
-        <v>4.2</v>
-      </c>
-      <c r="N98">
-        <v>1.666</v>
-      </c>
-      <c r="O98">
-        <v>4.5</v>
-      </c>
-      <c r="P98">
-        <v>4.333</v>
-      </c>
-      <c r="Q98">
-        <v>-0.75</v>
-      </c>
-      <c r="R98">
-        <v>1.825</v>
-      </c>
-      <c r="S98">
-        <v>2.025</v>
-      </c>
-      <c r="T98">
-        <v>3.25</v>
-      </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>0.6659999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9223,16 +9223,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5578547</v>
+        <v>5578548</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L99">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N99">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P99">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5578548</v>
+        <v>5574694</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,49 +9341,49 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="Q100">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
         <v>1.925</v>
@@ -9392,25 +9392,25 @@
         <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB100">
         <v>0.925</v>
       </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5574693</v>
+        <v>5578546</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,58 +9430,58 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>44</v>
       </c>
       <c r="K101">
+        <v>1.75</v>
+      </c>
+      <c r="L101">
+        <v>3.75</v>
+      </c>
+      <c r="M101">
+        <v>4.2</v>
+      </c>
+      <c r="N101">
         <v>1.666</v>
       </c>
-      <c r="L101">
-        <v>4</v>
-      </c>
-      <c r="M101">
+      <c r="O101">
+        <v>4.5</v>
+      </c>
+      <c r="P101">
         <v>4.333</v>
       </c>
-      <c r="N101">
-        <v>1.444</v>
-      </c>
-      <c r="O101">
-        <v>5.25</v>
-      </c>
-      <c r="P101">
-        <v>6</v>
-      </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>0.444</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9490,16 +9490,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6811200</v>
+        <v>6810293</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,76 +9519,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L102">
+        <v>3.4</v>
+      </c>
+      <c r="M102">
+        <v>1.95</v>
+      </c>
+      <c r="N102">
         <v>3.5</v>
       </c>
-      <c r="M102">
-        <v>3</v>
-      </c>
-      <c r="N102">
-        <v>1.8</v>
-      </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
+        <v>1.825</v>
+      </c>
+      <c r="S102">
         <v>2.025</v>
       </c>
-      <c r="S102">
-        <v>1.825</v>
-      </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z102">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6810293</v>
+        <v>6811200</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>44</v>
+      </c>
+      <c r="K103">
+        <v>2.1</v>
+      </c>
+      <c r="L103">
+        <v>3.5</v>
+      </c>
+      <c r="M103">
         <v>3</v>
       </c>
-      <c r="J103" t="s">
-        <v>43</v>
-      </c>
-      <c r="K103">
-        <v>3.4</v>
-      </c>
-      <c r="L103">
-        <v>3.4</v>
-      </c>
-      <c r="M103">
-        <v>1.95</v>
-      </c>
       <c r="N103">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
+        <v>2.025</v>
+      </c>
+      <c r="S103">
         <v>1.825</v>
       </c>
-      <c r="S103">
-        <v>2.025</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6811202</v>
+        <v>6810762</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,34 +9786,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>44</v>
       </c>
       <c r="K105">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="L105">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N105">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O105">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P105">
         <v>7</v>
@@ -9822,22 +9822,22 @@
         <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W105">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9846,16 +9846,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA105">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6810762</v>
+        <v>6811202</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,34 +9875,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
       </c>
       <c r="K106">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M106">
+        <v>7.5</v>
+      </c>
+      <c r="N106">
+        <v>1.4</v>
+      </c>
+      <c r="O106">
         <v>5.25</v>
-      </c>
-      <c r="N106">
-        <v>1.45</v>
-      </c>
-      <c r="O106">
-        <v>4.5</v>
       </c>
       <c r="P106">
         <v>7</v>
@@ -9911,22 +9911,22 @@
         <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
+        <v>3.25</v>
+      </c>
+      <c r="U106">
+        <v>2</v>
+      </c>
+      <c r="V106">
         <v>1.85</v>
       </c>
-      <c r="T106">
-        <v>2.75</v>
-      </c>
-      <c r="U106">
-        <v>1.8</v>
-      </c>
-      <c r="V106">
-        <v>2.05</v>
-      </c>
       <c r="W106">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9935,16 +9935,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6811287</v>
+        <v>6811204</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,76 +10053,76 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="L108">
         <v>3.4</v>
       </c>
       <c r="M108">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N108">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O108">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P108">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U108">
+        <v>2.05</v>
+      </c>
+      <c r="V108">
         <v>1.8</v>
       </c>
-      <c r="V108">
-        <v>2.05</v>
-      </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X108">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6811204</v>
+        <v>6811287</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,76 +10142,76 @@
         <v>45136.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K109">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L109">
         <v>3.4</v>
       </c>
       <c r="M109">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N109">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O109">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
+        <v>4.75</v>
+      </c>
+      <c r="Q109">
+        <v>-0.75</v>
+      </c>
+      <c r="R109">
+        <v>1.875</v>
+      </c>
+      <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
         <v>2.75</v>
       </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
+      <c r="U109">
         <v>1.8</v>
       </c>
-      <c r="S109">
+      <c r="V109">
         <v>2.05</v>
       </c>
-      <c r="T109">
-        <v>3.25</v>
-      </c>
-      <c r="U109">
-        <v>2.05</v>
-      </c>
-      <c r="V109">
-        <v>1.8</v>
-      </c>
       <c r="W109">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6810763</v>
+        <v>6811206</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,49 +10409,49 @@
         <v>45137.47916666666</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K112">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L112">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M112">
-        <v>1.444</v>
+        <v>5.25</v>
       </c>
       <c r="N112">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="O112">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q112">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
         <v>1.85</v>
@@ -10460,16 +10460,16 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X112">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6811206</v>
+        <v>6810763</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,49 +10498,49 @@
         <v>45137.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113" t="s">
+        <v>42</v>
+      </c>
+      <c r="K113">
+        <v>5.75</v>
+      </c>
+      <c r="L113">
         <v>5</v>
       </c>
-      <c r="I113">
-        <v>2</v>
-      </c>
-      <c r="J113" t="s">
-        <v>44</v>
-      </c>
-      <c r="K113">
-        <v>1.615</v>
-      </c>
-      <c r="L113">
-        <v>3.8</v>
-      </c>
       <c r="M113">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="N113">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P113">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U113">
         <v>1.85</v>
@@ -10549,16 +10549,16 @@
         <v>2</v>
       </c>
       <c r="W113">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6811288</v>
+        <v>6811209</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,13 +10943,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -10958,43 +10958,43 @@
         <v>44</v>
       </c>
       <c r="K118">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="L118">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N118">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>1.875</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11003,16 +11003,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6811209</v>
+        <v>6811288</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,13 +11032,13 @@
         <v>45144.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -11047,43 +11047,43 @@
         <v>44</v>
       </c>
       <c r="K119">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W119">
-        <v>0.7270000000000001</v>
+        <v>1.875</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11092,16 +11092,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6810765</v>
+        <v>6811212</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45151.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K124">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W124">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6811212</v>
+        <v>6810765</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45151.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M125">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
+        <v>1.444</v>
+      </c>
+      <c r="O125">
+        <v>5</v>
+      </c>
+      <c r="P125">
+        <v>6.5</v>
+      </c>
+      <c r="Q125">
+        <v>-1.25</v>
+      </c>
+      <c r="R125">
+        <v>1.9</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="O125">
-        <v>3.3</v>
-      </c>
-      <c r="P125">
-        <v>2.375</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>1.8</v>
-      </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X125">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811219</v>
+        <v>6811218</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,10 +12011,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12026,43 +12026,43 @@
         <v>44</v>
       </c>
       <c r="K130">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
         <v>3</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12071,10 +12071,10 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811218</v>
+        <v>6811219</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,10 +12100,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12115,43 +12115,43 @@
         <v>44</v>
       </c>
       <c r="K131">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
         <v>3</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12160,10 +12160,10 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6811223</v>
+        <v>6811222</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,40 +12545,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L136">
         <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N136">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R136">
         <v>1.95</v>
@@ -12590,31 +12590,31 @@
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6811222</v>
+        <v>6811223</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,40 +12634,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
         <v>3.6</v>
       </c>
       <c r="M137">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N137">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
         <v>1.95</v>
@@ -12679,31 +12679,31 @@
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X137">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6810298</v>
+        <v>6811225</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,58 +12901,58 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>44</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N140">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P140">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12961,16 +12961,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6811225</v>
+        <v>6810298</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,58 +12990,58 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>44</v>
       </c>
       <c r="K141">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>0.6499999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13050,16 +13050,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6811232</v>
+        <v>6811233</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,76 +13969,76 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J152" t="s">
         <v>43</v>
       </c>
       <c r="K152">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L152">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="N152">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O152">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P152">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T152">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
+        <v>1.9</v>
+      </c>
+      <c r="V152">
+        <v>1.95</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
         <v>1.875</v>
       </c>
-      <c r="V152">
-        <v>1.975</v>
-      </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>3.333</v>
-      </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC152">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6811233</v>
+        <v>6811232</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,55 +14058,55 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
         <v>43</v>
       </c>
       <c r="K153">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M153">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="N153">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -14115,19 +14115,19 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>1.875</v>
+        <v>3.333</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB153">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14135,7 +14135,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6810770</v>
+        <v>6811234</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14147,76 +14147,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>44</v>
+      </c>
+      <c r="K154">
+        <v>1.571</v>
+      </c>
+      <c r="L154">
+        <v>4.333</v>
+      </c>
+      <c r="M154">
+        <v>4.75</v>
+      </c>
+      <c r="N154">
+        <v>1.615</v>
+      </c>
+      <c r="O154">
+        <v>4.2</v>
+      </c>
+      <c r="P154">
+        <v>5.25</v>
+      </c>
+      <c r="Q154">
+        <v>-1</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
+        <v>1.8</v>
+      </c>
+      <c r="T154">
+        <v>3</v>
+      </c>
+      <c r="U154">
+        <v>1.925</v>
+      </c>
+      <c r="V154">
+        <v>1.925</v>
+      </c>
+      <c r="W154">
+        <v>0.615</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>3</v>
-      </c>
-      <c r="J154" t="s">
-        <v>43</v>
-      </c>
-      <c r="K154">
-        <v>2.55</v>
-      </c>
-      <c r="L154">
-        <v>3.4</v>
-      </c>
-      <c r="M154">
-        <v>2.55</v>
-      </c>
-      <c r="N154">
-        <v>2.5</v>
-      </c>
-      <c r="O154">
-        <v>3.5</v>
-      </c>
-      <c r="P154">
-        <v>2.75</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
-        <v>1.875</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>2.75</v>
-      </c>
-      <c r="U154">
-        <v>1.875</v>
-      </c>
-      <c r="V154">
-        <v>1.975</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>1.75</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
-      </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB154">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6811234</v>
+        <v>6810770</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,76 +14236,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
         <v>3</v>
       </c>
-      <c r="I155">
-        <v>2</v>
-      </c>
       <c r="J155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K155">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L155">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N155">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O155">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P155">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6810303</v>
+        <v>6811242</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,76 +15571,76 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L170">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M170">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N170">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O170">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P170">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q170">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R170">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T170">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB170">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6811242</v>
+        <v>6810303</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,76 +15660,76 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>3.75</v>
+      </c>
+      <c r="M171">
+        <v>3.3</v>
+      </c>
+      <c r="N171">
+        <v>1.85</v>
+      </c>
+      <c r="O171">
+        <v>3.8</v>
+      </c>
+      <c r="P171">
+        <v>3.8</v>
+      </c>
+      <c r="Q171">
+        <v>-0.5</v>
+      </c>
+      <c r="R171">
+        <v>1.875</v>
+      </c>
+      <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
         <v>3</v>
       </c>
-      <c r="L171">
-        <v>3.6</v>
-      </c>
-      <c r="M171">
-        <v>2.2</v>
-      </c>
-      <c r="N171">
-        <v>2.8</v>
-      </c>
-      <c r="O171">
-        <v>3.5</v>
-      </c>
-      <c r="P171">
-        <v>2.45</v>
-      </c>
-      <c r="Q171">
-        <v>0</v>
-      </c>
-      <c r="R171">
-        <v>2.05</v>
-      </c>
-      <c r="S171">
-        <v>1.8</v>
-      </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X171">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA171">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6810773</v>
+        <v>6811247</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,40 +16105,40 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H176">
         <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K176">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="L176">
         <v>4</v>
       </c>
       <c r="M176">
+        <v>1.75</v>
+      </c>
+      <c r="N176">
         <v>3.8</v>
       </c>
-      <c r="N176">
-        <v>1.75</v>
-      </c>
       <c r="O176">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R176">
         <v>2.025</v>
@@ -16147,34 +16147,34 @@
         <v>1.825</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z176">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB176">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6811247</v>
+        <v>6810773</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,40 +16194,40 @@
         <v>45235.52083333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H177">
         <v>2</v>
       </c>
       <c r="I177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K177">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="L177">
         <v>4</v>
       </c>
       <c r="M177">
+        <v>3.8</v>
+      </c>
+      <c r="N177">
         <v>1.75</v>
       </c>
-      <c r="N177">
-        <v>3.8</v>
-      </c>
       <c r="O177">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="Q177">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
         <v>2.025</v>
@@ -16236,34 +16236,34 @@
         <v>1.825</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA177">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6810305</v>
+        <v>6811250</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,73 +16639,73 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K182">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="L182">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="N182">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="O182">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P182">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R182">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S182">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T182">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W182">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z182">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB182">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -16716,7 +16716,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6811250</v>
+        <v>6810305</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16728,73 +16728,73 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>44</v>
+      </c>
+      <c r="K183">
+        <v>1.65</v>
+      </c>
+      <c r="L183">
+        <v>4.2</v>
+      </c>
+      <c r="M183">
+        <v>4.5</v>
+      </c>
+      <c r="N183">
+        <v>1.6</v>
+      </c>
+      <c r="O183">
+        <v>4.333</v>
+      </c>
+      <c r="P183">
+        <v>5</v>
+      </c>
+      <c r="Q183">
+        <v>-1</v>
+      </c>
+      <c r="R183">
+        <v>2.025</v>
+      </c>
+      <c r="S183">
+        <v>1.825</v>
+      </c>
+      <c r="T183">
         <v>3</v>
       </c>
-      <c r="J183" t="s">
-        <v>43</v>
-      </c>
-      <c r="K183">
-        <v>2.3</v>
-      </c>
-      <c r="L183">
-        <v>3.5</v>
-      </c>
-      <c r="M183">
-        <v>2.9</v>
-      </c>
-      <c r="N183">
-        <v>2.875</v>
-      </c>
-      <c r="O183">
-        <v>3.4</v>
-      </c>
-      <c r="P183">
-        <v>2.45</v>
-      </c>
-      <c r="Q183">
-        <v>0</v>
-      </c>
-      <c r="R183">
-        <v>2.05</v>
-      </c>
-      <c r="S183">
-        <v>1.8</v>
-      </c>
-      <c r="T183">
-        <v>2.5</v>
-      </c>
       <c r="U183">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V183">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA183">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC183">
         <v>-1</v>
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7107309</v>
+        <v>7505765</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,76 +17796,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L195">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O195">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P195">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S195">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
+        <v>1.85</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
         <v>3</v>
       </c>
-      <c r="U195">
-        <v>1.825</v>
-      </c>
-      <c r="V195">
-        <v>2.025</v>
-      </c>
-      <c r="W195">
-        <v>0.5</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
-      <c r="Y195">
-        <v>-1</v>
-      </c>
       <c r="Z195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC195">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7505765</v>
+        <v>7107309</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,76 +17885,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>44</v>
+      </c>
+      <c r="K196">
+        <v>1.363</v>
+      </c>
+      <c r="L196">
+        <v>5.5</v>
+      </c>
+      <c r="M196">
+        <v>6.5</v>
+      </c>
+      <c r="N196">
+        <v>1.5</v>
+      </c>
+      <c r="O196">
+        <v>4.75</v>
+      </c>
+      <c r="P196">
+        <v>5.5</v>
+      </c>
+      <c r="Q196">
+        <v>-1</v>
+      </c>
+      <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2.05</v>
+      </c>
+      <c r="T196">
         <v>3</v>
       </c>
-      <c r="J196" t="s">
-        <v>43</v>
-      </c>
-      <c r="K196">
-        <v>1.95</v>
-      </c>
-      <c r="L196">
-        <v>3.75</v>
-      </c>
-      <c r="M196">
-        <v>3.5</v>
-      </c>
-      <c r="N196">
-        <v>1.85</v>
-      </c>
-      <c r="O196">
-        <v>3.75</v>
-      </c>
-      <c r="P196">
-        <v>4</v>
-      </c>
-      <c r="Q196">
-        <v>-0.5</v>
-      </c>
-      <c r="R196">
-        <v>1.875</v>
-      </c>
-      <c r="S196">
-        <v>1.975</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
       <c r="U196">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6811260</v>
+        <v>6810777</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18330,76 +18330,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K201">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L201">
         <v>3.6</v>
       </c>
       <c r="M201">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="N201">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P201">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X201">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6810777</v>
+        <v>6811260</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18419,76 +18419,76 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K202">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L202">
         <v>3.6</v>
       </c>
       <c r="M202">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="N202">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O202">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q202">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S202">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -19297,7 +19297,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6811268</v>
+        <v>6811270</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19309,76 +19309,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K212">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L212">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N212">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O212">
         <v>4</v>
       </c>
       <c r="P212">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q212">
         <v>-0.75</v>
       </c>
       <c r="R212">
+        <v>1.975</v>
+      </c>
+      <c r="S212">
+        <v>1.875</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
         <v>1.825</v>
       </c>
-      <c r="S212">
+      <c r="V212">
         <v>2.025</v>
       </c>
-      <c r="T212">
-        <v>2.75</v>
-      </c>
-      <c r="U212">
-        <v>1.975</v>
-      </c>
-      <c r="V212">
-        <v>1.875</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y212">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
+        <v>0.875</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>1.025</v>
-      </c>
-      <c r="AB212">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19386,7 +19386,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6811270</v>
+        <v>6811268</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19398,76 +19398,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K213">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M213">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O213">
         <v>4</v>
       </c>
       <c r="P213">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
+        <v>2.025</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
         <v>1.975</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.875</v>
       </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>1.825</v>
-      </c>
-      <c r="V213">
-        <v>2.025</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19653,7 +19653,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6811275</v>
+        <v>6811746</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,76 +19665,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K216">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L216">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N216">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P216">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA216">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB216">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19742,7 +19742,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6811746</v>
+        <v>6811275</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19754,76 +19754,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G217" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
+        <v>3</v>
+      </c>
+      <c r="J217" t="s">
+        <v>43</v>
+      </c>
+      <c r="K217">
+        <v>2.7</v>
+      </c>
+      <c r="L217">
+        <v>3.4</v>
+      </c>
+      <c r="M217">
+        <v>2.5</v>
+      </c>
+      <c r="N217">
+        <v>2.7</v>
+      </c>
+      <c r="O217">
+        <v>3.4</v>
+      </c>
+      <c r="P217">
+        <v>2.55</v>
+      </c>
+      <c r="Q217">
         <v>0</v>
       </c>
-      <c r="J217" t="s">
-        <v>44</v>
-      </c>
-      <c r="K217">
-        <v>1.4</v>
-      </c>
-      <c r="L217">
-        <v>4.5</v>
-      </c>
-      <c r="M217">
-        <v>7.5</v>
-      </c>
-      <c r="N217">
-        <v>1.45</v>
-      </c>
-      <c r="O217">
-        <v>4.333</v>
-      </c>
-      <c r="P217">
-        <v>7.5</v>
-      </c>
-      <c r="Q217">
-        <v>-1.25</v>
-      </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W217">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC217">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20187,7 +20187,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6810780</v>
+        <v>6811278</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20199,73 +20199,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G222" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H222">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K222">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L222">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N222">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O222">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P222">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q222">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S222">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T222">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
+        <v>1.825</v>
+      </c>
+      <c r="V222">
         <v>2.025</v>
       </c>
-      <c r="V222">
-        <v>1.825</v>
-      </c>
       <c r="W222">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB222">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20276,7 +20276,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6811278</v>
+        <v>6810780</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20288,73 +20288,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F223" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K223">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L223">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M223">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="N223">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O223">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P223">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R223">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U223">
+        <v>2.025</v>
+      </c>
+      <c r="V223">
         <v>1.825</v>
       </c>
-      <c r="V223">
-        <v>2.025</v>
-      </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20721,7 +20721,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6811282</v>
+        <v>6811281</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20733,10 +20733,10 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20748,40 +20748,40 @@
         <v>43</v>
       </c>
       <c r="K228">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L228">
+        <v>3.9</v>
+      </c>
+      <c r="M228">
+        <v>2.7</v>
+      </c>
+      <c r="N228">
+        <v>2.375</v>
+      </c>
+      <c r="O228">
         <v>3.8</v>
       </c>
-      <c r="M228">
-        <v>2.2</v>
-      </c>
-      <c r="N228">
-        <v>2.875</v>
-      </c>
-      <c r="O228">
-        <v>3.5</v>
-      </c>
       <c r="P228">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T228">
         <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20790,19 +20790,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20810,7 +20810,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6811281</v>
+        <v>6811282</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20822,10 +20822,10 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20837,40 +20837,40 @@
         <v>43</v>
       </c>
       <c r="K229">
+        <v>2.9</v>
+      </c>
+      <c r="L229">
+        <v>3.8</v>
+      </c>
+      <c r="M229">
+        <v>2.2</v>
+      </c>
+      <c r="N229">
+        <v>2.875</v>
+      </c>
+      <c r="O229">
+        <v>3.5</v>
+      </c>
+      <c r="P229">
         <v>2.3</v>
       </c>
-      <c r="L229">
-        <v>3.9</v>
-      </c>
-      <c r="M229">
-        <v>2.7</v>
-      </c>
-      <c r="N229">
-        <v>2.375</v>
-      </c>
-      <c r="O229">
-        <v>3.8</v>
-      </c>
-      <c r="P229">
-        <v>2.75</v>
-      </c>
       <c r="Q229">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R229">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S229">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T229">
         <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20879,19 +20879,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6810312</v>
+        <v>6811283</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,58 +21089,58 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F232" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
         <v>44</v>
       </c>
       <c r="K232">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L232">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M232">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N232">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="O232">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P232">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="Q232">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T232">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U232">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W232">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21149,16 +21149,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6811283</v>
+        <v>6810312</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,58 +21178,58 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
         <v>44</v>
       </c>
       <c r="K233">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L233">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M233">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N233">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="O233">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P233">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R233">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21238,16 +21238,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC233">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21611,7 +21611,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7616836</v>
+        <v>7616924</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21623,58 +21623,58 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F238" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
         <v>44</v>
       </c>
       <c r="K238">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L238">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M238">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N238">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O238">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P238">
+        <v>3.1</v>
+      </c>
+      <c r="Q238">
+        <v>-0.25</v>
+      </c>
+      <c r="R238">
+        <v>2</v>
+      </c>
+      <c r="S238">
         <v>1.85</v>
       </c>
-      <c r="Q238">
-        <v>0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.95</v>
-      </c>
-      <c r="S238">
-        <v>1.9</v>
-      </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21683,16 +21683,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21700,7 +21700,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7616924</v>
+        <v>7616836</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21712,58 +21712,58 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
         <v>44</v>
       </c>
       <c r="K239">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="L239">
+        <v>4.333</v>
+      </c>
+      <c r="M239">
+        <v>1.615</v>
+      </c>
+      <c r="N239">
+        <v>4</v>
+      </c>
+      <c r="O239">
         <v>3.75</v>
       </c>
-      <c r="M239">
-        <v>2.25</v>
-      </c>
-      <c r="N239">
-        <v>2.3</v>
-      </c>
-      <c r="O239">
-        <v>3.5</v>
-      </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
+        <v>1.9</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
         <v>1.85</v>
       </c>
-      <c r="T239">
-        <v>2.75</v>
-      </c>
-      <c r="U239">
-        <v>2.025</v>
-      </c>
       <c r="V239">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W239">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21772,16 +21772,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21789,7 +21789,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7616929</v>
+        <v>7616880</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21801,46 +21801,46 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G240" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K240">
+        <v>1.571</v>
+      </c>
+      <c r="L240">
+        <v>4.2</v>
+      </c>
+      <c r="M240">
+        <v>5.25</v>
+      </c>
+      <c r="N240">
         <v>1.727</v>
       </c>
-      <c r="L240">
-        <v>3.6</v>
-      </c>
-      <c r="M240">
-        <v>4.75</v>
-      </c>
-      <c r="N240">
-        <v>1.65</v>
-      </c>
       <c r="O240">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q240">
         <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S240">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T240">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V240">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21863,7 +21863,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7616880</v>
+        <v>7616929</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21875,46 +21875,46 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K241">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L241">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M241">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N241">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O241">
         <v>4</v>
       </c>
       <c r="P241">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q241">
         <v>-0.75</v>
       </c>
       <c r="R241">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T241">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U241">
+        <v>1.975</v>
+      </c>
+      <c r="V241">
         <v>1.875</v>
-      </c>
-      <c r="V241">
-        <v>1.975</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21964,31 +21964,31 @@
         <v>2.7</v>
       </c>
       <c r="N242">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O242">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P242">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q242">
         <v>0</v>
       </c>
       <c r="R242">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S242">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U242">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V242">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -22041,28 +22041,28 @@
         <v>1.363</v>
       </c>
       <c r="O243">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P243">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q243">
         <v>-1.5</v>
       </c>
       <c r="R243">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S243">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T243">
         <v>3.25</v>
       </c>
       <c r="U243">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V243">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22085,7 +22085,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7616824</v>
+        <v>7616883</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22097,46 +22097,46 @@
         <v>45340.52083333334</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G244" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K244">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M244">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="N244">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O244">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S244">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V244">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22159,7 +22159,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7616883</v>
+        <v>7616824</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22171,46 +22171,46 @@
         <v>45340.52083333334</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G245" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K245">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M245">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N245">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P245">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S245">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
+        <v>1.95</v>
+      </c>
+      <c r="V245">
         <v>1.9</v>
-      </c>
-      <c r="V245">
-        <v>1.95</v>
       </c>
       <c r="W245">
         <v>0</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5172813</v>
+        <v>5171755</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5171755</v>
+        <v>5172813</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,76 +4980,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L51">
+        <v>3.5</v>
+      </c>
+      <c r="M51">
+        <v>2.9</v>
+      </c>
+      <c r="N51">
+        <v>2.2</v>
+      </c>
+      <c r="O51">
         <v>3.6</v>
       </c>
-      <c r="M51">
-        <v>3.75</v>
-      </c>
-      <c r="N51">
-        <v>1.5</v>
-      </c>
-      <c r="O51">
-        <v>4.75</v>
-      </c>
       <c r="P51">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y51">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5360796</v>
+        <v>6580419</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,76 +6849,76 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P72">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q72">
+        <v>-0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.825</v>
+      </c>
+      <c r="S72">
+        <v>2.025</v>
+      </c>
+      <c r="T72">
+        <v>3.25</v>
+      </c>
+      <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
+        <v>1.9</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>2.8</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>-0.5</v>
       </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>2.75</v>
-      </c>
-      <c r="U72">
-        <v>1.85</v>
-      </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
-      <c r="W72">
-        <v>0.909</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
-      <c r="Z72">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6580419</v>
+        <v>5360796</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,76 +6938,76 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X73">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5495233</v>
+        <v>5505757</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,76 +8718,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N93">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V93">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5505837</v>
+        <v>5495233</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,76 +8807,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K94">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="L94">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="N94">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="O94">
         <v>4</v>
       </c>
       <c r="P94">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U94">
+        <v>1.825</v>
+      </c>
+      <c r="V94">
         <v>2.025</v>
       </c>
-      <c r="V94">
-        <v>1.825</v>
-      </c>
       <c r="W94">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5505757</v>
+        <v>5505837</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,76 +8896,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K95">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N95">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P95">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
         <v>1.85</v>
       </c>
-      <c r="S95">
-        <v>2</v>
-      </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5578547</v>
+        <v>5574693</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,40 +9074,40 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K97">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L97">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N97">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O97">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P97">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R97">
         <v>1.875</v>
@@ -9116,34 +9116,34 @@
         <v>1.975</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC97">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5574693</v>
+        <v>5578547</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,40 +9163,40 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N98">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O98">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
         <v>1.875</v>
@@ -9205,34 +9205,34 @@
         <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5578548</v>
+        <v>5574694</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,49 +9252,49 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="N99">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="Q99">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
         <v>1.925</v>
@@ -9303,25 +9303,25 @@
         <v>1.925</v>
       </c>
       <c r="W99">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB99">
         <v>0.925</v>
       </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5574694</v>
+        <v>5578548</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,49 +9341,49 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K100">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P100">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U100">
         <v>1.925</v>
@@ -9392,25 +9392,25 @@
         <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.925</v>
-      </c>
-      <c r="AC100">
-        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6811212</v>
+        <v>6810765</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45151.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M124">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
+        <v>1.444</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>6.5</v>
+      </c>
+      <c r="Q124">
+        <v>-1.25</v>
+      </c>
+      <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
         <v>3</v>
       </c>
-      <c r="O124">
-        <v>3.3</v>
-      </c>
-      <c r="P124">
-        <v>2.375</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6810765</v>
+        <v>6811212</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45151.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K125">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="L125">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811218</v>
+        <v>6811219</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,10 +12011,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12026,43 +12026,43 @@
         <v>44</v>
       </c>
       <c r="K130">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
         <v>3</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12071,10 +12071,10 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811219</v>
+        <v>6811218</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,10 +12100,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12115,43 +12115,43 @@
         <v>44</v>
       </c>
       <c r="K131">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M131">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N131">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P131">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>3</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12160,10 +12160,10 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
         <v>0</v>
@@ -14135,7 +14135,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6811234</v>
+        <v>6810770</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14147,76 +14147,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
         <v>3</v>
       </c>
-      <c r="I154">
-        <v>2</v>
-      </c>
       <c r="J154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K154">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L154">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M154">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N154">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O154">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P154">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V154">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6810770</v>
+        <v>6811234</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,76 +14236,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155" t="s">
+        <v>44</v>
+      </c>
+      <c r="K155">
+        <v>1.571</v>
+      </c>
+      <c r="L155">
+        <v>4.333</v>
+      </c>
+      <c r="M155">
+        <v>4.75</v>
+      </c>
+      <c r="N155">
+        <v>1.615</v>
+      </c>
+      <c r="O155">
+        <v>4.2</v>
+      </c>
+      <c r="P155">
+        <v>5.25</v>
+      </c>
+      <c r="Q155">
+        <v>-1</v>
+      </c>
+      <c r="R155">
+        <v>2.05</v>
+      </c>
+      <c r="S155">
+        <v>1.8</v>
+      </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
+      <c r="U155">
+        <v>1.925</v>
+      </c>
+      <c r="V155">
+        <v>1.925</v>
+      </c>
+      <c r="W155">
+        <v>0.615</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
         <v>0</v>
       </c>
-      <c r="I155">
-        <v>3</v>
-      </c>
-      <c r="J155" t="s">
-        <v>43</v>
-      </c>
-      <c r="K155">
-        <v>2.55</v>
-      </c>
-      <c r="L155">
-        <v>3.4</v>
-      </c>
-      <c r="M155">
-        <v>2.55</v>
-      </c>
-      <c r="N155">
-        <v>2.5</v>
-      </c>
-      <c r="O155">
-        <v>3.5</v>
-      </c>
-      <c r="P155">
-        <v>2.75</v>
-      </c>
-      <c r="Q155">
-        <v>0</v>
-      </c>
-      <c r="R155">
-        <v>1.875</v>
-      </c>
-      <c r="S155">
-        <v>1.975</v>
-      </c>
-      <c r="T155">
-        <v>2.75</v>
-      </c>
-      <c r="U155">
-        <v>1.875</v>
-      </c>
-      <c r="V155">
-        <v>1.975</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>1.75</v>
-      </c>
-      <c r="Z155">
-        <v>-1</v>
-      </c>
       <c r="AA155">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB155">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6810771</v>
+        <v>6811241</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,10 +15037,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15052,43 +15052,43 @@
         <v>44</v>
       </c>
       <c r="K164">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N164">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O164">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15097,10 +15097,10 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
         <v>0</v>
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6811241</v>
+        <v>6810771</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,10 +15126,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15141,43 +15141,43 @@
         <v>44</v>
       </c>
       <c r="K165">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N165">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P165">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W165">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15186,10 +15186,10 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
         <v>0</v>
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6811242</v>
+        <v>6810303</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,76 +15571,76 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>3.75</v>
+      </c>
+      <c r="M170">
+        <v>3.3</v>
+      </c>
+      <c r="N170">
+        <v>1.85</v>
+      </c>
+      <c r="O170">
+        <v>3.8</v>
+      </c>
+      <c r="P170">
+        <v>3.8</v>
+      </c>
+      <c r="Q170">
+        <v>-0.5</v>
+      </c>
+      <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
+        <v>1.975</v>
+      </c>
+      <c r="T170">
         <v>3</v>
       </c>
-      <c r="L170">
-        <v>3.6</v>
-      </c>
-      <c r="M170">
-        <v>2.2</v>
-      </c>
-      <c r="N170">
-        <v>2.8</v>
-      </c>
-      <c r="O170">
-        <v>3.5</v>
-      </c>
-      <c r="P170">
-        <v>2.45</v>
-      </c>
-      <c r="Q170">
-        <v>0</v>
-      </c>
-      <c r="R170">
-        <v>2.05</v>
-      </c>
-      <c r="S170">
-        <v>1.8</v>
-      </c>
-      <c r="T170">
-        <v>2.75</v>
-      </c>
       <c r="U170">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X170">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA170">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6810303</v>
+        <v>6811242</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,76 +15660,76 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L171">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="N171">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O171">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S171">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16805,7 +16805,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6811256</v>
+        <v>6811255</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,10 +16817,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H184">
         <v>3</v>
@@ -16832,43 +16832,43 @@
         <v>44</v>
       </c>
       <c r="K184">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N184">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16877,13 +16877,13 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16894,7 +16894,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6811255</v>
+        <v>6811256</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16906,10 +16906,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>3</v>
@@ -16921,43 +16921,43 @@
         <v>44</v>
       </c>
       <c r="K185">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N185">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P185">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16966,13 +16966,13 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7505765</v>
+        <v>7107309</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,76 +17796,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>44</v>
+      </c>
+      <c r="K195">
+        <v>1.363</v>
+      </c>
+      <c r="L195">
+        <v>5.5</v>
+      </c>
+      <c r="M195">
+        <v>6.5</v>
+      </c>
+      <c r="N195">
+        <v>1.5</v>
+      </c>
+      <c r="O195">
+        <v>4.75</v>
+      </c>
+      <c r="P195">
+        <v>5.5</v>
+      </c>
+      <c r="Q195">
+        <v>-1</v>
+      </c>
+      <c r="R195">
+        <v>1.8</v>
+      </c>
+      <c r="S195">
+        <v>2.05</v>
+      </c>
+      <c r="T195">
         <v>3</v>
       </c>
-      <c r="J195" t="s">
-        <v>43</v>
-      </c>
-      <c r="K195">
-        <v>1.95</v>
-      </c>
-      <c r="L195">
-        <v>3.75</v>
-      </c>
-      <c r="M195">
-        <v>3.5</v>
-      </c>
-      <c r="N195">
-        <v>1.85</v>
-      </c>
-      <c r="O195">
-        <v>3.75</v>
-      </c>
-      <c r="P195">
-        <v>4</v>
-      </c>
-      <c r="Q195">
-        <v>-0.5</v>
-      </c>
-      <c r="R195">
-        <v>1.875</v>
-      </c>
-      <c r="S195">
-        <v>1.975</v>
-      </c>
-      <c r="T195">
-        <v>2.75</v>
-      </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA195">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB195">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7107309</v>
+        <v>7505765</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,76 +17885,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K196">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L196">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O196">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P196">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S196">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
+        <v>1.85</v>
+      </c>
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
         <v>3</v>
       </c>
-      <c r="U196">
-        <v>1.825</v>
-      </c>
-      <c r="V196">
-        <v>2.025</v>
-      </c>
-      <c r="W196">
-        <v>0.5</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
       <c r="Z196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC196">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17962,7 +17962,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6811292</v>
+        <v>6811262</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17974,49 +17974,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H197">
+        <v>3</v>
+      </c>
+      <c r="I197">
         <v>0</v>
       </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K197">
         <v>2</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M197">
+        <v>3.3</v>
+      </c>
+      <c r="N197">
+        <v>2.3</v>
+      </c>
+      <c r="O197">
+        <v>4</v>
+      </c>
+      <c r="P197">
+        <v>2.8</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>2.025</v>
+      </c>
+      <c r="S197">
+        <v>1.775</v>
+      </c>
+      <c r="T197">
         <v>3.5</v>
-      </c>
-      <c r="N197">
-        <v>1.833</v>
-      </c>
-      <c r="O197">
-        <v>3.8</v>
-      </c>
-      <c r="P197">
-        <v>4.2</v>
-      </c>
-      <c r="Q197">
-        <v>-0.5</v>
-      </c>
-      <c r="R197">
-        <v>1.825</v>
-      </c>
-      <c r="S197">
-        <v>2.025</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
       </c>
       <c r="U197">
         <v>1.975</v>
@@ -18025,19 +18025,19 @@
         <v>1.875</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA197">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6811262</v>
+        <v>6811292</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,49 +18063,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K198">
         <v>2</v>
       </c>
       <c r="L198">
+        <v>3.6</v>
+      </c>
+      <c r="M198">
+        <v>3.5</v>
+      </c>
+      <c r="N198">
+        <v>1.833</v>
+      </c>
+      <c r="O198">
         <v>3.8</v>
       </c>
-      <c r="M198">
-        <v>3.3</v>
-      </c>
-      <c r="N198">
-        <v>2.3</v>
-      </c>
-      <c r="O198">
-        <v>4</v>
-      </c>
       <c r="P198">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
+        <v>1.825</v>
+      </c>
+      <c r="S198">
         <v>2.025</v>
       </c>
-      <c r="S198">
-        <v>1.775</v>
-      </c>
       <c r="T198">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
         <v>1.975</v>
@@ -18114,19 +18114,19 @@
         <v>1.875</v>
       </c>
       <c r="W198">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
         <v>1.025</v>
-      </c>
-      <c r="AA198">
-        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
@@ -19475,7 +19475,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6810779</v>
+        <v>6810310</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19487,76 +19487,76 @@
         <v>45314.625</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K214">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L214">
         <v>3.6</v>
       </c>
       <c r="M214">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N214">
         <v>3.2</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q214">
         <v>0.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W214">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19564,7 +19564,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6810310</v>
+        <v>6810779</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19576,76 +19576,76 @@
         <v>45314.625</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K215">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="L215">
         <v>3.6</v>
       </c>
       <c r="M215">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
         <v>3.2</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P215">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q215">
         <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X215">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>0.4</v>
+      </c>
+      <c r="AC215">
         <v>-0.5</v>
-      </c>
-      <c r="AB215">
-        <v>0.875</v>
-      </c>
-      <c r="AC215">
-        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20365,7 +20365,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6811279</v>
+        <v>6811276</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20377,61 +20377,61 @@
         <v>45322.6875</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>42</v>
       </c>
       <c r="K224">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L224">
         <v>4</v>
       </c>
       <c r="M224">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N224">
         <v>1.85</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P224">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q224">
         <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y224">
         <v>-1</v>
@@ -20440,13 +20440,13 @@
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB224">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20454,7 +20454,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6810311</v>
+        <v>6811279</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20466,76 +20466,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225">
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K225">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L225">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M225">
+        <v>4.75</v>
+      </c>
+      <c r="N225">
+        <v>1.85</v>
+      </c>
+      <c r="O225">
         <v>3.6</v>
       </c>
-      <c r="N225">
-        <v>2.5</v>
-      </c>
-      <c r="O225">
-        <v>3.4</v>
-      </c>
       <c r="P225">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S225">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20543,7 +20543,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6811276</v>
+        <v>6810311</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,76 +20555,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226" t="s">
+        <v>43</v>
+      </c>
+      <c r="K226">
+        <v>1.909</v>
+      </c>
+      <c r="L226">
+        <v>3.8</v>
+      </c>
+      <c r="M226">
+        <v>3.6</v>
+      </c>
+      <c r="N226">
+        <v>2.5</v>
+      </c>
+      <c r="O226">
+        <v>3.4</v>
+      </c>
+      <c r="P226">
+        <v>2.75</v>
+      </c>
+      <c r="Q226">
         <v>0</v>
       </c>
-      <c r="J226" t="s">
-        <v>42</v>
-      </c>
-      <c r="K226">
-        <v>1.727</v>
-      </c>
-      <c r="L226">
-        <v>4</v>
-      </c>
-      <c r="M226">
-        <v>4.333</v>
-      </c>
-      <c r="N226">
-        <v>1.85</v>
-      </c>
-      <c r="O226">
-        <v>3.75</v>
-      </c>
-      <c r="P226">
-        <v>4</v>
-      </c>
-      <c r="Q226">
-        <v>-0.5</v>
-      </c>
       <c r="R226">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S226">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T226">
         <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21837,10 +21837,10 @@
         <v>3</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V240">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21890,16 +21890,16 @@
         <v>4.75</v>
       </c>
       <c r="N241">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O241">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P241">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q241">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
         <v>1.8</v>
@@ -21911,10 +21911,10 @@
         <v>2.75</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V241">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21964,10 +21964,10 @@
         <v>2.7</v>
       </c>
       <c r="N242">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="O242">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P242">
         <v>2.625</v>
@@ -21976,19 +21976,19 @@
         <v>0</v>
       </c>
       <c r="R242">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S242">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T242">
         <v>2.25</v>
       </c>
       <c r="U242">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V242">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W242">
         <v>0</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC245"/>
+  <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5171755</v>
+        <v>5172813</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L50">
+        <v>3.5</v>
+      </c>
+      <c r="M50">
+        <v>2.9</v>
+      </c>
+      <c r="N50">
+        <v>2.2</v>
+      </c>
+      <c r="O50">
         <v>3.6</v>
       </c>
-      <c r="M50">
-        <v>3.75</v>
-      </c>
-      <c r="N50">
-        <v>1.5</v>
-      </c>
-      <c r="O50">
-        <v>4.75</v>
-      </c>
       <c r="P50">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y50">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5172813</v>
+        <v>5171755</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,76 +4980,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N51">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6580419</v>
+        <v>5360796</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,76 +6849,76 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N72">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O72">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X72">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5360796</v>
+        <v>6580419</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,76 +6938,76 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
+        <v>2.025</v>
+      </c>
+      <c r="T73">
+        <v>3.25</v>
+      </c>
+      <c r="U73">
+        <v>1.95</v>
+      </c>
+      <c r="V73">
+        <v>1.9</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>2.8</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>-0.5</v>
       </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
-      <c r="U73">
-        <v>1.85</v>
-      </c>
-      <c r="V73">
-        <v>2</v>
-      </c>
-      <c r="W73">
-        <v>0.909</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5505757</v>
+        <v>5505837</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,76 +8718,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K93">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N93">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="O93">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
         <v>1.85</v>
       </c>
-      <c r="S93">
-        <v>2</v>
-      </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5495233</v>
+        <v>5505757</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,76 +8807,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M94">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N94">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O94">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P94">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5505837</v>
+        <v>5498511</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,76 +8896,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K95">
+        <v>3.2</v>
+      </c>
+      <c r="L95">
         <v>3.5</v>
       </c>
-      <c r="L95">
+      <c r="M95">
+        <v>2.15</v>
+      </c>
+      <c r="N95">
         <v>3.75</v>
       </c>
-      <c r="M95">
+      <c r="O95">
+        <v>3.75</v>
+      </c>
+      <c r="P95">
         <v>1.95</v>
       </c>
-      <c r="N95">
-        <v>2.55</v>
-      </c>
-      <c r="O95">
-        <v>4</v>
-      </c>
-      <c r="P95">
-        <v>2.45</v>
-      </c>
       <c r="Q95">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>3.25</v>
       </c>
       <c r="U95">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5498511</v>
+        <v>5495233</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,76 +8985,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O96">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC96">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5574693</v>
+        <v>5578547</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,40 +9074,40 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K97">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M97">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N97">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O97">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P97">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q97">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
         <v>1.875</v>
@@ -9116,34 +9116,34 @@
         <v>1.975</v>
       </c>
       <c r="T97">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5578547</v>
+        <v>5574693</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,40 +9163,40 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="L98">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="P98">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R98">
         <v>1.875</v>
@@ -9205,34 +9205,34 @@
         <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5574694</v>
+        <v>5578548</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,49 +9252,49 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M99">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="N99">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P99">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R99">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U99">
         <v>1.925</v>
@@ -9303,25 +9303,25 @@
         <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.925</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5578548</v>
+        <v>5574694</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,49 +9341,49 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="N100">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O100">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="Q100">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
         <v>1.925</v>
@@ -9392,25 +9392,25 @@
         <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB100">
         <v>0.925</v>
       </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
       <c r="AC100">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6810293</v>
+        <v>6811200</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,76 +9519,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>44</v>
+      </c>
+      <c r="K102">
+        <v>2.1</v>
+      </c>
+      <c r="L102">
+        <v>3.5</v>
+      </c>
+      <c r="M102">
         <v>3</v>
       </c>
-      <c r="J102" t="s">
-        <v>43</v>
-      </c>
-      <c r="K102">
-        <v>3.4</v>
-      </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>1.95</v>
-      </c>
       <c r="N102">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O102">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
+        <v>2.025</v>
+      </c>
+      <c r="S102">
         <v>1.825</v>
       </c>
-      <c r="S102">
-        <v>2.025</v>
-      </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6811200</v>
+        <v>6810293</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L103">
+        <v>3.4</v>
+      </c>
+      <c r="M103">
+        <v>1.95</v>
+      </c>
+      <c r="N103">
         <v>3.5</v>
       </c>
-      <c r="M103">
-        <v>3</v>
-      </c>
-      <c r="N103">
-        <v>1.8</v>
-      </c>
       <c r="O103">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
+        <v>1.825</v>
+      </c>
+      <c r="S103">
         <v>2.025</v>
       </c>
-      <c r="S103">
-        <v>1.825</v>
-      </c>
       <c r="T103">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z103">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6810765</v>
+        <v>6811212</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45151.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K124">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="L124">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N124">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W124">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6811212</v>
+        <v>6810765</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45151.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M125">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N125">
+        <v>1.444</v>
+      </c>
+      <c r="O125">
+        <v>5</v>
+      </c>
+      <c r="P125">
+        <v>6.5</v>
+      </c>
+      <c r="Q125">
+        <v>-1.25</v>
+      </c>
+      <c r="R125">
+        <v>1.9</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
         <v>3</v>
       </c>
-      <c r="O125">
-        <v>3.3</v>
-      </c>
-      <c r="P125">
-        <v>2.375</v>
-      </c>
-      <c r="Q125">
-        <v>0.25</v>
-      </c>
-      <c r="R125">
-        <v>1.8</v>
-      </c>
-      <c r="S125">
-        <v>2.05</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X125">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811219</v>
+        <v>6811218</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,10 +12011,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12026,43 +12026,43 @@
         <v>44</v>
       </c>
       <c r="K130">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
         <v>3</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12071,10 +12071,10 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811218</v>
+        <v>6811219</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,10 +12100,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12115,43 +12115,43 @@
         <v>44</v>
       </c>
       <c r="K131">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="L131">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
         <v>3</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12160,10 +12160,10 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6811222</v>
+        <v>6811223</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,40 +12545,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
         <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N136">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
         <v>1.95</v>
@@ -12590,31 +12590,31 @@
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X136">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC136">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6811223</v>
+        <v>6811222</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,40 +12634,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L137">
         <v>3.6</v>
       </c>
       <c r="M137">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N137">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R137">
         <v>1.95</v>
@@ -12679,31 +12679,31 @@
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6811229</v>
+        <v>6810768</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,10 +13435,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13450,61 +13450,61 @@
         <v>42</v>
       </c>
       <c r="K146">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>2.15</v>
+      </c>
+      <c r="O146">
+        <v>3.75</v>
+      </c>
+      <c r="P146">
+        <v>3.1</v>
+      </c>
+      <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
+        <v>1.95</v>
+      </c>
+      <c r="T146">
         <v>2.75</v>
       </c>
-      <c r="N146">
-        <v>2.55</v>
-      </c>
-      <c r="O146">
-        <v>3.6</v>
-      </c>
-      <c r="P146">
-        <v>2.55</v>
-      </c>
-      <c r="Q146">
-        <v>0</v>
-      </c>
-      <c r="R146">
-        <v>1.925</v>
-      </c>
-      <c r="S146">
-        <v>1.925</v>
-      </c>
-      <c r="T146">
-        <v>3</v>
-      </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6810768</v>
+        <v>6811229</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,10 +13524,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13539,61 +13539,61 @@
         <v>42</v>
       </c>
       <c r="K147">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N147">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P147">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R147">
+        <v>1.925</v>
+      </c>
+      <c r="S147">
+        <v>1.925</v>
+      </c>
+      <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
         <v>1.9</v>
       </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>2.75</v>
-      </c>
-      <c r="U147">
-        <v>1.85</v>
-      </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14135,7 +14135,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6810770</v>
+        <v>6811234</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14147,76 +14147,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>44</v>
+      </c>
+      <c r="K154">
+        <v>1.571</v>
+      </c>
+      <c r="L154">
+        <v>4.333</v>
+      </c>
+      <c r="M154">
+        <v>4.75</v>
+      </c>
+      <c r="N154">
+        <v>1.615</v>
+      </c>
+      <c r="O154">
+        <v>4.2</v>
+      </c>
+      <c r="P154">
+        <v>5.25</v>
+      </c>
+      <c r="Q154">
+        <v>-1</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
+        <v>1.8</v>
+      </c>
+      <c r="T154">
+        <v>3</v>
+      </c>
+      <c r="U154">
+        <v>1.925</v>
+      </c>
+      <c r="V154">
+        <v>1.925</v>
+      </c>
+      <c r="W154">
+        <v>0.615</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>3</v>
-      </c>
-      <c r="J154" t="s">
-        <v>43</v>
-      </c>
-      <c r="K154">
-        <v>2.55</v>
-      </c>
-      <c r="L154">
-        <v>3.4</v>
-      </c>
-      <c r="M154">
-        <v>2.55</v>
-      </c>
-      <c r="N154">
-        <v>2.5</v>
-      </c>
-      <c r="O154">
-        <v>3.5</v>
-      </c>
-      <c r="P154">
-        <v>2.75</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
-        <v>1.875</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>2.75</v>
-      </c>
-      <c r="U154">
-        <v>1.875</v>
-      </c>
-      <c r="V154">
-        <v>1.975</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>1.75</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
-      </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB154">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6811234</v>
+        <v>6810770</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,76 +14236,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
         <v>3</v>
       </c>
-      <c r="I155">
-        <v>2</v>
-      </c>
       <c r="J155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K155">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L155">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N155">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O155">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P155">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6811241</v>
+        <v>6810771</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,10 +15037,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15052,43 +15052,43 @@
         <v>44</v>
       </c>
       <c r="K164">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M164">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N164">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O164">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P164">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15097,10 +15097,10 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
         <v>0</v>
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6810771</v>
+        <v>6811241</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,10 +15126,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15141,43 +15141,43 @@
         <v>44</v>
       </c>
       <c r="K165">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L165">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N165">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O165">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P165">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W165">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15186,10 +15186,10 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>0</v>
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7616921</v>
+        <v>7616922</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,67 +21267,67 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K234">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N234">
+        <v>4.333</v>
+      </c>
+      <c r="O234">
+        <v>3.6</v>
+      </c>
+      <c r="P234">
         <v>1.85</v>
       </c>
-      <c r="O234">
-        <v>3.4</v>
-      </c>
-      <c r="P234">
-        <v>4.5</v>
-      </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R234">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA234">
         <v>-1</v>
@@ -21336,7 +21336,7 @@
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7616922</v>
+        <v>7616921</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,67 +21356,67 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K235">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L235">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M235">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N235">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q235">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U235">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V235">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X235">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA235">
         <v>-1</v>
@@ -21425,7 +21425,7 @@
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21789,7 +21789,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7616880</v>
+        <v>7616882</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21798,49 +21798,49 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45339.58333333334</v>
+        <v>45340.42708333334</v>
       </c>
       <c r="F240" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K240">
-        <v>1.571</v>
+        <v>1.363</v>
       </c>
       <c r="L240">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M240">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="N240">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O240">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P240">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q240">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R240">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S240">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U240">
+        <v>2.025</v>
+      </c>
+      <c r="V240">
         <v>1.825</v>
-      </c>
-      <c r="V240">
-        <v>2.025</v>
       </c>
       <c r="W240">
         <v>0</v>
@@ -21863,7 +21863,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7616929</v>
+        <v>7616824</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21872,49 +21872,49 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45339.58333333334</v>
+        <v>45340.52083333334</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K241">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L241">
+        <v>4</v>
+      </c>
+      <c r="M241">
+        <v>3.8</v>
+      </c>
+      <c r="N241">
+        <v>2</v>
+      </c>
+      <c r="O241">
+        <v>3.75</v>
+      </c>
+      <c r="P241">
         <v>3.6</v>
-      </c>
-      <c r="M241">
-        <v>4.75</v>
-      </c>
-      <c r="N241">
-        <v>1.8</v>
-      </c>
-      <c r="O241">
-        <v>3.8</v>
-      </c>
-      <c r="P241">
-        <v>4.2</v>
       </c>
       <c r="Q241">
         <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S241">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T241">
         <v>2.75</v>
       </c>
       <c r="U241">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21937,7 +21937,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7616881</v>
+        <v>7616883</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21946,49 +21946,49 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45339.6875</v>
+        <v>45340.52083333334</v>
       </c>
       <c r="F242" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G242" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K242">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L242">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
         <v>2.7</v>
       </c>
       <c r="N242">
+        <v>2.45</v>
+      </c>
+      <c r="O242">
+        <v>3.4</v>
+      </c>
+      <c r="P242">
         <v>2.9</v>
       </c>
-      <c r="O242">
-        <v>3.1</v>
-      </c>
-      <c r="P242">
-        <v>2.625</v>
-      </c>
       <c r="Q242">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R242">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S242">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T242">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U242">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -22003,228 +22003,6 @@
         <v>0</v>
       </c>
       <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243">
-        <v>7616882</v>
-      </c>
-      <c r="C243" t="s">
-        <v>28</v>
-      </c>
-      <c r="D243" t="s">
-        <v>28</v>
-      </c>
-      <c r="E243" s="2">
-        <v>45340.42708333334</v>
-      </c>
-      <c r="F243" t="s">
-        <v>35</v>
-      </c>
-      <c r="G243" t="s">
-        <v>39</v>
-      </c>
-      <c r="K243">
-        <v>1.363</v>
-      </c>
-      <c r="L243">
-        <v>5</v>
-      </c>
-      <c r="M243">
-        <v>7.5</v>
-      </c>
-      <c r="N243">
-        <v>1.363</v>
-      </c>
-      <c r="O243">
-        <v>5.5</v>
-      </c>
-      <c r="P243">
-        <v>7.5</v>
-      </c>
-      <c r="Q243">
-        <v>-1.5</v>
-      </c>
-      <c r="R243">
-        <v>2</v>
-      </c>
-      <c r="S243">
-        <v>1.85</v>
-      </c>
-      <c r="T243">
-        <v>3.25</v>
-      </c>
-      <c r="U243">
-        <v>2.025</v>
-      </c>
-      <c r="V243">
-        <v>1.825</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-      <c r="Y243">
-        <v>0</v>
-      </c>
-      <c r="Z243">
-        <v>0</v>
-      </c>
-      <c r="AA243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:27">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244">
-        <v>7616883</v>
-      </c>
-      <c r="C244" t="s">
-        <v>28</v>
-      </c>
-      <c r="D244" t="s">
-        <v>28</v>
-      </c>
-      <c r="E244" s="2">
-        <v>45340.52083333334</v>
-      </c>
-      <c r="F244" t="s">
-        <v>29</v>
-      </c>
-      <c r="G244" t="s">
-        <v>36</v>
-      </c>
-      <c r="K244">
-        <v>2.5</v>
-      </c>
-      <c r="L244">
-        <v>3.5</v>
-      </c>
-      <c r="M244">
-        <v>2.7</v>
-      </c>
-      <c r="N244">
-        <v>2.45</v>
-      </c>
-      <c r="O244">
-        <v>3.4</v>
-      </c>
-      <c r="P244">
-        <v>2.9</v>
-      </c>
-      <c r="Q244">
-        <v>-0.25</v>
-      </c>
-      <c r="R244">
-        <v>2.025</v>
-      </c>
-      <c r="S244">
-        <v>1.825</v>
-      </c>
-      <c r="T244">
-        <v>2.5</v>
-      </c>
-      <c r="U244">
-        <v>1.925</v>
-      </c>
-      <c r="V244">
-        <v>1.925</v>
-      </c>
-      <c r="W244">
-        <v>0</v>
-      </c>
-      <c r="X244">
-        <v>0</v>
-      </c>
-      <c r="Y244">
-        <v>0</v>
-      </c>
-      <c r="Z244">
-        <v>0</v>
-      </c>
-      <c r="AA244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:27">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245">
-        <v>7616824</v>
-      </c>
-      <c r="C245" t="s">
-        <v>28</v>
-      </c>
-      <c r="D245" t="s">
-        <v>28</v>
-      </c>
-      <c r="E245" s="2">
-        <v>45340.52083333334</v>
-      </c>
-      <c r="F245" t="s">
-        <v>37</v>
-      </c>
-      <c r="G245" t="s">
-        <v>33</v>
-      </c>
-      <c r="K245">
-        <v>1.85</v>
-      </c>
-      <c r="L245">
-        <v>4</v>
-      </c>
-      <c r="M245">
-        <v>3.8</v>
-      </c>
-      <c r="N245">
-        <v>1.95</v>
-      </c>
-      <c r="O245">
-        <v>3.75</v>
-      </c>
-      <c r="P245">
-        <v>3.75</v>
-      </c>
-      <c r="Q245">
-        <v>-0.5</v>
-      </c>
-      <c r="R245">
-        <v>1.975</v>
-      </c>
-      <c r="S245">
-        <v>1.875</v>
-      </c>
-      <c r="T245">
-        <v>2.75</v>
-      </c>
-      <c r="U245">
-        <v>1.95</v>
-      </c>
-      <c r="V245">
-        <v>1.9</v>
-      </c>
-      <c r="W245">
-        <v>0</v>
-      </c>
-      <c r="X245">
-        <v>0</v>
-      </c>
-      <c r="Y245">
-        <v>0</v>
-      </c>
-      <c r="Z245">
-        <v>0</v>
-      </c>
-      <c r="AA245">
         <v>0</v>
       </c>
     </row>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5171748</v>
+        <v>5173744</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,19 +1687,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>3.8</v>
@@ -1711,43 +1711,43 @@
         <v>1.909</v>
       </c>
       <c r="N14">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1756,7 +1756,7 @@
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5173744</v>
+        <v>5171748</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,19 +1776,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>3.8</v>
@@ -1800,43 +1800,43 @@
         <v>1.909</v>
       </c>
       <c r="N15">
+        <v>4.333</v>
+      </c>
+      <c r="O15">
+        <v>3.8</v>
+      </c>
+      <c r="P15">
+        <v>1.8</v>
+      </c>
+      <c r="Q15">
+        <v>0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>2.025</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="O15">
-        <v>3.6</v>
-      </c>
-      <c r="P15">
-        <v>2.25</v>
-      </c>
-      <c r="Q15">
-        <v>0.25</v>
-      </c>
-      <c r="R15">
-        <v>1.9</v>
-      </c>
-      <c r="S15">
-        <v>1.95</v>
-      </c>
-      <c r="T15">
-        <v>2.5</v>
-      </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1845,7 +1845,7 @@
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5172804</v>
+        <v>5172802</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,10 +3556,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3571,61 +3571,61 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L35">
+        <v>3.3</v>
+      </c>
+      <c r="M35">
+        <v>2.5</v>
+      </c>
+      <c r="N35">
+        <v>2.8</v>
+      </c>
+      <c r="O35">
         <v>3.4</v>
       </c>
-      <c r="M35">
-        <v>4.2</v>
-      </c>
-      <c r="N35">
-        <v>2.1</v>
-      </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
       <c r="P35">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S35">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5172802</v>
+        <v>5172804</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,10 +3645,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3660,61 +3660,61 @@
         <v>42</v>
       </c>
       <c r="K36">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N36">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T36">
         <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5173739</v>
+        <v>5172805</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N40">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5172805</v>
+        <v>5173739</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K41">
+        <v>2.05</v>
+      </c>
+      <c r="L41">
+        <v>3.4</v>
+      </c>
+      <c r="M41">
+        <v>3.2</v>
+      </c>
+      <c r="N41">
+        <v>2.1</v>
+      </c>
+      <c r="O41">
+        <v>3.4</v>
+      </c>
+      <c r="P41">
+        <v>3.5</v>
+      </c>
+      <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.8</v>
+      </c>
+      <c r="S41">
+        <v>2.05</v>
+      </c>
+      <c r="T41">
+        <v>2.5</v>
+      </c>
+      <c r="U41">
+        <v>1.9</v>
+      </c>
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="L41">
-        <v>3.5</v>
-      </c>
-      <c r="M41">
-        <v>3.3</v>
-      </c>
-      <c r="N41">
-        <v>1.85</v>
-      </c>
-      <c r="O41">
-        <v>4</v>
-      </c>
-      <c r="P41">
-        <v>4</v>
-      </c>
-      <c r="Q41">
-        <v>-0.5</v>
-      </c>
-      <c r="R41">
-        <v>1.825</v>
-      </c>
-      <c r="S41">
-        <v>2.025</v>
-      </c>
-      <c r="T41">
-        <v>3.25</v>
-      </c>
-      <c r="U41">
-        <v>2.025</v>
-      </c>
-      <c r="V41">
-        <v>1.825</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X41">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC41">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5172808</v>
+        <v>5172810</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,49 +4446,49 @@
         <v>45004.52083333334</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N45">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O45">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U45">
         <v>1.85</v>
@@ -4497,25 +4497,25 @@
         <v>2</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA45">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5172810</v>
+        <v>5172808</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,49 +4535,49 @@
         <v>45004.52083333334</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
         <v>1.85</v>
@@ -4586,25 +4586,25 @@
         <v>2</v>
       </c>
       <c r="W46">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5172813</v>
+        <v>5171755</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,76 +4891,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
         <v>3</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4968,7 +4968,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5171755</v>
+        <v>5172813</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,76 +4980,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L51">
+        <v>3.5</v>
+      </c>
+      <c r="M51">
+        <v>2.9</v>
+      </c>
+      <c r="N51">
+        <v>2.2</v>
+      </c>
+      <c r="O51">
         <v>3.6</v>
       </c>
-      <c r="M51">
-        <v>3.75</v>
-      </c>
-      <c r="N51">
-        <v>1.5</v>
-      </c>
-      <c r="O51">
-        <v>4.75</v>
-      </c>
       <c r="P51">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
         <v>3</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y51">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5324,7 +5324,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5173736</v>
+        <v>5172816</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5336,76 +5336,76 @@
         <v>45026.47916666666</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K55">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M55">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N55">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P55">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R55">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA55">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5172816</v>
+        <v>5173736</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,76 +5425,76 @@
         <v>45026.47916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="L56">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M56">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N56">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="O56">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="Q56">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z56">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5172818</v>
+        <v>5172819</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,49 +5781,49 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L60">
         <v>3.5</v>
       </c>
       <c r="M60">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N60">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O60">
+        <v>3.75</v>
+      </c>
+      <c r="P60">
         <v>3.8</v>
       </c>
-      <c r="P60">
-        <v>1.8</v>
-      </c>
       <c r="Q60">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U60">
         <v>1.875</v>
@@ -5835,22 +5835,22 @@
         <v>-1</v>
       </c>
       <c r="X60">
+        <v>-1</v>
+      </c>
+      <c r="Y60">
         <v>2.8</v>
       </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
       <c r="Z60">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5172819</v>
+        <v>5172818</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,49 +5870,49 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="L61">
         <v>3.5</v>
       </c>
       <c r="M61">
+        <v>2.2</v>
+      </c>
+      <c r="N61">
+        <v>4.2</v>
+      </c>
+      <c r="O61">
         <v>3.8</v>
       </c>
-      <c r="N61">
-        <v>1.909</v>
-      </c>
-      <c r="O61">
-        <v>3.75</v>
-      </c>
       <c r="P61">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R61">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U61">
         <v>1.875</v>
@@ -5924,22 +5924,22 @@
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y61">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5181240</v>
+        <v>5172821</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,13 +6226,13 @@
         <v>45039.47916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6241,43 +6241,43 @@
         <v>44</v>
       </c>
       <c r="K65">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P65">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R65">
+        <v>1.975</v>
+      </c>
+      <c r="S65">
         <v>1.875</v>
-      </c>
-      <c r="S65">
-        <v>1.975</v>
       </c>
       <c r="T65">
         <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6286,7 +6286,7 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6295,7 +6295,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5172821</v>
+        <v>5181240</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,13 +6315,13 @@
         <v>45039.47916666666</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6330,43 +6330,43 @@
         <v>44</v>
       </c>
       <c r="K66">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L66">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N66">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O66">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
+        <v>1.875</v>
+      </c>
+      <c r="S66">
         <v>1.975</v>
-      </c>
-      <c r="S66">
-        <v>1.875</v>
       </c>
       <c r="T66">
         <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6375,7 +6375,7 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
         <v>-1</v>
@@ -6384,7 +6384,7 @@
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5360796</v>
+        <v>6580419</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,76 +6849,76 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P72">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q72">
+        <v>-0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.825</v>
+      </c>
+      <c r="S72">
+        <v>2.025</v>
+      </c>
+      <c r="T72">
+        <v>3.25</v>
+      </c>
+      <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
+        <v>1.9</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>2.8</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>-0.5</v>
       </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>2.75</v>
-      </c>
-      <c r="U72">
-        <v>1.85</v>
-      </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
-      <c r="W72">
-        <v>0.909</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
-      <c r="Z72">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6580419</v>
+        <v>5360796</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,76 +6938,76 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X73">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5310236</v>
+        <v>5356263</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,73 +7116,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K75">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M75">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O75">
+        <v>4.5</v>
+      </c>
+      <c r="P75">
+        <v>4.333</v>
+      </c>
+      <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
+        <v>1.8</v>
+      </c>
+      <c r="S75">
+        <v>2.05</v>
+      </c>
+      <c r="T75">
         <v>3.5</v>
       </c>
-      <c r="P75">
-        <v>2.2</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
-        <v>1.875</v>
-      </c>
-      <c r="S75">
-        <v>1.975</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5356263</v>
+        <v>5310236</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,73 +7205,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L76">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N76">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O76">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P76">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB76">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5390731</v>
+        <v>5380959</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,55 +7561,55 @@
         <v>45053.47916666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>43</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="N80">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="O80">
         <v>3.75</v>
       </c>
       <c r="P80">
+        <v>3.75</v>
+      </c>
+      <c r="Q80">
+        <v>-0.5</v>
+      </c>
+      <c r="R80">
         <v>1.95</v>
       </c>
-      <c r="Q80">
-        <v>0.5</v>
-      </c>
-      <c r="R80">
+      <c r="S80">
         <v>1.9</v>
       </c>
-      <c r="S80">
-        <v>1.95</v>
-      </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7618,19 +7618,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.95</v>
+        <v>2.75</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5380959</v>
+        <v>5390731</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,55 +7650,55 @@
         <v>45053.47916666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81" t="s">
         <v>43</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L81">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="N81">
-        <v>1.95</v>
+        <v>3.75</v>
       </c>
       <c r="O81">
         <v>3.75</v>
       </c>
       <c r="P81">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
+        <v>1.9</v>
+      </c>
+      <c r="S81">
         <v>1.95</v>
       </c>
-      <c r="S81">
-        <v>1.9</v>
-      </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7707,19 +7707,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2.75</v>
+        <v>0.95</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5466932</v>
+        <v>5471184</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N90">
+        <v>3.1</v>
+      </c>
+      <c r="O90">
+        <v>3.5</v>
+      </c>
+      <c r="P90">
+        <v>2.25</v>
+      </c>
+      <c r="Q90">
+        <v>0.25</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
         <v>1.95</v>
       </c>
-      <c r="O90">
-        <v>3.75</v>
-      </c>
-      <c r="P90">
-        <v>3.6</v>
-      </c>
-      <c r="Q90">
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
+        <v>2.025</v>
+      </c>
+      <c r="V90">
+        <v>1.825</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>2.5</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>0.45</v>
+      </c>
+      <c r="AA90">
         <v>-0.5</v>
       </c>
-      <c r="R90">
-        <v>2</v>
-      </c>
-      <c r="S90">
-        <v>1.85</v>
-      </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
-      <c r="V90">
-        <v>1.9</v>
-      </c>
-      <c r="W90">
-        <v>0.95</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>1</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5471184</v>
+        <v>5466932</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,76 +8540,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N91">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P91">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>1.85</v>
+      </c>
+      <c r="T91">
+        <v>2.75</v>
+      </c>
+      <c r="U91">
+        <v>1.95</v>
+      </c>
+      <c r="V91">
         <v>1.9</v>
       </c>
-      <c r="S91">
-        <v>1.95</v>
-      </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-      <c r="U91">
-        <v>2.025</v>
-      </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>0.475</v>
+      </c>
+      <c r="AC91">
         <v>-0.5</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5498510</v>
+        <v>5498511</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,76 +8629,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
         <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="N92">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O92">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P92">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q92">
         <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5498511</v>
+        <v>5498510</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,76 +8896,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L95">
         <v>3.5</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N95">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O95">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q95">
         <v>0.5</v>
       </c>
       <c r="R95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC95">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5578547</v>
+        <v>5578548</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,76 +9074,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K97">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L97">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="M97">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N97">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="O97">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P97">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T97">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5574693</v>
+        <v>5578546</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,58 +9163,58 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>44</v>
       </c>
       <c r="K98">
+        <v>1.75</v>
+      </c>
+      <c r="L98">
+        <v>3.75</v>
+      </c>
+      <c r="M98">
+        <v>4.2</v>
+      </c>
+      <c r="N98">
         <v>1.666</v>
       </c>
-      <c r="L98">
-        <v>4</v>
-      </c>
-      <c r="M98">
+      <c r="O98">
+        <v>4.5</v>
+      </c>
+      <c r="P98">
         <v>4.333</v>
       </c>
-      <c r="N98">
-        <v>1.444</v>
-      </c>
-      <c r="O98">
-        <v>5.25</v>
-      </c>
-      <c r="P98">
-        <v>6</v>
-      </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9223,16 +9223,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5578548</v>
+        <v>5578547</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L99">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="M99">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N99">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="O99">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q99">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5574694</v>
+        <v>5574693</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K100">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M100">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P100">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
+        <v>1.975</v>
+      </c>
+      <c r="T100">
+        <v>3.75</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
         <v>1.85</v>
       </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.925</v>
-      </c>
-      <c r="V100">
-        <v>1.925</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5578546</v>
+        <v>5574694</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,73 +9430,73 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N101">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="O101">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6810762</v>
+        <v>6811202</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,34 +9786,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>44</v>
       </c>
       <c r="K105">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M105">
+        <v>7.5</v>
+      </c>
+      <c r="N105">
+        <v>1.4</v>
+      </c>
+      <c r="O105">
         <v>5.25</v>
-      </c>
-      <c r="N105">
-        <v>1.45</v>
-      </c>
-      <c r="O105">
-        <v>4.5</v>
       </c>
       <c r="P105">
         <v>7</v>
@@ -9822,22 +9822,22 @@
         <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
+        <v>3.25</v>
+      </c>
+      <c r="U105">
+        <v>2</v>
+      </c>
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="T105">
-        <v>2.75</v>
-      </c>
-      <c r="U105">
-        <v>1.8</v>
-      </c>
-      <c r="V105">
-        <v>2.05</v>
-      </c>
       <c r="W105">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9846,16 +9846,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6811202</v>
+        <v>6810762</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,34 +9875,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
       </c>
       <c r="K106">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="L106">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N106">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O106">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P106">
         <v>7</v>
@@ -9911,22 +9911,22 @@
         <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W106">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9935,16 +9935,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA106">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -11109,7 +11109,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6811211</v>
+        <v>6811210</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11121,76 +11121,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N120">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O120">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
         <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W120">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11198,7 +11198,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6811210</v>
+        <v>6811211</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11210,76 +11210,76 @@
         <v>45150.54166666666</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K121">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N121">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6811216</v>
+        <v>6811217</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,55 +11833,55 @@
         <v>45165.47916666666</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
       </c>
       <c r="K128">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N128">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q128">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
         <v>3</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11890,19 +11890,19 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC128">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811217</v>
+        <v>6811216</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,55 +11922,55 @@
         <v>45165.47916666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L129">
+        <v>3.5</v>
+      </c>
+      <c r="M129">
+        <v>2.15</v>
+      </c>
+      <c r="N129">
         <v>3.75</v>
       </c>
-      <c r="M129">
-        <v>4</v>
-      </c>
-      <c r="N129">
-        <v>1.727</v>
-      </c>
       <c r="O129">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T129">
         <v>3</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11979,19 +11979,19 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB129">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6811223</v>
+        <v>6811222</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,40 +12545,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L136">
         <v>3.6</v>
       </c>
       <c r="M136">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N136">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R136">
         <v>1.95</v>
@@ -12590,31 +12590,31 @@
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V136">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6811222</v>
+        <v>6811223</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,40 +12634,40 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K137">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
         <v>3.6</v>
       </c>
       <c r="M137">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N137">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
         <v>1.95</v>
@@ -12679,31 +12679,31 @@
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X137">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6810299</v>
+        <v>6811227</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L143">
+        <v>3.75</v>
+      </c>
+      <c r="M143">
         <v>4</v>
       </c>
-      <c r="M143">
-        <v>4.75</v>
-      </c>
       <c r="N143">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X143">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6811228</v>
+        <v>6810299</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K144">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N144">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="O144">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P144">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S144">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T144">
         <v>3</v>
       </c>
       <c r="U144">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6811227</v>
+        <v>6811228</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,10 +13346,10 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>2</v>
@@ -13361,43 +13361,43 @@
         <v>44</v>
       </c>
       <c r="K145">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="L145">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N145">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O145">
         <v>3.6</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13406,16 +13406,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -14135,7 +14135,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6811234</v>
+        <v>6810770</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14147,76 +14147,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
         <v>3</v>
       </c>
-      <c r="I154">
-        <v>2</v>
-      </c>
       <c r="J154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K154">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L154">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M154">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N154">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O154">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P154">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S154">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V154">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6810770</v>
+        <v>6811234</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,76 +14236,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155" t="s">
+        <v>44</v>
+      </c>
+      <c r="K155">
+        <v>1.571</v>
+      </c>
+      <c r="L155">
+        <v>4.333</v>
+      </c>
+      <c r="M155">
+        <v>4.75</v>
+      </c>
+      <c r="N155">
+        <v>1.615</v>
+      </c>
+      <c r="O155">
+        <v>4.2</v>
+      </c>
+      <c r="P155">
+        <v>5.25</v>
+      </c>
+      <c r="Q155">
+        <v>-1</v>
+      </c>
+      <c r="R155">
+        <v>2.05</v>
+      </c>
+      <c r="S155">
+        <v>1.8</v>
+      </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
+      <c r="U155">
+        <v>1.925</v>
+      </c>
+      <c r="V155">
+        <v>1.925</v>
+      </c>
+      <c r="W155">
+        <v>0.615</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
         <v>0</v>
       </c>
-      <c r="I155">
-        <v>3</v>
-      </c>
-      <c r="J155" t="s">
-        <v>43</v>
-      </c>
-      <c r="K155">
-        <v>2.55</v>
-      </c>
-      <c r="L155">
-        <v>3.4</v>
-      </c>
-      <c r="M155">
-        <v>2.55</v>
-      </c>
-      <c r="N155">
-        <v>2.5</v>
-      </c>
-      <c r="O155">
-        <v>3.5</v>
-      </c>
-      <c r="P155">
-        <v>2.75</v>
-      </c>
-      <c r="Q155">
-        <v>0</v>
-      </c>
-      <c r="R155">
-        <v>1.875</v>
-      </c>
-      <c r="S155">
-        <v>1.975</v>
-      </c>
-      <c r="T155">
-        <v>2.75</v>
-      </c>
-      <c r="U155">
-        <v>1.875</v>
-      </c>
-      <c r="V155">
-        <v>1.975</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
-      <c r="X155">
-        <v>-1</v>
-      </c>
-      <c r="Y155">
-        <v>1.75</v>
-      </c>
-      <c r="Z155">
-        <v>-1</v>
-      </c>
       <c r="AA155">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB155">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6811237</v>
+        <v>6811236</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,58 +14503,58 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>3</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>44</v>
       </c>
       <c r="K158">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L158">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N158">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O158">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W158">
-        <v>0.5</v>
+        <v>1.55</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14563,16 +14563,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6811236</v>
+        <v>6811237</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,58 +14592,58 @@
         <v>45207.47916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H159">
         <v>3</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>44</v>
       </c>
       <c r="K159">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M159">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N159">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P159">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R159">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U159">
+        <v>2</v>
+      </c>
+      <c r="V159">
         <v>1.85</v>
       </c>
-      <c r="V159">
-        <v>2</v>
-      </c>
       <c r="W159">
-        <v>1.55</v>
+        <v>0.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14652,16 +14652,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6811239</v>
+        <v>6811238</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,55 +14681,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>42</v>
       </c>
       <c r="K160">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M160">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N160">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O160">
         <v>3.75</v>
       </c>
       <c r="P160">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q160">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14741,16 +14741,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA160">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14758,7 +14758,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6811238</v>
+        <v>6811239</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14770,55 +14770,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>42</v>
       </c>
       <c r="K161">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L161">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M161">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N161">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O161">
         <v>3.75</v>
       </c>
       <c r="P161">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q161">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14830,16 +14830,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -16805,7 +16805,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6811255</v>
+        <v>6811256</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,10 +16817,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H184">
         <v>3</v>
@@ -16832,43 +16832,43 @@
         <v>44</v>
       </c>
       <c r="K184">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N184">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O184">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P184">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T184">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16877,13 +16877,13 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16894,7 +16894,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6811256</v>
+        <v>6811255</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16906,10 +16906,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>3</v>
@@ -16921,43 +16921,43 @@
         <v>44</v>
       </c>
       <c r="K185">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N185">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V185">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W185">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16966,13 +16966,13 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6811253</v>
+        <v>6810306</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,10 +17173,10 @@
         <v>45256.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17188,43 +17188,43 @@
         <v>44</v>
       </c>
       <c r="K188">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L188">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P188">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R188">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T188">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
-        <v>2</v>
+        <v>0.55</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17233,7 +17233,7 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA188">
         <v>-1</v>
@@ -17242,7 +17242,7 @@
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6810306</v>
+        <v>6811253</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,10 +17262,10 @@
         <v>45256.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17277,43 +17277,43 @@
         <v>44</v>
       </c>
       <c r="K189">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L189">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N189">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="O189">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
-        <v>0.55</v>
+        <v>2</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17322,7 +17322,7 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA189">
         <v>-1</v>
@@ -17331,7 +17331,7 @@
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7107309</v>
+        <v>7505765</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,76 +17796,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L195">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O195">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P195">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S195">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
+        <v>1.85</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
         <v>3</v>
       </c>
-      <c r="U195">
-        <v>1.825</v>
-      </c>
-      <c r="V195">
-        <v>2.025</v>
-      </c>
-      <c r="W195">
-        <v>0.5</v>
-      </c>
-      <c r="X195">
-        <v>-1</v>
-      </c>
-      <c r="Y195">
-        <v>-1</v>
-      </c>
       <c r="Z195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC195">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7505765</v>
+        <v>7107309</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,76 +17885,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>44</v>
+      </c>
+      <c r="K196">
+        <v>1.363</v>
+      </c>
+      <c r="L196">
+        <v>5.5</v>
+      </c>
+      <c r="M196">
+        <v>6.5</v>
+      </c>
+      <c r="N196">
+        <v>1.5</v>
+      </c>
+      <c r="O196">
+        <v>4.75</v>
+      </c>
+      <c r="P196">
+        <v>5.5</v>
+      </c>
+      <c r="Q196">
+        <v>-1</v>
+      </c>
+      <c r="R196">
+        <v>1.8</v>
+      </c>
+      <c r="S196">
+        <v>2.05</v>
+      </c>
+      <c r="T196">
         <v>3</v>
       </c>
-      <c r="J196" t="s">
-        <v>43</v>
-      </c>
-      <c r="K196">
-        <v>1.95</v>
-      </c>
-      <c r="L196">
-        <v>3.75</v>
-      </c>
-      <c r="M196">
-        <v>3.5</v>
-      </c>
-      <c r="N196">
-        <v>1.85</v>
-      </c>
-      <c r="O196">
-        <v>3.75</v>
-      </c>
-      <c r="P196">
-        <v>4</v>
-      </c>
-      <c r="Q196">
-        <v>-0.5</v>
-      </c>
-      <c r="R196">
-        <v>1.875</v>
-      </c>
-      <c r="S196">
-        <v>1.975</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
       <c r="U196">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17962,7 +17962,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6811262</v>
+        <v>6811292</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17974,49 +17974,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>2</v>
       </c>
       <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
+        <v>3.5</v>
+      </c>
+      <c r="N197">
+        <v>1.833</v>
+      </c>
+      <c r="O197">
         <v>3.8</v>
       </c>
-      <c r="M197">
-        <v>3.3</v>
-      </c>
-      <c r="N197">
-        <v>2.3</v>
-      </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
       <c r="P197">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
+        <v>1.825</v>
+      </c>
+      <c r="S197">
         <v>2.025</v>
       </c>
-      <c r="S197">
-        <v>1.775</v>
-      </c>
       <c r="T197">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
         <v>1.975</v>
@@ -18025,19 +18025,19 @@
         <v>1.875</v>
       </c>
       <c r="W197">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
         <v>1.025</v>
-      </c>
-      <c r="AA197">
-        <v>-1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6811292</v>
+        <v>6811262</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,49 +18063,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H198">
+        <v>3</v>
+      </c>
+      <c r="I198">
         <v>0</v>
       </c>
-      <c r="I198">
-        <v>1</v>
-      </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K198">
         <v>2</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M198">
+        <v>3.3</v>
+      </c>
+      <c r="N198">
+        <v>2.3</v>
+      </c>
+      <c r="O198">
+        <v>4</v>
+      </c>
+      <c r="P198">
+        <v>2.8</v>
+      </c>
+      <c r="Q198">
+        <v>-0.25</v>
+      </c>
+      <c r="R198">
+        <v>2.025</v>
+      </c>
+      <c r="S198">
+        <v>1.775</v>
+      </c>
+      <c r="T198">
         <v>3.5</v>
-      </c>
-      <c r="N198">
-        <v>1.833</v>
-      </c>
-      <c r="O198">
-        <v>3.8</v>
-      </c>
-      <c r="P198">
-        <v>4.2</v>
-      </c>
-      <c r="Q198">
-        <v>-0.5</v>
-      </c>
-      <c r="R198">
-        <v>1.825</v>
-      </c>
-      <c r="S198">
-        <v>2.025</v>
-      </c>
-      <c r="T198">
-        <v>2.75</v>
       </c>
       <c r="U198">
         <v>1.975</v>
@@ -18114,19 +18114,19 @@
         <v>1.875</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
@@ -18585,7 +18585,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6811264</v>
+        <v>6811265</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,76 +18597,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>1</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K204">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="L204">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M204">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="N204">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O204">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P204">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q204">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R204">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W204">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z204">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC204">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6811265</v>
+        <v>6811264</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,76 +18686,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H205">
         <v>1</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K205">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="N205">
+        <v>2.05</v>
+      </c>
+      <c r="O205">
         <v>3.6</v>
       </c>
-      <c r="O205">
-        <v>3.8</v>
-      </c>
       <c r="P205">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="Q205">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA205">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -19297,7 +19297,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6811270</v>
+        <v>6811268</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19309,76 +19309,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K212">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M212">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N212">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O212">
         <v>4</v>
       </c>
       <c r="P212">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q212">
         <v>-0.75</v>
       </c>
       <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>2.025</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
         <v>1.975</v>
       </c>
-      <c r="S212">
+      <c r="V212">
         <v>1.875</v>
       </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.825</v>
-      </c>
-      <c r="V212">
-        <v>2.025</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC212">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19386,7 +19386,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6811268</v>
+        <v>6811270</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19398,76 +19398,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K213">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L213">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N213">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
         <v>4</v>
       </c>
       <c r="P213">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.975</v>
+      </c>
+      <c r="S213">
+        <v>1.875</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
         <v>1.825</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>2.025</v>
       </c>
-      <c r="T213">
-        <v>2.75</v>
-      </c>
-      <c r="U213">
-        <v>1.975</v>
-      </c>
-      <c r="V213">
-        <v>1.875</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y213">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
+        <v>0.875</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>1.025</v>
-      </c>
-      <c r="AB213">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC213">
-        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19475,7 +19475,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6810310</v>
+        <v>6810779</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19487,76 +19487,76 @@
         <v>45314.625</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G214" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K214">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="L214">
         <v>3.6</v>
       </c>
       <c r="M214">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N214">
         <v>3.2</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q214">
         <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X214">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>0.4</v>
+      </c>
+      <c r="AC214">
         <v>-0.5</v>
-      </c>
-      <c r="AB214">
-        <v>0.875</v>
-      </c>
-      <c r="AC214">
-        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19564,7 +19564,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6810779</v>
+        <v>6810310</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19576,76 +19576,76 @@
         <v>45314.625</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K215">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L215">
         <v>3.6</v>
       </c>
       <c r="M215">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N215">
         <v>3.2</v>
       </c>
       <c r="O215">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q215">
         <v>0.25</v>
       </c>
       <c r="R215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S215">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19653,7 +19653,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6811746</v>
+        <v>6811275</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,76 +19665,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
+        <v>3</v>
+      </c>
+      <c r="J216" t="s">
+        <v>43</v>
+      </c>
+      <c r="K216">
+        <v>2.7</v>
+      </c>
+      <c r="L216">
+        <v>3.4</v>
+      </c>
+      <c r="M216">
+        <v>2.5</v>
+      </c>
+      <c r="N216">
+        <v>2.7</v>
+      </c>
+      <c r="O216">
+        <v>3.4</v>
+      </c>
+      <c r="P216">
+        <v>2.55</v>
+      </c>
+      <c r="Q216">
         <v>0</v>
       </c>
-      <c r="J216" t="s">
-        <v>44</v>
-      </c>
-      <c r="K216">
-        <v>1.4</v>
-      </c>
-      <c r="L216">
-        <v>4.5</v>
-      </c>
-      <c r="M216">
-        <v>7.5</v>
-      </c>
-      <c r="N216">
-        <v>1.45</v>
-      </c>
-      <c r="O216">
-        <v>4.333</v>
-      </c>
-      <c r="P216">
-        <v>7.5</v>
-      </c>
-      <c r="Q216">
-        <v>-1.25</v>
-      </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S216">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC216">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19742,7 +19742,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6811275</v>
+        <v>6811746</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19754,76 +19754,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G217" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K217">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L217">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M217">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N217">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="O217">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P217">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB217">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20009,7 +20009,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6811273</v>
+        <v>6811272</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20021,10 +20021,10 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20036,43 +20036,43 @@
         <v>44</v>
       </c>
       <c r="K220">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L220">
+        <v>3.6</v>
+      </c>
+      <c r="M220">
+        <v>1.909</v>
+      </c>
+      <c r="N220">
         <v>3.5</v>
       </c>
-      <c r="M220">
-        <v>5</v>
-      </c>
-      <c r="N220">
-        <v>2.05</v>
-      </c>
       <c r="O220">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R220">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20081,16 +20081,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20098,7 +20098,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6811272</v>
+        <v>6811273</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20110,10 +20110,10 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20125,43 +20125,43 @@
         <v>44</v>
       </c>
       <c r="K221">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L221">
+        <v>3.5</v>
+      </c>
+      <c r="M221">
+        <v>5</v>
+      </c>
+      <c r="N221">
+        <v>2.05</v>
+      </c>
+      <c r="O221">
         <v>3.6</v>
       </c>
-      <c r="M221">
-        <v>1.909</v>
-      </c>
-      <c r="N221">
+      <c r="P221">
         <v>3.5</v>
       </c>
-      <c r="O221">
-        <v>3.8</v>
-      </c>
-      <c r="P221">
-        <v>1.95</v>
-      </c>
       <c r="Q221">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20170,16 +20170,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20187,7 +20187,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6811278</v>
+        <v>6810780</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20199,73 +20199,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K222">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M222">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="N222">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O222">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P222">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U222">
+        <v>2.025</v>
+      </c>
+      <c r="V222">
         <v>1.825</v>
       </c>
-      <c r="V222">
-        <v>2.025</v>
-      </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA222">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20276,7 +20276,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6810780</v>
+        <v>6811278</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20288,73 +20288,73 @@
         <v>45321.6875</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G223" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H223">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K223">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="L223">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="N223">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="O223">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P223">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q223">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S223">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T223">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U223">
+        <v>1.825</v>
+      </c>
+      <c r="V223">
         <v>2.025</v>
       </c>
-      <c r="V223">
-        <v>1.825</v>
-      </c>
       <c r="W223">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB223">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20365,7 +20365,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6811276</v>
+        <v>6810311</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20377,76 +20377,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
       <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224" t="s">
+        <v>43</v>
+      </c>
+      <c r="K224">
+        <v>1.909</v>
+      </c>
+      <c r="L224">
+        <v>3.8</v>
+      </c>
+      <c r="M224">
+        <v>3.6</v>
+      </c>
+      <c r="N224">
+        <v>2.5</v>
+      </c>
+      <c r="O224">
+        <v>3.4</v>
+      </c>
+      <c r="P224">
+        <v>2.75</v>
+      </c>
+      <c r="Q224">
         <v>0</v>
       </c>
-      <c r="J224" t="s">
-        <v>42</v>
-      </c>
-      <c r="K224">
-        <v>1.727</v>
-      </c>
-      <c r="L224">
-        <v>4</v>
-      </c>
-      <c r="M224">
-        <v>4.333</v>
-      </c>
-      <c r="N224">
-        <v>1.85</v>
-      </c>
-      <c r="O224">
-        <v>3.75</v>
-      </c>
-      <c r="P224">
-        <v>4</v>
-      </c>
-      <c r="Q224">
-        <v>-0.5</v>
-      </c>
       <c r="R224">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S224">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V224">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20543,7 +20543,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6810311</v>
+        <v>6811276</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,76 +20555,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K226">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L226">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M226">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N226">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O226">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P226">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T226">
         <v>2.75</v>
       </c>
       <c r="U226">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V226">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y226">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20721,7 +20721,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6811281</v>
+        <v>6811282</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20733,10 +20733,10 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20748,40 +20748,40 @@
         <v>43</v>
       </c>
       <c r="K228">
+        <v>2.9</v>
+      </c>
+      <c r="L228">
+        <v>3.8</v>
+      </c>
+      <c r="M228">
+        <v>2.2</v>
+      </c>
+      <c r="N228">
+        <v>2.875</v>
+      </c>
+      <c r="O228">
+        <v>3.5</v>
+      </c>
+      <c r="P228">
         <v>2.3</v>
       </c>
-      <c r="L228">
-        <v>3.9</v>
-      </c>
-      <c r="M228">
-        <v>2.7</v>
-      </c>
-      <c r="N228">
-        <v>2.375</v>
-      </c>
-      <c r="O228">
-        <v>3.8</v>
-      </c>
-      <c r="P228">
-        <v>2.75</v>
-      </c>
       <c r="Q228">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R228">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S228">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V228">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20790,19 +20790,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20810,7 +20810,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6811282</v>
+        <v>6811281</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20822,10 +20822,10 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20837,40 +20837,40 @@
         <v>43</v>
       </c>
       <c r="K229">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L229">
+        <v>3.9</v>
+      </c>
+      <c r="M229">
+        <v>2.7</v>
+      </c>
+      <c r="N229">
+        <v>2.375</v>
+      </c>
+      <c r="O229">
         <v>3.8</v>
       </c>
-      <c r="M229">
-        <v>2.2</v>
-      </c>
-      <c r="N229">
-        <v>2.875</v>
-      </c>
-      <c r="O229">
-        <v>3.5</v>
-      </c>
       <c r="P229">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q229">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S229">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
         <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20879,19 +20879,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6811283</v>
+        <v>6810312</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,58 +21089,58 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F232" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
         <v>44</v>
       </c>
       <c r="K232">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L232">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M232">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N232">
-        <v>2.55</v>
+        <v>1.333</v>
       </c>
       <c r="O232">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P232">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R232">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S232">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V232">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>1.55</v>
+        <v>0.333</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21149,16 +21149,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC232">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6810312</v>
+        <v>6811283</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,58 +21178,58 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F233" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>44</v>
       </c>
       <c r="K233">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L233">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M233">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N233">
-        <v>1.333</v>
+        <v>2.55</v>
       </c>
       <c r="O233">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P233">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="Q233">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S233">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T233">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W233">
-        <v>0.333</v>
+        <v>1.55</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21238,16 +21238,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7616922</v>
+        <v>7616921</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,67 +21267,67 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K234">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L234">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M234">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N234">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="O234">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P234">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q234">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S234">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V234">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X234">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA234">
         <v>-1</v>
@@ -21336,7 +21336,7 @@
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7616921</v>
+        <v>7616922</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,67 +21356,67 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K235">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M235">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N235">
+        <v>4.333</v>
+      </c>
+      <c r="O235">
+        <v>3.6</v>
+      </c>
+      <c r="P235">
         <v>1.85</v>
       </c>
-      <c r="O235">
-        <v>3.4</v>
-      </c>
-      <c r="P235">
-        <v>4.5</v>
-      </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R235">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T235">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U235">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V235">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W235">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA235">
         <v>-1</v>
@@ -21425,7 +21425,7 @@
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21789,7 +21789,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7616882</v>
+        <v>7616880</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21798,72 +21798,87 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45340.42708333334</v>
+        <v>45339.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240" t="s">
+        <v>42</v>
       </c>
       <c r="K240">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="L240">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="M240">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N240">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="O240">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P240">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q240">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T240">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U240">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27">
+        <v>0.825</v>
+      </c>
+      <c r="AB240">
+        <v>0.925</v>
+      </c>
+      <c r="AC240">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7616824</v>
+        <v>7616929</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21872,72 +21887,87 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45340.52083333334</v>
+        <v>45339.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="H241">
+        <v>3</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="s">
+        <v>44</v>
       </c>
       <c r="K241">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M241">
+        <v>4.75</v>
+      </c>
+      <c r="N241">
+        <v>1.75</v>
+      </c>
+      <c r="O241">
         <v>3.8</v>
       </c>
-      <c r="N241">
-        <v>2</v>
-      </c>
-      <c r="O241">
-        <v>3.75</v>
-      </c>
       <c r="P241">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R241">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S241">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T241">
         <v>2.75</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V241">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W241">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB241">
+        <v>0.925</v>
+      </c>
+      <c r="AC241">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7616883</v>
+        <v>7616881</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21946,43 +21976,52 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45340.52083333334</v>
+        <v>45339.6875</v>
       </c>
       <c r="F242" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G242" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="H242">
+        <v>2</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242" t="s">
+        <v>44</v>
       </c>
       <c r="K242">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L242">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M242">
         <v>2.7</v>
       </c>
       <c r="N242">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O242">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P242">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="Q242">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R242">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S242">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U242">
         <v>1.925</v>
@@ -21991,18 +22030,735 @@
         <v>1.925</v>
       </c>
       <c r="W242">
+        <v>2</v>
+      </c>
+      <c r="X242">
+        <v>-1</v>
+      </c>
+      <c r="Y242">
+        <v>-1</v>
+      </c>
+      <c r="Z242">
+        <v>1.1</v>
+      </c>
+      <c r="AA242">
+        <v>-1</v>
+      </c>
+      <c r="AB242">
+        <v>0.925</v>
+      </c>
+      <c r="AC242">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7616882</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45340.42708333334</v>
+      </c>
+      <c r="F243" t="s">
+        <v>35</v>
+      </c>
+      <c r="G243" t="s">
+        <v>39</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
         <v>0</v>
       </c>
-      <c r="X242">
+      <c r="J243" t="s">
+        <v>44</v>
+      </c>
+      <c r="K243">
+        <v>1.363</v>
+      </c>
+      <c r="L243">
+        <v>5</v>
+      </c>
+      <c r="M243">
+        <v>7.5</v>
+      </c>
+      <c r="N243">
+        <v>1.333</v>
+      </c>
+      <c r="O243">
+        <v>5.5</v>
+      </c>
+      <c r="P243">
+        <v>8</v>
+      </c>
+      <c r="Q243">
+        <v>-1.5</v>
+      </c>
+      <c r="R243">
+        <v>1.875</v>
+      </c>
+      <c r="S243">
+        <v>1.975</v>
+      </c>
+      <c r="T243">
+        <v>3.25</v>
+      </c>
+      <c r="U243">
+        <v>1.825</v>
+      </c>
+      <c r="V243">
+        <v>2.025</v>
+      </c>
+      <c r="W243">
+        <v>0.333</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
+        <v>-1</v>
+      </c>
+      <c r="AA243">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB243">
+        <v>-1</v>
+      </c>
+      <c r="AC243">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7616824</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45340.52083333334</v>
+      </c>
+      <c r="F244" t="s">
+        <v>37</v>
+      </c>
+      <c r="G244" t="s">
+        <v>33</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244" t="s">
+        <v>44</v>
+      </c>
+      <c r="K244">
+        <v>1.85</v>
+      </c>
+      <c r="L244">
+        <v>4</v>
+      </c>
+      <c r="M244">
+        <v>3.8</v>
+      </c>
+      <c r="N244">
+        <v>1.833</v>
+      </c>
+      <c r="O244">
+        <v>4</v>
+      </c>
+      <c r="P244">
+        <v>4</v>
+      </c>
+      <c r="Q244">
+        <v>-0.5</v>
+      </c>
+      <c r="R244">
+        <v>1.825</v>
+      </c>
+      <c r="S244">
+        <v>2.025</v>
+      </c>
+      <c r="T244">
+        <v>2.75</v>
+      </c>
+      <c r="U244">
+        <v>1.975</v>
+      </c>
+      <c r="V244">
+        <v>1.875</v>
+      </c>
+      <c r="W244">
+        <v>0.833</v>
+      </c>
+      <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
+        <v>-1</v>
+      </c>
+      <c r="Z244">
+        <v>0.825</v>
+      </c>
+      <c r="AA244">
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>0.4875</v>
+      </c>
+      <c r="AC244">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>7616883</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45340.52083333334</v>
+      </c>
+      <c r="F245" t="s">
+        <v>29</v>
+      </c>
+      <c r="G245" t="s">
+        <v>36</v>
+      </c>
+      <c r="H245">
         <v>0</v>
       </c>
-      <c r="Y242">
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245" t="s">
+        <v>43</v>
+      </c>
+      <c r="K245">
+        <v>2.5</v>
+      </c>
+      <c r="L245">
+        <v>3.5</v>
+      </c>
+      <c r="M245">
+        <v>2.7</v>
+      </c>
+      <c r="N245">
+        <v>2.45</v>
+      </c>
+      <c r="O245">
+        <v>3.4</v>
+      </c>
+      <c r="P245">
+        <v>2.9</v>
+      </c>
+      <c r="Q245">
         <v>0</v>
       </c>
-      <c r="Z242">
+      <c r="R245">
+        <v>1.775</v>
+      </c>
+      <c r="S245">
+        <v>2.1</v>
+      </c>
+      <c r="T245">
+        <v>2.5</v>
+      </c>
+      <c r="U245">
+        <v>1.85</v>
+      </c>
+      <c r="V245">
+        <v>2</v>
+      </c>
+      <c r="W245">
+        <v>-1</v>
+      </c>
+      <c r="X245">
+        <v>-1</v>
+      </c>
+      <c r="Y245">
+        <v>1.9</v>
+      </c>
+      <c r="Z245">
+        <v>-1</v>
+      </c>
+      <c r="AA245">
+        <v>1.1</v>
+      </c>
+      <c r="AB245">
+        <v>-1</v>
+      </c>
+      <c r="AC245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>7616884</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F246" t="s">
+        <v>41</v>
+      </c>
+      <c r="G246" t="s">
+        <v>34</v>
+      </c>
+      <c r="K246">
+        <v>3.4</v>
+      </c>
+      <c r="L246">
+        <v>3.4</v>
+      </c>
+      <c r="M246">
+        <v>2.05</v>
+      </c>
+      <c r="N246">
+        <v>3.4</v>
+      </c>
+      <c r="O246">
+        <v>3.4</v>
+      </c>
+      <c r="P246">
+        <v>2.05</v>
+      </c>
+      <c r="Q246">
+        <v>0.25</v>
+      </c>
+      <c r="R246">
+        <v>2.025</v>
+      </c>
+      <c r="S246">
+        <v>1.825</v>
+      </c>
+      <c r="T246">
+        <v>2.5</v>
+      </c>
+      <c r="U246">
+        <v>1.95</v>
+      </c>
+      <c r="V246">
+        <v>1.9</v>
+      </c>
+      <c r="W246">
         <v>0</v>
       </c>
-      <c r="AA242">
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>7616885</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F247" t="s">
+        <v>32</v>
+      </c>
+      <c r="G247" t="s">
+        <v>39</v>
+      </c>
+      <c r="K247">
+        <v>1.4</v>
+      </c>
+      <c r="L247">
+        <v>5</v>
+      </c>
+      <c r="M247">
+        <v>6</v>
+      </c>
+      <c r="N247">
+        <v>1.4</v>
+      </c>
+      <c r="O247">
+        <v>5</v>
+      </c>
+      <c r="P247">
+        <v>6</v>
+      </c>
+      <c r="Q247">
+        <v>-1.25</v>
+      </c>
+      <c r="R247">
+        <v>1.875</v>
+      </c>
+      <c r="S247">
+        <v>1.975</v>
+      </c>
+      <c r="T247">
+        <v>3.25</v>
+      </c>
+      <c r="U247">
+        <v>1.825</v>
+      </c>
+      <c r="V247">
+        <v>2.025</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>7616886</v>
+      </c>
+      <c r="C248" t="s">
+        <v>28</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45346.6875</v>
+      </c>
+      <c r="F248" t="s">
+        <v>30</v>
+      </c>
+      <c r="G248" t="s">
+        <v>29</v>
+      </c>
+      <c r="K248">
+        <v>2.75</v>
+      </c>
+      <c r="L248">
+        <v>3.3</v>
+      </c>
+      <c r="M248">
+        <v>2.4</v>
+      </c>
+      <c r="N248">
+        <v>2.75</v>
+      </c>
+      <c r="O248">
+        <v>3.3</v>
+      </c>
+      <c r="P248">
+        <v>2.4</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>2.05</v>
+      </c>
+      <c r="S248">
+        <v>1.8</v>
+      </c>
+      <c r="T248">
+        <v>2.75</v>
+      </c>
+      <c r="U248">
+        <v>1.975</v>
+      </c>
+      <c r="V248">
+        <v>1.875</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>7616887</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" t="s">
+        <v>28</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45347.42708333334</v>
+      </c>
+      <c r="F249" t="s">
+        <v>33</v>
+      </c>
+      <c r="G249" t="s">
+        <v>36</v>
+      </c>
+      <c r="K249">
+        <v>2.625</v>
+      </c>
+      <c r="L249">
+        <v>3.25</v>
+      </c>
+      <c r="M249">
+        <v>2.55</v>
+      </c>
+      <c r="N249">
+        <v>2.625</v>
+      </c>
+      <c r="O249">
+        <v>3.25</v>
+      </c>
+      <c r="P249">
+        <v>2.55</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>1.975</v>
+      </c>
+      <c r="S249">
+        <v>1.875</v>
+      </c>
+      <c r="T249">
+        <v>2.5</v>
+      </c>
+      <c r="U249">
+        <v>1.9</v>
+      </c>
+      <c r="V249">
+        <v>1.95</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>7616930</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>28</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45347.52083333334</v>
+      </c>
+      <c r="F250" t="s">
+        <v>40</v>
+      </c>
+      <c r="G250" t="s">
+        <v>38</v>
+      </c>
+      <c r="K250">
+        <v>1.909</v>
+      </c>
+      <c r="L250">
+        <v>3.6</v>
+      </c>
+      <c r="M250">
+        <v>3.6</v>
+      </c>
+      <c r="N250">
+        <v>1.909</v>
+      </c>
+      <c r="O250">
+        <v>3.6</v>
+      </c>
+      <c r="P250">
+        <v>3.6</v>
+      </c>
+      <c r="Q250">
+        <v>-0.5</v>
+      </c>
+      <c r="R250">
+        <v>1.95</v>
+      </c>
+      <c r="S250">
+        <v>1.9</v>
+      </c>
+      <c r="T250">
+        <v>3</v>
+      </c>
+      <c r="U250">
+        <v>2.025</v>
+      </c>
+      <c r="V250">
+        <v>1.825</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>7616827</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" t="s">
+        <v>28</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45347.52083333334</v>
+      </c>
+      <c r="F251" t="s">
+        <v>35</v>
+      </c>
+      <c r="G251" t="s">
+        <v>37</v>
+      </c>
+      <c r="K251">
+        <v>2.05</v>
+      </c>
+      <c r="L251">
+        <v>3.75</v>
+      </c>
+      <c r="M251">
+        <v>3.1</v>
+      </c>
+      <c r="N251">
+        <v>2.05</v>
+      </c>
+      <c r="O251">
+        <v>3.75</v>
+      </c>
+      <c r="P251">
+        <v>3.1</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
+        <v>1.85</v>
+      </c>
+      <c r="S251">
+        <v>2</v>
+      </c>
+      <c r="T251">
+        <v>3</v>
+      </c>
+      <c r="U251">
+        <v>1.925</v>
+      </c>
+      <c r="V251">
+        <v>1.925</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
         <v>0</v>
       </c>
     </row>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -124,10 +124,10 @@
     <t>Young Boys</t>
   </si>
   <si>
-    <t>FC Zurich</t>
+    <t>Servette</t>
   </si>
   <si>
-    <t>Servette</t>
+    <t>FC Zurich</t>
   </si>
   <si>
     <t>Winterthur</t>
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5172789</v>
+        <v>5172788</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,46 +1245,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
+        <v>3.3</v>
+      </c>
+      <c r="M9">
         <v>3.4</v>
       </c>
-      <c r="M9">
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>3.5</v>
+      </c>
+      <c r="P9">
+        <v>3.75</v>
+      </c>
+      <c r="Q9">
+        <v>-0.5</v>
+      </c>
+      <c r="R9">
+        <v>2.05</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
         <v>2.5</v>
-      </c>
-      <c r="N9">
-        <v>2.25</v>
-      </c>
-      <c r="O9">
-        <v>3.6</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>-0.25</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>1.85</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1293,25 +1293,25 @@
         <v>1.85</v>
       </c>
       <c r="W9">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5172788</v>
+        <v>5172789</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,46 +1334,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L10">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -1382,25 +1382,25 @@
         <v>1.85</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X10">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1512,7 +1512,7 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1601,7 +1601,7 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5173744</v>
+        <v>5171748</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,19 +1687,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>3.8</v>
@@ -1711,43 +1711,43 @@
         <v>1.909</v>
       </c>
       <c r="N14">
+        <v>4.333</v>
+      </c>
+      <c r="O14">
+        <v>3.8</v>
+      </c>
+      <c r="P14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14">
+        <v>0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>2.025</v>
+      </c>
+      <c r="T14">
         <v>3</v>
       </c>
-      <c r="O14">
-        <v>3.6</v>
-      </c>
-      <c r="P14">
-        <v>2.25</v>
-      </c>
-      <c r="Q14">
-        <v>0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.9</v>
-      </c>
-      <c r="S14">
-        <v>1.95</v>
-      </c>
-      <c r="T14">
-        <v>2.5</v>
-      </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1756,7 +1756,7 @@
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5171748</v>
+        <v>5173744</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,19 +1776,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>3.8</v>
@@ -1800,43 +1800,43 @@
         <v>1.909</v>
       </c>
       <c r="N15">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1845,7 +1845,7 @@
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5172795</v>
+        <v>5173743</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,76 +2132,76 @@
         <v>44969.52083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L19">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M19">
         <v>5</v>
       </c>
       <c r="N19">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O19">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5173743</v>
+        <v>5172795</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,76 +2221,76 @@
         <v>44969.52083333334</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M20">
         <v>5</v>
       </c>
       <c r="N20">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P20">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2313,7 +2313,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2758,7 +2758,7 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>44982.6875</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5173741</v>
+        <v>5172799</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L30">
+        <v>3.4</v>
+      </c>
+      <c r="M30">
+        <v>2.55</v>
+      </c>
+      <c r="N30">
+        <v>2.7</v>
+      </c>
+      <c r="O30">
         <v>3.5</v>
       </c>
-      <c r="M30">
-        <v>4.5</v>
-      </c>
-      <c r="N30">
-        <v>1.7</v>
-      </c>
-      <c r="O30">
-        <v>3.6</v>
-      </c>
       <c r="P30">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
+        <v>2.75</v>
+      </c>
+      <c r="U30">
+        <v>1.925</v>
+      </c>
+      <c r="V30">
+        <v>1.925</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
         <v>2.5</v>
       </c>
-      <c r="U30">
-        <v>2</v>
-      </c>
-      <c r="V30">
-        <v>1.85</v>
-      </c>
-      <c r="W30">
-        <v>-1</v>
-      </c>
-      <c r="X30">
-        <v>2.6</v>
-      </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5172799</v>
+        <v>5173741</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,76 +3200,76 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>42</v>
       </c>
       <c r="K31">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M31">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N31">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O31">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
+        <v>5.25</v>
+      </c>
+      <c r="Q31">
+        <v>-0.75</v>
+      </c>
+      <c r="R31">
+        <v>1.9</v>
+      </c>
+      <c r="S31">
+        <v>1.95</v>
+      </c>
+      <c r="T31">
         <v>2.5</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>2.025</v>
-      </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>2.75</v>
-      </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3645,10 +3645,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
         <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3826,7 +3826,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3912,7 +3912,7 @@
         <v>44997.42708333334</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5172805</v>
+        <v>5173739</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,76 +4001,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K40">
+        <v>2.05</v>
+      </c>
+      <c r="L40">
+        <v>3.4</v>
+      </c>
+      <c r="M40">
+        <v>3.2</v>
+      </c>
+      <c r="N40">
+        <v>2.1</v>
+      </c>
+      <c r="O40">
+        <v>3.4</v>
+      </c>
+      <c r="P40">
+        <v>3.5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.25</v>
+      </c>
+      <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
+        <v>2.05</v>
+      </c>
+      <c r="T40">
+        <v>2.5</v>
+      </c>
+      <c r="U40">
+        <v>1.9</v>
+      </c>
+      <c r="V40">
         <v>1.95</v>
       </c>
-      <c r="L40">
-        <v>3.5</v>
-      </c>
-      <c r="M40">
-        <v>3.3</v>
-      </c>
-      <c r="N40">
-        <v>1.85</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>4</v>
-      </c>
-      <c r="Q40">
-        <v>-0.5</v>
-      </c>
-      <c r="R40">
-        <v>1.825</v>
-      </c>
-      <c r="S40">
-        <v>2.025</v>
-      </c>
-      <c r="T40">
-        <v>3.25</v>
-      </c>
-      <c r="U40">
-        <v>2.025</v>
-      </c>
-      <c r="V40">
-        <v>1.825</v>
-      </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC40">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4078,7 +4078,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5173739</v>
+        <v>5172805</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4090,76 +4090,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M41">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W41">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4179,7 +4179,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4538,7 +4538,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4624,7 +4624,7 @@
         <v>45017.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -4983,7 +4983,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5069,7 +5069,7 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5161,7 +5161,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5324,7 +5324,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5172816</v>
+        <v>5173736</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5336,76 +5336,76 @@
         <v>45026.47916666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="L55">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="M55">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N55">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="O55">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="Q55">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z55">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5413,7 +5413,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5173736</v>
+        <v>5172816</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5425,76 +5425,76 @@
         <v>45026.47916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K56">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="L56">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="M56">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N56">
-        <v>3.6</v>
+        <v>1.285</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P56">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="Q56">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R56">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U56">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA56">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5514,7 +5514,7 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -5606,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -6051,7 +6051,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H63">
         <v>6</v>
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5172821</v>
+        <v>5181240</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,13 +6226,13 @@
         <v>45039.47916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6241,43 +6241,43 @@
         <v>44</v>
       </c>
       <c r="K65">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N65">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O65">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
+        <v>1.875</v>
+      </c>
+      <c r="S65">
         <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.875</v>
       </c>
       <c r="T65">
         <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6286,7 +6286,7 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6295,7 +6295,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5181240</v>
+        <v>5172821</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,13 +6315,13 @@
         <v>45039.47916666666</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6330,43 +6330,43 @@
         <v>44</v>
       </c>
       <c r="K66">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P66">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
         <v>1.875</v>
-      </c>
-      <c r="S66">
-        <v>1.975</v>
       </c>
       <c r="T66">
         <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6375,7 +6375,7 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA66">
         <v>-1</v>
@@ -6384,7 +6384,7 @@
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5172826</v>
+        <v>5172824</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,76 +6493,76 @@
         <v>45042.64583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
+        <v>2.875</v>
+      </c>
+      <c r="N68">
+        <v>2.05</v>
+      </c>
+      <c r="O68">
         <v>3.6</v>
       </c>
-      <c r="N68">
-        <v>1.909</v>
-      </c>
-      <c r="O68">
-        <v>3.8</v>
-      </c>
       <c r="P68">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q68">
         <v>-0.5</v>
       </c>
       <c r="R68">
+        <v>2.05</v>
+      </c>
+      <c r="S68">
+        <v>1.8</v>
+      </c>
+      <c r="T68">
+        <v>2.5</v>
+      </c>
+      <c r="U68">
         <v>1.9</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1.95</v>
       </c>
-      <c r="T68">
-        <v>3</v>
-      </c>
-      <c r="U68">
-        <v>1.975</v>
-      </c>
-      <c r="V68">
-        <v>1.875</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5172824</v>
+        <v>5172826</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,76 +6582,76 @@
         <v>45042.64583333334</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N69">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P69">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q69">
         <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z69">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB69">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -7027,7 +7027,7 @@
         <v>45046.38541666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>31</v>
@@ -7104,7 +7104,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5356263</v>
+        <v>5310236</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7116,73 +7116,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L75">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N75">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="O75">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W75">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB75">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7193,7 +7193,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>5310236</v>
+        <v>5356263</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7205,73 +7205,73 @@
         <v>45046.47916666666</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M76">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="O76">
+        <v>4.5</v>
+      </c>
+      <c r="P76">
+        <v>4.333</v>
+      </c>
+      <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
+        <v>1.8</v>
+      </c>
+      <c r="S76">
+        <v>2.05</v>
+      </c>
+      <c r="T76">
         <v>3.5</v>
       </c>
-      <c r="P76">
-        <v>2.2</v>
-      </c>
-      <c r="Q76">
-        <v>0.25</v>
-      </c>
-      <c r="R76">
-        <v>1.875</v>
-      </c>
-      <c r="S76">
-        <v>1.975</v>
-      </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V76">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7564,7 +7564,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>45059.64583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -7920,7 +7920,7 @@
         <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8187,7 +8187,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5471184</v>
+        <v>5466932</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N90">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1.85</v>
+      </c>
+      <c r="T90">
+        <v>2.75</v>
+      </c>
+      <c r="U90">
+        <v>1.95</v>
+      </c>
+      <c r="V90">
         <v>1.9</v>
       </c>
-      <c r="S90">
-        <v>1.95</v>
-      </c>
-      <c r="T90">
-        <v>3</v>
-      </c>
-      <c r="U90">
-        <v>2.025</v>
-      </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>0.475</v>
+      </c>
+      <c r="AC90">
         <v>-0.5</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5466932</v>
+        <v>5471184</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,76 +8540,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N91">
+        <v>3.1</v>
+      </c>
+      <c r="O91">
+        <v>3.5</v>
+      </c>
+      <c r="P91">
+        <v>2.25</v>
+      </c>
+      <c r="Q91">
+        <v>0.25</v>
+      </c>
+      <c r="R91">
+        <v>1.9</v>
+      </c>
+      <c r="S91">
         <v>1.95</v>
       </c>
-      <c r="O91">
-        <v>3.75</v>
-      </c>
-      <c r="P91">
-        <v>3.6</v>
-      </c>
-      <c r="Q91">
+      <c r="T91">
+        <v>3</v>
+      </c>
+      <c r="U91">
+        <v>2.025</v>
+      </c>
+      <c r="V91">
+        <v>1.825</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>2.5</v>
+      </c>
+      <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
+        <v>0.45</v>
+      </c>
+      <c r="AA91">
         <v>-0.5</v>
       </c>
-      <c r="R91">
-        <v>2</v>
-      </c>
-      <c r="S91">
-        <v>1.85</v>
-      </c>
-      <c r="T91">
-        <v>2.75</v>
-      </c>
-      <c r="U91">
-        <v>1.95</v>
-      </c>
-      <c r="V91">
-        <v>1.9</v>
-      </c>
-      <c r="W91">
-        <v>0.95</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>-1</v>
-      </c>
-      <c r="Z91">
-        <v>1</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5498511</v>
+        <v>5498510</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,76 +8629,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L92">
         <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="N92">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P92">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q92">
         <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC92">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5505837</v>
+        <v>5498511</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,76 +8718,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K93">
+        <v>3.2</v>
+      </c>
+      <c r="L93">
         <v>3.5</v>
       </c>
-      <c r="L93">
+      <c r="M93">
+        <v>2.15</v>
+      </c>
+      <c r="N93">
         <v>3.75</v>
       </c>
-      <c r="M93">
+      <c r="O93">
+        <v>3.75</v>
+      </c>
+      <c r="P93">
         <v>1.95</v>
       </c>
-      <c r="N93">
-        <v>2.55</v>
-      </c>
-      <c r="O93">
-        <v>4</v>
-      </c>
-      <c r="P93">
-        <v>2.45</v>
-      </c>
       <c r="Q93">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>3.25</v>
       </c>
       <c r="U93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC93">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5498510</v>
+        <v>5505837</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,76 +8896,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K95">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
+        <v>1.95</v>
+      </c>
+      <c r="N95">
         <v>2.55</v>
       </c>
-      <c r="N95">
-        <v>3.4</v>
-      </c>
       <c r="O95">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P95">
+        <v>2.45</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
         <v>1.85</v>
       </c>
-      <c r="Q95">
-        <v>0.5</v>
-      </c>
-      <c r="R95">
-        <v>1.975</v>
-      </c>
-      <c r="S95">
-        <v>1.875</v>
-      </c>
       <c r="T95">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X95">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5578546</v>
+        <v>5574694</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,73 +9163,73 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
         <v>3</v>
       </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N98">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S98">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z98">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5578547</v>
+        <v>5578546</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,76 +9252,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L99">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="N99">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.825</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>0.95</v>
       </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5574693</v>
+        <v>5578547</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,40 +9341,40 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="M100">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N100">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="O100">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9383,34 +9383,34 @@
         <v>1.975</v>
       </c>
       <c r="T100">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5574694</v>
+        <v>5574693</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,76 +9430,76 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>2.55</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P101">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
+        <v>1.975</v>
+      </c>
+      <c r="T101">
+        <v>3.75</v>
+      </c>
+      <c r="U101">
+        <v>2</v>
+      </c>
+      <c r="V101">
         <v>1.85</v>
       </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.925</v>
-      </c>
-      <c r="V101">
-        <v>1.925</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6811200</v>
+        <v>6810293</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9519,76 +9519,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L102">
+        <v>3.4</v>
+      </c>
+      <c r="M102">
+        <v>1.95</v>
+      </c>
+      <c r="N102">
         <v>3.5</v>
       </c>
-      <c r="M102">
-        <v>3</v>
-      </c>
-      <c r="N102">
-        <v>1.8</v>
-      </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
+        <v>1.825</v>
+      </c>
+      <c r="S102">
         <v>2.025</v>
       </c>
-      <c r="S102">
-        <v>1.825</v>
-      </c>
       <c r="T102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z102">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6810293</v>
+        <v>6811200</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45129.54166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>44</v>
+      </c>
+      <c r="K103">
+        <v>2.1</v>
+      </c>
+      <c r="L103">
+        <v>3.5</v>
+      </c>
+      <c r="M103">
         <v>3</v>
       </c>
-      <c r="J103" t="s">
-        <v>43</v>
-      </c>
-      <c r="K103">
-        <v>3.4</v>
-      </c>
-      <c r="L103">
-        <v>3.4</v>
-      </c>
-      <c r="M103">
-        <v>1.95</v>
-      </c>
       <c r="N103">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O103">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
+        <v>2.025</v>
+      </c>
+      <c r="S103">
         <v>1.825</v>
       </c>
-      <c r="S103">
-        <v>2.025</v>
-      </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6811202</v>
+        <v>6810762</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,34 +9786,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>44</v>
       </c>
       <c r="K105">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="L105">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M105">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N105">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O105">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P105">
         <v>7</v>
@@ -9822,22 +9822,22 @@
         <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W105">
-        <v>0.3999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9846,16 +9846,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA105">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6810762</v>
+        <v>6811202</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,34 +9875,34 @@
         <v>45130.47916666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
       </c>
       <c r="K106">
-        <v>1.533</v>
+        <v>1.25</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M106">
+        <v>7.5</v>
+      </c>
+      <c r="N106">
+        <v>1.4</v>
+      </c>
+      <c r="O106">
         <v>5.25</v>
-      </c>
-      <c r="N106">
-        <v>1.45</v>
-      </c>
-      <c r="O106">
-        <v>4.5</v>
       </c>
       <c r="P106">
         <v>7</v>
@@ -9911,22 +9911,22 @@
         <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
+        <v>3.25</v>
+      </c>
+      <c r="U106">
+        <v>2</v>
+      </c>
+      <c r="V106">
         <v>1.85</v>
       </c>
-      <c r="T106">
-        <v>2.75</v>
-      </c>
-      <c r="U106">
-        <v>1.8</v>
-      </c>
-      <c r="V106">
-        <v>2.05</v>
-      </c>
       <c r="W106">
-        <v>0.45</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9935,16 +9935,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10231,10 +10231,10 @@
         <v>45136.64583333334</v>
       </c>
       <c r="F110" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s">
         <v>37</v>
-      </c>
-      <c r="G110" t="s">
-        <v>36</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6811206</v>
+        <v>6810763</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,49 +10409,49 @@
         <v>45137.47916666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112" t="s">
+        <v>42</v>
+      </c>
+      <c r="K112">
+        <v>5.75</v>
+      </c>
+      <c r="L112">
         <v>5</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
-      <c r="J112" t="s">
-        <v>44</v>
-      </c>
-      <c r="K112">
-        <v>1.615</v>
-      </c>
-      <c r="L112">
-        <v>3.8</v>
-      </c>
       <c r="M112">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="N112">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P112">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U112">
         <v>1.85</v>
@@ -10460,16 +10460,16 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6810763</v>
+        <v>6811206</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,49 +10498,49 @@
         <v>45137.47916666666</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K113">
-        <v>5.75</v>
+        <v>1.615</v>
       </c>
       <c r="L113">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
-        <v>1.444</v>
+        <v>5.25</v>
       </c>
       <c r="N113">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>1.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q113">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
         <v>1.85</v>
@@ -10549,16 +10549,16 @@
         <v>2</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X113">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10679,7 +10679,7 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10765,7 +10765,7 @@
         <v>45143.64583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -11124,7 +11124,7 @@
         <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>45150.64583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>32</v>
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6811212</v>
+        <v>6810765</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45151.47916666666</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M124">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N124">
+        <v>1.444</v>
+      </c>
+      <c r="O124">
+        <v>5</v>
+      </c>
+      <c r="P124">
+        <v>6.5</v>
+      </c>
+      <c r="Q124">
+        <v>-1.25</v>
+      </c>
+      <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
         <v>3</v>
       </c>
-      <c r="O124">
-        <v>3.3</v>
-      </c>
-      <c r="P124">
-        <v>2.375</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X124">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6810765</v>
+        <v>6811212</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45151.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K125">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="L125">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N125">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W125">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11655,7 +11655,7 @@
         <v>45164.54166666666</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
         <v>32</v>
@@ -11747,7 +11747,7 @@
         <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -12278,7 +12278,7 @@
         <v>45172.38541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
         <v>35</v>
@@ -12370,7 +12370,7 @@
         <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12548,7 +12548,7 @@
         <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12889,7 +12889,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6811225</v>
+        <v>6810298</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12901,58 +12901,58 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>44</v>
       </c>
       <c r="K140">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N140">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O140">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>0.6499999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12961,16 +12961,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12978,7 +12978,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6810298</v>
+        <v>6811225</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12990,58 +12990,58 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
         <v>44</v>
       </c>
       <c r="K141">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L141">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N141">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O141">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13050,16 +13050,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA141">
         <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>45195.64583333334</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
         <v>30</v>
@@ -13156,7 +13156,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6811227</v>
+        <v>6810299</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13168,76 +13168,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K143">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N143">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
+        <v>1.875</v>
+      </c>
+      <c r="S143">
+        <v>1.975</v>
+      </c>
+      <c r="T143">
+        <v>3</v>
+      </c>
+      <c r="U143">
         <v>1.95</v>
       </c>
-      <c r="S143">
+      <c r="V143">
         <v>1.9</v>
       </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.825</v>
-      </c>
-      <c r="V143">
-        <v>2.025</v>
-      </c>
       <c r="W143">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB143">
         <v>0.95</v>
       </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
-      <c r="AB143">
-        <v>0.4125</v>
-      </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13245,7 +13245,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6810299</v>
+        <v>6811227</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13257,76 +13257,76 @@
         <v>45196.64583333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L144">
+        <v>3.75</v>
+      </c>
+      <c r="M144">
         <v>4</v>
       </c>
-      <c r="M144">
-        <v>4.75</v>
-      </c>
       <c r="N144">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O144">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X144">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6810768</v>
+        <v>6811229</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,10 +13435,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13450,61 +13450,61 @@
         <v>42</v>
       </c>
       <c r="K146">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N146">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O146">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P146">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>1.925</v>
+      </c>
+      <c r="T146">
+        <v>3</v>
+      </c>
+      <c r="U146">
+        <v>1.95</v>
+      </c>
+      <c r="V146">
         <v>1.9</v>
       </c>
-      <c r="S146">
-        <v>1.95</v>
-      </c>
-      <c r="T146">
-        <v>2.75</v>
-      </c>
-      <c r="U146">
-        <v>1.85</v>
-      </c>
-      <c r="V146">
-        <v>2</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6811229</v>
+        <v>6810768</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,10 +13524,10 @@
         <v>45197.64583333334</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13539,61 +13539,61 @@
         <v>42</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
+        <v>4</v>
+      </c>
+      <c r="N147">
+        <v>2.15</v>
+      </c>
+      <c r="O147">
+        <v>3.75</v>
+      </c>
+      <c r="P147">
+        <v>3.1</v>
+      </c>
+      <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
+        <v>1.95</v>
+      </c>
+      <c r="T147">
         <v>2.75</v>
       </c>
-      <c r="N147">
-        <v>2.55</v>
-      </c>
-      <c r="O147">
-        <v>3.6</v>
-      </c>
-      <c r="P147">
-        <v>2.55</v>
-      </c>
-      <c r="Q147">
-        <v>0</v>
-      </c>
-      <c r="R147">
-        <v>1.925</v>
-      </c>
-      <c r="S147">
-        <v>1.925</v>
-      </c>
-      <c r="T147">
-        <v>3</v>
-      </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6810300</v>
+        <v>6811230</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,40 +13613,40 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H148">
         <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="N148">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O148">
         <v>3.6</v>
       </c>
       <c r="P148">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R148">
         <v>1.925</v>
@@ -13655,34 +13655,34 @@
         <v>1.925</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U148">
+        <v>2.025</v>
+      </c>
+      <c r="V148">
         <v>1.825</v>
       </c>
-      <c r="V148">
-        <v>2.025</v>
-      </c>
       <c r="W148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
         <v>0.925</v>
       </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
       <c r="AB148">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6811230</v>
+        <v>6810300</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,40 +13702,40 @@
         <v>45199.54166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>2</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K149">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L149">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M149">
-        <v>2.25</v>
+        <v>4.1</v>
       </c>
       <c r="N149">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O149">
         <v>3.6</v>
       </c>
       <c r="P149">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
         <v>1.925</v>
@@ -13744,34 +13744,34 @@
         <v>1.925</v>
       </c>
       <c r="T149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U149">
+        <v>1.825</v>
+      </c>
+      <c r="V149">
         <v>2.025</v>
       </c>
-      <c r="V149">
-        <v>1.825</v>
-      </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA149">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6811233</v>
+        <v>6811232</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,55 +13969,55 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J152" t="s">
         <v>43</v>
       </c>
       <c r="K152">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L152">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M152">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="N152">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="O152">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P152">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W152">
         <v>-1</v>
@@ -14026,19 +14026,19 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.875</v>
+        <v>3.333</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB152">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6811232</v>
+        <v>6811233</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,76 +14058,76 @@
         <v>45200.47916666666</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J153" t="s">
         <v>43</v>
       </c>
       <c r="K153">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L153">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="N153">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T153">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
+        <v>1.9</v>
+      </c>
+      <c r="V153">
+        <v>1.95</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
         <v>1.875</v>
       </c>
-      <c r="V153">
-        <v>1.975</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>3.333</v>
-      </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14135,7 +14135,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6810770</v>
+        <v>6811234</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14147,76 +14147,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154" t="s">
+        <v>44</v>
+      </c>
+      <c r="K154">
+        <v>1.571</v>
+      </c>
+      <c r="L154">
+        <v>4.333</v>
+      </c>
+      <c r="M154">
+        <v>4.75</v>
+      </c>
+      <c r="N154">
+        <v>1.615</v>
+      </c>
+      <c r="O154">
+        <v>4.2</v>
+      </c>
+      <c r="P154">
+        <v>5.25</v>
+      </c>
+      <c r="Q154">
+        <v>-1</v>
+      </c>
+      <c r="R154">
+        <v>2.05</v>
+      </c>
+      <c r="S154">
+        <v>1.8</v>
+      </c>
+      <c r="T154">
+        <v>3</v>
+      </c>
+      <c r="U154">
+        <v>1.925</v>
+      </c>
+      <c r="V154">
+        <v>1.925</v>
+      </c>
+      <c r="W154">
+        <v>0.615</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>3</v>
-      </c>
-      <c r="J154" t="s">
-        <v>43</v>
-      </c>
-      <c r="K154">
-        <v>2.55</v>
-      </c>
-      <c r="L154">
-        <v>3.4</v>
-      </c>
-      <c r="M154">
-        <v>2.55</v>
-      </c>
-      <c r="N154">
-        <v>2.5</v>
-      </c>
-      <c r="O154">
-        <v>3.5</v>
-      </c>
-      <c r="P154">
-        <v>2.75</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
-        <v>1.875</v>
-      </c>
-      <c r="S154">
-        <v>1.975</v>
-      </c>
-      <c r="T154">
-        <v>2.75</v>
-      </c>
-      <c r="U154">
-        <v>1.875</v>
-      </c>
-      <c r="V154">
-        <v>1.975</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
-        <v>-1</v>
-      </c>
-      <c r="Y154">
-        <v>1.75</v>
-      </c>
-      <c r="Z154">
-        <v>-1</v>
-      </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB154">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6811234</v>
+        <v>6810770</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,76 +14236,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
         <v>3</v>
       </c>
-      <c r="I155">
-        <v>2</v>
-      </c>
       <c r="J155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K155">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L155">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N155">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="O155">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P155">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14417,7 +14417,7 @@
         <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14669,7 +14669,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6811238</v>
+        <v>6811239</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14681,55 +14681,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
         <v>42</v>
       </c>
       <c r="K160">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L160">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M160">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N160">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O160">
         <v>3.75</v>
       </c>
       <c r="P160">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14741,16 +14741,16 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB160">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14758,7 +14758,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6811239</v>
+        <v>6811238</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14770,55 +14770,55 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>42</v>
       </c>
       <c r="K161">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L161">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M161">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="O161">
         <v>3.75</v>
       </c>
       <c r="P161">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S161">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14830,16 +14830,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA161">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14862,7 +14862,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6810771</v>
+        <v>6811241</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,10 +15037,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15052,43 +15052,43 @@
         <v>44</v>
       </c>
       <c r="K164">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="L164">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M164">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N164">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O164">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P164">
-        <v>4.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
         <v>3</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15097,10 +15097,10 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA164">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
         <v>0</v>
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6811241</v>
+        <v>6810771</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,10 +15126,10 @@
         <v>45221.47916666666</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -15141,43 +15141,43 @@
         <v>44</v>
       </c>
       <c r="K165">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M165">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N165">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P165">
-        <v>2.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W165">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15186,10 +15186,10 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
         <v>39</v>
@@ -15571,7 +15571,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G170" t="s">
         <v>29</v>
@@ -15737,7 +15737,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6811245</v>
+        <v>6811248</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15749,73 +15749,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>4</v>
+      </c>
+      <c r="J172" t="s">
+        <v>43</v>
+      </c>
+      <c r="K172">
+        <v>3.8</v>
+      </c>
+      <c r="L172">
+        <v>4</v>
+      </c>
+      <c r="M172">
+        <v>1.727</v>
+      </c>
+      <c r="N172">
+        <v>3.5</v>
+      </c>
+      <c r="O172">
+        <v>3.75</v>
+      </c>
+      <c r="P172">
+        <v>2</v>
+      </c>
+      <c r="Q172">
+        <v>0.5</v>
+      </c>
+      <c r="R172">
+        <v>1.825</v>
+      </c>
+      <c r="S172">
+        <v>2.025</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="I172">
-        <v>1</v>
-      </c>
-      <c r="J172" t="s">
-        <v>44</v>
-      </c>
-      <c r="K172">
-        <v>2.25</v>
-      </c>
-      <c r="L172">
-        <v>3.4</v>
-      </c>
-      <c r="M172">
-        <v>2.875</v>
-      </c>
-      <c r="N172">
-        <v>2.375</v>
-      </c>
-      <c r="O172">
-        <v>3.4</v>
-      </c>
-      <c r="P172">
-        <v>3</v>
-      </c>
-      <c r="Q172">
-        <v>-0.25</v>
-      </c>
-      <c r="R172">
-        <v>2.05</v>
-      </c>
-      <c r="S172">
-        <v>1.8</v>
-      </c>
-      <c r="T172">
-        <v>2.75</v>
-      </c>
       <c r="U172">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V172">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z172">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB172">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6811248</v>
+        <v>6811245</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,73 +15838,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K173">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M173">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N173">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O173">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q173">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S173">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA173">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15927,10 +15927,10 @@
         <v>45234.6875</v>
       </c>
       <c r="F174" t="s">
+        <v>37</v>
+      </c>
+      <c r="G174" t="s">
         <v>36</v>
-      </c>
-      <c r="G174" t="s">
-        <v>37</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16642,7 +16642,7 @@
         <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16728,7 +16728,7 @@
         <v>45242.52083333334</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
         <v>34</v>
@@ -16805,7 +16805,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6811256</v>
+        <v>6811255</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16817,10 +16817,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H184">
         <v>3</v>
@@ -16832,43 +16832,43 @@
         <v>44</v>
       </c>
       <c r="K184">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L184">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M184">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N184">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S184">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V184">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W184">
-        <v>1.45</v>
+        <v>0.833</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16877,13 +16877,13 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC184">
         <v>-1</v>
@@ -16894,7 +16894,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6811255</v>
+        <v>6811256</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16906,10 +16906,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>3</v>
@@ -16921,43 +16921,43 @@
         <v>44</v>
       </c>
       <c r="K185">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M185">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N185">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P185">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>0.833</v>
+        <v>1.45</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16966,13 +16966,13 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6810306</v>
+        <v>6811253</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,10 +17173,10 @@
         <v>45256.52083333334</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17188,43 +17188,43 @@
         <v>44</v>
       </c>
       <c r="K188">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N188">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q188">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>0.55</v>
+        <v>2</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17233,7 +17233,7 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA188">
         <v>-1</v>
@@ -17242,7 +17242,7 @@
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6811253</v>
+        <v>6810306</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,10 +17262,10 @@
         <v>45256.52083333334</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>2</v>
@@ -17277,43 +17277,43 @@
         <v>44</v>
       </c>
       <c r="K189">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L189">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P189">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T189">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W189">
-        <v>2</v>
+        <v>0.55</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17322,7 +17322,7 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
         <v>-1</v>
@@ -17331,7 +17331,7 @@
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17339,7 +17339,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6811258</v>
+        <v>6811291</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17351,22 +17351,22 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K190">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="L190">
         <v>3.6</v>
@@ -17375,52 +17375,52 @@
         <v>2.5</v>
       </c>
       <c r="N190">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O190">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X190">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA190">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC190">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17428,7 +17428,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6811291</v>
+        <v>6811258</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17440,22 +17440,22 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K191">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L191">
         <v>3.6</v>
@@ -17464,52 +17464,52 @@
         <v>2.5</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB191">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6810307</v>
+        <v>6811257</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,76 +17529,76 @@
         <v>45263.52083333334</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N192">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O192">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T192">
         <v>3</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X192">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA192">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6811257</v>
+        <v>6810307</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,76 +17618,76 @@
         <v>45263.52083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>1</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K193">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
+        <v>3.25</v>
+      </c>
+      <c r="N193">
+        <v>2.1</v>
+      </c>
+      <c r="O193">
+        <v>4</v>
+      </c>
+      <c r="P193">
         <v>3</v>
-      </c>
-      <c r="N193">
-        <v>2.25</v>
-      </c>
-      <c r="O193">
-        <v>3.5</v>
-      </c>
-      <c r="P193">
-        <v>3.2</v>
       </c>
       <c r="Q193">
         <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T193">
         <v>3</v>
       </c>
       <c r="U193">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7505765</v>
+        <v>7107309</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,76 +17796,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H195">
         <v>1</v>
       </c>
       <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>44</v>
+      </c>
+      <c r="K195">
+        <v>1.363</v>
+      </c>
+      <c r="L195">
+        <v>5.5</v>
+      </c>
+      <c r="M195">
+        <v>6.5</v>
+      </c>
+      <c r="N195">
+        <v>1.5</v>
+      </c>
+      <c r="O195">
+        <v>4.75</v>
+      </c>
+      <c r="P195">
+        <v>5.5</v>
+      </c>
+      <c r="Q195">
+        <v>-1</v>
+      </c>
+      <c r="R195">
+        <v>1.8</v>
+      </c>
+      <c r="S195">
+        <v>2.05</v>
+      </c>
+      <c r="T195">
         <v>3</v>
       </c>
-      <c r="J195" t="s">
-        <v>43</v>
-      </c>
-      <c r="K195">
-        <v>1.95</v>
-      </c>
-      <c r="L195">
-        <v>3.75</v>
-      </c>
-      <c r="M195">
-        <v>3.5</v>
-      </c>
-      <c r="N195">
-        <v>1.85</v>
-      </c>
-      <c r="O195">
-        <v>3.75</v>
-      </c>
-      <c r="P195">
-        <v>4</v>
-      </c>
-      <c r="Q195">
-        <v>-0.5</v>
-      </c>
-      <c r="R195">
-        <v>1.875</v>
-      </c>
-      <c r="S195">
-        <v>1.975</v>
-      </c>
-      <c r="T195">
-        <v>2.75</v>
-      </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA195">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB195">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7107309</v>
+        <v>7505765</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,76 +17885,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>1</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K196">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L196">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O196">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P196">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S196">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
+        <v>1.85</v>
+      </c>
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
         <v>3</v>
       </c>
-      <c r="U196">
-        <v>1.825</v>
-      </c>
-      <c r="V196">
-        <v>2.025</v>
-      </c>
-      <c r="W196">
-        <v>0.5</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
       <c r="Z196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC196">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17962,7 +17962,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6811292</v>
+        <v>6811262</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17974,49 +17974,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G197" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H197">
+        <v>3</v>
+      </c>
+      <c r="I197">
         <v>0</v>
       </c>
-      <c r="I197">
-        <v>1</v>
-      </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K197">
         <v>2</v>
       </c>
       <c r="L197">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M197">
+        <v>3.3</v>
+      </c>
+      <c r="N197">
+        <v>2.3</v>
+      </c>
+      <c r="O197">
+        <v>4</v>
+      </c>
+      <c r="P197">
+        <v>2.8</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>2.025</v>
+      </c>
+      <c r="S197">
+        <v>1.775</v>
+      </c>
+      <c r="T197">
         <v>3.5</v>
-      </c>
-      <c r="N197">
-        <v>1.833</v>
-      </c>
-      <c r="O197">
-        <v>3.8</v>
-      </c>
-      <c r="P197">
-        <v>4.2</v>
-      </c>
-      <c r="Q197">
-        <v>-0.5</v>
-      </c>
-      <c r="R197">
-        <v>1.825</v>
-      </c>
-      <c r="S197">
-        <v>2.025</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
       </c>
       <c r="U197">
         <v>1.975</v>
@@ -18025,19 +18025,19 @@
         <v>1.875</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA197">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6811262</v>
+        <v>6811292</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,49 +18063,49 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K198">
         <v>2</v>
       </c>
       <c r="L198">
+        <v>3.6</v>
+      </c>
+      <c r="M198">
+        <v>3.5</v>
+      </c>
+      <c r="N198">
+        <v>1.833</v>
+      </c>
+      <c r="O198">
         <v>3.8</v>
       </c>
-      <c r="M198">
-        <v>3.3</v>
-      </c>
-      <c r="N198">
-        <v>2.3</v>
-      </c>
-      <c r="O198">
-        <v>4</v>
-      </c>
       <c r="P198">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q198">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
+        <v>1.825</v>
+      </c>
+      <c r="S198">
         <v>2.025</v>
       </c>
-      <c r="S198">
-        <v>1.775</v>
-      </c>
       <c r="T198">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
         <v>1.975</v>
@@ -18114,19 +18114,19 @@
         <v>1.875</v>
       </c>
       <c r="W198">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
         <v>1.025</v>
-      </c>
-      <c r="AA198">
-        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
@@ -18155,7 +18155,7 @@
         <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18419,7 +18419,7 @@
         <v>45270.52083333334</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
         <v>29</v>
@@ -18511,7 +18511,7 @@
         <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18689,7 +18689,7 @@
         <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>45277.52083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
         <v>33</v>
@@ -19297,7 +19297,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6811268</v>
+        <v>6811270</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19309,76 +19309,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K212">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L212">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M212">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N212">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O212">
         <v>4</v>
       </c>
       <c r="P212">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q212">
         <v>-0.75</v>
       </c>
       <c r="R212">
+        <v>1.975</v>
+      </c>
+      <c r="S212">
+        <v>1.875</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
         <v>1.825</v>
       </c>
-      <c r="S212">
+      <c r="V212">
         <v>2.025</v>
       </c>
-      <c r="T212">
-        <v>2.75</v>
-      </c>
-      <c r="U212">
-        <v>1.975</v>
-      </c>
-      <c r="V212">
-        <v>1.875</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y212">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
+        <v>0.875</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
         <v>1.025</v>
-      </c>
-      <c r="AB212">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC212">
-        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19386,7 +19386,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6811270</v>
+        <v>6811268</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19398,76 +19398,76 @@
         <v>45312.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G213" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K213">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M213">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N213">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O213">
         <v>4</v>
       </c>
       <c r="P213">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
+        <v>2.025</v>
+      </c>
+      <c r="T213">
+        <v>2.75</v>
+      </c>
+      <c r="U213">
         <v>1.975</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.875</v>
       </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>1.825</v>
-      </c>
-      <c r="V213">
-        <v>2.025</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19475,7 +19475,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6810779</v>
+        <v>6810310</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19487,76 +19487,76 @@
         <v>45314.625</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K214">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="L214">
         <v>3.6</v>
       </c>
       <c r="M214">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N214">
         <v>3.2</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q214">
         <v>0.25</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W214">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19564,7 +19564,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6810310</v>
+        <v>6810779</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19576,76 +19576,76 @@
         <v>45314.625</v>
       </c>
       <c r="F215" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K215">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="L215">
         <v>3.6</v>
       </c>
       <c r="M215">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N215">
         <v>3.2</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P215">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q215">
         <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X215">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>0.4</v>
+      </c>
+      <c r="AC215">
         <v>-0.5</v>
-      </c>
-      <c r="AB215">
-        <v>0.875</v>
-      </c>
-      <c r="AC215">
-        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19754,7 +19754,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G217" t="s">
         <v>41</v>
@@ -20009,7 +20009,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6811272</v>
+        <v>6811273</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20021,10 +20021,10 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20036,43 +20036,43 @@
         <v>44</v>
       </c>
       <c r="K220">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L220">
+        <v>3.5</v>
+      </c>
+      <c r="M220">
+        <v>5</v>
+      </c>
+      <c r="N220">
+        <v>2.05</v>
+      </c>
+      <c r="O220">
         <v>3.6</v>
       </c>
-      <c r="M220">
-        <v>1.909</v>
-      </c>
-      <c r="N220">
+      <c r="P220">
         <v>3.5</v>
       </c>
-      <c r="O220">
-        <v>3.8</v>
-      </c>
-      <c r="P220">
-        <v>1.95</v>
-      </c>
       <c r="Q220">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20081,16 +20081,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20098,7 +20098,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6811273</v>
+        <v>6811272</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20110,10 +20110,10 @@
         <v>45319.52083333334</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H221">
         <v>2</v>
@@ -20125,43 +20125,43 @@
         <v>44</v>
       </c>
       <c r="K221">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L221">
+        <v>3.6</v>
+      </c>
+      <c r="M221">
+        <v>1.909</v>
+      </c>
+      <c r="N221">
         <v>3.5</v>
       </c>
-      <c r="M221">
-        <v>5</v>
-      </c>
-      <c r="N221">
-        <v>2.05</v>
-      </c>
       <c r="O221">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R221">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W221">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20170,16 +20170,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20365,7 +20365,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6810311</v>
+        <v>6811276</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20377,76 +20377,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K224">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L224">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N224">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O224">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P224">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S224">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V224">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y224">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB224">
         <v>-1</v>
       </c>
       <c r="AC224">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20466,7 +20466,7 @@
         <v>45322.6875</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G225" t="s">
         <v>40</v>
@@ -20543,7 +20543,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6811276</v>
+        <v>6810311</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,76 +20555,76 @@
         <v>45322.6875</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H226">
         <v>0</v>
       </c>
       <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226" t="s">
+        <v>43</v>
+      </c>
+      <c r="K226">
+        <v>1.909</v>
+      </c>
+      <c r="L226">
+        <v>3.8</v>
+      </c>
+      <c r="M226">
+        <v>3.6</v>
+      </c>
+      <c r="N226">
+        <v>2.5</v>
+      </c>
+      <c r="O226">
+        <v>3.4</v>
+      </c>
+      <c r="P226">
+        <v>2.75</v>
+      </c>
+      <c r="Q226">
         <v>0</v>
       </c>
-      <c r="J226" t="s">
-        <v>42</v>
-      </c>
-      <c r="K226">
-        <v>1.727</v>
-      </c>
-      <c r="L226">
-        <v>4</v>
-      </c>
-      <c r="M226">
-        <v>4.333</v>
-      </c>
-      <c r="N226">
-        <v>1.85</v>
-      </c>
-      <c r="O226">
-        <v>3.75</v>
-      </c>
-      <c r="P226">
-        <v>4</v>
-      </c>
-      <c r="Q226">
-        <v>-0.5</v>
-      </c>
       <c r="R226">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S226">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T226">
         <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB226">
         <v>-1</v>
       </c>
       <c r="AC226">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20721,7 +20721,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6811282</v>
+        <v>6811281</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20733,10 +20733,10 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20748,40 +20748,40 @@
         <v>43</v>
       </c>
       <c r="K228">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L228">
+        <v>3.9</v>
+      </c>
+      <c r="M228">
+        <v>2.7</v>
+      </c>
+      <c r="N228">
+        <v>2.375</v>
+      </c>
+      <c r="O228">
         <v>3.8</v>
       </c>
-      <c r="M228">
-        <v>2.2</v>
-      </c>
-      <c r="N228">
-        <v>2.875</v>
-      </c>
-      <c r="O228">
-        <v>3.5</v>
-      </c>
       <c r="P228">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T228">
         <v>2.75</v>
       </c>
       <c r="U228">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W228">
         <v>-1</v>
@@ -20790,19 +20790,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20810,7 +20810,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6811281</v>
+        <v>6811282</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20822,10 +20822,10 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20837,40 +20837,40 @@
         <v>43</v>
       </c>
       <c r="K229">
+        <v>2.9</v>
+      </c>
+      <c r="L229">
+        <v>3.8</v>
+      </c>
+      <c r="M229">
+        <v>2.2</v>
+      </c>
+      <c r="N229">
+        <v>2.875</v>
+      </c>
+      <c r="O229">
+        <v>3.5</v>
+      </c>
+      <c r="P229">
         <v>2.3</v>
       </c>
-      <c r="L229">
-        <v>3.9</v>
-      </c>
-      <c r="M229">
-        <v>2.7</v>
-      </c>
-      <c r="N229">
-        <v>2.375</v>
-      </c>
-      <c r="O229">
-        <v>3.8</v>
-      </c>
-      <c r="P229">
-        <v>2.75</v>
-      </c>
       <c r="Q229">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R229">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S229">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T229">
         <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W229">
         <v>-1</v>
@@ -20879,19 +20879,19 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z229">
         <v>-1</v>
       </c>
       <c r="AA229">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H231">
         <v>3</v>
@@ -21089,7 +21089,7 @@
         <v>45326.52083333334</v>
       </c>
       <c r="F232" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
         <v>39</v>
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7616921</v>
+        <v>7616922</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,67 +21267,67 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K234">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N234">
+        <v>4.333</v>
+      </c>
+      <c r="O234">
+        <v>3.6</v>
+      </c>
+      <c r="P234">
         <v>1.85</v>
       </c>
-      <c r="O234">
-        <v>3.4</v>
-      </c>
-      <c r="P234">
-        <v>4.5</v>
-      </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R234">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V234">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA234">
         <v>-1</v>
@@ -21336,7 +21336,7 @@
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7616922</v>
+        <v>7616921</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,67 +21356,67 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K235">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="L235">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M235">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N235">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q235">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U235">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V235">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X235">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA235">
         <v>-1</v>
@@ -21425,7 +21425,7 @@
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21611,7 +21611,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7616924</v>
+        <v>7616836</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21623,58 +21623,58 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
         <v>44</v>
       </c>
       <c r="K238">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="L238">
+        <v>4.333</v>
+      </c>
+      <c r="M238">
+        <v>1.615</v>
+      </c>
+      <c r="N238">
+        <v>4</v>
+      </c>
+      <c r="O238">
         <v>3.75</v>
       </c>
-      <c r="M238">
-        <v>2.25</v>
-      </c>
-      <c r="N238">
-        <v>2.3</v>
-      </c>
-      <c r="O238">
-        <v>3.5</v>
-      </c>
       <c r="P238">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
+        <v>1.9</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
         <v>1.85</v>
       </c>
-      <c r="T238">
-        <v>2.75</v>
-      </c>
-      <c r="U238">
-        <v>2.025</v>
-      </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W238">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21683,16 +21683,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21700,7 +21700,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7616836</v>
+        <v>7616924</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21712,58 +21712,58 @@
         <v>45333.52083333334</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
         <v>44</v>
       </c>
       <c r="K239">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="L239">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N239">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O239">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
+        <v>3.1</v>
+      </c>
+      <c r="Q239">
+        <v>-0.25</v>
+      </c>
+      <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
         <v>1.85</v>
       </c>
-      <c r="Q239">
-        <v>0.5</v>
-      </c>
-      <c r="R239">
-        <v>1.95</v>
-      </c>
-      <c r="S239">
-        <v>1.9</v>
-      </c>
       <c r="T239">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V239">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21772,16 +21772,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21789,7 +21789,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7616880</v>
+        <v>7616929</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21801,49 +21801,49 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K240">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L240">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M240">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N240">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O240">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P240">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S240">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U240">
         <v>1.925</v>
@@ -21852,19 +21852,19 @@
         <v>1.925</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X240">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA240">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
         <v>0.925</v>
@@ -21878,7 +21878,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7616929</v>
+        <v>7616880</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21890,49 +21890,49 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G241" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H241">
+        <v>2</v>
+      </c>
+      <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241" t="s">
+        <v>42</v>
+      </c>
+      <c r="K241">
+        <v>1.571</v>
+      </c>
+      <c r="L241">
+        <v>4.2</v>
+      </c>
+      <c r="M241">
+        <v>5.25</v>
+      </c>
+      <c r="N241">
+        <v>2</v>
+      </c>
+      <c r="O241">
+        <v>4</v>
+      </c>
+      <c r="P241">
+        <v>3.25</v>
+      </c>
+      <c r="Q241">
+        <v>-0.5</v>
+      </c>
+      <c r="R241">
+        <v>2.025</v>
+      </c>
+      <c r="S241">
+        <v>1.825</v>
+      </c>
+      <c r="T241">
         <v>3</v>
-      </c>
-      <c r="I241">
-        <v>1</v>
-      </c>
-      <c r="J241" t="s">
-        <v>44</v>
-      </c>
-      <c r="K241">
-        <v>1.727</v>
-      </c>
-      <c r="L241">
-        <v>3.6</v>
-      </c>
-      <c r="M241">
-        <v>4.75</v>
-      </c>
-      <c r="N241">
-        <v>1.75</v>
-      </c>
-      <c r="O241">
-        <v>3.8</v>
-      </c>
-      <c r="P241">
-        <v>4.5</v>
-      </c>
-      <c r="Q241">
-        <v>-0.75</v>
-      </c>
-      <c r="R241">
-        <v>1.925</v>
-      </c>
-      <c r="S241">
-        <v>1.925</v>
-      </c>
-      <c r="T241">
-        <v>2.75</v>
       </c>
       <c r="U241">
         <v>1.925</v>
@@ -21941,19 +21941,19 @@
         <v>1.925</v>
       </c>
       <c r="W241">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB241">
         <v>0.925</v>
@@ -22145,7 +22145,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7616824</v>
+        <v>7616883</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22157,76 +22157,76 @@
         <v>45340.52083333334</v>
       </c>
       <c r="F244" t="s">
+        <v>29</v>
+      </c>
+      <c r="G244" t="s">
         <v>37</v>
       </c>
-      <c r="G244" t="s">
-        <v>33</v>
-      </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K244">
+        <v>2.5</v>
+      </c>
+      <c r="L244">
+        <v>3.5</v>
+      </c>
+      <c r="M244">
+        <v>2.7</v>
+      </c>
+      <c r="N244">
+        <v>2.45</v>
+      </c>
+      <c r="O244">
+        <v>3.4</v>
+      </c>
+      <c r="P244">
+        <v>2.9</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>1.775</v>
+      </c>
+      <c r="S244">
+        <v>2.1</v>
+      </c>
+      <c r="T244">
+        <v>2.5</v>
+      </c>
+      <c r="U244">
         <v>1.85</v>
       </c>
-      <c r="L244">
-        <v>4</v>
-      </c>
-      <c r="M244">
-        <v>3.8</v>
-      </c>
-      <c r="N244">
-        <v>1.833</v>
-      </c>
-      <c r="O244">
-        <v>4</v>
-      </c>
-      <c r="P244">
-        <v>4</v>
-      </c>
-      <c r="Q244">
-        <v>-0.5</v>
-      </c>
-      <c r="R244">
-        <v>1.825</v>
-      </c>
-      <c r="S244">
-        <v>2.025</v>
-      </c>
-      <c r="T244">
-        <v>2.75</v>
-      </c>
-      <c r="U244">
-        <v>1.975</v>
-      </c>
       <c r="V244">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W244">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z244">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB244">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22234,7 +22234,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7616883</v>
+        <v>7616824</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22246,76 +22246,76 @@
         <v>45340.52083333334</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G245" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K245">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L245">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M245">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="N245">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O245">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P245">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S245">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T245">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA245">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC245">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22436,19 +22436,19 @@
         <v>-1.25</v>
       </c>
       <c r="R247">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
         <v>3.25</v>
       </c>
       <c r="U247">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V247">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W247">
         <v>0</v>
@@ -22510,19 +22510,19 @@
         <v>0</v>
       </c>
       <c r="R248">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S248">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T248">
         <v>2.75</v>
       </c>
       <c r="U248">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V248">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22560,7 +22560,7 @@
         <v>33</v>
       </c>
       <c r="G249" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K249">
         <v>2.625</v>
@@ -22593,10 +22593,10 @@
         <v>2.5</v>
       </c>
       <c r="U249">
+        <v>1.95</v>
+      </c>
+      <c r="V249">
         <v>1.9</v>
-      </c>
-      <c r="V249">
-        <v>1.95</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22658,19 +22658,19 @@
         <v>-0.5</v>
       </c>
       <c r="R250">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T250">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U250">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>35</v>
       </c>
       <c r="G251" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K251">
         <v>2.05</v>
@@ -22723,28 +22723,28 @@
         <v>2.05</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P251">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q251">
         <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T251">
         <v>3</v>
       </c>
       <c r="U251">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W251">
         <v>0</v>

--- a/Switzerland Super League/Switzerland Super League.xlsx
+++ b/Switzerland Super League/Switzerland Super League.xlsx
@@ -124,10 +124,10 @@
     <t>Young Boys</t>
   </si>
   <si>
-    <t>Servette</t>
+    <t>FC Zurich</t>
   </si>
   <si>
-    <t>FC Zurich</t>
+    <t>Servette</t>
   </si>
   <si>
     <t>Winterthur</t>
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5172788</v>
+        <v>5172789</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,46 +1245,46 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L9">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1293,25 +1293,25 @@
         <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1319,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5172789</v>
+        <v>5172788</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1334,46 +1334,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
+        <v>3.3</v>
+      </c>
+      <c r="M10">
         <v>3.4</v>
       </c>
-      <c r="M10">
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>3.5</v>
+      </c>
+      <c r="P10">
+        <v>3.75</v>
+      </c>
+      <c r="Q10">
+        <v>-0.5</v>
+      </c>
+      <c r="R10">
+        <v>2.05</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
         <v>2.5</v>
-      </c>
-      <c r="N10">
-        <v>2.25</v>
-      </c>
-      <c r="O10">
-        <v>3.6</v>
-      </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10">
-        <v>-0.25</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>1.85</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -1382,25 +1382,25 @@
         <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1512,7 +1512,7 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1601,7 +1601,7 @@
         <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5171748</v>
+        <v>5173744</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,19 +1687,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>3.8</v>
@@ -1711,43 +1711,43 @@
         <v>1.909</v>
       </c>
       <c r="N14">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X14">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -1756,7 +1756,7 @@
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5173744</v>
+        <v>5171748</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,19 +1776,19 @@
         <v>44962.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>3.8</v>
@@ -1800,43 +1800,43 @@
         <v>1.909</v>
       </c>
       <c r="N15">
+        <v>4.333</v>
+      </c>
+      <c r="O15">
+        <v>3.8</v>
+      </c>
+      <c r="P15">
+        <v>1.8</v>
+      </c>
+      <c r="Q15">
+        <v>0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.825</v>
+      </c>
+      <c r="S15">
+        <v>2.025</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="O15">
-        <v>3.6</v>
-      </c>
-      <c r="P15">
-        <v>2.25</v>
-      </c>
-      <c r="Q15">
-        <v>0.25</v>
-      </c>
-      <c r="R15">
-        <v>1.9</v>
-      </c>
-      <c r="S15">
-        <v>1.95</v>
-      </c>
-      <c r="T15">
-        <v>2.5</v>
-      </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1845,7 +1845,7 @@
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
         <v>30</v>
@@ -2132,7 +2132,7 @@
         <v>44969.52083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>38</v>
@@ -2313,7 +2313,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2758,7 +2758,7 @@
         <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>44982.6875</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5172799</v>
+        <v>5173741</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,76 +3111,76 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M30">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N30">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
+        <v>5.25</v>
+      </c>
+      <c r="Q30">
+        <v>-0.75</v>
+      </c>
+      <c r="R30">
+        <v>1.9</v>
+      </c>
+      <c r="S30">
+        <v>1.95</v>
+      </c>
+      <c r="T30">
         <v>2.5</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>2.025</v>
-      </c>
-      <c r="S30">
-        <v>1.825</v>
-      </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3188,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5173741</v>
+        <v>5172799</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3200,76 +3200,76 @@
         <v>44983.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>42</v>
       </c>
       <c r="K31">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L31">
+        <v>3.4</v>
+      </c>
+      <c r="M31">
+        <v>2.55</v>
+      </c>
+      <c r="N31">
+        <v>2.7</v>
+      </c>
+      <c r="O31">
         <v>3.5</v>
       </c>
-      <c r="M31">
-        <v>4.5</v>
-      </c>
-      <c r="N31">
-        <v>1.7</v>
-      </c>
-      <c r="O31">
-        <v>3.6</v>
-      </c>
       <c r="P31">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
+        <v>2.75</v>
+      </c>
+      <c r="U31">
+        <v>1.925</v>
+      </c>
+      <c r="V31">
+        <v>1.925</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
         <v>2.5</v>
       </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
-      <c r="V31">
-        <v>1.85</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>2.6</v>
-      </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3645,10 +3645,10 @@
         <v>44990.52083333334</v>
       </c>
       <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
         <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3826,7 +3826,7 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3912,7 +3912,7 @@
         <v>44997.42708333334</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -4179,7 +4179,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4538,7 +4538,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4624,7 +4624,7 @@
         <v>45017.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -4983,7 +4983,7 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5069,7 +5069,7 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5161,7 +5161,7 @@
         <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5514,7 +5514,7 @@
         <v>45031.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
         <v>33</v>
@@ -5606,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5172819</v>
+        <v>5172818</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,49 +5781,49 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="L60">
         <v>3.5</v>
       </c>
       <c r="M60">
+        <v>2.2</v>
+      </c>
+      <c r="N60">
+        <v>4.2</v>
+      </c>
+      <c r="O60">
         <v>3.8</v>
       </c>
-      <c r="N60">
-        <v>1.909</v>
-      </c>
-      <c r="O60">
-        <v>3.75</v>
-      </c>
       <c r="P60">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
         <v>1.875</v>
@@ -5835,22 +5835,22 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y60">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5858,7 +5858,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5172818</v>
+        <v>5172819</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5870,49 +5870,49 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L61">
         <v>3.5</v>
       </c>
       <c r="M61">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N61">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O61">
+        <v>3.75</v>
+      </c>
+      <c r="P61">
         <v>3.8</v>
       </c>
-      <c r="P61">
-        <v>1.8</v>
-      </c>
       <c r="Q61">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U61">
         <v>1.875</v>
@@ -5924,22 +5924,22 @@
         <v>-1</v>
       </c>
       <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
         <v>2.8</v>
       </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC61">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <v>6</v>
@@ -6226,7 +6226,7 @@
         <v>45039.47916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5172824</v>
+        <v>5172826</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,76 +6493,76 @@
         <v>45042.64583333334</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="N68">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P68">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q68">
         <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5172826</v>
+        <v>5172824</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,76 +6582,76 @@
         <v>45042.64583333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M69">
+        <v>2.875</v>
+      </c>
+      <c r="N69">
+        <v>2.05</v>
+      </c>
+      <c r="O69">
         <v>3.6</v>
       </c>
-      <c r="N69">
-        <v>1.909</v>
-      </c>
-      <c r="O69">
-        <v>3.8</v>
-      </c>
       <c r="P69">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
         <v>-0.5</v>
       </c>
       <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>1.8</v>
+      </c>
+      <c r="T69">
+        <v>2.5</v>
+      </c>
+      <c r="U69">
         <v>1.9</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>1.95</v>
       </c>
-      <c r="T69">
-        <v>3</v>
-      </c>
-      <c r="U69">
-        <v>1.975</v>
-      </c>
-      <c r="V69">
-        <v>1.875</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6401769</v>
+        <v>6401770</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,40 +6671,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L70">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N70">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
         <v>1.975</v>
@@ -6713,34 +6713,34 @@
         <v>1.875</v>
       </c>
       <c r="T70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6748,7 +6748,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6401770</v>
+        <v>6401769</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6760,40 +6760,40 @@
         <v>45043.64583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M71">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N71">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q71">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
         <v>1.975</v>
@@ -6802,34 +6802,34 @@
         <v>1.875</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U71">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6580419</v>
+        <v>5360796</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,76 +6849,76 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N72">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O72">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X72">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5360796</v>
+        <v>6580419</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,76 +6938,76 @@
         <v>45045.64583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
+        <v>2.025</v>
+      </c>
+      <c r="T73">
+        <v>3.25</v>
+      </c>
+      <c r="U73">
+        <v>1.95</v>
+      </c>
+      <c r="V73">
+        <v>1.9</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>2.8</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>-0.5</v>
       </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>2.75</v>
-      </c>
-      <c r="U73">
-        <v>1.85</v>
-      </c>
-      <c r="V73">
-        <v>2</v>
-      </c>
-      <c r="W73">
-        <v>0.909</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7027,7 +7027,7 @@
         <v>45046.38541666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
         <v>31</v>
@@ -7564,7 +7564,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>45059.64583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -7920,7 +7920,7 @@
         <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5424853</v>
+        <v>5424855</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,13 +8006,13 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -8021,43 +8021,43 @@
         <v>44</v>
       </c>
       <c r="K85">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>1.65</v>
+      </c>
+      <c r="O85">
+        <v>4.333</v>
+      </c>
+      <c r="P85">
         <v>4.75</v>
       </c>
-      <c r="N85">
-        <v>1.7</v>
-      </c>
-      <c r="O85">
-        <v>4</v>
-      </c>
-      <c r="P85">
-        <v>5</v>
-      </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W85">
-        <v>0.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8066,16 +8066,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5424855</v>
+        <v>5424853</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,13 +8095,13 @@
         <v>45060.47916666666</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -8110,43 +8110,43 @@
         <v>44</v>
       </c>
       <c r="K86">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O86">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T86">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>0.6499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8155,16 +8155,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5466932</v>
+        <v>5471184</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N90">
+        <v>3.1</v>
+      </c>
+      <c r="O90">
+        <v>3.5</v>
+      </c>
+      <c r="P90">
+        <v>2.25</v>
+      </c>
+      <c r="Q90">
+        <v>0.25</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
         <v>1.95</v>
       </c>
-      <c r="O90">
-        <v>3.75</v>
-      </c>
-      <c r="P90">
-        <v>3.6</v>
-      </c>
-      <c r="Q90">
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
+        <v>2.025</v>
+      </c>
+      <c r="V90">
+        <v>1.825</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>2.5</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>0.45</v>
+      </c>
+      <c r="AA90">
         <v>-0.5</v>
       </c>
-      <c r="R90">
-        <v>2</v>
-      </c>
-      <c r="S90">
-        <v>1.85</v>
-      </c>
-      <c r="T90">
-        <v>2.75</v>
-      </c>
-      <c r="U90">
-        <v>1.95</v>
-      </c>
-      <c r="V90">
-        <v>1.9</v>
-      </c>
-      <c r="W90">
-        <v>0.95</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>1</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5471184</v>
+        <v>5466932</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,76 +8540,76 @@
         <v>45067.47916666666</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N91">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P91">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>1.85</v>
+      </c>
+      <c r="T91">
+        <v>2.75</v>
+      </c>
+      <c r="U91">
+        <v>1.95</v>
+      </c>
+      <c r="V91">
         <v>1.9</v>
       </c>
-      <c r="S91">
-        <v>1.95</v>
-      </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-      <c r="U91">
-        <v>2.025</v>
-      </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X91">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
+        <v>0.475</v>
+      </c>
+      <c r="AC91">
         <v>-0.5</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
-      <c r="AC91">
-        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5498510</v>
+        <v>5505837</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,76 +8629,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K92">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
+        <v>1.95</v>
+      </c>
+      <c r="N92">
         <v>2.55</v>
       </c>
-      <c r="N92">
-        <v>3.4</v>
-      </c>
       <c r="O92">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P92">
+        <v>2.45</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
         <v>1.85</v>
       </c>
-      <c r="Q92">
-        <v>0.5</v>
-      </c>
-      <c r="R92">
-        <v>1.975</v>
-      </c>
-      <c r="S92">
-        <v>1.875</v>
-      </c>
       <c r="T92">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X92">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5498511</v>
+        <v>5505757</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,13 +8718,13 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -8742,16 +8742,16 @@
         <v>2.15</v>
       </c>
       <c r="N93">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P93">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
         <v>1.85</v>
@@ -8760,13 +8760,13 @@
         <v>2</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8775,7 +8775,7 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.95</v>
+        <v>1.25</v>
       </c>
       <c r="Z93">
         <v>-1</v>
@@ -8784,10 +8784,10 @@
         <v>1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8795,7 +8795,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5505757</v>
+        <v>5498511</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8807,13 +8807,13 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -8831,16 +8831,16 @@
         <v>2.15</v>
       </c>
       <c r="N94">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O94">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P94">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R94">
         <v>1.85</v>
@@ -8849,13 +8849,13 @@
         <v>2</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8864,7 +8864,7 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="Z94">
         <v>-1</v>
@@ -8873,10 +8873,10 @@
         <v>1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC94">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5505837</v>
+        <v>5498510</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,76 +8896,76 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K95">
+        <v>2.6</v>
+      </c>
+      <c r="L95">
         <v>3.5</v>
       </c>
-      <c r="L95">
-        <v>3.75</v>
-      </c>
       <c r="M95">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="N95">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="O95">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P95">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U95">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>45071.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
         <v>34</v>
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5578548</v>
+        <v>5574694</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,49 +9074,49 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K97">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="L97">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="N97">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O97">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="Q97">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
         <v>1.925</v>
@@ -9125,25 +9125,25 @@
         <v>1.925</v>
       </c>
       <c r="W97">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB97">
         <v>0.925</v>
       </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5574694</v>
+        <v>5578546</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,73 +9163,73 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N98">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P98">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9240,7 +9240,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5578546</v>
+        <v>5574693</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,58 +9252,58 @@
         <v>45075.47916666666</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>44</v>
       </c>
       <c r="K99">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L99">
+        <v>4</v>
+      </c>
+      <c r="M99">
+        <v>4.333</v>
+      </c>
+      <c r="N99">
+        <v>1.444</v>
+      </c>
+      <c r="O99">
+        <v>5.25</v>
+      </c>
+      <c r="P99">
+        <v>6</v>
+      </c>
+      <c r="Q99">
+        <v>-1.25</v>
+      </c>
+      <c r="R99">
+        <v>1.875</v>
+      </c>
+      <c r="S99">
+        <v>1.975</v>
+      </c>
+      <c r="T99">
         <v>3.75</v>
       </c>
-      <c r="M99">
-        <v>4.2</v>
-      </c>
-      <c r="N99">
-        <v>1.666</v>
-      </c>
-      <c r="O99">
-        <v>4.5</v>
-      </c>
-      <c r="P99">
-        <v>4.333</v>
-      </c>
-      <c r="Q99">
-        <v>-0.75</v>
-      </c>
-      <c r="R99">
-        <v>1.825</v>
-      </c>
-      <c r="S99">
-        <v>2.025</v>
-      </c>
-      <c r="T99">
-        <v>3.25</v>
-      </c>
       <c r="U99">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>0.6659999999999999</v>
+        <v>0.444</v>
       </c>
 